--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="645" windowWidth="22995" windowHeight="13065"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="22995" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$P$892</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10928" uniqueCount="1914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10942" uniqueCount="1915">
   <si>
     <t>Latitude</t>
   </si>
@@ -5766,12 +5761,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -5925,7 +5923,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5958,26 +5956,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6010,23 +5991,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6203,31 +6167,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X897"/>
+  <dimension ref="A1:X898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A808" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A877" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A826" sqref="A826"/>
+      <selection pane="bottomLeft" activeCell="A898" sqref="A898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.875" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="11" width="7.25" customWidth="1"/>
+    <col min="12" max="12" width="4.875" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.75" customWidth="1"/>
+    <col min="15" max="15" width="8.125" customWidth="1"/>
     <col min="16" max="16" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34784,11 +34748,11 @@
         <v>179</v>
       </c>
       <c r="B558" s="3">
-        <f>(I558+J558/60+K558/3600)*IF(L558="S",-1,1)</f>
+        <f t="shared" ref="B558:B563" si="0">(I558+J558/60+K558/3600)*IF(L558="S",-1,1)</f>
         <v>-20.166666666666668</v>
       </c>
       <c r="C558" s="3">
-        <f>(M558+N558/60+O558/3600)*IF(P558="W",-1,1)</f>
+        <f t="shared" ref="C558:C563" si="1">(M558+N558/60+O558/3600)*IF(P558="W",-1,1)</f>
         <v>57.516666666666666</v>
       </c>
       <c r="D558" s="18" t="s">
@@ -34836,11 +34800,11 @@
         <v>180</v>
       </c>
       <c r="B559" s="3">
-        <f>(I559+J559/60+K559/3600)*IF(L559="S",-1,1)</f>
+        <f t="shared" si="0"/>
         <v>-19.716666666666665</v>
       </c>
       <c r="C559" s="3">
-        <f>(M559+N559/60+O559/3600)*IF(P559="W",-1,1)</f>
+        <f t="shared" si="1"/>
         <v>63.416666666666664</v>
       </c>
       <c r="D559" s="18" t="s">
@@ -34888,11 +34852,11 @@
         <v>381</v>
       </c>
       <c r="B560" s="3">
-        <f>(I560+J560/60+K560/3600)*IF(L560="S",-1,1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C560" s="3">
-        <f>(M560+N560/60+O560/3600)*IF(P560="W",-1,1)</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="D560" s="18" t="s">
@@ -34940,11 +34904,11 @@
         <v>378</v>
       </c>
       <c r="B561" s="3">
-        <f>(I561+J561/60+K561/3600)*IF(L561="S",-1,1)</f>
+        <f t="shared" si="0"/>
         <v>12.233333333333333</v>
       </c>
       <c r="C561" s="3">
-        <f>(M561+N561/60+O561/3600)*IF(P561="W",-1,1)</f>
+        <f t="shared" si="1"/>
         <v>98.083333333333329</v>
       </c>
       <c r="D561" s="18" t="s">
@@ -34992,11 +34956,11 @@
         <v>380</v>
       </c>
       <c r="B562" s="3">
-        <f>(I562+J562/60+K562/3600)*IF(L562="S",-1,1)</f>
+        <f t="shared" si="0"/>
         <v>14.15</v>
       </c>
       <c r="C562" s="3">
-        <f>(M562+N562/60+O562/3600)*IF(P562="W",-1,1)</f>
+        <f t="shared" si="1"/>
         <v>97.783333333333331</v>
       </c>
       <c r="D562" s="18" t="s">
@@ -35044,11 +35008,11 @@
         <v>13</v>
       </c>
       <c r="B563" s="3">
-        <f>(I563+J563/60+K563/3600)*IF(L563="S",-1,1)</f>
+        <f t="shared" si="0"/>
         <v>16.863611111111112</v>
       </c>
       <c r="C563" s="3">
-        <f>(M563+N563/60+O563/3600)*IF(P563="W",-1,1)</f>
+        <f t="shared" si="1"/>
         <v>-99.882499999999993</v>
       </c>
       <c r="D563" s="18" t="s">
@@ -52792,6 +52756,56 @@
         <v>14</v>
       </c>
       <c r="P897" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="898" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B898" s="3">
+        <v>34.908948000000002</v>
+      </c>
+      <c r="C898" s="3">
+        <v>128.08354800000001</v>
+      </c>
+      <c r="D898" t="s">
+        <v>14</v>
+      </c>
+      <c r="E898" s="18" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F898" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G898" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H898" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I898" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J898" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K898" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L898" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M898" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N898" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O898" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P898" s="18" t="s">
         <v>18</v>
       </c>
     </row>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="705" windowWidth="22995" windowHeight="13005"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$P$892</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -5769,11 +5774,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5796,8 +5801,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5807,6 +5819,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -5828,11 +5845,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -5862,9 +5880,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5923,7 +5944,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5956,9 +5977,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5991,6 +6029,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6170,28 +6225,28 @@
   <dimension ref="A1:X898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A877" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A719" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A898" sqref="A898"/>
+      <selection pane="bottomLeft" activeCell="D732" sqref="D732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.875" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.75" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="11" width="7.25" customWidth="1"/>
-    <col min="12" max="12" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="7.75" customWidth="1"/>
-    <col min="15" max="15" width="8.125" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
     <col min="16" max="16" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -45617,55 +45672,55 @@
         <v>19</v>
       </c>
     </row>
-    <row r="769" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A769" s="19" t="s">
+    <row r="769" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B769" s="3">
+      <c r="B769" s="26">
         <f>(I769+J769/60+K769/3600)*IF(L769="S",-1,1)</f>
         <v>32.016666666666666</v>
       </c>
-      <c r="C769" s="3">
+      <c r="C769" s="26">
         <f>(M769+N769/60+O769/3600)*IF(P769="W",-1,1)</f>
         <v>-81.11666666666666</v>
       </c>
-      <c r="D769" s="18" t="s">
+      <c r="D769" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E769" s="22" t="s">
+      <c r="E769" s="26" t="s">
         <v>1180</v>
       </c>
-      <c r="F769" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G769" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H769" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I769" s="18">
+      <c r="F769" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G769" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="H769" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I769" s="25">
         <v>32</v>
       </c>
-      <c r="J769" s="18">
+      <c r="J769" s="25">
         <v>1</v>
       </c>
-      <c r="K769" s="18">
+      <c r="K769" s="25">
         <v>0</v>
       </c>
-      <c r="L769" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M769" s="18">
+      <c r="L769" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M769" s="25">
         <v>81</v>
       </c>
-      <c r="N769" s="18">
+      <c r="N769" s="25">
         <v>7</v>
       </c>
-      <c r="O769" s="18">
+      <c r="O769" s="25">
         <v>0</v>
       </c>
-      <c r="P769" s="18" t="s">
+      <c r="P769" s="25" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -6232,7 +6232,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="600" topLeftCell="A848" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="B898" sqref="B898"/>
+      <selection pane="bottomLeft" activeCell="D874" sqref="D874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="705" windowWidth="22995" windowHeight="13005"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$L$891</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8792" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8799" uniqueCount="1909">
   <si>
     <t>Latitude</t>
   </si>
@@ -5745,12 +5740,18 @@
   </si>
   <si>
     <t>SW Lon</t>
+  </si>
+  <si>
+    <t>Skidaway Island, Georgia, USA</t>
+  </si>
+  <si>
+    <t>Skidaway Island</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -5930,7 +5931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5963,26 +5964,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6015,23 +5999,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6208,26 +6175,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T897"/>
+  <dimension ref="A1:T898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3030" ySplit="600" activePane="bottomRight"/>
+      <pane xSplit="3030" ySplit="600" topLeftCell="E858" activePane="bottomLeft"/>
       <selection pane="topRight" activeCell="M1" sqref="M1:U1048576"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A886" sqref="A886"/>
+      <selection pane="bottomRight" activeCell="J870" sqref="A1:M898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="3" customWidth="1"/>
-    <col min="9" max="12" width="8.42578125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.875" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="8.375" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -22538,7 +22505,7 @@
         <v>25.964586000000001</v>
       </c>
       <c r="C423" s="28">
-        <v>111.169696</v>
+        <v>-111.169696</v>
       </c>
       <c r="D423" t="s">
         <v>8</v>
@@ -41454,7 +41421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="897" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>1902</v>
       </c>
@@ -41489,6 +41456,47 @@
         <v>8</v>
       </c>
       <c r="L897" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B898" s="3">
+        <v>31.932970999999998</v>
+      </c>
+      <c r="C898" s="3">
+        <v>-81.043299000000005</v>
+      </c>
+      <c r="D898" t="s">
+        <v>8</v>
+      </c>
+      <c r="E898" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F898" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G898" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H898" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I898" s="33">
+        <v>32</v>
+      </c>
+      <c r="J898" s="33">
+        <v>-80.900000000000006</v>
+      </c>
+      <c r="K898" s="33">
+        <v>31.8</v>
+      </c>
+      <c r="L898" s="33">
+        <v>-81.2</v>
+      </c>
+      <c r="M898" s="33" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$L$923</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8813" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8873" uniqueCount="1990">
   <si>
     <t>Latitude</t>
   </si>
@@ -5415,9 +5415,6 @@
     <t>Port Swettenham</t>
   </si>
   <si>
-    <t>Salanga;Junk Ceylon</t>
-  </si>
-  <si>
     <t>Tavoy</t>
   </si>
   <si>
@@ -5941,6 +5938,57 @@
   </si>
   <si>
     <t>Gatavaké, French Polynesia</t>
+  </si>
+  <si>
+    <t>Tha Chin River, Thailand</t>
+  </si>
+  <si>
+    <t>Tha Chin River</t>
+  </si>
+  <si>
+    <t>Bang Pakong River, Thailand</t>
+  </si>
+  <si>
+    <t>Bang Pakong River</t>
+  </si>
+  <si>
+    <t>Tha Chalom, Thailand</t>
+  </si>
+  <si>
+    <t>Tha Chalam</t>
+  </si>
+  <si>
+    <t>Tachalom</t>
+  </si>
+  <si>
+    <t>Salanga;Junk Ceylon;Puket</t>
+  </si>
+  <si>
+    <t>Bangpakong River</t>
+  </si>
+  <si>
+    <t>Tachin River</t>
+  </si>
+  <si>
+    <t>Ko Phaluai, Thailand</t>
+  </si>
+  <si>
+    <t>Ko Phaluai</t>
+  </si>
+  <si>
+    <t>Taluei Island</t>
+  </si>
+  <si>
+    <t>Banana, Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Lobito Bay, Angola</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Lobito Bay</t>
   </si>
 </sst>
 </file>
@@ -6370,13 +6418,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T929"/>
+  <dimension ref="A1:T935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane xSplit="3030" ySplit="600" topLeftCell="A375" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3030" ySplit="600" topLeftCell="A897" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="M1" sqref="M1:U1048576"/>
-      <selection pane="bottomLeft" activeCell="A396" sqref="A1:M929"/>
-      <selection pane="bottomRight" activeCell="A397" sqref="A397"/>
+      <selection pane="bottomLeft" activeCell="A930" sqref="A930"/>
+      <selection pane="bottomRight" activeCell="A939" sqref="A939"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6415,19 +6463,19 @@
         <v>1016</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="I1" s="31" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>1899</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1900</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>1901</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -6453,7 +6501,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I2" s="32">
         <v>46</v>
@@ -7141,7 +7189,7 @@
         <v>-123.466956</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>1100</v>
@@ -7153,7 +7201,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>8</v>
@@ -7983,7 +8031,7 @@
         <v>8</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I41" s="32" t="s">
         <v>8</v>
@@ -8327,7 +8375,7 @@
         <v>738</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>8</v>
@@ -8593,7 +8641,7 @@
         <v>457</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
@@ -8745,7 +8793,7 @@
         <v>943</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>8</v>
@@ -9841,7 +9889,7 @@
         <v>601</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
@@ -9879,7 +9927,7 @@
         <v>1021</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G90" s="22" t="s">
         <v>8</v>
@@ -10269,13 +10317,13 @@
         <v>134.61666666666667</v>
       </c>
       <c r="D100" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>406</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
@@ -10853,7 +10901,7 @@
         <v>403</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>8</v>
@@ -11499,7 +11547,7 @@
         <v>372</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>8</v>
@@ -11727,7 +11775,7 @@
         <v>404</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>8</v>
@@ -11927,7 +11975,7 @@
         <v>30.733333333333334</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E143" s="24" t="s">
         <v>1038</v>
@@ -11939,7 +11987,7 @@
         <v>8</v>
       </c>
       <c r="H143" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I143" s="32" t="s">
         <v>8</v>
@@ -12011,7 +12059,7 @@
         <v>-75.953140000000005</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E145" s="19" t="s">
         <v>1039</v>
@@ -12101,7 +12149,7 @@
         <v>762</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>8</v>
@@ -12177,7 +12225,7 @@
         <v>1036</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G149" s="22" t="s">
         <v>8</v>
@@ -12543,7 +12591,7 @@
         <v>1615</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G158" s="19" t="s">
         <v>182</v>
@@ -12619,7 +12667,7 @@
         <v>1456</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G160" s="19" t="s">
         <v>182</v>
@@ -12733,7 +12781,7 @@
         <v>1622</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G163" s="18" t="s">
         <v>855</v>
@@ -14098,7 +14146,7 @@
         <v>655</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>8</v>
@@ -14314,7 +14362,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B205" s="28">
         <v>8.9478819999999999</v>
@@ -14332,7 +14380,7 @@
         <v>8</v>
       </c>
       <c r="G205" s="18" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>8</v>
@@ -14367,7 +14415,7 @@
         <v>1559</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>1030</v>
@@ -14542,7 +14590,7 @@
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B211" s="28">
         <v>27.066666666666666</v>
@@ -14560,7 +14608,7 @@
         <v>8</v>
       </c>
       <c r="G211" s="18" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H211" s="3" t="s">
         <v>8</v>
@@ -15317,7 +15365,7 @@
         <v>536</v>
       </c>
       <c r="H230" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I230" s="32" t="s">
         <v>8</v>
@@ -15355,7 +15403,7 @@
         <v>1097</v>
       </c>
       <c r="H231" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I231" s="32" t="s">
         <v>8</v>
@@ -15384,7 +15432,7 @@
         <v>8</v>
       </c>
       <c r="E232" s="24" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="F232" s="24" t="s">
         <v>8</v>
@@ -15393,7 +15441,7 @@
         <v>1097</v>
       </c>
       <c r="H232" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I232" s="32" t="s">
         <v>8</v>
@@ -15655,7 +15703,7 @@
         <v>-123.466956</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E239" s="24" t="s">
         <v>1714</v>
@@ -15667,7 +15715,7 @@
         <v>1100</v>
       </c>
       <c r="H239" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I239" s="32" t="s">
         <v>8</v>
@@ -15737,7 +15785,7 @@
         <v>1343</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G241" s="18" t="s">
         <v>975</v>
@@ -15775,7 +15823,7 @@
         <v>1344</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G242" s="18" t="s">
         <v>975</v>
@@ -16064,7 +16112,7 @@
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B250" s="28">
         <v>22.344864000000001</v>
@@ -16076,10 +16124,10 @@
         <v>392</v>
       </c>
       <c r="E250" s="18" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F250" s="18" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G250" s="19" t="s">
         <v>382</v>
@@ -16163,7 +16211,7 @@
         <v>1575</v>
       </c>
       <c r="F252" s="18" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="G252" s="19" t="s">
         <v>382</v>
@@ -16391,7 +16439,7 @@
         <v>1332</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G258" s="19" t="s">
         <v>382</v>
@@ -16863,7 +16911,7 @@
         <v>1578</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G270" s="18" t="s">
         <v>206</v>
@@ -17894,7 +17942,7 @@
         <v>233</v>
       </c>
       <c r="E297" s="22" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F297" s="3" t="s">
         <v>8</v>
@@ -18034,7 +18082,7 @@
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B301" s="28">
         <v>12.132548999999999</v>
@@ -18046,10 +18094,10 @@
         <v>8</v>
       </c>
       <c r="E301" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F301" s="3" t="s">
         <v>1887</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>1888</v>
       </c>
       <c r="G301" s="18" t="s">
         <v>466</v>
@@ -18244,7 +18292,7 @@
         <v>8</v>
       </c>
       <c r="E306" s="22" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>8</v>
@@ -18574,7 +18622,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="18" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B315" s="28">
         <v>28.208651</v>
@@ -18586,10 +18634,10 @@
         <v>8</v>
       </c>
       <c r="E315" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F315" s="3" t="s">
         <v>1893</v>
-      </c>
-      <c r="F315" s="3" t="s">
-        <v>1894</v>
       </c>
       <c r="G315" s="3" t="s">
         <v>1031</v>
@@ -18688,7 +18736,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="18" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B318" s="28">
         <v>28.165970999999999</v>
@@ -18700,7 +18748,7 @@
         <v>8</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>8</v>
@@ -18764,7 +18812,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="18" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B320" s="28">
         <v>27.740449999999999</v>
@@ -18776,7 +18824,7 @@
         <v>8</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>8</v>
@@ -18817,7 +18865,7 @@
         <v>1358</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G321" s="18" t="s">
         <v>442</v>
@@ -18852,7 +18900,7 @@
         <v>8</v>
       </c>
       <c r="E322" s="22" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>8</v>
@@ -19311,7 +19359,7 @@
         <v>1423</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G334" s="18" t="s">
         <v>549</v>
@@ -20790,7 +20838,7 @@
         <v>8</v>
       </c>
       <c r="E373" s="22" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F373" s="3" t="s">
         <v>8</v>
@@ -21660,7 +21708,7 @@
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="18" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B396" s="28">
         <v>-23.117222222222221</v>
@@ -21797,7 +21845,7 @@
         <v>1702</v>
       </c>
       <c r="F399" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G399" s="18" t="s">
         <v>1071</v>
@@ -21835,7 +21883,7 @@
         <v>1700</v>
       </c>
       <c r="F400" s="20" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G400" s="18" t="s">
         <v>1071</v>
@@ -21873,7 +21921,7 @@
         <v>1703</v>
       </c>
       <c r="F401" s="18" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G401" s="18" t="s">
         <v>1071</v>
@@ -21911,7 +21959,7 @@
         <v>1701</v>
       </c>
       <c r="F402" s="18" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G402" s="18" t="s">
         <v>1071</v>
@@ -21949,7 +21997,7 @@
         <v>1697</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G403" s="18" t="s">
         <v>1071</v>
@@ -21987,7 +22035,7 @@
         <v>1698</v>
       </c>
       <c r="F404" s="20" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G404" s="18" t="s">
         <v>1071</v>
@@ -22025,7 +22073,7 @@
         <v>1331</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G405" s="18" t="s">
         <v>1071</v>
@@ -23097,7 +23145,7 @@
         <v>1699</v>
       </c>
       <c r="F433" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G433" s="18" t="s">
         <v>981</v>
@@ -23293,7 +23341,7 @@
         <v>917</v>
       </c>
       <c r="H438" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I438" s="32" t="s">
         <v>8</v>
@@ -23409,7 +23457,7 @@
         <v>1338</v>
       </c>
       <c r="F441" s="18" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G441" s="18" t="s">
         <v>1052</v>
@@ -23432,7 +23480,7 @@
     </row>
     <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" s="19" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B442" s="28">
         <v>18.974999999999998</v>
@@ -23444,7 +23492,7 @@
         <v>276</v>
       </c>
       <c r="E442" s="19" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="F442" s="3" t="s">
         <v>8</v>
@@ -23470,7 +23518,7 @@
     </row>
     <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" s="19" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B443" s="28">
         <v>10.309486</v>
@@ -23482,7 +23530,7 @@
         <v>8</v>
       </c>
       <c r="E443" s="19" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="F443" s="3" t="s">
         <v>8</v>
@@ -23523,7 +23571,7 @@
         <v>1617</v>
       </c>
       <c r="F444" s="18" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G444" s="18" t="s">
         <v>269</v>
@@ -23789,7 +23837,7 @@
         <v>1704</v>
       </c>
       <c r="F451" s="18" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G451" s="18" t="s">
         <v>269</v>
@@ -23824,7 +23872,7 @@
         <v>8</v>
       </c>
       <c r="E452" s="22" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="F452" s="3" t="s">
         <v>8</v>
@@ -24470,7 +24518,7 @@
         <v>8</v>
       </c>
       <c r="E469" s="22" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="F469" s="22" t="s">
         <v>8</v>
@@ -24703,7 +24751,7 @@
         <v>116.316835</v>
       </c>
       <c r="D475" s="19" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E475" s="22" t="s">
         <v>1727</v>
@@ -24828,7 +24876,7 @@
         <v>8</v>
       </c>
       <c r="E478" s="22" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="F478" s="22" t="s">
         <v>8</v>
@@ -25029,7 +25077,7 @@
         <v>1562</v>
       </c>
       <c r="F483" s="18" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G483" s="18" t="s">
         <v>303</v>
@@ -25166,7 +25214,7 @@
     </row>
     <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="18" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B487" s="28">
         <v>26.998055555555556</v>
@@ -25178,7 +25226,7 @@
         <v>8</v>
       </c>
       <c r="E487" s="22" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="F487" s="3" t="s">
         <v>1449</v>
@@ -25213,7 +25261,7 @@
         <v>138.472577</v>
       </c>
       <c r="D488" s="19" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E488" s="22" t="s">
         <v>1723</v>
@@ -25335,7 +25383,7 @@
         <v>131.00009600000001</v>
       </c>
       <c r="D491" s="19" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E491" s="22" t="s">
         <v>1725</v>
@@ -25410,7 +25458,7 @@
     </row>
     <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="22" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B493" s="28">
         <v>34.652751000000002</v>
@@ -25422,7 +25470,7 @@
         <v>8</v>
       </c>
       <c r="E493" s="18" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="F493" s="3" t="s">
         <v>8</v>
@@ -25965,7 +26013,7 @@
         <v>1576</v>
       </c>
       <c r="F507" s="18" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G507" s="3" t="s">
         <v>1032</v>
@@ -26566,7 +26614,7 @@
     </row>
     <row r="523" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A523" s="18" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B523" s="28">
         <v>32.523375999999999</v>
@@ -26584,7 +26632,7 @@
         <v>8</v>
       </c>
       <c r="G523" s="18" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="H523" s="3" t="s">
         <v>8</v>
@@ -26616,7 +26664,7 @@
         <v>8</v>
       </c>
       <c r="E524" s="22" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="F524" s="22" t="s">
         <v>8</v>
@@ -26963,7 +27011,7 @@
         <v>1600</v>
       </c>
       <c r="F532" s="18" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G532" s="3" t="s">
         <v>335</v>
@@ -27807,7 +27855,7 @@
         <v>1706</v>
       </c>
       <c r="F554" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G554" s="19" t="s">
         <v>46</v>
@@ -28035,7 +28083,7 @@
         <v>1322</v>
       </c>
       <c r="F560" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G560" s="18" t="s">
         <v>363</v>
@@ -28347,7 +28395,7 @@
         <v>646</v>
       </c>
       <c r="F568" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G568" s="3" t="s">
         <v>1018</v>
@@ -29003,7 +29051,7 @@
         <v>1353</v>
       </c>
       <c r="F584" s="18" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G584" s="18" t="s">
         <v>422</v>
@@ -29497,7 +29545,7 @@
         <v>1319</v>
       </c>
       <c r="F597" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G597" s="3" t="s">
         <v>1021</v>
@@ -29801,7 +29849,7 @@
         <v>1606</v>
       </c>
       <c r="F605" s="18" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G605" s="18" t="s">
         <v>1062</v>
@@ -30444,7 +30492,7 @@
         <v>8</v>
       </c>
       <c r="E622" s="22" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F622" s="3" t="s">
         <v>8</v>
@@ -30634,7 +30682,7 @@
         <v>8</v>
       </c>
       <c r="E627" s="22" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F627" s="3" t="s">
         <v>8</v>
@@ -30964,7 +31012,7 @@
     </row>
     <row r="636" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A636" s="19" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B636" s="29">
         <v>34.608727000000002</v>
@@ -30982,7 +31030,7 @@
         <v>8</v>
       </c>
       <c r="G636" s="22" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H636" s="3" t="s">
         <v>8</v>
@@ -31104,7 +31152,7 @@
         <v>8</v>
       </c>
       <c r="G639" s="3" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H639" s="3" t="s">
         <v>8</v>
@@ -31142,7 +31190,7 @@
         <v>8</v>
       </c>
       <c r="G640" s="3" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H640" s="3" t="s">
         <v>8</v>
@@ -31314,7 +31362,7 @@
     </row>
     <row r="645" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A645" s="19" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B645" s="29">
         <v>32.704906999999999</v>
@@ -31326,7 +31374,7 @@
         <v>681</v>
       </c>
       <c r="E645" s="19" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F645" s="22" t="s">
         <v>8</v>
@@ -31565,7 +31613,7 @@
         <v>1466</v>
       </c>
       <c r="F651" s="18" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G651" s="18" t="s">
         <v>607</v>
@@ -31847,7 +31895,7 @@
         <v>1467</v>
       </c>
       <c r="F658" s="18" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G658" s="18" t="s">
         <v>607</v>
@@ -32110,7 +32158,7 @@
         <v>434</v>
       </c>
       <c r="E665" s="22" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F665" s="3" t="s">
         <v>8</v>
@@ -32265,7 +32313,7 @@
         <v>1476</v>
       </c>
       <c r="F669" s="18" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G669" s="18" t="s">
         <v>607</v>
@@ -32440,7 +32488,7 @@
     </row>
     <row r="674" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A674" s="19" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B674" s="29">
         <v>8.9576320000000003</v>
@@ -32889,7 +32937,7 @@
         <v>1461</v>
       </c>
       <c r="F685" s="18" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G685" s="19" t="s">
         <v>1029</v>
@@ -33301,7 +33349,7 @@
         <v>124.216137</v>
       </c>
       <c r="D696" s="19" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E696" s="22" t="s">
         <v>1713</v>
@@ -33537,7 +33585,7 @@
         <v>121.098778</v>
       </c>
       <c r="D702" s="19" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E702" s="22" t="s">
         <v>1731</v>
@@ -33621,7 +33669,7 @@
         <v>122.99397399999999</v>
       </c>
       <c r="D704" s="19" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E704" s="22" t="s">
         <v>1279</v>
@@ -35450,7 +35498,7 @@
         <v>8</v>
       </c>
       <c r="E751" s="22" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F751" s="3" t="s">
         <v>8</v>
@@ -35960,7 +36008,7 @@
         <v>8</v>
       </c>
       <c r="E764" s="22" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F764" s="3" t="s">
         <v>8</v>
@@ -36891,7 +36939,7 @@
         <v>1557</v>
       </c>
       <c r="F788" s="18" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G788" s="18" t="s">
         <v>312</v>
@@ -37081,7 +37129,7 @@
         <v>1324</v>
       </c>
       <c r="F793" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G793" s="18" t="s">
         <v>372</v>
@@ -37151,7 +37199,7 @@
         <v>121.437792</v>
       </c>
       <c r="D795" s="18" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E795" s="22" t="s">
         <v>1325</v>
@@ -38095,7 +38143,7 @@
         <v>1317</v>
       </c>
       <c r="F818" s="18" t="s">
-        <v>1798</v>
+        <v>1980</v>
       </c>
       <c r="G818" s="19" t="s">
         <v>355</v>
@@ -38141,7 +38189,7 @@
         <v>1558</v>
       </c>
       <c r="F819" s="18" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G819" s="19" t="s">
         <v>355</v>
@@ -38463,7 +38511,7 @@
         <v>1340</v>
       </c>
       <c r="F826" s="18" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G826" s="3" t="s">
         <v>404</v>
@@ -38791,7 +38839,7 @@
         <v>1038</v>
       </c>
       <c r="H833" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I833" s="32" t="s">
         <v>8</v>
@@ -39329,13 +39377,13 @@
         <v>1643</v>
       </c>
       <c r="F845" s="23" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G845" s="24" t="s">
         <v>1039</v>
       </c>
       <c r="H845" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I845" s="32" t="s">
         <v>8</v>
@@ -40247,7 +40295,7 @@
         <v>1039</v>
       </c>
       <c r="H865" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I865" s="32" t="s">
         <v>8</v>
@@ -40745,7 +40793,7 @@
         <v>1096</v>
       </c>
       <c r="H876" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I876" s="32" t="s">
         <v>8</v>
@@ -40777,7 +40825,7 @@
         <v>1602</v>
       </c>
       <c r="F877" s="18" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G877" s="18" t="s">
         <v>1036</v>
@@ -41235,7 +41283,7 @@
         <v>1094</v>
       </c>
       <c r="H887" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I887" s="32" t="s">
         <v>8</v>
@@ -41519,7 +41567,7 @@
         <v>1694</v>
       </c>
       <c r="F894" s="3" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G894" s="18" t="s">
         <v>1072</v>
@@ -41557,7 +41605,7 @@
         <v>1695</v>
       </c>
       <c r="F895" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G895" s="18" t="s">
         <v>1072</v>
@@ -41618,7 +41666,7 @@
     </row>
     <row r="897" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B897" s="28">
         <v>34.908948000000002</v>
@@ -41630,7 +41678,7 @@
         <v>8</v>
       </c>
       <c r="E897" s="18" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F897" s="3" t="s">
         <v>8</v>
@@ -41656,7 +41704,7 @@
     </row>
     <row r="898" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B898" s="3">
         <v>31.932970999999998</v>
@@ -41668,7 +41716,7 @@
         <v>8</v>
       </c>
       <c r="E898" s="3" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F898" s="3" t="s">
         <v>8</v>
@@ -41697,7 +41745,7 @@
     </row>
     <row r="899" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A899" s="18" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B899" s="28">
         <v>-4.7694960000000002</v>
@@ -41709,7 +41757,7 @@
         <v>8</v>
       </c>
       <c r="E899" s="18" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="F899" s="3" t="s">
         <v>8</v>
@@ -41735,7 +41783,7 @@
     </row>
     <row r="900" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B900" s="3">
         <f>-(37+46/60)</f>
@@ -41746,16 +41794,16 @@
         <v>-57.45</v>
       </c>
       <c r="D900" s="18" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E900" s="3" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F900" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G900" s="18" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="H900" s="3" t="s">
         <v>8</v>
@@ -41775,7 +41823,7 @@
     </row>
     <row r="901" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B901" s="3">
         <v>-34.591310999999997</v>
@@ -41784,10 +41832,10 @@
         <v>-58.366439</v>
       </c>
       <c r="D901" s="18" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E901" s="18" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F901" s="3" t="s">
         <v>8</v>
@@ -41813,7 +41861,7 @@
     </row>
     <row r="902" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B902" s="3">
         <v>-12.819304000000001</v>
@@ -41825,7 +41873,7 @@
         <v>8</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="F902" s="3" t="s">
         <v>8</v>
@@ -41851,7 +41899,7 @@
     </row>
     <row r="903" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B903" s="3">
         <v>24.714859000000001</v>
@@ -41863,7 +41911,7 @@
         <v>8</v>
       </c>
       <c r="E903" s="3" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F903" s="3" t="s">
         <v>8</v>
@@ -41889,7 +41937,7 @@
     </row>
     <row r="904" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B904" s="3">
         <v>24.714859000000001</v>
@@ -41901,13 +41949,13 @@
         <v>8</v>
       </c>
       <c r="E904" s="3" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F904" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H904" s="3" t="s">
         <v>8</v>
@@ -41927,7 +41975,7 @@
     </row>
     <row r="905" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B905" s="3">
         <v>25.173145999999999</v>
@@ -41939,7 +41987,7 @@
         <v>8</v>
       </c>
       <c r="E905" s="3" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F905" s="3" t="s">
         <v>8</v>
@@ -41965,7 +42013,7 @@
     </row>
     <row r="906" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B906" s="3">
         <v>22.060592</v>
@@ -41977,13 +42025,13 @@
         <v>8</v>
       </c>
       <c r="E906" s="3" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F906" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G906" s="18" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>8</v>
@@ -42003,7 +42051,7 @@
     </row>
     <row r="907" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B907" s="3">
         <v>22.425270999999999</v>
@@ -42015,7 +42063,7 @@
         <v>8</v>
       </c>
       <c r="E907" s="3" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F907" s="3" t="s">
         <v>8</v>
@@ -42041,7 +42089,7 @@
     </row>
     <row r="908" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B908" s="3">
         <v>23.568995000000001</v>
@@ -42053,7 +42101,7 @@
         <v>8</v>
       </c>
       <c r="E908" s="3" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F908" s="3" t="s">
         <v>8</v>
@@ -42079,7 +42127,7 @@
     </row>
     <row r="909" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B909" s="3">
         <v>23.568995000000001</v>
@@ -42091,13 +42139,13 @@
         <v>8</v>
       </c>
       <c r="E909" s="3" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G909" s="18" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H909" s="3" t="s">
         <v>8</v>
@@ -42117,7 +42165,7 @@
     </row>
     <row r="910" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A910" s="18" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B910" s="3">
         <v>23.649149000000001</v>
@@ -42129,13 +42177,13 @@
         <v>8</v>
       </c>
       <c r="E910" s="3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F910" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G910" s="18" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H910" s="3" t="s">
         <v>8</v>
@@ -42155,7 +42203,7 @@
     </row>
     <row r="911" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B911" s="3">
         <v>12.2611601</v>
@@ -42167,7 +42215,7 @@
         <v>8</v>
       </c>
       <c r="E911" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F911" s="3" t="s">
         <v>8</v>
@@ -42193,7 +42241,7 @@
     </row>
     <row r="912" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B912" s="3">
         <v>24.334464000000001</v>
@@ -42205,7 +42253,7 @@
         <v>8</v>
       </c>
       <c r="E912" s="3" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F912" s="3" t="s">
         <v>8</v>
@@ -42231,7 +42279,7 @@
     </row>
     <row r="913" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B913" s="3">
         <v>23.133963999999999</v>
@@ -42243,7 +42291,7 @@
         <v>8</v>
       </c>
       <c r="E913" s="3" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F913" s="3" t="s">
         <v>8</v>
@@ -42269,7 +42317,7 @@
     </row>
     <row r="914" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A914" s="18" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B914" s="3">
         <v>21.947125</v>
@@ -42281,13 +42329,13 @@
         <v>8</v>
       </c>
       <c r="E914" s="3" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F914" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G914" s="18" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>8</v>
@@ -42307,7 +42355,7 @@
     </row>
     <row r="915" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B915" s="3">
         <v>22.766970000000001</v>
@@ -42319,7 +42367,7 @@
         <v>8</v>
       </c>
       <c r="E915" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F915" s="3" t="s">
         <v>8</v>
@@ -42345,7 +42393,7 @@
     </row>
     <row r="916" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A916" s="3" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B916" s="3">
         <v>23.552251999999999</v>
@@ -42357,13 +42405,13 @@
         <v>8</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G916" s="18" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>8</v>
@@ -42383,7 +42431,7 @@
     </row>
     <row r="917" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B917" s="3">
         <v>20.701582999999999</v>
@@ -42395,10 +42443,10 @@
         <v>8</v>
       </c>
       <c r="E917" s="3" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F917" s="3" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G917" s="3" t="s">
         <v>372</v>
@@ -42421,7 +42469,7 @@
     </row>
     <row r="918" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B918" s="3">
         <v>13.450036000000001</v>
@@ -42433,7 +42481,7 @@
         <v>8</v>
       </c>
       <c r="E918" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F918" s="3" t="s">
         <v>8</v>
@@ -42459,7 +42507,7 @@
     </row>
     <row r="919" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A919" s="18" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B919" s="3">
         <v>-21.842511999999999</v>
@@ -42471,7 +42519,7 @@
         <v>8</v>
       </c>
       <c r="E919" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F919" s="3" t="s">
         <v>8</v>
@@ -42497,7 +42545,7 @@
     </row>
     <row r="920" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B920" s="3">
         <v>-22.183631999999999</v>
@@ -42509,7 +42557,7 @@
         <v>8</v>
       </c>
       <c r="E920" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F920" s="3" t="s">
         <v>8</v>
@@ -42535,7 +42583,7 @@
     </row>
     <row r="921" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B921" s="3">
         <v>-20.231871000000002</v>
@@ -42547,7 +42595,7 @@
         <v>8</v>
       </c>
       <c r="E921" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F921" s="3" t="s">
         <v>8</v>
@@ -42573,7 +42621,7 @@
     </row>
     <row r="922" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A922" s="18" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B922" s="3">
         <v>-13.343563</v>
@@ -42585,7 +42633,7 @@
         <v>8</v>
       </c>
       <c r="E922" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F922" s="3" t="s">
         <v>8</v>
@@ -42611,7 +42659,7 @@
     </row>
     <row r="923" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A923" s="19" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B923" s="3">
         <v>-17.564349</v>
@@ -42623,7 +42671,7 @@
         <v>8</v>
       </c>
       <c r="E923" s="3" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F923" s="3" t="s">
         <v>8</v>
@@ -42649,7 +42697,7 @@
     </row>
     <row r="924" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A924" s="19" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B924" s="28">
         <v>24.659576000000001</v>
@@ -42661,7 +42709,7 @@
         <v>8</v>
       </c>
       <c r="E924" s="22" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F924" s="3" t="s">
         <v>8</v>
@@ -42687,7 +42735,7 @@
     </row>
     <row r="925" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A925" s="18" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B925" s="28">
         <v>10.435408000000001</v>
@@ -42699,7 +42747,7 @@
         <v>8</v>
       </c>
       <c r="E925" s="22" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F925" s="3" t="s">
         <v>8</v>
@@ -42733,7 +42781,7 @@
     </row>
     <row r="926" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B926" s="3">
         <v>33.001286</v>
@@ -42745,7 +42793,7 @@
         <v>8</v>
       </c>
       <c r="E926" s="3" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F926" s="3" t="s">
         <v>8</v>
@@ -42771,7 +42819,7 @@
     </row>
     <row r="927" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B927" s="3">
         <v>32.467153000000003</v>
@@ -42783,7 +42831,7 @@
         <v>8</v>
       </c>
       <c r="E927" s="3" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="F927" s="3" t="s">
         <v>8</v>
@@ -42809,7 +42857,7 @@
     </row>
     <row r="928" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B928" s="3">
         <v>32.261271000000001</v>
@@ -42821,7 +42869,7 @@
         <v>8</v>
       </c>
       <c r="E928" s="3" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F928" s="3" t="s">
         <v>8</v>
@@ -42847,7 +42895,7 @@
     </row>
     <row r="929" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B929" s="3">
         <v>33.460037999999997</v>
@@ -42859,7 +42907,7 @@
         <v>8</v>
       </c>
       <c r="E929" s="3" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F929" s="3" t="s">
         <v>8</v>
@@ -42880,6 +42928,238 @@
         <v>8</v>
       </c>
       <c r="L929" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="930" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B930" s="3">
+        <v>13.530984999999999</v>
+      </c>
+      <c r="C930" s="3">
+        <v>100.266775</v>
+      </c>
+      <c r="D930" t="s">
+        <v>8</v>
+      </c>
+      <c r="E930" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F930" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G930" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H930" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I930" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J930" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K930" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L930" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="931" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B931" s="3">
+        <v>13.500923</v>
+      </c>
+      <c r="C931" s="3">
+        <v>100.980722</v>
+      </c>
+      <c r="D931" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E931" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F931" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="G931" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H931" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I931" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J931" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K931" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L931" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="932" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B932" s="3">
+        <v>13.541382</v>
+      </c>
+      <c r="C932" s="3">
+        <v>100.27443100000001</v>
+      </c>
+      <c r="D932" t="s">
+        <v>8</v>
+      </c>
+      <c r="E932" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F932" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G932" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H932" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I932" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J932" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K932" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L932" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="933" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B933" s="3">
+        <v>9.5333330000000007</v>
+      </c>
+      <c r="C933" s="3">
+        <v>99.683333000000005</v>
+      </c>
+      <c r="D933" t="s">
+        <v>8</v>
+      </c>
+      <c r="E933" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F933" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G933" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H933" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I933" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J933" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K933" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L933" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="934" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A934" s="20" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B934" s="3">
+        <f>-(6+1/60)</f>
+        <v>-6.0166666666666666</v>
+      </c>
+      <c r="C934" s="3">
+        <f>12+24/60+15/3600</f>
+        <v>12.404166666666667</v>
+      </c>
+      <c r="D934" t="s">
+        <v>8</v>
+      </c>
+      <c r="E934" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F934" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G934" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H934" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I934" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J934" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K934" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L934" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="935" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A935" s="20" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B935" s="3">
+        <f>-(12+20/60)</f>
+        <v>-12.333333333333334</v>
+      </c>
+      <c r="C935" s="3">
+        <f>13+34/60</f>
+        <v>13.566666666666666</v>
+      </c>
+      <c r="D935" t="s">
+        <v>8</v>
+      </c>
+      <c r="E935" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F935" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G935" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H935" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I935" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J935" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K935" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L935" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="825" windowWidth="22995" windowHeight="12885"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$L$923</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8696" uniqueCount="2101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8788" uniqueCount="2122">
   <si>
     <t>Latitude</t>
   </si>
@@ -4700,9 +4695,6 @@
     <t>Songkhla</t>
   </si>
   <si>
-    <t>Sundarbans</t>
-  </si>
-  <si>
     <t>Suez Canal</t>
   </si>
   <si>
@@ -6327,12 +6319,78 @@
   </si>
   <si>
     <t>Prak Nam Pran</t>
+  </si>
+  <si>
+    <t>Sundarbans (Bangladesh)</t>
+  </si>
+  <si>
+    <t>Sundarbans (India)</t>
+  </si>
+  <si>
+    <t>Sundarbans, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Sikao Creek Estuary</t>
+  </si>
+  <si>
+    <t>Sikao Creek Estuary, Trang, Thailand</t>
+  </si>
+  <si>
+    <t>Ranong Mangrove Forest, Ranong, Thailand</t>
+  </si>
+  <si>
+    <t>Ranong, Thailand</t>
+  </si>
+  <si>
+    <t>Ranong</t>
+  </si>
+  <si>
+    <t>Ranong Mangrove Forest</t>
+  </si>
+  <si>
+    <t>Kurose River</t>
+  </si>
+  <si>
+    <t>Hiroshima Prefecture, Japan</t>
+  </si>
+  <si>
+    <t>Hiroshima Prefecture</t>
+  </si>
+  <si>
+    <t>Kurose River, Hiroshima Prefecture, Japan</t>
+  </si>
+  <si>
+    <t>Pataguanset Estuary, Connecticut, USA</t>
+  </si>
+  <si>
+    <t>Pataguanset Estuary</t>
+  </si>
+  <si>
+    <t>San Clemente Tidal Creek, Bahía Samborombón, Argentina</t>
+  </si>
+  <si>
+    <t>Bahía Samborombón, Argentina</t>
+  </si>
+  <si>
+    <t>Bahía Samborombón</t>
+  </si>
+  <si>
+    <t>San Clemente Tidal Creek</t>
+  </si>
+  <si>
+    <t>coords from paper</t>
+  </si>
+  <si>
+    <t>Pangani, Tanzania</t>
+  </si>
+  <si>
+    <t>Pangani</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -6507,7 +6565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6540,26 +6598,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6592,23 +6633,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6785,27 +6809,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T989"/>
+  <dimension ref="A1:T999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3030" ySplit="600" topLeftCell="A950" activePane="bottomRight"/>
+      <pane xSplit="3030" ySplit="600" topLeftCell="A979" activePane="bottomRight"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A982" sqref="A982:XFD982"/>
-      <selection pane="bottomRight" activeCell="A984" sqref="A984"/>
+      <selection pane="bottomLeft" activeCell="A831" sqref="A831:XFD831"/>
+      <selection pane="bottomRight" activeCell="G1000" sqref="G1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="3" customWidth="1"/>
-    <col min="9" max="12" width="8.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.875" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="8.375" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -6825,25 +6849,25 @@
         <v>1106</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="I1" s="26" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>1897</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>1898</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>1899</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6869,7 +6893,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I2" s="27">
         <v>46</v>
@@ -7084,7 +7108,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B8" s="23">
         <v>-34.591310999999997</v>
@@ -7093,10 +7117,10 @@
         <v>-58.366439</v>
       </c>
       <c r="D8" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>8</v>
@@ -7442,7 +7466,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B17" s="23">
         <v>-16.494444444444447</v>
@@ -7611,7 +7635,7 @@
         <v>-123.466956</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>1100</v>
@@ -7623,7 +7647,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I21" s="27">
         <v>60</v>
@@ -8501,7 +8525,7 @@
         <v>8</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I42" s="27" t="s">
         <v>8</v>
@@ -8602,7 +8626,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B45" s="23">
         <v>36.022658999999997</v>
@@ -8614,7 +8638,7 @@
         <v>825</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -8861,7 +8885,7 @@
         <v>738</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>8</v>
@@ -9127,7 +9151,7 @@
         <v>457</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -9279,7 +9303,7 @@
         <v>943</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -10193,7 +10217,7 @@
         <v>166</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>8</v>
@@ -10224,7 +10248,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B86" s="23">
         <v>-12.819304000000001</v>
@@ -10236,7 +10260,7 @@
         <v>8</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>8</v>
@@ -10445,7 +10469,7 @@
         <v>601</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -10483,7 +10507,7 @@
         <v>1021</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>8</v>
@@ -10881,13 +10905,13 @@
         <v>134.61666666666667</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>406</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
@@ -11473,7 +11497,7 @@
         <v>403</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>8</v>
@@ -11838,7 +11862,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B127" s="23">
         <v>34.908948000000002</v>
@@ -11850,7 +11874,7 @@
         <v>8</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>8</v>
@@ -12005,7 +12029,7 @@
         <v>265</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>8</v>
@@ -12157,7 +12181,7 @@
         <v>372</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>8</v>
@@ -12195,7 +12219,7 @@
         <v>151</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>8</v>
@@ -12233,7 +12257,7 @@
         <v>355</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>8</v>
@@ -12385,7 +12409,7 @@
         <v>404</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>8</v>
@@ -12609,7 +12633,7 @@
         <v>30.733333333333334</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E146" s="19" t="s">
         <v>1038</v>
@@ -12621,7 +12645,7 @@
         <v>8</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I146" s="27" t="s">
         <v>8</v>
@@ -12701,7 +12725,7 @@
         <v>-75.953140000000005</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E148" s="14" t="s">
         <v>1039</v>
@@ -12799,7 +12823,7 @@
         <v>762</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>8</v>
@@ -12883,7 +12907,7 @@
         <v>1036</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G152" s="17" t="s">
         <v>8</v>
@@ -13246,10 +13270,10 @@
         <v>858</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G161" s="14" t="s">
         <v>182</v>
@@ -13284,7 +13308,7 @@
         <v>8</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>8</v>
@@ -13310,7 +13334,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B163" s="23">
         <f>-(12+20/60)</f>
@@ -13324,7 +13348,7 @@
         <v>8</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>8</v>
@@ -13365,7 +13389,7 @@
         <v>1455</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G164" s="14" t="s">
         <v>182</v>
@@ -13464,7 +13488,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B167" s="23">
         <f>-(37+46/60)</f>
@@ -13475,16 +13499,16 @@
         <v>-57.45</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>8</v>
@@ -13516,10 +13540,10 @@
         <v>872</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G168" s="13" t="s">
         <v>855</v>
@@ -13770,7 +13794,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B175" s="23">
         <v>8.4941040000000001</v>
@@ -13782,7 +13806,7 @@
         <v>790</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>8</v>
@@ -14120,7 +14144,7 @@
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B184" s="23">
         <v>-15.75</v>
@@ -14132,7 +14156,7 @@
         <v>8</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>8</v>
@@ -14170,7 +14194,7 @@
         <v>8</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>8</v>
@@ -14398,7 +14422,7 @@
         <v>8</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>8</v>
@@ -14968,7 +14992,7 @@
         <v>655</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>8</v>
@@ -15158,7 +15182,7 @@
         <v>8</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>8</v>
@@ -15184,7 +15208,7 @@
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B212" s="23">
         <v>8.9478819999999999</v>
@@ -15202,7 +15226,7 @@
         <v>8</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>8</v>
@@ -15234,10 +15258,10 @@
         <v>754</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>1558</v>
+        <v>2100</v>
       </c>
       <c r="F213" s="13" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>1030</v>
@@ -15828,7 +15852,7 @@
         <v>8</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F228" s="17" t="s">
         <v>8</v>
@@ -15966,7 +15990,7 @@
         <v>8</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F231" s="17" t="s">
         <v>8</v>
@@ -16058,7 +16082,7 @@
         <v>8</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F233" s="17" t="s">
         <v>8</v>
@@ -16142,7 +16166,7 @@
         <v>8</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>8</v>
@@ -16188,7 +16212,7 @@
         <v>8</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F236" s="19" t="s">
         <v>8</v>
@@ -16197,7 +16221,7 @@
         <v>536</v>
       </c>
       <c r="H236" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I236" s="27">
         <v>8.65</v>
@@ -16234,7 +16258,7 @@
         <v>8</v>
       </c>
       <c r="E237" s="19" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F237" s="19" t="s">
         <v>8</v>
@@ -16243,7 +16267,7 @@
         <v>1097</v>
       </c>
       <c r="H237" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I237" s="27" t="s">
         <v>8</v>
@@ -16280,7 +16304,7 @@
         <v>8</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="F238" s="19" t="s">
         <v>8</v>
@@ -16289,7 +16313,7 @@
         <v>1097</v>
       </c>
       <c r="H238" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I238" s="27" t="s">
         <v>8</v>
@@ -16326,7 +16350,7 @@
         <v>8</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>8</v>
@@ -16410,7 +16434,7 @@
         <v>8</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="F241" s="17" t="s">
         <v>8</v>
@@ -16532,7 +16556,7 @@
         <v>8</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>8</v>
@@ -16567,10 +16591,10 @@
         <v>-123.466956</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F245" s="19" t="s">
         <v>8</v>
@@ -16579,7 +16603,7 @@
         <v>1100</v>
       </c>
       <c r="H245" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I245" s="27">
         <v>60</v>
@@ -16616,7 +16640,7 @@
         <v>914</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>8</v>
@@ -16657,7 +16681,7 @@
         <v>1343</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G247" s="13" t="s">
         <v>975</v>
@@ -16695,7 +16719,7 @@
         <v>1344</v>
       </c>
       <c r="F248" s="13" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G248" s="13" t="s">
         <v>975</v>
@@ -16768,7 +16792,7 @@
         <v>8</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>8</v>
@@ -16806,7 +16830,7 @@
         <v>8</v>
       </c>
       <c r="E251" s="17" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>8</v>
@@ -16966,7 +16990,7 @@
         <v>952</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>8</v>
@@ -16992,7 +17016,7 @@
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B256" s="23">
         <v>22.344864000000001</v>
@@ -17004,10 +17028,10 @@
         <v>392</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="F256" s="13" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G256" s="14" t="s">
         <v>382</v>
@@ -17042,7 +17066,7 @@
         <v>8</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F257" s="17" t="s">
         <v>8</v>
@@ -17088,10 +17112,10 @@
         <v>953</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F258" s="13" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G258" s="14" t="s">
         <v>382</v>
@@ -17126,7 +17150,7 @@
         <v>8</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>8</v>
@@ -17327,7 +17351,7 @@
         <v>1332</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G264" s="14" t="s">
         <v>382</v>
@@ -17362,7 +17386,7 @@
         <v>8</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="F265" s="17" t="s">
         <v>8</v>
@@ -17408,7 +17432,7 @@
         <v>212</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>8</v>
@@ -17530,7 +17554,7 @@
         <v>225</v>
       </c>
       <c r="E269" s="17" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>8</v>
@@ -17609,7 +17633,7 @@
         <v>1228</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G271" s="13" t="s">
         <v>206</v>
@@ -17720,7 +17744,7 @@
         <v>8</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F274" s="17" t="s">
         <v>8</v>
@@ -17766,7 +17790,7 @@
         <v>8</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>8</v>
@@ -17804,10 +17828,10 @@
         <v>798</v>
       </c>
       <c r="E276" s="17" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="G276" s="13" t="s">
         <v>206</v>
@@ -18149,7 +18173,7 @@
         <v>1238</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>1019</v>
@@ -18260,7 +18284,7 @@
         <v>434</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="F288" s="3" t="s">
         <v>8</v>
@@ -18496,7 +18520,7 @@
         <v>8</v>
       </c>
       <c r="E294" s="17" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F294" s="17" t="s">
         <v>8</v>
@@ -18808,7 +18832,7 @@
         <v>225</v>
       </c>
       <c r="E302" s="17" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>8</v>
@@ -18846,7 +18870,7 @@
         <v>233</v>
       </c>
       <c r="E303" s="17" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>8</v>
@@ -18994,7 +19018,7 @@
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B307" s="23">
         <v>12.132548999999999</v>
@@ -19006,10 +19030,10 @@
         <v>8</v>
       </c>
       <c r="E307" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F307" s="3" t="s">
         <v>1885</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>1886</v>
       </c>
       <c r="G307" s="13" t="s">
         <v>466</v>
@@ -19044,7 +19068,7 @@
         <v>8</v>
       </c>
       <c r="E308" s="17" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="F308" s="3" t="s">
         <v>8</v>
@@ -19082,7 +19106,7 @@
         <v>8</v>
       </c>
       <c r="E309" s="17" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F309" s="17" t="s">
         <v>8</v>
@@ -19116,7 +19140,7 @@
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="15" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B310" s="23">
         <f>-(6+1/60)</f>
@@ -19130,7 +19154,7 @@
         <v>8</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>8</v>
@@ -19168,7 +19192,7 @@
         <v>8</v>
       </c>
       <c r="E311" s="17" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>8</v>
@@ -19244,7 +19268,7 @@
         <v>8</v>
       </c>
       <c r="E313" s="17" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>8</v>
@@ -19282,7 +19306,7 @@
         <v>8</v>
       </c>
       <c r="E314" s="17" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>8</v>
@@ -19472,7 +19496,7 @@
         <v>8</v>
       </c>
       <c r="E319" s="17" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>8</v>
@@ -19574,7 +19598,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B322" s="23">
         <v>28.208651</v>
@@ -19586,10 +19610,10 @@
         <v>8</v>
       </c>
       <c r="E322" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F322" s="3" t="s">
         <v>1891</v>
-      </c>
-      <c r="F322" s="3" t="s">
-        <v>1892</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>1031</v>
@@ -19624,7 +19648,7 @@
         <v>8</v>
       </c>
       <c r="E323" s="17" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F323" s="13" t="s">
         <v>8</v>
@@ -19662,7 +19686,7 @@
         <v>8</v>
       </c>
       <c r="E324" s="17" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>8</v>
@@ -19688,7 +19712,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B325" s="23">
         <v>28.165970999999999</v>
@@ -19700,7 +19724,7 @@
         <v>8</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>8</v>
@@ -19738,7 +19762,7 @@
         <v>8</v>
       </c>
       <c r="E326" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="F326" s="3" t="s">
         <v>8</v>
@@ -19764,7 +19788,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B327" s="23">
         <v>27.740449999999999</v>
@@ -19776,7 +19800,7 @@
         <v>8</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>8</v>
@@ -19817,7 +19841,7 @@
         <v>1358</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G328" s="13" t="s">
         <v>442</v>
@@ -19852,7 +19876,7 @@
         <v>8</v>
       </c>
       <c r="E329" s="17" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>8</v>
@@ -20042,7 +20066,7 @@
         <v>8</v>
       </c>
       <c r="E334" s="17" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F334" s="3" t="s">
         <v>8</v>
@@ -20118,7 +20142,7 @@
         <v>47</v>
       </c>
       <c r="E336" s="17" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="F336" s="3" t="s">
         <v>8</v>
@@ -20156,7 +20180,7 @@
         <v>8</v>
       </c>
       <c r="E337" s="17" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F337" s="3" t="s">
         <v>8</v>
@@ -20194,7 +20218,7 @@
         <v>8</v>
       </c>
       <c r="E338" s="17" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="F338" s="13" t="s">
         <v>8</v>
@@ -20311,7 +20335,7 @@
         <v>1422</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G341" s="13" t="s">
         <v>549</v>
@@ -20346,7 +20370,7 @@
         <v>8</v>
       </c>
       <c r="E342" s="17" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F342" s="3" t="s">
         <v>8</v>
@@ -20384,7 +20408,7 @@
         <v>8</v>
       </c>
       <c r="E343" s="17" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>8</v>
@@ -20422,7 +20446,7 @@
         <v>8</v>
       </c>
       <c r="E344" s="17" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="F344" s="3" t="s">
         <v>8</v>
@@ -20574,7 +20598,7 @@
         <v>8</v>
       </c>
       <c r="E348" s="17" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="F348" s="3" t="s">
         <v>8</v>
@@ -20638,7 +20662,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B350" s="23">
         <v>24.659576000000001</v>
@@ -20650,7 +20674,7 @@
         <v>8</v>
       </c>
       <c r="E350" s="17" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="F350" s="3" t="s">
         <v>8</v>
@@ -20802,7 +20826,7 @@
         <v>8</v>
       </c>
       <c r="E354" s="17" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F354" s="3" t="s">
         <v>8</v>
@@ -21296,7 +21320,7 @@
         <v>212</v>
       </c>
       <c r="E367" s="17" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F367" s="3" t="s">
         <v>8</v>
@@ -21562,7 +21586,7 @@
         <v>8</v>
       </c>
       <c r="E374" s="17" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F374" s="3" t="s">
         <v>8</v>
@@ -21828,7 +21852,7 @@
         <v>8</v>
       </c>
       <c r="E381" s="17" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F381" s="3" t="s">
         <v>8</v>
@@ -22056,7 +22080,7 @@
         <v>938</v>
       </c>
       <c r="E387" s="17" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="F387" s="3" t="s">
         <v>8</v>
@@ -22490,7 +22514,7 @@
         <v>8</v>
       </c>
       <c r="E398" s="17" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F398" s="17" t="s">
         <v>8</v>
@@ -22714,7 +22738,7 @@
     </row>
     <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B404" s="23">
         <v>-23.117222222222221</v>
@@ -22726,7 +22750,7 @@
         <v>8</v>
       </c>
       <c r="E404" s="17" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="F404" s="3" t="s">
         <v>8</v>
@@ -22764,7 +22788,7 @@
         <v>8</v>
       </c>
       <c r="E405" s="17" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F405" s="17" t="s">
         <v>8</v>
@@ -22810,7 +22834,7 @@
         <v>8</v>
       </c>
       <c r="E406" s="17" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="F406" s="3" t="s">
         <v>8</v>
@@ -22848,10 +22872,10 @@
         <v>998</v>
       </c>
       <c r="E407" s="17" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F407" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G407" s="13" t="s">
         <v>1071</v>
@@ -22886,10 +22910,10 @@
         <v>994</v>
       </c>
       <c r="E408" s="17" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="F408" s="15" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G408" s="13" t="s">
         <v>1071</v>
@@ -22924,10 +22948,10 @@
         <v>1000</v>
       </c>
       <c r="E409" s="17" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="F409" s="13" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G409" s="13" t="s">
         <v>1071</v>
@@ -22962,10 +22986,10 @@
         <v>996</v>
       </c>
       <c r="E410" s="17" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="F410" s="13" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G410" s="13" t="s">
         <v>1071</v>
@@ -23000,10 +23024,10 @@
         <v>988</v>
       </c>
       <c r="E411" s="17" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G411" s="13" t="s">
         <v>1071</v>
@@ -23038,10 +23062,10 @@
         <v>990</v>
       </c>
       <c r="E412" s="17" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F412" s="15" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G412" s="13" t="s">
         <v>1071</v>
@@ -23079,7 +23103,7 @@
         <v>1331</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G413" s="13" t="s">
         <v>1071</v>
@@ -23155,7 +23179,7 @@
         <v>1119</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G415" s="13" t="s">
         <v>20</v>
@@ -23231,7 +23255,7 @@
         <v>1126</v>
       </c>
       <c r="F417" s="13" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G417" s="13" t="s">
         <v>20</v>
@@ -23269,7 +23293,7 @@
         <v>1124</v>
       </c>
       <c r="F418" s="13" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G418" s="13" t="s">
         <v>20</v>
@@ -23307,7 +23331,7 @@
         <v>1125</v>
       </c>
       <c r="F419" s="13" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G419" s="13" t="s">
         <v>20</v>
@@ -23345,7 +23369,7 @@
         <v>1118</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G420" s="13" t="s">
         <v>20</v>
@@ -23383,7 +23407,7 @@
         <v>1123</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G421" s="13" t="s">
         <v>20</v>
@@ -23421,7 +23445,7 @@
         <v>1120</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="G422" s="13" t="s">
         <v>20</v>
@@ -23528,7 +23552,7 @@
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B425" s="23">
         <v>31.932970999999998</v>
@@ -23540,7 +23564,7 @@
         <v>8</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="F425" s="3" t="s">
         <v>8</v>
@@ -23617,7 +23641,7 @@
         <v>8</v>
       </c>
       <c r="E427" s="17" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F427" s="3" t="s">
         <v>8</v>
@@ -23643,7 +23667,7 @@
     </row>
     <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" s="13" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B428" s="23">
         <f>-(14+39/60)</f>
@@ -23657,13 +23681,13 @@
         <v>8</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F428" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G428" s="13" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H428" s="3" t="s">
         <v>8</v>
@@ -23683,7 +23707,7 @@
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" s="13" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B429" s="23">
         <v>13.450036000000001</v>
@@ -23695,7 +23719,7 @@
         <v>8</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F429" s="3" t="s">
         <v>8</v>
@@ -23847,7 +23871,7 @@
         <v>8</v>
       </c>
       <c r="E433" s="17" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="F433" s="3" t="s">
         <v>8</v>
@@ -23923,7 +23947,7 @@
         <v>8</v>
       </c>
       <c r="E435" s="17" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="F435" s="17" t="s">
         <v>8</v>
@@ -23969,7 +23993,7 @@
         <v>8</v>
       </c>
       <c r="E436" s="17" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F436" s="3" t="s">
         <v>8</v>
@@ -24079,7 +24103,7 @@
     </row>
     <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" s="14" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B439" s="23">
         <v>25.956996</v>
@@ -24091,7 +24115,7 @@
         <v>718</v>
       </c>
       <c r="E439" s="14" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F439" s="3" t="s">
         <v>8</v>
@@ -24175,7 +24199,7 @@
         <v>8</v>
       </c>
       <c r="E441" s="17" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F441" s="13" t="s">
         <v>8</v>
@@ -24289,10 +24313,10 @@
         <v>991</v>
       </c>
       <c r="E444" s="17" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F444" s="15" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G444" s="13" t="s">
         <v>981</v>
@@ -24488,7 +24512,7 @@
         <v>917</v>
       </c>
       <c r="H449" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I449" s="27" t="s">
         <v>8</v>
@@ -24525,7 +24549,7 @@
         <v>8</v>
       </c>
       <c r="E450" s="17" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F450" s="17" t="s">
         <v>8</v>
@@ -24571,7 +24595,7 @@
         <v>8</v>
       </c>
       <c r="E451" s="17" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F451" s="3" t="s">
         <v>8</v>
@@ -24612,7 +24636,7 @@
         <v>1338</v>
       </c>
       <c r="F452" s="13" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G452" s="13" t="s">
         <v>1052</v>
@@ -24635,7 +24659,7 @@
     </row>
     <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B453" s="23">
         <v>18.974999999999998</v>
@@ -24647,7 +24671,7 @@
         <v>276</v>
       </c>
       <c r="E453" s="14" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F453" s="3" t="s">
         <v>8</v>
@@ -24673,7 +24697,7 @@
     </row>
     <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B454" s="23">
         <v>10.309486</v>
@@ -24685,7 +24709,7 @@
         <v>8</v>
       </c>
       <c r="E454" s="14" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="F454" s="3" t="s">
         <v>8</v>
@@ -24723,10 +24747,10 @@
         <v>862</v>
       </c>
       <c r="E455" s="17" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="F455" s="13" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G455" s="13" t="s">
         <v>269</v>
@@ -24764,7 +24788,7 @@
         <v>1258</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G456" s="13" t="s">
         <v>269</v>
@@ -24837,7 +24861,7 @@
         <v>8</v>
       </c>
       <c r="E458" s="17" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F458" s="3" t="s">
         <v>8</v>
@@ -24989,10 +25013,10 @@
         <v>1005</v>
       </c>
       <c r="E462" s="17" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F462" s="13" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G462" s="13" t="s">
         <v>269</v>
@@ -25027,7 +25051,7 @@
         <v>8</v>
       </c>
       <c r="E463" s="17" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="F463" s="3" t="s">
         <v>8</v>
@@ -25103,7 +25127,7 @@
         <v>8</v>
       </c>
       <c r="E465" s="17" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F465" s="3" t="s">
         <v>8</v>
@@ -25144,7 +25168,7 @@
         <v>1256</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G466" s="13" t="s">
         <v>269</v>
@@ -25179,7 +25203,7 @@
         <v>8</v>
       </c>
       <c r="E467" s="17" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F467" s="3" t="s">
         <v>8</v>
@@ -25220,7 +25244,7 @@
         <v>1260</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G468" s="13" t="s">
         <v>269</v>
@@ -25258,7 +25282,7 @@
         <v>1261</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G469" s="13" t="s">
         <v>269</v>
@@ -25380,7 +25404,7 @@
         <v>1266</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G472" s="13" t="s">
         <v>269</v>
@@ -25563,7 +25587,7 @@
     </row>
     <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477" s="13" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B477" s="23">
         <v>15.802483000000001</v>
@@ -25575,7 +25599,7 @@
         <v>8</v>
       </c>
       <c r="E477" s="13" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="F477" s="3" t="s">
         <v>8</v>
@@ -25613,7 +25637,7 @@
         <v>8</v>
       </c>
       <c r="E478" s="17" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F478" s="3" t="s">
         <v>8</v>
@@ -25659,7 +25683,7 @@
         <v>8</v>
       </c>
       <c r="E479" s="17" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="F479" s="3" t="s">
         <v>8</v>
@@ -25697,7 +25721,7 @@
         <v>8</v>
       </c>
       <c r="E480" s="17" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F480" s="17" t="s">
         <v>8</v>
@@ -25743,7 +25767,7 @@
         <v>8</v>
       </c>
       <c r="E481" s="17" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F481" s="3" t="s">
         <v>8</v>
@@ -25895,7 +25919,7 @@
         <v>8</v>
       </c>
       <c r="E485" s="17" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F485" s="3" t="s">
         <v>8</v>
@@ -25930,10 +25954,10 @@
         <v>116.316835</v>
       </c>
       <c r="D486" s="14" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E486" s="17" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F486" s="17" t="s">
         <v>8</v>
@@ -26017,7 +26041,7 @@
         <v>8</v>
       </c>
       <c r="E488" s="17" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F488" s="3" t="s">
         <v>8</v>
@@ -26063,7 +26087,7 @@
         <v>8</v>
       </c>
       <c r="E489" s="17" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="F489" s="17" t="s">
         <v>8</v>
@@ -26109,7 +26133,7 @@
         <v>8</v>
       </c>
       <c r="E490" s="17" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="F490" s="3" t="s">
         <v>8</v>
@@ -26150,7 +26174,7 @@
         <v>1274</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G491" s="3" t="s">
         <v>303</v>
@@ -26269,10 +26293,10 @@
         <v>759</v>
       </c>
       <c r="E494" s="17" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F494" s="13" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G494" s="13" t="s">
         <v>303</v>
@@ -26417,7 +26441,7 @@
     </row>
     <row r="498" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A498" s="13" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B498" s="23">
         <v>32.467153000000003</v>
@@ -26429,7 +26453,7 @@
         <v>8</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F498" s="3" t="s">
         <v>8</v>
@@ -26455,7 +26479,7 @@
     </row>
     <row r="499" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A499" s="13" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B499" s="23">
         <v>33.001286</v>
@@ -26467,7 +26491,7 @@
         <v>8</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F499" s="3" t="s">
         <v>8</v>
@@ -26502,10 +26526,10 @@
         <v>138.472577</v>
       </c>
       <c r="D500" s="14" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E500" s="17" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F500" s="17" t="s">
         <v>8</v>
@@ -26539,7 +26563,7 @@
     </row>
     <row r="501" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B501" s="23">
         <v>24.334464000000001</v>
@@ -26551,7 +26575,7 @@
         <v>8</v>
       </c>
       <c r="E501" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F501" s="3" t="s">
         <v>8</v>
@@ -26589,7 +26613,7 @@
         <v>8</v>
       </c>
       <c r="E502" s="17" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="F502" s="3" t="s">
         <v>8</v>
@@ -26627,7 +26651,7 @@
         <v>8</v>
       </c>
       <c r="E503" s="17" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F503" s="3" t="s">
         <v>8</v>
@@ -26662,10 +26686,10 @@
         <v>131.00009600000001</v>
       </c>
       <c r="D504" s="14" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E504" s="17" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F504" s="17" t="s">
         <v>8</v>
@@ -26711,7 +26735,7 @@
         <v>8</v>
       </c>
       <c r="E505" s="17" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="F505" s="3" t="s">
         <v>8</v>
@@ -26737,7 +26761,7 @@
     </row>
     <row r="506" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A506" s="13" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B506" s="23">
         <v>32.261271000000001</v>
@@ -26749,7 +26773,7 @@
         <v>8</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="F506" s="3" t="s">
         <v>8</v>
@@ -26775,7 +26799,7 @@
     </row>
     <row r="507" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A507" s="12" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B507" s="23">
         <v>26.998055555555556</v>
@@ -26787,7 +26811,7 @@
         <v>8</v>
       </c>
       <c r="E507" s="17" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F507" s="3" t="s">
         <v>1448</v>
@@ -26813,7 +26837,7 @@
     </row>
     <row r="508" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B508" s="23">
         <v>34.652751000000002</v>
@@ -26825,7 +26849,7 @@
         <v>8</v>
       </c>
       <c r="E508" s="13" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="F508" s="3" t="s">
         <v>8</v>
@@ -26901,7 +26925,7 @@
         <v>8</v>
       </c>
       <c r="E510" s="17" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F510" s="17" t="s">
         <v>8</v>
@@ -26973,7 +26997,7 @@
     </row>
     <row r="512" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B512" s="23">
         <v>33.460037999999997</v>
@@ -26985,7 +27009,7 @@
         <v>8</v>
       </c>
       <c r="E512" s="3" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F512" s="3" t="s">
         <v>8</v>
@@ -27064,7 +27088,7 @@
         <v>1286</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G514" s="14" t="s">
         <v>307</v>
@@ -27327,7 +27351,7 @@
         <v>8</v>
       </c>
       <c r="E521" s="17" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F521" s="3" t="s">
         <v>8</v>
@@ -27365,7 +27389,7 @@
         <v>8</v>
       </c>
       <c r="E522" s="17" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="F522" s="3" t="s">
         <v>8</v>
@@ -27403,10 +27427,10 @@
         <v>785</v>
       </c>
       <c r="E523" s="17" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F523" s="13" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G523" s="3" t="s">
         <v>1032</v>
@@ -27441,7 +27465,7 @@
         <v>8</v>
       </c>
       <c r="E524" s="17" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F524" s="13" t="s">
         <v>8</v>
@@ -27525,7 +27549,7 @@
         <v>8</v>
       </c>
       <c r="E526" s="17" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F526" s="17" t="s">
         <v>8</v>
@@ -27571,7 +27595,7 @@
         <v>8</v>
       </c>
       <c r="E527" s="17" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="F527" s="3" t="s">
         <v>8</v>
@@ -27617,7 +27641,7 @@
         <v>212</v>
       </c>
       <c r="E528" s="17" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F528" s="3" t="s">
         <v>8</v>
@@ -27907,7 +27931,7 @@
         <v>8</v>
       </c>
       <c r="E535" s="17" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F535" s="3" t="s">
         <v>8</v>
@@ -27986,7 +28010,7 @@
         <v>1254</v>
       </c>
       <c r="F537" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G537" s="13" t="s">
         <v>260</v>
@@ -28021,7 +28045,7 @@
         <v>1007</v>
       </c>
       <c r="E538" s="17" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F538" s="3" t="s">
         <v>8</v>
@@ -28047,7 +28071,7 @@
     </row>
     <row r="539" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A539" s="13" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B539" s="23">
         <v>32.523375999999999</v>
@@ -28065,7 +28089,7 @@
         <v>8</v>
       </c>
       <c r="G539" s="13" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="H539" s="3" t="s">
         <v>8</v>
@@ -28097,7 +28121,7 @@
         <v>8</v>
       </c>
       <c r="E540" s="17" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F540" s="17" t="s">
         <v>8</v>
@@ -28219,7 +28243,7 @@
         <v>8</v>
       </c>
       <c r="E543" s="17" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="F543" s="17" t="s">
         <v>8</v>
@@ -28265,7 +28289,7 @@
         <v>8</v>
       </c>
       <c r="E544" s="17" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F544" s="17" t="s">
         <v>8</v>
@@ -28349,7 +28373,7 @@
         <v>8</v>
       </c>
       <c r="E546" s="17" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F546" s="17" t="s">
         <v>8</v>
@@ -28395,7 +28419,7 @@
         <v>8</v>
       </c>
       <c r="E547" s="17" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F547" s="17" t="s">
         <v>8</v>
@@ -28441,10 +28465,10 @@
         <v>831</v>
       </c>
       <c r="E548" s="17" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F548" s="13" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G548" s="3" t="s">
         <v>335</v>
@@ -28566,7 +28590,7 @@
         <v>1294</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G551" s="13" t="s">
         <v>304</v>
@@ -28677,7 +28701,7 @@
         <v>8</v>
       </c>
       <c r="E554" s="17" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F554" s="3" t="s">
         <v>8</v>
@@ -28715,7 +28739,7 @@
         <v>8</v>
       </c>
       <c r="E555" s="17" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F555" s="3" t="s">
         <v>8</v>
@@ -28791,7 +28815,7 @@
         <v>8</v>
       </c>
       <c r="E557" s="17" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="F557" s="3" t="s">
         <v>8</v>
@@ -28943,7 +28967,7 @@
         <v>8</v>
       </c>
       <c r="E561" s="17" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="F561" s="3" t="s">
         <v>8</v>
@@ -29057,7 +29081,7 @@
         <v>8</v>
       </c>
       <c r="E564" s="17" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F564" s="17" t="s">
         <v>8</v>
@@ -29103,7 +29127,7 @@
         <v>8</v>
       </c>
       <c r="E565" s="17" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F565" s="3" t="s">
         <v>8</v>
@@ -29309,10 +29333,10 @@
         <v>1009</v>
       </c>
       <c r="E570" s="17" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F570" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G570" s="14" t="s">
         <v>46</v>
@@ -29358,7 +29382,7 @@
         <v>1215</v>
       </c>
       <c r="F571" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="G571" s="13" t="s">
         <v>170</v>
@@ -29393,7 +29417,7 @@
         <v>8</v>
       </c>
       <c r="E572" s="17" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F572" s="3" t="s">
         <v>8</v>
@@ -29564,7 +29588,7 @@
         <v>1322</v>
       </c>
       <c r="F576" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G576" s="13" t="s">
         <v>363</v>
@@ -29767,7 +29791,7 @@
         <v>8</v>
       </c>
       <c r="E581" s="17" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F581" s="17" t="s">
         <v>8</v>
@@ -29892,7 +29916,7 @@
         <v>646</v>
       </c>
       <c r="F584" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G584" s="3" t="s">
         <v>1018</v>
@@ -29927,7 +29951,7 @@
         <v>8</v>
       </c>
       <c r="E585" s="17" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F585" s="17" t="s">
         <v>8</v>
@@ -29973,7 +29997,7 @@
         <v>8</v>
       </c>
       <c r="E586" s="17" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="F586" s="17" t="s">
         <v>8</v>
@@ -30095,7 +30119,7 @@
         <v>8</v>
       </c>
       <c r="E589" s="17" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F589" s="17" t="s">
         <v>8</v>
@@ -30179,7 +30203,7 @@
         <v>8</v>
       </c>
       <c r="E591" s="17" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F591" s="17" t="s">
         <v>8</v>
@@ -30225,7 +30249,7 @@
         <v>8</v>
       </c>
       <c r="E592" s="17" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="F592" s="17" t="s">
         <v>8</v>
@@ -30271,7 +30295,7 @@
         <v>8</v>
       </c>
       <c r="E593" s="17" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F593" s="17" t="s">
         <v>8</v>
@@ -30469,7 +30493,7 @@
         <v>8</v>
       </c>
       <c r="E598" s="17" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F598" s="3" t="s">
         <v>8</v>
@@ -30548,7 +30572,7 @@
         <v>1353</v>
       </c>
       <c r="F600" s="13" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G600" s="13" t="s">
         <v>422</v>
@@ -30583,7 +30607,7 @@
         <v>8</v>
       </c>
       <c r="E601" s="17" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F601" s="3" t="s">
         <v>8</v>
@@ -30621,7 +30645,7 @@
         <v>8</v>
       </c>
       <c r="E602" s="17" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F602" s="3" t="s">
         <v>8</v>
@@ -30723,7 +30747,7 @@
     </row>
     <row r="605" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A605" s="14" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B605" s="23">
         <v>-17.564349</v>
@@ -30735,7 +30759,7 @@
         <v>8</v>
       </c>
       <c r="E605" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F605" s="3" t="s">
         <v>8</v>
@@ -30773,7 +30797,7 @@
         <v>8</v>
       </c>
       <c r="E606" s="17" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="F606" s="3" t="s">
         <v>8</v>
@@ -30811,7 +30835,7 @@
         <v>8</v>
       </c>
       <c r="E607" s="17" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F607" s="3" t="s">
         <v>8</v>
@@ -31001,7 +31025,7 @@
         <v>8</v>
       </c>
       <c r="E612" s="17" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="F612" s="3" t="s">
         <v>8</v>
@@ -31080,7 +31104,7 @@
         <v>1319</v>
       </c>
       <c r="F614" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G614" s="3" t="s">
         <v>1021</v>
@@ -31229,7 +31253,7 @@
         <v>8</v>
       </c>
       <c r="E618" s="17" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F618" s="3" t="s">
         <v>8</v>
@@ -31267,7 +31291,7 @@
         <v>8</v>
       </c>
       <c r="E619" s="17" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F619" s="3" t="s">
         <v>8</v>
@@ -31293,7 +31317,7 @@
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="13" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B620" s="23">
         <v>-22.183631999999999</v>
@@ -31305,7 +31329,7 @@
         <v>8</v>
       </c>
       <c r="E620" s="3" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F620" s="3" t="s">
         <v>8</v>
@@ -31331,7 +31355,7 @@
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="13" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B621" s="23">
         <v>-21.842511999999999</v>
@@ -31343,7 +31367,7 @@
         <v>8</v>
       </c>
       <c r="E621" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F621" s="3" t="s">
         <v>8</v>
@@ -31381,7 +31405,7 @@
         <v>8</v>
       </c>
       <c r="E622" s="17" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F622" s="3" t="s">
         <v>8</v>
@@ -31407,7 +31431,7 @@
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B623" s="23">
         <v>-20.231871000000002</v>
@@ -31419,7 +31443,7 @@
         <v>8</v>
       </c>
       <c r="E623" s="3" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F623" s="3" t="s">
         <v>8</v>
@@ -31457,7 +31481,7 @@
         <v>8</v>
       </c>
       <c r="E624" s="17" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="F624" s="3" t="s">
         <v>8</v>
@@ -31495,10 +31519,10 @@
         <v>837</v>
       </c>
       <c r="E625" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="F625" s="13" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G625" s="13" t="s">
         <v>1062</v>
@@ -31571,7 +31595,7 @@
         <v>8</v>
       </c>
       <c r="E627" s="17" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F627" s="3" t="s">
         <v>8</v>
@@ -31609,7 +31633,7 @@
         <v>8</v>
       </c>
       <c r="E628" s="17" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="F628" s="3" t="s">
         <v>8</v>
@@ -32149,7 +32173,7 @@
         <v>8</v>
       </c>
       <c r="E642" s="17" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F642" s="3" t="s">
         <v>8</v>
@@ -32263,7 +32287,7 @@
         <v>8</v>
       </c>
       <c r="E645" s="17" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F645" s="3" t="s">
         <v>8</v>
@@ -32347,7 +32371,7 @@
         <v>8</v>
       </c>
       <c r="E647" s="17" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F647" s="3" t="s">
         <v>8</v>
@@ -32423,7 +32447,7 @@
         <v>8</v>
       </c>
       <c r="E649" s="17" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F649" s="3" t="s">
         <v>8</v>
@@ -32461,7 +32485,7 @@
         <v>8</v>
       </c>
       <c r="E650" s="17" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F650" s="3" t="s">
         <v>8</v>
@@ -32693,7 +32717,7 @@
     </row>
     <row r="656" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A656" s="13" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B656" s="23">
         <v>27.066666666666666</v>
@@ -32711,7 +32735,7 @@
         <v>8</v>
       </c>
       <c r="G656" s="13" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H656" s="3" t="s">
         <v>8</v>
@@ -32731,7 +32755,7 @@
     </row>
     <row r="657" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A657" s="14" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B657" s="24">
         <v>34.608727000000002</v>
@@ -32743,13 +32767,13 @@
         <v>8</v>
       </c>
       <c r="E657" s="17" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F657" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G657" s="17" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H657" s="3" t="s">
         <v>8</v>
@@ -32827,7 +32851,7 @@
         <v>8</v>
       </c>
       <c r="E659" s="17" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="F659" s="3" t="s">
         <v>8</v>
@@ -32871,7 +32895,7 @@
         <v>8</v>
       </c>
       <c r="G660" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H660" s="3" t="s">
         <v>8</v>
@@ -32909,7 +32933,7 @@
         <v>8</v>
       </c>
       <c r="G661" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H661" s="3" t="s">
         <v>8</v>
@@ -33014,7 +33038,7 @@
         <v>-85.805853999999997</v>
       </c>
       <c r="D664" s="13" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E664" s="13" t="s">
         <v>803</v>
@@ -33081,7 +33105,7 @@
     </row>
     <row r="666" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A666" s="14" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B666" s="24">
         <v>32.704906999999999</v>
@@ -33093,7 +33117,7 @@
         <v>681</v>
       </c>
       <c r="E666" s="14" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="F666" s="17" t="s">
         <v>8</v>
@@ -33332,7 +33356,7 @@
         <v>1465</v>
       </c>
       <c r="F672" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G672" s="13" t="s">
         <v>607</v>
@@ -33367,7 +33391,7 @@
         <v>8</v>
       </c>
       <c r="E673" s="17" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F673" s="17" t="s">
         <v>8</v>
@@ -33413,7 +33437,7 @@
         <v>8</v>
       </c>
       <c r="E674" s="17" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F674" s="17" t="s">
         <v>8</v>
@@ -33573,7 +33597,7 @@
         <v>8</v>
       </c>
       <c r="E678" s="17" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="F678" s="3" t="s">
         <v>8</v>
@@ -33614,7 +33638,7 @@
         <v>1466</v>
       </c>
       <c r="F679" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G679" s="13" t="s">
         <v>607</v>
@@ -33725,7 +33749,7 @@
         <v>913</v>
       </c>
       <c r="E682" s="17" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="F682" s="3" t="s">
         <v>8</v>
@@ -33885,7 +33909,7 @@
         <v>434</v>
       </c>
       <c r="E686" s="17" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F686" s="3" t="s">
         <v>8</v>
@@ -33923,7 +33947,7 @@
         <v>434</v>
       </c>
       <c r="E687" s="17" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="F687" s="3" t="s">
         <v>8</v>
@@ -33999,7 +34023,7 @@
         <v>916</v>
       </c>
       <c r="E689" s="17" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="F689" s="3" t="s">
         <v>8</v>
@@ -34040,7 +34064,7 @@
         <v>1475</v>
       </c>
       <c r="F690" s="13" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G690" s="13" t="s">
         <v>607</v>
@@ -34075,7 +34099,7 @@
         <v>787</v>
       </c>
       <c r="E691" s="17" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F691" s="3" t="s">
         <v>8</v>
@@ -34215,7 +34239,7 @@
     </row>
     <row r="695" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A695" s="14" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B695" s="24">
         <v>8.9576320000000003</v>
@@ -34227,7 +34251,7 @@
         <v>8</v>
       </c>
       <c r="E695" s="17" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F695" s="17" t="s">
         <v>8</v>
@@ -34273,7 +34297,7 @@
         <v>8</v>
       </c>
       <c r="E696" s="17" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F696" s="3" t="s">
         <v>8</v>
@@ -34319,7 +34343,7 @@
         <v>8</v>
       </c>
       <c r="E697" s="17" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="F697" s="3" t="s">
         <v>8</v>
@@ -34357,7 +34381,7 @@
         <v>8</v>
       </c>
       <c r="E698" s="17" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="F698" s="3" t="s">
         <v>8</v>
@@ -34433,7 +34457,7 @@
         <v>8</v>
       </c>
       <c r="E700" s="17" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F700" s="3" t="s">
         <v>8</v>
@@ -34555,7 +34579,7 @@
         <v>8</v>
       </c>
       <c r="E703" s="17" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F703" s="17" t="s">
         <v>8</v>
@@ -34601,7 +34625,7 @@
         <v>8</v>
       </c>
       <c r="E704" s="17" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="F704" s="3" t="s">
         <v>8</v>
@@ -34647,7 +34671,7 @@
         <v>8</v>
       </c>
       <c r="E705" s="17" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F705" s="3" t="s">
         <v>8</v>
@@ -34688,7 +34712,7 @@
         <v>1460</v>
       </c>
       <c r="F706" s="13" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G706" s="14" t="s">
         <v>1029</v>
@@ -34917,7 +34941,7 @@
     </row>
     <row r="712" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A712" s="13" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B712" s="23">
         <v>23.568995000000001</v>
@@ -34929,13 +34953,13 @@
         <v>8</v>
       </c>
       <c r="E712" s="3" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F712" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G712" s="13" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H712" s="3" t="s">
         <v>8</v>
@@ -34955,7 +34979,7 @@
     </row>
     <row r="713" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A713" s="13" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B713" s="23">
         <v>23.649149000000001</v>
@@ -34967,13 +34991,13 @@
         <v>8</v>
       </c>
       <c r="E713" s="3" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F713" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G713" s="13" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H713" s="3" t="s">
         <v>8</v>
@@ -34993,7 +35017,7 @@
     </row>
     <row r="714" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A714" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B714" s="23">
         <v>23.552251999999999</v>
@@ -35005,13 +35029,13 @@
         <v>8</v>
       </c>
       <c r="E714" s="3" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F714" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G714" s="13" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H714" s="3" t="s">
         <v>8</v>
@@ -35238,10 +35262,10 @@
         <v>124.216137</v>
       </c>
       <c r="D720" s="14" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E720" s="17" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F720" s="17" t="s">
         <v>8</v>
@@ -35401,7 +35425,7 @@
         <v>8</v>
       </c>
       <c r="E724" s="17" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F724" s="3" t="s">
         <v>8</v>
@@ -35474,10 +35498,10 @@
         <v>121.098778</v>
       </c>
       <c r="D726" s="14" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E726" s="17" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F726" s="17" t="s">
         <v>8</v>
@@ -35558,7 +35582,7 @@
         <v>122.99397399999999</v>
       </c>
       <c r="D728" s="14" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E728" s="17" t="s">
         <v>1279</v>
@@ -35645,7 +35669,7 @@
         <v>8</v>
       </c>
       <c r="E730" s="17" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F730" s="3" t="s">
         <v>8</v>
@@ -35683,7 +35707,7 @@
         <v>8</v>
       </c>
       <c r="E731" s="17" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F731" s="17" t="s">
         <v>8</v>
@@ -35729,7 +35753,7 @@
         <v>8</v>
       </c>
       <c r="E732" s="17" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="F732" s="17" t="s">
         <v>8</v>
@@ -35847,7 +35871,7 @@
     </row>
     <row r="735" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A735" s="13" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B735" s="23">
         <v>22.060592</v>
@@ -35859,13 +35883,13 @@
         <v>8</v>
       </c>
       <c r="E735" s="3" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F735" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G735" s="13" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H735" s="3" t="s">
         <v>8</v>
@@ -35885,7 +35909,7 @@
     </row>
     <row r="736" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A736" s="13" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B736" s="23">
         <v>21.947125</v>
@@ -35897,13 +35921,13 @@
         <v>8</v>
       </c>
       <c r="E736" s="3" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F736" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G736" s="13" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H736" s="3" t="s">
         <v>8</v>
@@ -36239,7 +36263,7 @@
         <v>8</v>
       </c>
       <c r="E745" s="17" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F745" s="17" t="s">
         <v>8</v>
@@ -36399,7 +36423,7 @@
         <v>8</v>
       </c>
       <c r="E749" s="17" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F749" s="3" t="s">
         <v>8</v>
@@ -36551,7 +36575,7 @@
         <v>1012</v>
       </c>
       <c r="E753" s="17" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F753" s="3" t="s">
         <v>8</v>
@@ -36635,7 +36659,7 @@
         <v>8</v>
       </c>
       <c r="E755" s="17" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="F755" s="3" t="s">
         <v>8</v>
@@ -36661,7 +36685,7 @@
     </row>
     <row r="756" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A756" s="13" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B756" s="23">
         <v>-4.7694960000000002</v>
@@ -36673,7 +36697,7 @@
         <v>8</v>
       </c>
       <c r="E756" s="13" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F756" s="3" t="s">
         <v>8</v>
@@ -36863,7 +36887,7 @@
         <v>8</v>
       </c>
       <c r="E761" s="17" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F761" s="17" t="s">
         <v>8</v>
@@ -36912,7 +36936,7 @@
         <v>1309</v>
       </c>
       <c r="F762" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G762" s="13" t="s">
         <v>1068</v>
@@ -37107,7 +37131,7 @@
         <v>8</v>
       </c>
       <c r="E767" s="17" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="F767" s="3" t="s">
         <v>8</v>
@@ -37346,7 +37370,7 @@
         <v>1313</v>
       </c>
       <c r="F773" s="13" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G773" s="13" t="s">
         <v>1084</v>
@@ -37533,7 +37557,7 @@
         <v>8</v>
       </c>
       <c r="E778" s="17" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F778" s="3" t="s">
         <v>8</v>
@@ -37579,7 +37603,7 @@
         <v>8</v>
       </c>
       <c r="E779" s="17" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F779" s="3" t="s">
         <v>8</v>
@@ -37625,7 +37649,7 @@
         <v>8</v>
       </c>
       <c r="E780" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F780" s="17" t="s">
         <v>8</v>
@@ -37747,7 +37771,7 @@
         <v>8</v>
       </c>
       <c r="E783" s="17" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F783" s="13" t="s">
         <v>8</v>
@@ -37785,7 +37809,7 @@
         <v>8</v>
       </c>
       <c r="E784" s="17" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="F784" s="3" t="s">
         <v>8</v>
@@ -37975,7 +37999,7 @@
         <v>8</v>
       </c>
       <c r="E789" s="17" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F789" s="17" t="s">
         <v>8</v>
@@ -38059,7 +38083,7 @@
         <v>8</v>
       </c>
       <c r="E791" s="17" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F791" s="3" t="s">
         <v>8</v>
@@ -38135,7 +38159,7 @@
         <v>8</v>
       </c>
       <c r="E793" s="17" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F793" s="3" t="s">
         <v>8</v>
@@ -38325,7 +38349,7 @@
         <v>8</v>
       </c>
       <c r="E798" s="17" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="F798" s="3" t="s">
         <v>8</v>
@@ -38363,7 +38387,7 @@
         <v>8</v>
       </c>
       <c r="E799" s="17" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="F799" s="3" t="s">
         <v>8</v>
@@ -38439,7 +38463,7 @@
         <v>8</v>
       </c>
       <c r="E801" s="17" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F801" s="3" t="s">
         <v>8</v>
@@ -38561,7 +38585,7 @@
         <v>8</v>
       </c>
       <c r="E804" s="17" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="F804" s="17" t="s">
         <v>8</v>
@@ -38851,7 +38875,7 @@
         <v>8</v>
       </c>
       <c r="E811" s="17" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F811" s="3" t="s">
         <v>8</v>
@@ -38992,7 +39016,7 @@
         <v>1556</v>
       </c>
       <c r="F814" s="13" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G814" s="13" t="s">
         <v>312</v>
@@ -39127,7 +39151,7 @@
         <v>8</v>
       </c>
       <c r="E817" s="17" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F817" s="3" t="s">
         <v>8</v>
@@ -39207,7 +39231,7 @@
     </row>
     <row r="819" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A819" s="13" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B819" s="23">
         <v>20.701582999999999</v>
@@ -39219,10 +39243,10 @@
         <v>8</v>
       </c>
       <c r="E819" s="3" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F819" s="3" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G819" s="3" t="s">
         <v>372</v>
@@ -39268,7 +39292,7 @@
         <v>1324</v>
       </c>
       <c r="F820" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G820" s="13" t="s">
         <v>372</v>
@@ -39299,7 +39323,7 @@
     </row>
     <row r="821" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A821" s="13" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B821" s="23">
         <v>25.173145999999999</v>
@@ -39311,7 +39335,7 @@
         <v>8</v>
       </c>
       <c r="E821" s="3" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F821" s="3" t="s">
         <v>8</v>
@@ -39345,7 +39369,7 @@
     </row>
     <row r="822" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A822" s="13" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B822" s="23">
         <v>23.568995000000001</v>
@@ -39357,7 +39381,7 @@
         <v>8</v>
       </c>
       <c r="E822" s="3" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F822" s="3" t="s">
         <v>8</v>
@@ -39391,7 +39415,7 @@
     </row>
     <row r="823" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A823" s="13" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B823" s="23">
         <v>22.425270999999999</v>
@@ -39403,7 +39427,7 @@
         <v>8</v>
       </c>
       <c r="E823" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F823" s="3" t="s">
         <v>8</v>
@@ -39483,7 +39507,7 @@
     </row>
     <row r="825" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A825" s="13" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B825" s="23">
         <v>23.133963999999999</v>
@@ -39495,7 +39519,7 @@
         <v>8</v>
       </c>
       <c r="E825" s="3" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F825" s="3" t="s">
         <v>8</v>
@@ -39529,7 +39553,7 @@
     </row>
     <row r="826" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A826" s="13" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B826" s="23">
         <v>22.766970000000001</v>
@@ -39541,7 +39565,7 @@
         <v>8</v>
       </c>
       <c r="E826" s="3" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F826" s="3" t="s">
         <v>8</v>
@@ -39584,7 +39608,7 @@
         <v>121.437792</v>
       </c>
       <c r="D827" s="13" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E827" s="17" t="s">
         <v>1325</v>
@@ -39621,7 +39645,7 @@
     </row>
     <row r="828" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A828" s="13" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B828" s="23">
         <v>24.714859000000001</v>
@@ -39633,7 +39657,7 @@
         <v>8</v>
       </c>
       <c r="E828" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="F828" s="3" t="s">
         <v>8</v>
@@ -39817,7 +39841,7 @@
         <v>8</v>
       </c>
       <c r="E832" s="17" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="F832" s="3" t="s">
         <v>8</v>
@@ -40001,7 +40025,7 @@
         <v>8</v>
       </c>
       <c r="E836" s="17" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F836" s="17" t="s">
         <v>8</v>
@@ -40315,7 +40339,7 @@
         <v>8</v>
       </c>
       <c r="E843" s="17" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F843" s="17" t="s">
         <v>8</v>
@@ -40353,7 +40377,7 @@
         <v>8</v>
       </c>
       <c r="E844" s="17" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="F844" s="3" t="s">
         <v>8</v>
@@ -40399,7 +40423,7 @@
         <v>8</v>
       </c>
       <c r="E845" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F845" s="17" t="s">
         <v>8</v>
@@ -40571,7 +40595,7 @@
     </row>
     <row r="849" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A849" s="13" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B849" s="23">
         <v>13.500923</v>
@@ -40583,10 +40607,10 @@
         <v>8</v>
       </c>
       <c r="E849" s="3" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F849" s="3" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G849" s="3" t="s">
         <v>355</v>
@@ -40663,7 +40687,7 @@
     </row>
     <row r="851" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A851" s="13" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B851" s="23">
         <v>9.5333330000000007</v>
@@ -40675,10 +40699,10 @@
         <v>8</v>
       </c>
       <c r="E851" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F851" s="3" t="s">
         <v>1983</v>
-      </c>
-      <c r="F851" s="3" t="s">
-        <v>1984</v>
       </c>
       <c r="G851" s="3" t="s">
         <v>355</v>
@@ -40770,7 +40794,7 @@
         <v>1317</v>
       </c>
       <c r="F853" s="13" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G853" s="14" t="s">
         <v>355</v>
@@ -40816,7 +40840,7 @@
         <v>1557</v>
       </c>
       <c r="F854" s="13" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G854" s="14" t="s">
         <v>355</v>
@@ -40939,7 +40963,7 @@
     </row>
     <row r="857" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A857" s="13" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B857" s="23">
         <v>13.541382</v>
@@ -40951,10 +40975,10 @@
         <v>8</v>
       </c>
       <c r="E857" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F857" s="3" t="s">
         <v>1977</v>
-      </c>
-      <c r="F857" s="3" t="s">
-        <v>1978</v>
       </c>
       <c r="G857" s="3" t="s">
         <v>355</v>
@@ -40985,7 +41009,7 @@
     </row>
     <row r="858" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A858" s="13" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B858" s="23">
         <v>13.530984999999999</v>
@@ -40997,10 +41021,10 @@
         <v>8</v>
       </c>
       <c r="E858" s="3" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F858" s="3" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="G858" s="3" t="s">
         <v>355</v>
@@ -41043,7 +41067,7 @@
         <v>8</v>
       </c>
       <c r="E859" s="17" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="F859" s="3" t="s">
         <v>8</v>
@@ -41230,7 +41254,7 @@
         <v>1340</v>
       </c>
       <c r="F863" s="13" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G863" s="3" t="s">
         <v>404</v>
@@ -41365,7 +41389,7 @@
         <v>8</v>
       </c>
       <c r="E866" s="17" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F866" s="3" t="s">
         <v>8</v>
@@ -41411,7 +41435,7 @@
         <v>8</v>
       </c>
       <c r="E867" s="17" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F867" s="3" t="s">
         <v>8</v>
@@ -41549,7 +41573,7 @@
         <v>8</v>
       </c>
       <c r="E870" s="19" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="F870" s="19" t="s">
         <v>8</v>
@@ -41558,7 +41582,7 @@
         <v>1038</v>
       </c>
       <c r="H870" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I870" s="27" t="s">
         <v>8</v>
@@ -41989,7 +42013,7 @@
     </row>
     <row r="880" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A880" s="13" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B880" s="23">
         <v>27.813063</v>
@@ -42001,7 +42025,7 @@
         <v>706</v>
       </c>
       <c r="E880" s="13" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="F880" s="3" t="s">
         <v>8</v>
@@ -42093,16 +42117,16 @@
         <v>918</v>
       </c>
       <c r="E882" s="19" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F882" s="18" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G882" s="19" t="s">
         <v>1039</v>
       </c>
       <c r="H882" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I882" s="27" t="s">
         <v>8</v>
@@ -42139,7 +42163,7 @@
         <v>8</v>
       </c>
       <c r="E883" s="17" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="F883" s="3" t="s">
         <v>8</v>
@@ -42231,7 +42255,7 @@
         <v>8</v>
       </c>
       <c r="E885" s="17" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="F885" s="3" t="s">
         <v>8</v>
@@ -42369,7 +42393,7 @@
         <v>843</v>
       </c>
       <c r="E888" s="13" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="F888" s="3" t="s">
         <v>8</v>
@@ -42415,7 +42439,7 @@
         <v>842</v>
       </c>
       <c r="E889" s="17" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="F889" s="3" t="s">
         <v>8</v>
@@ -42575,7 +42599,7 @@
         <v>8</v>
       </c>
       <c r="E893" s="17" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="F893" s="3" t="s">
         <v>8</v>
@@ -42651,7 +42675,7 @@
         <v>843</v>
       </c>
       <c r="E895" s="13" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="F895" s="3" t="s">
         <v>8</v>
@@ -42689,7 +42713,7 @@
         <v>706</v>
       </c>
       <c r="E896" s="13" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F896" s="3" t="s">
         <v>8</v>
@@ -42918,7 +42942,7 @@
         <v>8</v>
       </c>
       <c r="E902" s="19" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="F902" s="19" t="s">
         <v>8</v>
@@ -42927,7 +42951,7 @@
         <v>1039</v>
       </c>
       <c r="H902" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I902" s="27" t="s">
         <v>8</v>
@@ -42990,7 +43014,7 @@
     </row>
     <row r="904" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B904" s="23">
         <v>10.435408000000001</v>
@@ -43002,7 +43026,7 @@
         <v>8</v>
       </c>
       <c r="E904" s="17" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F904" s="3" t="s">
         <v>8</v>
@@ -43040,7 +43064,7 @@
         <v>8</v>
       </c>
       <c r="E905" s="17" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="F905" s="3" t="s">
         <v>8</v>
@@ -43382,7 +43406,7 @@
         <v>8</v>
       </c>
       <c r="E914" s="19" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="F914" s="19" t="s">
         <v>8</v>
@@ -43391,7 +43415,7 @@
         <v>1096</v>
       </c>
       <c r="H914" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I914" s="27" t="s">
         <v>8</v>
@@ -43428,10 +43452,10 @@
         <v>849</v>
       </c>
       <c r="E915" s="17" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="F915" s="13" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G915" s="13" t="s">
         <v>1036</v>
@@ -43454,7 +43478,7 @@
     </row>
     <row r="916" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A916" s="13" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B916" s="23">
         <v>12.2611601</v>
@@ -43466,7 +43490,7 @@
         <v>8</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>8</v>
@@ -43504,7 +43528,7 @@
         <v>8</v>
       </c>
       <c r="E917" s="17" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F917" s="3" t="s">
         <v>8</v>
@@ -43542,7 +43566,7 @@
         <v>8</v>
       </c>
       <c r="E918" s="17" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F918" s="3" t="s">
         <v>8</v>
@@ -43770,7 +43794,7 @@
         <v>8</v>
       </c>
       <c r="E924" s="17" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F924" s="3" t="s">
         <v>8</v>
@@ -43808,7 +43832,7 @@
         <v>8</v>
       </c>
       <c r="E925" s="17" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F925" s="3" t="s">
         <v>8</v>
@@ -43842,7 +43866,7 @@
     </row>
     <row r="926" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B926" s="23">
         <v>-13.343563</v>
@@ -43854,7 +43878,7 @@
         <v>8</v>
       </c>
       <c r="E926" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F926" s="3" t="s">
         <v>8</v>
@@ -43892,7 +43916,7 @@
         <v>8</v>
       </c>
       <c r="E927" s="19" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="F927" s="19" t="s">
         <v>8</v>
@@ -43901,7 +43925,7 @@
         <v>1094</v>
       </c>
       <c r="H927" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I927" s="27" t="s">
         <v>8</v>
@@ -43979,7 +44003,7 @@
         <v>1149</v>
       </c>
       <c r="F929" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G929" s="13" t="s">
         <v>1041</v>
@@ -44052,7 +44076,7 @@
         <v>8</v>
       </c>
       <c r="E931" s="17" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F931" s="17" t="s">
         <v>8</v>
@@ -44098,7 +44122,7 @@
         <v>8</v>
       </c>
       <c r="E932" s="17" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F932" s="3" t="s">
         <v>8</v>
@@ -44162,7 +44186,7 @@
     </row>
     <row r="934" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A934" s="13" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B934" s="23">
         <v>24.714859000000001</v>
@@ -44174,13 +44198,13 @@
         <v>8</v>
       </c>
       <c r="E934" s="3" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F934" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G934" s="3" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H934" s="3" t="s">
         <v>8</v>
@@ -44212,10 +44236,10 @@
         <v>983</v>
       </c>
       <c r="E935" s="17" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F935" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G935" s="13" t="s">
         <v>1072</v>
@@ -44250,10 +44274,10 @@
         <v>985</v>
       </c>
       <c r="E936" s="17" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F936" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G936" s="13" t="s">
         <v>1072</v>
@@ -44288,7 +44312,7 @@
         <v>8</v>
       </c>
       <c r="E937" s="17" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F937" s="3" t="s">
         <v>8</v>
@@ -44314,7 +44338,7 @@
     </row>
     <row r="938" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A938" s="13" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B938" s="23">
         <f>25+44/60</f>
@@ -44328,7 +44352,7 @@
         <v>8</v>
       </c>
       <c r="E938" s="17" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F938" s="3" t="s">
         <v>8</v>
@@ -44362,7 +44386,7 @@
     </row>
     <row r="939" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A939" s="14" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B939" s="23">
         <v>-3.5011920000000001</v>
@@ -44374,7 +44398,7 @@
         <v>8</v>
       </c>
       <c r="E939" s="17" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F939" s="3" t="s">
         <v>8</v>
@@ -44400,7 +44424,7 @@
     </row>
     <row r="940" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A940" s="13" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B940" s="23">
         <f>20+14/60</f>
@@ -44414,7 +44438,7 @@
         <v>8</v>
       </c>
       <c r="E940" s="17" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F940" s="3" t="s">
         <v>8</v>
@@ -44440,7 +44464,7 @@
     </row>
     <row r="941" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A941" s="15" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B941" s="23">
         <f>19+50/60+58/3600</f>
@@ -44454,7 +44478,7 @@
         <v>8</v>
       </c>
       <c r="E941" s="17" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F941" s="3" t="s">
         <v>8</v>
@@ -44480,7 +44504,7 @@
     </row>
     <row r="942" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A942" s="13" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B942" s="23">
         <v>3.0512429999999999</v>
@@ -44492,10 +44516,10 @@
         <v>8</v>
       </c>
       <c r="E942" s="17" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F942" s="13" t="s">
         <v>2004</v>
-      </c>
-      <c r="F942" s="13" t="s">
-        <v>2005</v>
       </c>
       <c r="G942" s="13" t="s">
         <v>351</v>
@@ -44518,7 +44542,7 @@
     </row>
     <row r="943" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A943" s="14" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B943" s="23">
         <v>7.3155919999999997</v>
@@ -44530,7 +44554,7 @@
         <v>8</v>
       </c>
       <c r="E943" s="17" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F943" s="13" t="s">
         <v>8</v>
@@ -44564,7 +44588,7 @@
     </row>
     <row r="944" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A944" s="14" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B944" s="23">
         <v>7.4869459999999997</v>
@@ -44576,13 +44600,13 @@
         <v>8</v>
       </c>
       <c r="E944" s="17" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F944" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G944" s="14" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="H944" s="3" t="s">
         <v>8</v>
@@ -44610,7 +44634,7 @@
     </row>
     <row r="945" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A945" s="14" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B945" s="23">
         <f>33+21/60</f>
@@ -44624,7 +44648,7 @@
         <v>8</v>
       </c>
       <c r="E945" s="17" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F945" s="3" t="s">
         <v>8</v>
@@ -44650,7 +44674,7 @@
     </row>
     <row r="946" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A946" s="15" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B946" s="23">
         <f>33+21/60</f>
@@ -44664,13 +44688,13 @@
         <v>8</v>
       </c>
       <c r="E946" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F946" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G946" s="14" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H946" s="3" t="s">
         <v>8</v>
@@ -44690,7 +44714,7 @@
     </row>
     <row r="947" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A947" s="14" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B947" s="23">
         <v>36.559615000000001</v>
@@ -44702,7 +44726,7 @@
         <v>8</v>
       </c>
       <c r="E947" s="14" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F947" s="3" t="s">
         <v>8</v>
@@ -44728,7 +44752,7 @@
     </row>
     <row r="948" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A948" s="14" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B948" s="23">
         <v>36.525897000000001</v>
@@ -44740,13 +44764,13 @@
         <v>8</v>
       </c>
       <c r="E948" s="3" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F948" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G948" s="14" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H948" s="3" t="s">
         <v>8</v>
@@ -44766,7 +44790,7 @@
     </row>
     <row r="949" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A949" s="13" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B949" s="23">
         <v>-5.4493239999999998</v>
@@ -44778,7 +44802,7 @@
         <v>8</v>
       </c>
       <c r="E949" s="17" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F949" s="3" t="s">
         <v>8</v>
@@ -44804,7 +44828,7 @@
     </row>
     <row r="950" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A950" s="13" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B950" s="23">
         <v>-4.5518999999999998</v>
@@ -44816,13 +44840,13 @@
         <v>8</v>
       </c>
       <c r="E950" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F950" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G950" s="13" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H950" s="3" t="s">
         <v>8</v>
@@ -44842,7 +44866,7 @@
     </row>
     <row r="951" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B951" s="23">
         <v>-1.394989</v>
@@ -44854,7 +44878,7 @@
         <v>8</v>
       </c>
       <c r="E951" s="13" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F951" s="3" t="s">
         <v>8</v>
@@ -44880,7 +44904,7 @@
     </row>
     <row r="952" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B952" s="23">
         <v>21.630330000000001</v>
@@ -44892,13 +44916,13 @@
         <v>8</v>
       </c>
       <c r="E952" s="3" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F952" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G952" s="3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="H952" s="3" t="s">
         <v>8</v>
@@ -44918,7 +44942,7 @@
     </row>
     <row r="953" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A953" s="13" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B953" s="23">
         <v>21.630330000000001</v>
@@ -44930,7 +44954,7 @@
         <v>8</v>
       </c>
       <c r="E953" s="3" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F953" s="3" t="s">
         <v>8</v>
@@ -44956,7 +44980,7 @@
     </row>
     <row r="954" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B954" s="23">
         <v>11.432632</v>
@@ -44968,13 +44992,13 @@
         <v>8</v>
       </c>
       <c r="E954" s="13" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F954" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G954" s="3" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="H954" s="3" t="s">
         <v>8</v>
@@ -44994,7 +45018,7 @@
     </row>
     <row r="955" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B955" s="23">
         <v>9.9960050000000003</v>
@@ -45006,7 +45030,7 @@
         <v>8</v>
       </c>
       <c r="E955" s="3" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F955" s="3" t="s">
         <v>8</v>
@@ -45032,7 +45056,7 @@
     </row>
     <row r="956" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A956" s="15" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B956" s="23">
         <v>25.552605</v>
@@ -45044,7 +45068,7 @@
         <v>8</v>
       </c>
       <c r="E956" s="15" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F956" s="3" t="s">
         <v>8</v>
@@ -45078,7 +45102,7 @@
     </row>
     <row r="957" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A957" s="15" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B957" s="23">
         <v>32.604813</v>
@@ -45090,7 +45114,7 @@
         <v>8</v>
       </c>
       <c r="E957" s="3" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F957" s="3" t="s">
         <v>8</v>
@@ -45116,7 +45140,7 @@
     </row>
     <row r="958" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B958" s="23">
         <v>-3.3708459999999998</v>
@@ -45128,7 +45152,7 @@
         <v>8</v>
       </c>
       <c r="E958" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F958" s="3" t="s">
         <v>8</v>
@@ -45154,7 +45178,7 @@
     </row>
     <row r="959" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B959" s="23">
         <v>-12.768999000000001</v>
@@ -45166,7 +45190,7 @@
         <v>8</v>
       </c>
       <c r="E959" s="13" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F959" s="3" t="s">
         <v>8</v>
@@ -45192,7 +45216,7 @@
     </row>
     <row r="960" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A960" s="13" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B960" s="23">
         <v>29.176556000000001</v>
@@ -45204,13 +45228,13 @@
         <v>8</v>
       </c>
       <c r="E960" s="13" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="F960" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G960" s="13" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="H960" s="3" t="s">
         <v>8</v>
@@ -45238,7 +45262,7 @@
     </row>
     <row r="961" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A961" s="13" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B961" s="23">
         <v>29.185521999999999</v>
@@ -45250,7 +45274,7 @@
         <v>8</v>
       </c>
       <c r="E961" s="13" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="F961" s="3" t="s">
         <v>8</v>
@@ -45284,7 +45308,7 @@
     </row>
     <row r="962" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A962" s="14" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B962" s="24">
         <v>8.9720069999999996</v>
@@ -45296,7 +45320,7 @@
         <v>8</v>
       </c>
       <c r="E962" s="17" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F962" s="17" t="s">
         <v>8</v>
@@ -45330,7 +45354,7 @@
     </row>
     <row r="963" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A963" s="14" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B963" s="23">
         <v>22.43197</v>
@@ -45342,7 +45366,7 @@
         <v>8</v>
       </c>
       <c r="E963" s="17" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F963" s="3" t="s">
         <v>8</v>
@@ -45368,7 +45392,7 @@
     </row>
     <row r="964" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A964" s="13" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B964" s="23">
         <v>-29.873280000000001</v>
@@ -45380,7 +45404,7 @@
         <v>8</v>
       </c>
       <c r="E964" s="17" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F964" s="3" t="s">
         <v>8</v>
@@ -45406,7 +45430,7 @@
     </row>
     <row r="965" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A965" s="13" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B965" s="23">
         <v>-12.236026000000001</v>
@@ -45418,7 +45442,7 @@
         <v>8</v>
       </c>
       <c r="E965" s="17" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="F965" s="3" t="s">
         <v>8</v>
@@ -45444,7 +45468,7 @@
     </row>
     <row r="966" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B966" s="23">
         <v>33.376955000000002</v>
@@ -45456,7 +45480,7 @@
         <v>8</v>
       </c>
       <c r="E966" s="3" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F966" s="3" t="s">
         <v>8</v>
@@ -45482,7 +45506,7 @@
     </row>
     <row r="967" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A967" s="13" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B967" s="23">
         <v>-17.662678799999998</v>
@@ -45494,7 +45518,7 @@
         <v>8</v>
       </c>
       <c r="E967" s="17" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="F967" s="3" t="s">
         <v>8</v>
@@ -45520,7 +45544,7 @@
     </row>
     <row r="968" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A968" s="13" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B968" s="23">
         <v>-17.223067</v>
@@ -45532,7 +45556,7 @@
         <v>8</v>
       </c>
       <c r="E968" s="17" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F968" s="3" t="s">
         <v>8</v>
@@ -45558,7 +45582,7 @@
     </row>
     <row r="969" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A969" s="14" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B969" s="23">
         <v>13.722815000000001</v>
@@ -45570,7 +45594,7 @@
         <v>8</v>
       </c>
       <c r="E969" s="17" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F969" s="3" t="s">
         <v>8</v>
@@ -45596,7 +45620,7 @@
     </row>
     <row r="970" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A970" s="13" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B970" s="23">
         <v>40.961748</v>
@@ -45608,7 +45632,7 @@
         <v>8</v>
       </c>
       <c r="E970" s="17" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F970" s="3" t="s">
         <v>8</v>
@@ -45634,7 +45658,7 @@
     </row>
     <row r="971" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A971" s="13" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B971" s="23">
         <v>27.420902999999999</v>
@@ -45646,7 +45670,7 @@
         <v>8</v>
       </c>
       <c r="E971" s="13" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F971" s="3" t="s">
         <v>8</v>
@@ -45680,7 +45704,7 @@
     </row>
     <row r="972" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A972" s="13" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B972" s="23">
         <v>37.721311</v>
@@ -45692,7 +45716,7 @@
         <v>8</v>
       </c>
       <c r="E972" s="17" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F972" s="3" t="s">
         <v>8</v>
@@ -45718,7 +45742,7 @@
     </row>
     <row r="973" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A973" s="13" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B973" s="23">
         <v>-21.971533000000001</v>
@@ -45730,7 +45754,7 @@
         <v>8</v>
       </c>
       <c r="E973" s="17" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F973" s="3" t="s">
         <v>8</v>
@@ -45756,7 +45780,7 @@
     </row>
     <row r="974" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A974" s="15" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B974" s="23">
         <f>33.25</f>
@@ -45770,13 +45794,13 @@
         <v>8</v>
       </c>
       <c r="E974" s="3" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="F974" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G974" s="15" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="H974" s="3" t="s">
         <v>8</v>
@@ -45796,7 +45820,7 @@
     </row>
     <row r="975" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A975" s="15" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B975" s="23">
         <f>33.25</f>
@@ -45810,7 +45834,7 @@
         <v>8</v>
       </c>
       <c r="E975" s="3" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="F975" s="3" t="s">
         <v>8</v>
@@ -45836,7 +45860,7 @@
     </row>
     <row r="976" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B976" s="23">
         <v>23.419602000000001</v>
@@ -45848,7 +45872,7 @@
         <v>8</v>
       </c>
       <c r="E976" s="3" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="F976" s="3" t="s">
         <v>8</v>
@@ -45872,9 +45896,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="977" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B977" s="23">
         <v>23.213844999999999</v>
@@ -45886,7 +45910,7 @@
         <v>8</v>
       </c>
       <c r="E977" s="13" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="F977" s="3" t="s">
         <v>8</v>
@@ -45910,9 +45934,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="978" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A978" s="13" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B978" s="23">
         <v>22.951715</v>
@@ -45924,7 +45948,7 @@
         <v>8</v>
       </c>
       <c r="E978" s="13" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="F978" s="3" t="s">
         <v>8</v>
@@ -45948,9 +45972,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="979" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A979" s="13" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B979" s="23">
         <v>23.093249</v>
@@ -45962,7 +45986,7 @@
         <v>8</v>
       </c>
       <c r="E979" s="3" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="F979" s="3" t="s">
         <v>8</v>
@@ -45986,9 +46010,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="980" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A980" s="15" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B980" s="23">
         <v>39.59581</v>
@@ -46000,7 +46024,7 @@
         <v>8</v>
       </c>
       <c r="E980" s="3" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="F980" s="3" t="s">
         <v>8</v>
@@ -46024,9 +46048,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="981" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A981" s="13" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B981" s="23">
         <v>18.124458000000001</v>
@@ -46038,7 +46062,7 @@
         <v>8</v>
       </c>
       <c r="E981" s="14" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F981" s="3" t="s">
         <v>8</v>
@@ -46062,9 +46086,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="982" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A982" s="13" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B982" s="23">
         <f>18+6.1879/60</f>
@@ -46078,13 +46102,13 @@
         <v>8</v>
       </c>
       <c r="E982" s="13" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="F982" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G982" s="13" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="H982" s="3" t="s">
         <v>8</v>
@@ -46102,9 +46126,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="983" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A983" s="13" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B983" s="23">
         <v>18.114735</v>
@@ -46116,13 +46140,13 @@
         <v>8</v>
       </c>
       <c r="E983" s="13" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F983" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G983" s="13" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="H983" s="3" t="s">
         <v>8</v>
@@ -46140,9 +46164,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="984" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A984" s="13" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B984" s="23">
         <f>18+7.049/60</f>
@@ -46156,13 +46180,13 @@
         <v>8</v>
       </c>
       <c r="E984" s="13" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F984" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G984" s="13" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="H984" s="3" t="s">
         <v>8</v>
@@ -46180,9 +46204,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="985" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A985" s="13" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B985" s="23">
         <v>24.627679000000001</v>
@@ -46194,7 +46218,7 @@
         <v>8</v>
       </c>
       <c r="E985" s="3" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F985" s="3" t="s">
         <v>8</v>
@@ -46218,9 +46242,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="986" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B986" s="23">
         <v>41.135652</v>
@@ -46232,7 +46256,7 @@
         <v>8</v>
       </c>
       <c r="E986" s="3" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="F986" s="3" t="s">
         <v>8</v>
@@ -46256,9 +46280,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="987" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A987" s="13" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B987" s="23">
         <v>41.027695000000001</v>
@@ -46270,33 +46294,33 @@
         <v>8</v>
       </c>
       <c r="E987" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F987" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G987" s="13" t="s">
+        <v>2092</v>
+      </c>
+      <c r="H987" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I987" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J987" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K987" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L987" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="988" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A988" s="15" t="s">
         <v>2096</v>
-      </c>
-      <c r="F987" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G987" s="13" t="s">
-        <v>2093</v>
-      </c>
-      <c r="H987" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I987" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J987" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K987" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L987" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="988" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A988" s="15" t="s">
-        <v>2097</v>
       </c>
       <c r="B988" s="23">
         <v>30.349630999999999</v>
@@ -46308,7 +46332,7 @@
         <v>8</v>
       </c>
       <c r="E988" s="3" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="F988" s="3" t="s">
         <v>8</v>
@@ -46332,9 +46356,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="989" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A989" s="13" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B989" s="23">
         <v>12.410007</v>
@@ -46346,7 +46370,7 @@
         <v>8</v>
       </c>
       <c r="E989" s="3" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="F989" s="3" t="s">
         <v>8</v>
@@ -46369,6 +46393,412 @@
       <c r="L989" s="28" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="990" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B990" s="3">
+        <v>21.931944999999999</v>
+      </c>
+      <c r="C990" s="3">
+        <v>88.908715999999998</v>
+      </c>
+      <c r="D990" t="s">
+        <v>8</v>
+      </c>
+      <c r="E990" s="17" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F990" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G990" t="s">
+        <v>290</v>
+      </c>
+      <c r="H990" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I990" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J990" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K990" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L990" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="991" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A991" s="14" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B991" s="23">
+        <v>7.540419</v>
+      </c>
+      <c r="C991" s="23">
+        <v>99.314329000000001</v>
+      </c>
+      <c r="D991" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E991" s="17" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F991" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G991" s="14" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H991" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I991" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J991" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K991" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L991" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M991" s="13"/>
+      <c r="N991" s="13"/>
+      <c r="O991" s="13"/>
+      <c r="P991" s="13"/>
+      <c r="Q991" s="13"/>
+      <c r="R991" s="13"/>
+      <c r="S991" s="13"/>
+      <c r="T991" s="13"/>
+    </row>
+    <row r="992" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A992" s="14" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B992" s="3">
+        <v>9.8969009999999997</v>
+      </c>
+      <c r="C992" s="3">
+        <v>98.567268999999996</v>
+      </c>
+      <c r="D992" t="s">
+        <v>8</v>
+      </c>
+      <c r="E992" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F992" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G992" s="14" t="s">
+        <v>2106</v>
+      </c>
+      <c r="H992" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I992" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J992" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K992" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L992" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="993" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A993" s="14" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B993" s="3">
+        <v>9.8969009999999997</v>
+      </c>
+      <c r="C993" s="3">
+        <v>98.567268999999996</v>
+      </c>
+      <c r="D993" t="s">
+        <v>8</v>
+      </c>
+      <c r="E993" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F993" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G993" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H993" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I993" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J993" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K993" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L993" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="994" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A994" s="14" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B994" s="3">
+        <v>34.228783999999997</v>
+      </c>
+      <c r="C994" s="3">
+        <v>132.60576900000001</v>
+      </c>
+      <c r="D994" t="s">
+        <v>8</v>
+      </c>
+      <c r="E994" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F994" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G994" s="14" t="s">
+        <v>2110</v>
+      </c>
+      <c r="H994" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I994" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J994" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K994" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L994" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="995" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A995" s="14" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B995" s="3">
+        <v>34.240357000000003</v>
+      </c>
+      <c r="C995" s="3">
+        <v>132.757285</v>
+      </c>
+      <c r="D995" t="s">
+        <v>8</v>
+      </c>
+      <c r="E995" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F995" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G995" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H995" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I995" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J995" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K995" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L995" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="996" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A996" s="14" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B996" s="23">
+        <v>41.307788000000002</v>
+      </c>
+      <c r="C996" s="23">
+        <v>-72.219565000000003</v>
+      </c>
+      <c r="D996" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E996" s="14" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F996" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G996" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="H996" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I996" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J996" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K996" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L996" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M996" s="13"/>
+      <c r="N996" s="13"/>
+      <c r="O996" s="13"/>
+      <c r="P996" s="13"/>
+      <c r="Q996" s="13"/>
+      <c r="R996" s="13"/>
+      <c r="S996" s="13"/>
+      <c r="T996" s="13"/>
+    </row>
+    <row r="997" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A997" s="13" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B997" s="23">
+        <f>-(36+0.366666666666667)</f>
+        <v>-36.366666666666667</v>
+      </c>
+      <c r="C997" s="23">
+        <f>-(56+0.75)</f>
+        <v>-56.75</v>
+      </c>
+      <c r="D997" s="13" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E997" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F997" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G997" s="13" t="s">
+        <v>2116</v>
+      </c>
+      <c r="H997" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I997" s="28">
+        <v>-34.4</v>
+      </c>
+      <c r="J997" s="28">
+        <v>-54</v>
+      </c>
+      <c r="K997" s="28">
+        <v>-38.9</v>
+      </c>
+      <c r="L997" s="28">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="998" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A998" s="13" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B998" s="23">
+        <v>-36.056485000000002</v>
+      </c>
+      <c r="C998" s="23">
+        <v>-57.319341999999999</v>
+      </c>
+      <c r="D998" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E998" s="13" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F998" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G998" s="13" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H998" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I998" s="28">
+        <v>-34.4</v>
+      </c>
+      <c r="J998" s="28">
+        <v>-54</v>
+      </c>
+      <c r="K998" s="28">
+        <v>-38.9</v>
+      </c>
+      <c r="L998" s="28">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="999" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A999" s="13" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B999" s="23">
+        <v>-5.4292740000000004</v>
+      </c>
+      <c r="C999" s="23">
+        <v>38.974643</v>
+      </c>
+      <c r="D999" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E999" s="17" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F999" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G999" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H999" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I999" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J999" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K999" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L999" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M999" s="13"/>
+      <c r="N999" s="13"/>
+      <c r="O999" s="13"/>
+      <c r="P999" s="13"/>
+      <c r="Q999" s="13"/>
+      <c r="R999" s="13"/>
+      <c r="S999" s="13"/>
+      <c r="T999" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L923"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -15,11 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$L$923</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8788" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9010" uniqueCount="2166">
   <si>
     <t>Latitude</t>
   </si>
@@ -6385,6 +6386,138 @@
   </si>
   <si>
     <t>Pangani</t>
+  </si>
+  <si>
+    <t>Abdel Kader</t>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>Isola di Chojama</t>
+  </si>
+  <si>
+    <t>Isole Key</t>
+  </si>
+  <si>
+    <t>Lelemboli</t>
+  </si>
+  <si>
+    <t>Presumably a town or island on the west coast of Africa</t>
+  </si>
+  <si>
+    <t>Presumably a town or island along the southern part of the Red Sea or Gulf of Aden (perhaps in Eritrea, Djibouti, or Somalia)</t>
+  </si>
+  <si>
+    <t>An island of the Indo West Pacific, but could be almost anywhere from east Africa through the central Pacific</t>
+  </si>
+  <si>
+    <t>Probably somewhere in or near Indonesia, the Philippines, or New Guinea</t>
+  </si>
+  <si>
+    <t>Presumably an island in or near southern Somalia</t>
+  </si>
+  <si>
+    <t>Hyogo Prefecture, Japan</t>
+  </si>
+  <si>
+    <t>Chikusa River Estuary, Hyogo Prefecture, Japan</t>
+  </si>
+  <si>
+    <t>Hyogo Prefecture</t>
+  </si>
+  <si>
+    <t>Chikusa River Estuary</t>
+  </si>
+  <si>
+    <t>Sawarmah</t>
+  </si>
+  <si>
+    <t>Oreste Point</t>
+  </si>
+  <si>
+    <t>Ria Formosa, Algarve, Portugal</t>
+  </si>
+  <si>
+    <t>Ria Formosa</t>
+  </si>
+  <si>
+    <t>Shi'b Abu Al Liqa'</t>
+  </si>
+  <si>
+    <t>Shi'b Abu Al Liqa', Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Sawarmah, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Oreste Point, Yemen</t>
+  </si>
+  <si>
+    <t>Bang La Mangrove Forest, Vietnam</t>
+  </si>
+  <si>
+    <t>Bang La Mangrove Forest</t>
+  </si>
+  <si>
+    <t>East Point Reserve</t>
+  </si>
+  <si>
+    <t>East Point Reserve, Darwin, Northern Territory, Australia</t>
+  </si>
+  <si>
+    <t>Brooks County, Texas, USA</t>
+  </si>
+  <si>
+    <t>Brooks County</t>
+  </si>
+  <si>
+    <t>Cameron County, Texas, USA</t>
+  </si>
+  <si>
+    <t>Resaca de la Palma State Park</t>
+  </si>
+  <si>
+    <t>Cameron County</t>
+  </si>
+  <si>
+    <t>Turneffe Atoll</t>
+  </si>
+  <si>
+    <t>Turneffe Atoll, Belize</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>Bonaerense</t>
+  </si>
+  <si>
+    <t>Evans Head</t>
+  </si>
+  <si>
+    <t>Evans Head, New South Wales, Australia</t>
+  </si>
+  <si>
+    <t>Bowling Green Bay, Queensland, Australia</t>
+  </si>
+  <si>
+    <t>Bowling Green Bay</t>
+  </si>
+  <si>
+    <t>Chula Vista, California, USA</t>
+  </si>
+  <si>
+    <t>Chula Vista</t>
+  </si>
+  <si>
+    <t>Resaca de la Palma State Park, Cameron County, Texas, USA</t>
   </si>
 </sst>
 </file>
@@ -6809,14 +6942,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T999"/>
+  <dimension ref="A1:T1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3030" ySplit="600" topLeftCell="A979" activePane="bottomRight"/>
+      <pane xSplit="3225" ySplit="600" topLeftCell="A994" activePane="bottomRight"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A831" sqref="A831:XFD831"/>
-      <selection pane="bottomRight" activeCell="G1000" sqref="G1000"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="A1016" sqref="A1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46799,6 +46932,852 @@
       <c r="R999" s="13"/>
       <c r="S999" s="13"/>
       <c r="T999" s="13"/>
+    </row>
+    <row r="1000" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="20" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1000" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1000" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1000" s="20" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E1000" s="20" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F1000" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1000" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1000" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1000" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1000" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1000" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1000" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="20" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1001" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1001" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1001" s="20" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E1001" s="20" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F1001" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1001" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1001" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1001" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1001" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1001" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1001" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="20" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1002" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1002" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1002" s="20" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E1002" s="20" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F1002" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1002" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1002" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1002" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1002" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1002" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1002" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="20" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1003" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1003" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1003" s="20" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E1003" s="20" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F1003" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1003" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1003" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1003" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1003" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1003" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1003" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="20" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B1004" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1004" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1004" s="20" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1004" s="20" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F1004" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1004" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1004" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1004" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1004" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1004" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1004" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1005" s="14" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1005" s="3">
+        <v>35.114106999999997</v>
+      </c>
+      <c r="C1005" s="3">
+        <v>134.83581699999999</v>
+      </c>
+      <c r="D1005" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1005" s="14" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F1005" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1005" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="H1005" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1005" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1005" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1005" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1005" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1006" s="13" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1006" s="3">
+        <v>34.740808000000001</v>
+      </c>
+      <c r="C1006" s="3">
+        <v>134.39196899999999</v>
+      </c>
+      <c r="D1006" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1006" s="13" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F1006" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1006" s="14" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H1006" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1006" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1006" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1006" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1006" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B1007" s="3">
+        <f>17+27/60+8/3600</f>
+        <v>17.452222222222222</v>
+      </c>
+      <c r="C1007" s="3">
+        <f>42+17/60+16/3600</f>
+        <v>42.287777777777777</v>
+      </c>
+      <c r="D1007" s="13" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1007" s="13" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F1007" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1007" s="13" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H1007" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1007" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1007" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1007" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1007" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1008" s="3">
+        <f>16+40/60+13/3600</f>
+        <v>16.67027777777778</v>
+      </c>
+      <c r="C1008" s="3">
+        <f>42+43/60+41/3600</f>
+        <v>42.728055555555557</v>
+      </c>
+      <c r="D1008" s="13" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1008" s="13" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F1008" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1008" s="13" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H1008" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1008" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1008" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1008" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1008" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1009" s="3">
+        <f>16+23/60+11/3600</f>
+        <v>16.386388888888888</v>
+      </c>
+      <c r="C1009" s="3">
+        <f>42+46/60+8/3600</f>
+        <v>42.768888888888888</v>
+      </c>
+      <c r="D1009" s="13" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1009" s="13" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F1009" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1009" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H1009" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1009" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1009" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1009" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1009" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1010" s="13" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1010" s="23">
+        <v>37.018192999999997</v>
+      </c>
+      <c r="C1010" s="23">
+        <v>-8.0032920000000001</v>
+      </c>
+      <c r="D1010" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1010" s="13" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F1010" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1010" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1010" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1010" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1010" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1010" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1010" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1011" s="3">
+        <v>24.267513999999998</v>
+      </c>
+      <c r="C1011" s="3">
+        <v>46.019311000000002</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1011" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F1011" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1011" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1011" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1011" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1011" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1011" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1011" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1012" s="3">
+        <f>20+46/60+22/3600</f>
+        <v>20.772777777777776</v>
+      </c>
+      <c r="C1012" s="3">
+        <f>106+40/60+6.93/3600</f>
+        <v>106.66859166666667</v>
+      </c>
+      <c r="D1012" s="13" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1012" s="13" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F1012" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1012" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H1012" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1012" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1012" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1012" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1012" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1013" s="13" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1013" s="23">
+        <v>-12.414944999999999</v>
+      </c>
+      <c r="C1013" s="23">
+        <v>130.83006800000001</v>
+      </c>
+      <c r="D1013" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1013" s="17" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F1013" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1013" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1013" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1013" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1013" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1013" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1013" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1014" s="3">
+        <v>27.201198999999999</v>
+      </c>
+      <c r="C1014" s="3">
+        <v>-98.055706000000001</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1014" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F1014" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1014" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="H1014" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1014" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1014" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1014" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1014" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1015" s="13" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1015" s="3">
+        <v>25.974143999999999</v>
+      </c>
+      <c r="C1015" s="3">
+        <v>-97.557365000000004</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1015" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F1015" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1015" s="13" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H1015" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1015" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1015" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1015" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1015" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1016" s="3">
+        <v>26.201933</v>
+      </c>
+      <c r="C1016" s="3">
+        <v>-97.298822999999999</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1016" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F1016" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1016" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="H1016" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1016" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1016" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1016" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1016" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1017" s="13" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1017" s="23">
+        <v>17.435803</v>
+      </c>
+      <c r="C1017" s="23">
+        <v>-87.832826999999995</v>
+      </c>
+      <c r="D1017" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1017" s="13" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F1017" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1017" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H1017" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1017" s="28">
+        <v>19.5</v>
+      </c>
+      <c r="J1017" s="28">
+        <v>-86.6</v>
+      </c>
+      <c r="K1017" s="28">
+        <v>15</v>
+      </c>
+      <c r="L1017" s="28">
+        <v>-90.4</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="13" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1018" s="23">
+        <v>-34.591310999999997</v>
+      </c>
+      <c r="C1018" s="23">
+        <v>-58.366439</v>
+      </c>
+      <c r="D1018" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1018" s="13" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F1018" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="G1018" s="13" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H1018" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1018" s="28">
+        <v>-21.5</v>
+      </c>
+      <c r="J1018" s="28">
+        <v>-51.3</v>
+      </c>
+      <c r="K1018" s="28">
+        <v>-55.6</v>
+      </c>
+      <c r="L1018" s="28">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1019" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B1019" s="23">
+        <f>-(29+27/60)</f>
+        <v>-29.45</v>
+      </c>
+      <c r="C1019" s="23">
+        <f>153+27/60</f>
+        <v>153.44999999999999</v>
+      </c>
+      <c r="D1019" s="13" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1019" s="17" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F1019" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1019" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1019" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1019" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1019" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1019" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1019" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1020" s="15" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1020" s="3">
+        <v>-19.404575000000001</v>
+      </c>
+      <c r="C1020" s="3">
+        <v>147.19784999999999</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1020" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F1020" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1020" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1020" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1020" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1020" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1020" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1020" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1021" s="15" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1021" s="3">
+        <v>32.638810999999997</v>
+      </c>
+      <c r="C1021" s="3">
+        <v>-117.11474699999999</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1021" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F1021" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1021" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="H1021" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1021" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1021" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1021" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1021" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L923"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="825" windowWidth="22995" windowHeight="12885"/>
+    <workbookView xWindow="240" yWindow="825" windowWidth="22995" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -12,15 +17,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$L$910</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$L$1059</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9382" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9402" uniqueCount="2201">
   <si>
     <t>Latitude</t>
   </si>
@@ -6611,12 +6616,24 @@
   </si>
   <si>
     <t>Waters River Marshes, Danvers, Masachusetts, USA</t>
+  </si>
+  <si>
+    <t>Andheri</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>Pacific coast of Honduras</t>
+  </si>
+  <si>
+    <t>Pacific coast of Guatemala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -6694,7 +6711,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -6728,6 +6745,8 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -6790,7 +6809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6823,9 +6842,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6858,6 +6894,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7033,35 +7086,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A1032" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A1061" sqref="A1061"/>
+      <pane ySplit="600" topLeftCell="A1036" activePane="bottomLeft"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="B1061" sqref="B1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.875" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="8.375" style="27" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" style="23" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="3" customWidth="1"/>
+    <col min="9" max="12" width="8.42578125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -46102,10 +46156,10 @@
       <c r="A977" t="s">
         <v>2004</v>
       </c>
-      <c r="B977" s="3">
+      <c r="B977" s="23">
         <v>21.931944999999999</v>
       </c>
-      <c r="C977" s="3">
+      <c r="C977" s="23">
         <v>88.908715999999998</v>
       </c>
       <c r="D977" t="s">
@@ -46186,10 +46240,10 @@
       <c r="A979" s="14" t="s">
         <v>2007</v>
       </c>
-      <c r="B979" s="3">
+      <c r="B979" s="23">
         <v>9.8969009999999997</v>
       </c>
-      <c r="C979" s="3">
+      <c r="C979" s="23">
         <v>98.567268999999996</v>
       </c>
       <c r="D979" t="s">
@@ -46224,10 +46278,10 @@
       <c r="A980" s="14" t="s">
         <v>2008</v>
       </c>
-      <c r="B980" s="3">
+      <c r="B980" s="23">
         <v>9.8969009999999997</v>
       </c>
-      <c r="C980" s="3">
+      <c r="C980" s="23">
         <v>98.567268999999996</v>
       </c>
       <c r="D980" t="s">
@@ -46262,10 +46316,10 @@
       <c r="A981" s="14" t="s">
         <v>2014</v>
       </c>
-      <c r="B981" s="3">
+      <c r="B981" s="23">
         <v>34.228783999999997</v>
       </c>
-      <c r="C981" s="3">
+      <c r="C981" s="23">
         <v>132.60576900000001</v>
       </c>
       <c r="D981" t="s">
@@ -46300,10 +46354,10 @@
       <c r="A982" s="14" t="s">
         <v>2012</v>
       </c>
-      <c r="B982" s="3">
+      <c r="B982" s="23">
         <v>34.240357000000003</v>
       </c>
-      <c r="C982" s="3">
+      <c r="C982" s="23">
         <v>132.757285</v>
       </c>
       <c r="D982" t="s">
@@ -46508,10 +46562,10 @@
       <c r="A987" s="20" t="s">
         <v>2024</v>
       </c>
-      <c r="B987" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C987" s="21" t="s">
+      <c r="B987" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C987" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D987" s="20" t="s">
@@ -46546,10 +46600,10 @@
       <c r="A988" s="20" t="s">
         <v>2025</v>
       </c>
-      <c r="B988" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C988" s="21" t="s">
+      <c r="B988" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C988" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D988" s="20" t="s">
@@ -46584,10 +46638,10 @@
       <c r="A989" s="20" t="s">
         <v>2026</v>
       </c>
-      <c r="B989" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C989" s="21" t="s">
+      <c r="B989" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C989" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D989" s="20" t="s">
@@ -46622,10 +46676,10 @@
       <c r="A990" s="20" t="s">
         <v>2027</v>
       </c>
-      <c r="B990" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C990" s="21" t="s">
+      <c r="B990" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C990" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D990" s="20" t="s">
@@ -46660,10 +46714,10 @@
       <c r="A991" s="20" t="s">
         <v>2028</v>
       </c>
-      <c r="B991" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C991" s="21" t="s">
+      <c r="B991" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C991" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D991" s="20" t="s">
@@ -46698,10 +46752,10 @@
       <c r="A992" s="14" t="s">
         <v>2034</v>
       </c>
-      <c r="B992" s="3">
+      <c r="B992" s="23">
         <v>35.114106999999997</v>
       </c>
-      <c r="C992" s="3">
+      <c r="C992" s="23">
         <v>134.83581699999999</v>
       </c>
       <c r="D992" s="13" t="s">
@@ -46736,10 +46790,10 @@
       <c r="A993" s="13" t="s">
         <v>2035</v>
       </c>
-      <c r="B993" s="3">
+      <c r="B993" s="23">
         <v>34.740808000000001</v>
       </c>
-      <c r="C993" s="3">
+      <c r="C993" s="23">
         <v>134.39196899999999</v>
       </c>
       <c r="D993" s="3" t="s">
@@ -46774,11 +46828,11 @@
       <c r="A994" t="s">
         <v>2042</v>
       </c>
-      <c r="B994" s="3">
+      <c r="B994" s="23">
         <f>17+27/60+8/3600</f>
         <v>17.452222222222222</v>
       </c>
-      <c r="C994" s="3">
+      <c r="C994" s="23">
         <f>42+17/60+16/3600</f>
         <v>42.287777777777777</v>
       </c>
@@ -46814,11 +46868,11 @@
       <c r="A995" t="s">
         <v>2044</v>
       </c>
-      <c r="B995" s="3">
+      <c r="B995" s="23">
         <f>16+40/60+13/3600</f>
         <v>16.67027777777778</v>
       </c>
-      <c r="C995" s="3">
+      <c r="C995" s="23">
         <f>42+43/60+41/3600</f>
         <v>42.728055555555557</v>
       </c>
@@ -46854,11 +46908,11 @@
       <c r="A996" t="s">
         <v>2045</v>
       </c>
-      <c r="B996" s="3">
+      <c r="B996" s="23">
         <f>16+23/60+11/3600</f>
         <v>16.386388888888888</v>
       </c>
-      <c r="C996" s="3">
+      <c r="C996" s="23">
         <f>42+46/60+8/3600</f>
         <v>42.768888888888888</v>
       </c>
@@ -46932,10 +46986,10 @@
       <c r="A998" t="s">
         <v>2043</v>
       </c>
-      <c r="B998" s="3">
+      <c r="B998" s="23">
         <v>24.267513999999998</v>
       </c>
-      <c r="C998" s="3">
+      <c r="C998" s="23">
         <v>46.019311000000002</v>
       </c>
       <c r="D998" t="s">
@@ -46970,11 +47024,11 @@
       <c r="A999" t="s">
         <v>2046</v>
       </c>
-      <c r="B999" s="3">
+      <c r="B999" s="23">
         <f>20+46/60+22/3600</f>
         <v>20.772777777777776</v>
       </c>
-      <c r="C999" s="3">
+      <c r="C999" s="23">
         <f>106+40/60+6.93/3600</f>
         <v>106.66859166666667</v>
       </c>
@@ -47048,10 +47102,10 @@
       <c r="A1001" t="s">
         <v>2050</v>
       </c>
-      <c r="B1001" s="3">
+      <c r="B1001" s="23">
         <v>27.201198999999999</v>
       </c>
-      <c r="C1001" s="3">
+      <c r="C1001" s="23">
         <v>-98.055706000000001</v>
       </c>
       <c r="D1001" t="s">
@@ -47086,10 +47140,10 @@
       <c r="A1002" s="13" t="s">
         <v>2066</v>
       </c>
-      <c r="B1002" s="3">
+      <c r="B1002" s="23">
         <v>25.974143999999999</v>
       </c>
-      <c r="C1002" s="3">
+      <c r="C1002" s="23">
         <v>-97.557365000000004</v>
       </c>
       <c r="D1002" t="s">
@@ -47124,10 +47178,10 @@
       <c r="A1003" t="s">
         <v>2052</v>
       </c>
-      <c r="B1003" s="3">
+      <c r="B1003" s="23">
         <v>26.201933</v>
       </c>
-      <c r="C1003" s="3">
+      <c r="C1003" s="23">
         <v>-97.298822999999999</v>
       </c>
       <c r="D1003" t="s">
@@ -47278,10 +47332,10 @@
       <c r="A1007" s="15" t="s">
         <v>2062</v>
       </c>
-      <c r="B1007" s="3">
+      <c r="B1007" s="23">
         <v>-19.404575000000001</v>
       </c>
-      <c r="C1007" s="3">
+      <c r="C1007" s="23">
         <v>147.19784999999999</v>
       </c>
       <c r="D1007" t="s">
@@ -47316,10 +47370,10 @@
       <c r="A1008" s="15" t="s">
         <v>2064</v>
       </c>
-      <c r="B1008" s="3">
+      <c r="B1008" s="23">
         <v>32.638810999999997</v>
       </c>
-      <c r="C1008" s="3">
+      <c r="C1008" s="23">
         <v>-117.11474699999999</v>
       </c>
       <c r="D1008" t="s">
@@ -47392,10 +47446,10 @@
       <c r="A1010" t="s">
         <v>2069</v>
       </c>
-      <c r="B1010" s="3">
+      <c r="B1010" s="23">
         <v>19.054444</v>
       </c>
-      <c r="C1010" s="3">
+      <c r="C1010" s="23">
         <v>72.840556000000007</v>
       </c>
       <c r="D1010" t="s">
@@ -47430,10 +47484,10 @@
       <c r="A1011" s="13" t="s">
         <v>2074</v>
       </c>
-      <c r="B1011" s="3">
+      <c r="B1011" s="23">
         <v>19.146744999999999</v>
       </c>
-      <c r="C1011" s="3">
+      <c r="C1011" s="23">
         <v>72.788811999999993</v>
       </c>
       <c r="D1011" s="13" t="s">
@@ -47468,10 +47522,10 @@
       <c r="A1012" t="s">
         <v>2075</v>
       </c>
-      <c r="B1012" s="3">
+      <c r="B1012" s="23">
         <v>15.41405</v>
       </c>
-      <c r="C1012" s="3">
+      <c r="C1012" s="23">
         <v>73.900395000000003</v>
       </c>
       <c r="D1012" s="13" t="s">
@@ -47506,10 +47560,10 @@
       <c r="A1013" s="14" t="s">
         <v>2081</v>
       </c>
-      <c r="B1013" s="3">
+      <c r="B1013" s="23">
         <v>9.9971960000000006</v>
       </c>
-      <c r="C1013" s="3">
+      <c r="C1013" s="23">
         <v>76.248164000000003</v>
       </c>
       <c r="D1013" t="s">
@@ -47544,10 +47598,10 @@
       <c r="A1014" s="14" t="s">
         <v>2082</v>
       </c>
-      <c r="B1014" s="3">
+      <c r="B1014" s="23">
         <v>10.085326</v>
       </c>
-      <c r="C1014" s="3">
+      <c r="C1014" s="23">
         <v>76.208585999999997</v>
       </c>
       <c r="D1014" t="s">
@@ -47582,10 +47636,10 @@
       <c r="A1015" s="14" t="s">
         <v>2087</v>
       </c>
-      <c r="B1015" s="3">
+      <c r="B1015" s="23">
         <v>8.0805559999999996</v>
       </c>
-      <c r="C1015" s="3">
+      <c r="C1015" s="23">
         <v>77.551722999999996</v>
       </c>
       <c r="D1015" t="s">
@@ -47620,17 +47674,17 @@
       <c r="A1016" s="13" t="s">
         <v>2088</v>
       </c>
-      <c r="B1016" s="3">
+      <c r="B1016" s="23">
         <v>19.146744999999999</v>
       </c>
-      <c r="C1016" s="3">
+      <c r="C1016" s="23">
         <v>72.788811999999993</v>
       </c>
       <c r="D1016" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E1016" s="3" t="s">
-        <v>2068</v>
+        <v>2197</v>
       </c>
       <c r="F1016" s="3" t="s">
         <v>7</v>
@@ -47658,10 +47712,10 @@
       <c r="A1017" s="15" t="s">
         <v>2089</v>
       </c>
-      <c r="B1017" s="3">
+      <c r="B1017" s="23">
         <v>-5.5378249999999998</v>
       </c>
-      <c r="C1017" s="3">
+      <c r="C1017" s="23">
         <v>123.77018200000001</v>
       </c>
       <c r="D1017" t="s">
@@ -47696,10 +47750,10 @@
       <c r="A1018" s="15" t="s">
         <v>2092</v>
       </c>
-      <c r="B1018" s="3">
+      <c r="B1018" s="23">
         <v>11.68</v>
       </c>
-      <c r="C1018" s="3">
+      <c r="C1018" s="23">
         <v>92.77</v>
       </c>
       <c r="D1018" s="13" t="s">
@@ -47848,10 +47902,10 @@
       <c r="A1022" s="15" t="s">
         <v>2105</v>
       </c>
-      <c r="B1022" s="3">
+      <c r="B1022" s="23">
         <v>12.164811</v>
       </c>
-      <c r="C1022" s="3">
+      <c r="C1022" s="23">
         <v>102.470747</v>
       </c>
       <c r="D1022" s="13" t="s">
@@ -47886,10 +47940,10 @@
       <c r="A1023" s="15" t="s">
         <v>2109</v>
       </c>
-      <c r="B1023" s="3">
+      <c r="B1023" s="23">
         <v>9.2372270000000007</v>
       </c>
-      <c r="C1023" s="3">
+      <c r="C1023" s="23">
         <v>99.246235999999996</v>
       </c>
       <c r="D1023" s="13" t="s">
@@ -47924,10 +47978,10 @@
       <c r="A1024" s="15" t="s">
         <v>2113</v>
       </c>
-      <c r="B1024" s="3">
+      <c r="B1024" s="23">
         <v>11.738125</v>
       </c>
-      <c r="C1024" s="3">
+      <c r="C1024" s="23">
         <v>99.810907</v>
       </c>
       <c r="D1024" t="s">
@@ -47962,10 +48016,10 @@
       <c r="A1025" s="15" t="s">
         <v>2115</v>
       </c>
-      <c r="B1025" s="3">
+      <c r="B1025" s="23">
         <v>8.5584100000000003</v>
       </c>
-      <c r="C1025" s="3">
+      <c r="C1025" s="23">
         <v>98.216070000000002</v>
       </c>
       <c r="D1025" s="13" t="s">
@@ -48086,7 +48140,7 @@
         <v>7</v>
       </c>
       <c r="E1028" s="3" t="s">
-        <v>1029</v>
+        <v>2198</v>
       </c>
       <c r="F1028" s="3" t="s">
         <v>7</v>
@@ -48228,11 +48282,11 @@
       <c r="A1032" s="15" t="s">
         <v>2141</v>
       </c>
-      <c r="B1032" s="3">
+      <c r="B1032" s="23">
         <f>-(23+24/60+57/3600)</f>
         <v>-23.415833333333332</v>
       </c>
-      <c r="C1032" s="3">
+      <c r="C1032" s="23">
         <f>-(45+3/60+12/3600)</f>
         <v>-45.053333333333327</v>
       </c>
@@ -48268,11 +48322,11 @@
       <c r="A1033" s="15" t="s">
         <v>2143</v>
       </c>
-      <c r="B1033" s="3">
+      <c r="B1033" s="23">
         <f>-(23+20/60+17/3600)</f>
         <v>-23.338055555555556</v>
       </c>
-      <c r="C1033" s="3">
+      <c r="C1033" s="23">
         <f>-(44+53/60+2/3600)</f>
         <v>-44.88388888888889</v>
       </c>
@@ -48308,11 +48362,11 @@
       <c r="A1034" s="28" t="s">
         <v>2145</v>
       </c>
-      <c r="B1034" s="3">
+      <c r="B1034" s="23">
         <f>39+27/60+2.68/3600</f>
         <v>39.450744444444446</v>
       </c>
-      <c r="C1034" s="3">
+      <c r="C1034" s="23">
         <f>-(74+25/60+17.61/3600)</f>
         <v>-74.421558333333337</v>
       </c>
@@ -48348,10 +48402,10 @@
       <c r="A1035" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="B1035" s="3">
+      <c r="B1035" s="23">
         <v>39.442863000000003</v>
       </c>
-      <c r="C1035" s="3">
+      <c r="C1035" s="23">
         <v>-74.393827000000002</v>
       </c>
       <c r="D1035" s="13" t="s">
@@ -48386,10 +48440,10 @@
       <c r="A1036" s="15" t="s">
         <v>2150</v>
       </c>
-      <c r="B1036" s="3">
+      <c r="B1036" s="23">
         <v>21.607123000000001</v>
       </c>
-      <c r="C1036" s="3">
+      <c r="C1036" s="23">
         <v>-97.549682000000004</v>
       </c>
       <c r="D1036" t="s">
@@ -48424,11 +48478,11 @@
       <c r="A1037" s="15" t="s">
         <v>2151</v>
       </c>
-      <c r="B1037" s="3">
+      <c r="B1037" s="23">
         <f>42+55/60+27/3600</f>
         <v>42.924166666666665</v>
       </c>
-      <c r="C1037" s="3">
+      <c r="C1037" s="23">
         <f>-(70+49/60+13/3600)</f>
         <v>-70.820277777777775</v>
       </c>
@@ -48464,11 +48518,11 @@
       <c r="A1038" s="15" t="s">
         <v>2153</v>
       </c>
-      <c r="B1038" s="3">
+      <c r="B1038" s="23">
         <f t="shared" ref="B1038:B1039" si="0">42+55/60+27/3600</f>
         <v>42.924166666666665</v>
       </c>
-      <c r="C1038" s="3">
+      <c r="C1038" s="23">
         <f t="shared" ref="C1038:C1039" si="1">-(70+49/60+13/3600)</f>
         <v>-70.820277777777775</v>
       </c>
@@ -48504,11 +48558,11 @@
       <c r="A1039" s="15" t="s">
         <v>2156</v>
       </c>
-      <c r="B1039" s="3">
+      <c r="B1039" s="23">
         <f t="shared" si="0"/>
         <v>42.924166666666665</v>
       </c>
-      <c r="C1039" s="3">
+      <c r="C1039" s="23">
         <f t="shared" si="1"/>
         <v>-70.820277777777775</v>
       </c>
@@ -48544,11 +48598,11 @@
       <c r="A1040" s="15" t="s">
         <v>2157</v>
       </c>
-      <c r="B1040" s="3">
+      <c r="B1040" s="23">
         <f>42+49/60+57/3600</f>
         <v>42.832500000000003</v>
       </c>
-      <c r="C1040" s="3">
+      <c r="C1040" s="23">
         <f>-(70+49/60+6/3600)</f>
         <v>-70.818333333333328</v>
       </c>
@@ -48584,11 +48638,11 @@
       <c r="A1041" s="15" t="s">
         <v>2158</v>
       </c>
-      <c r="B1041" s="3">
+      <c r="B1041" s="23">
         <f>42+49/60+57/3600</f>
         <v>42.832500000000003</v>
       </c>
-      <c r="C1041" s="3">
+      <c r="C1041" s="23">
         <f>-(70+49/60+6/3600)</f>
         <v>-70.818333333333328</v>
       </c>
@@ -48624,11 +48678,11 @@
       <c r="A1042" s="15" t="s">
         <v>2161</v>
       </c>
-      <c r="B1042" s="3">
+      <c r="B1042" s="23">
         <f>42+46/60+34/3600</f>
         <v>42.776111111111113</v>
       </c>
-      <c r="C1042" s="3">
+      <c r="C1042" s="23">
         <f>-(70+49/60+42/3600)</f>
         <v>-70.828333333333333</v>
       </c>
@@ -48664,11 +48718,11 @@
       <c r="A1043" s="15" t="s">
         <v>2164</v>
       </c>
-      <c r="B1043" s="3">
+      <c r="B1043" s="23">
         <f>42+46/60+34/3600</f>
         <v>42.776111111111113</v>
       </c>
-      <c r="C1043" s="3">
+      <c r="C1043" s="23">
         <f>-(70+49/60+42/3600)</f>
         <v>-70.828333333333333</v>
       </c>
@@ -48704,11 +48758,11 @@
       <c r="A1044" s="15" t="s">
         <v>2165</v>
       </c>
-      <c r="B1044" s="3">
+      <c r="B1044" s="23">
         <f t="shared" ref="B1044:B1045" si="2">42+44/60+37/3600</f>
         <v>42.743611111111115</v>
       </c>
-      <c r="C1044" s="3">
+      <c r="C1044" s="23">
         <f t="shared" ref="C1044:C1045" si="3">-(70+50/60+13/3600)</f>
         <v>-70.836944444444441</v>
       </c>
@@ -48744,11 +48798,11 @@
       <c r="A1045" s="15" t="s">
         <v>2168</v>
       </c>
-      <c r="B1045" s="3">
+      <c r="B1045" s="23">
         <f t="shared" si="2"/>
         <v>42.743611111111115</v>
       </c>
-      <c r="C1045" s="3">
+      <c r="C1045" s="23">
         <f t="shared" si="3"/>
         <v>-70.836944444444441</v>
       </c>
@@ -48784,11 +48838,11 @@
       <c r="A1046" s="15" t="s">
         <v>2170</v>
       </c>
-      <c r="B1046" s="3">
+      <c r="B1046" s="23">
         <f>42+44/60+37/3600</f>
         <v>42.743611111111115</v>
       </c>
-      <c r="C1046" s="3">
+      <c r="C1046" s="23">
         <f>-(70+50/60+13/3600)</f>
         <v>-70.836944444444441</v>
       </c>
@@ -48824,11 +48878,11 @@
       <c r="A1047" s="15" t="s">
         <v>2171</v>
       </c>
-      <c r="B1047" s="3">
+      <c r="B1047" s="23">
         <f>42+43/60+16/3600</f>
         <v>42.721111111111114</v>
       </c>
-      <c r="C1047" s="3">
+      <c r="C1047" s="23">
         <f>-(70+50/60+51/3600)</f>
         <v>-70.847499999999997</v>
       </c>
@@ -48864,11 +48918,11 @@
       <c r="A1048" s="15" t="s">
         <v>2173</v>
       </c>
-      <c r="B1048" s="3">
+      <c r="B1048" s="23">
         <f>42+43/60+16/3600</f>
         <v>42.721111111111114</v>
       </c>
-      <c r="C1048" s="3">
+      <c r="C1048" s="23">
         <f>-(70+50/60+51/3600)</f>
         <v>-70.847499999999997</v>
       </c>
@@ -48904,11 +48958,11 @@
       <c r="A1049" s="15" t="s">
         <v>2175</v>
       </c>
-      <c r="B1049" s="3">
+      <c r="B1049" s="23">
         <f>42+38/60+7/3600</f>
         <v>42.63527777777778</v>
       </c>
-      <c r="C1049" s="3">
+      <c r="C1049" s="23">
         <f>-(70+45/60+47/3600)</f>
         <v>-70.763055555555553</v>
       </c>
@@ -48944,11 +48998,11 @@
       <c r="A1050" s="15" t="s">
         <v>2178</v>
       </c>
-      <c r="B1050" s="3">
+      <c r="B1050" s="23">
         <f>42+38/60+7/3600</f>
         <v>42.63527777777778</v>
       </c>
-      <c r="C1050" s="3">
+      <c r="C1050" s="23">
         <f>-(70+45/60+47/3600)</f>
         <v>-70.763055555555553</v>
       </c>
@@ -48984,10 +49038,10 @@
       <c r="A1051" s="15" t="s">
         <v>2179</v>
       </c>
-      <c r="B1051" s="3">
+      <c r="B1051" s="23">
         <v>42.610613999999998</v>
       </c>
-      <c r="C1051" s="3">
+      <c r="C1051" s="23">
         <v>-70.658931999999993</v>
       </c>
       <c r="D1051" s="13" t="s">
@@ -49022,11 +49076,11 @@
       <c r="A1052" s="15" t="s">
         <v>2182</v>
       </c>
-      <c r="B1052" s="3">
+      <c r="B1052" s="23">
         <f>42+38/60+14/3600</f>
         <v>42.637222222222221</v>
       </c>
-      <c r="C1052" s="3">
+      <c r="C1052" s="23">
         <f>-(70+42/60+4/3600)</f>
         <v>-70.701111111111118</v>
       </c>
@@ -49062,10 +49116,10 @@
       <c r="A1053" s="15" t="s">
         <v>2183</v>
       </c>
-      <c r="B1053" s="3">
+      <c r="B1053" s="23">
         <v>42.574767000000001</v>
       </c>
-      <c r="C1053" s="3">
+      <c r="C1053" s="23">
         <v>-70.772897999999998</v>
       </c>
       <c r="D1053" t="s">
@@ -49100,11 +49154,11 @@
       <c r="A1054" s="3" t="s">
         <v>2187</v>
       </c>
-      <c r="B1054" s="3">
+      <c r="B1054" s="23">
         <f>42+34/60+41/3600</f>
         <v>42.578055555555558</v>
       </c>
-      <c r="C1054" s="3">
+      <c r="C1054" s="23">
         <f>-(70+44/60+7/3600)</f>
         <v>-70.735277777777782</v>
       </c>
@@ -49140,11 +49194,11 @@
       <c r="A1055" s="3" t="s">
         <v>2188</v>
       </c>
-      <c r="B1055" s="3">
+      <c r="B1055" s="23">
         <f>42+33/60+56/3600</f>
         <v>42.565555555555555</v>
       </c>
-      <c r="C1055" s="3">
+      <c r="C1055" s="23">
         <f>-(70+47/60+34/3600)</f>
         <v>-70.792777777777772</v>
       </c>
@@ -49180,11 +49234,11 @@
       <c r="A1056" s="15" t="s">
         <v>2189</v>
       </c>
-      <c r="B1056" s="3">
+      <c r="B1056" s="23">
         <f>42+32/60+48/3600</f>
         <v>42.546666666666667</v>
       </c>
-      <c r="C1056" s="3">
+      <c r="C1056" s="23">
         <f>-(70+56/60+25/3600)</f>
         <v>-70.94027777777778</v>
       </c>
@@ -49220,11 +49274,11 @@
       <c r="A1057" s="15" t="s">
         <v>2190</v>
       </c>
-      <c r="B1057" s="3">
+      <c r="B1057" s="23">
         <f>42+13/60+35/3600</f>
         <v>42.226388888888891</v>
       </c>
-      <c r="C1057" s="3">
+      <c r="C1057" s="23">
         <f>-(70+46/60+26/3600)</f>
         <v>-70.773888888888891</v>
       </c>
@@ -49260,11 +49314,11 @@
       <c r="A1058" s="3" t="s">
         <v>2196</v>
       </c>
-      <c r="B1058" s="3">
+      <c r="B1058" s="23">
         <f>42+32/60+48/3600</f>
         <v>42.546666666666667</v>
       </c>
-      <c r="C1058" s="3">
+      <c r="C1058" s="23">
         <f>-(70+56/60+25/3600)</f>
         <v>-70.94027777777778</v>
       </c>
@@ -49300,11 +49354,11 @@
       <c r="A1059" s="15" t="s">
         <v>2195</v>
       </c>
-      <c r="B1059" s="3">
+      <c r="B1059" s="23">
         <f>42+13/60+35/3600</f>
         <v>42.226388888888891</v>
       </c>
-      <c r="C1059" s="3">
+      <c r="C1059" s="23">
         <f>-(70+46/60+26/3600)</f>
         <v>-70.773888888888891</v>
       </c>
@@ -49336,14 +49390,87 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1061" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1061" s="15"/>
+    <row r="1060" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1060" s="16" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1060" s="23">
+        <v>13.41362</v>
+      </c>
+      <c r="C1060" s="23">
+        <v>-87.397666999999998</v>
+      </c>
+      <c r="D1060" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1060" s="16" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F1060" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1060" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1060" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1060" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1060" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1060" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1060" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="13" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1061" s="23">
+        <v>13.919836999999999</v>
+      </c>
+      <c r="C1061" s="23">
+        <v>-91.103221000000005</v>
+      </c>
+      <c r="D1061" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1061" s="13" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F1061" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1061" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1061" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1061" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1061" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1061" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1061" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1062" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1062" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L910"/>
+  <autoFilter ref="A1:L1059" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:T926">
     <sortCondition ref="G2:G926"/>
     <sortCondition ref="A2:A926"/>
@@ -49354,7 +49481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -49366,7 +49493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="825" windowWidth="22995" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="825" windowWidth="22995" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -19,13 +14,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$L$1058</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9392" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9422" uniqueCount="2205">
   <si>
     <t>Latitude</t>
   </si>
@@ -6622,12 +6617,30 @@
   </si>
   <si>
     <t>Pacific coast of Guatemala</t>
+  </si>
+  <si>
+    <t>Goleta Slough, Santa Barbara, California, USA</t>
+  </si>
+  <si>
+    <t>Goleta Slough</t>
+  </si>
+  <si>
+    <t>Santa Barbara, California, USA</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>Aransas County, Texas, USA</t>
+  </si>
+  <si>
+    <t>Aransas County</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -6803,7 +6816,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6836,26 +6849,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6888,23 +6884,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7080,26 +7059,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1061"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T1063"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A640" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A1038" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="A655" sqref="A655"/>
+      <selection pane="bottomLeft" activeCell="A1046" sqref="A1:L1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="13" style="23" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="3" customWidth="1"/>
-    <col min="9" max="12" width="8.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="38.875" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="8.375" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -49423,10 +49402,123 @@
       </c>
     </row>
     <row r="1061" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1061" s="15"/>
+      <c r="A1061" s="15" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1061" s="23">
+        <f>34+25/60</f>
+        <v>34.416666666666664</v>
+      </c>
+      <c r="C1061" s="23">
+        <f>-(119+50/60)</f>
+        <v>-119.83333333333333</v>
+      </c>
+      <c r="D1061" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E1061" s="13" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F1061" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1061" s="15" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H1061" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1061" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1061" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1061" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1061" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1062" s="15" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1062" s="23">
+        <v>34.411288999999996</v>
+      </c>
+      <c r="C1062" s="23">
+        <v>-119.687962</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1062" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F1062" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1062" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="H1062" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1062" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1062" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1062" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1062" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1063" s="15" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B1063" s="23">
+        <v>28.066286000000002</v>
+      </c>
+      <c r="C1063" s="23">
+        <v>-96.990616000000003</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1063" s="15" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F1063" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1063" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="H1063" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1063" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1063" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1063" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1063" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1058" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1058"/>
   <sortState ref="A2:T925">
     <sortCondition ref="G2:G925"/>
     <sortCondition ref="A2:A925"/>
@@ -49437,7 +49529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -49449,7 +49541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9842" uniqueCount="2287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9852" uniqueCount="2288">
   <si>
     <t>Latitude</t>
   </si>
@@ -6881,6 +6881,9 @@
   </si>
   <si>
     <t>Bazhang River</t>
+  </si>
+  <si>
+    <t>Pacific coast of United States</t>
   </si>
 </sst>
 </file>
@@ -7306,12 +7309,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1109"/>
+  <dimension ref="A1:T1110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A1108" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A1088" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="A1110" sqref="A1110"/>
+      <selection pane="bottomLeft" activeCell="A1115" sqref="A1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51273,7 +51276,7 @@
         <v>-25.263362000000001</v>
       </c>
       <c r="C1103" s="23">
-        <v>142.804811</v>
+        <v>152.804811</v>
       </c>
       <c r="D1103" s="13" t="s">
         <v>7</v>
@@ -51538,6 +51541,52 @@
       <c r="L1109" s="27">
         <v>119</v>
       </c>
+    </row>
+    <row r="1110" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1110" s="14" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B1110" s="24">
+        <v>32.704906999999999</v>
+      </c>
+      <c r="C1110" s="24">
+        <v>-117.167232</v>
+      </c>
+      <c r="D1110" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1110" s="14" t="s">
+        <v>2287</v>
+      </c>
+      <c r="F1110" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1110" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1110" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1110" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1110" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1110" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1110" s="14"/>
+      <c r="N1110" s="14"/>
+      <c r="O1110" s="14"/>
+      <c r="P1110" s="14"/>
+      <c r="Q1110" s="14"/>
+      <c r="R1110" s="14"/>
+      <c r="S1110" s="14"/>
+      <c r="T1110" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1046"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -7312,9 +7312,9 @@
   <dimension ref="A1:T1110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A1088" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A596" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="A1115" sqref="A1115"/>
+      <selection pane="bottomLeft" activeCell="A617" sqref="A617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31703,7 +31703,7 @@
         <v>7</v>
       </c>
       <c r="G617" s="3" t="s">
-        <v>59</v>
+        <v>787</v>
       </c>
       <c r="H617" s="3" t="s">
         <v>7</v>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10995" uniqueCount="2306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11158" uniqueCount="2346">
   <si>
     <t>Latitude</t>
   </si>
@@ -4942,27 +4942,9 @@
     <t>Alternate Names</t>
   </si>
   <si>
-    <t>Albemarle Island</t>
-  </si>
-  <si>
     <t>South Seymour Island</t>
   </si>
   <si>
-    <t>James Island;San Salvador Island</t>
-  </si>
-  <si>
-    <t>Indefatigable Island</t>
-  </si>
-  <si>
-    <t>Charles Island;Santa Maria Island</t>
-  </si>
-  <si>
-    <t>Tower Island</t>
-  </si>
-  <si>
-    <t>Narborough Island</t>
-  </si>
-  <si>
     <t>Kollan Island</t>
   </si>
   <si>
@@ -6938,6 +6920,144 @@
   </si>
   <si>
     <t>Doflein (1899) describes a new species labeled as collected from Tefé, Brazil. The specimen has since been identified as the species &lt;em class="species"&gt;Uca chlorophthalmus.&lt;/em&gt; Since Tefé is from the interior of the country without an ocean border, the collection location is clearly incorrect and the specimen was likely collected somewhere from the east coast of Africa and then subsequently mislabled.</t>
+  </si>
+  <si>
+    <t>Ayiramthengu, Kerala, India</t>
+  </si>
+  <si>
+    <t>Ayiramthengu</t>
+  </si>
+  <si>
+    <t>Irvine Island</t>
+  </si>
+  <si>
+    <t>Shirley Island</t>
+  </si>
+  <si>
+    <t>Bernoulli Island</t>
+  </si>
+  <si>
+    <t>Northwestern coast of Australia between Broome and the Northern Territory</t>
+  </si>
+  <si>
+    <t>Heywood Island</t>
+  </si>
+  <si>
+    <t>Irvine Island, Kimberley, Western Australia, Australia</t>
+  </si>
+  <si>
+    <t>Shirley Island, Kimberley, Western Australia, Australia</t>
+  </si>
+  <si>
+    <t>Heywood Island, Kimberley, Western Australia, Australia</t>
+  </si>
+  <si>
+    <t>Bernoulli Island, Kimberley, Western Australia, Australia</t>
+  </si>
+  <si>
+    <t>Tsuyazaki, Fukuoka, Kyūshū, Japan</t>
+  </si>
+  <si>
+    <t>Tsuyazaki</t>
+  </si>
+  <si>
+    <t>Saloum, Senegal</t>
+  </si>
+  <si>
+    <t>Saloum</t>
+  </si>
+  <si>
+    <t>North Newport River, Georgia, USA</t>
+  </si>
+  <si>
+    <t>North Newport River</t>
+  </si>
+  <si>
+    <t>Bijagós Archipelago, Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Bijagós Archipelago</t>
+  </si>
+  <si>
+    <t>Bay Champagne, Louisiana, USA</t>
+  </si>
+  <si>
+    <t>Bay Champagne</t>
+  </si>
+  <si>
+    <t>Port Fourchon, Louisiana, USA</t>
+  </si>
+  <si>
+    <t>Port Fourchon</t>
+  </si>
+  <si>
+    <t>Academy Bay</t>
+  </si>
+  <si>
+    <t>Academy Bay, Santa Cruz Island, Galápagos Islands</t>
+  </si>
+  <si>
+    <t>Punta Cormorant</t>
+  </si>
+  <si>
+    <t>Punta Cormorant, Floreana Island, Galápagos Islands</t>
+  </si>
+  <si>
+    <t>Great Darwin Bay</t>
+  </si>
+  <si>
+    <t>Great Darwin Bay, Genovesa Island, Galápagos Islands</t>
+  </si>
+  <si>
+    <t>Mangle Point</t>
+  </si>
+  <si>
+    <t>Mangle Point, Fernandina Island, Galápagos Islands</t>
+  </si>
+  <si>
+    <t>Punta Manglar</t>
+  </si>
+  <si>
+    <t>Bahia Darwin</t>
+  </si>
+  <si>
+    <t>Punta Cormoran</t>
+  </si>
+  <si>
+    <t>Narborough Island;Isla Fernandina</t>
+  </si>
+  <si>
+    <t>Charles Island;Santa Maria Island;Isla Floreana</t>
+  </si>
+  <si>
+    <t>Tower Island;Isla Genovesa</t>
+  </si>
+  <si>
+    <t>Albemarle Island;Isla Isabela</t>
+  </si>
+  <si>
+    <t>Indefatigable Island;Isla Santa Cdruz</t>
+  </si>
+  <si>
+    <t>James Island;San Salvador Island;Isla Santiago</t>
+  </si>
+  <si>
+    <t>Isla Eden</t>
+  </si>
+  <si>
+    <t>James Bay</t>
+  </si>
+  <si>
+    <t>Bahia James</t>
+  </si>
+  <si>
+    <t>James Bay, Santiago Island, Galápagos Islands</t>
+  </si>
+  <si>
+    <t>Caleta Black</t>
+  </si>
+  <si>
+    <t>Caleta Black, Isabela Island, Galápagos Islands</t>
   </si>
 </sst>
 </file>
@@ -7363,12 +7483,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1113"/>
+  <dimension ref="A1:U1130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A214" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A1113" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="D223" sqref="D223"/>
+      <selection pane="bottomLeft" activeCell="C1135" sqref="C1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7396,10 +7516,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2293</v>
+        <v>2287</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>989</v>
@@ -7411,19 +7531,19 @@
         <v>899</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>1759</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>1760</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>1761</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>1764</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>1765</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>1766</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7437,7 +7557,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>6</v>
@@ -7452,7 +7572,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J2" s="26">
         <v>46</v>
@@ -7469,7 +7589,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="B3" s="23">
         <v>-9.4168055555555554</v>
@@ -7531,7 +7651,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>6</v>
@@ -7682,7 +7802,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="B8" s="23">
         <v>-34.591310999999997</v>
@@ -7694,10 +7814,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>6</v>
@@ -7846,7 +7966,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="B12" s="23">
         <v>-6</v>
@@ -8067,7 +8187,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="B17" s="23">
         <v>-16.494444444444447</v>
@@ -8251,7 +8371,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>983</v>
@@ -8263,7 +8383,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J21" s="26">
         <v>60</v>
@@ -9148,7 +9268,7 @@
         <v>0.58085600000000004</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>6</v>
@@ -9163,7 +9283,7 @@
         <v>6</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J41" s="26" t="s">
         <v>6</v>
@@ -9550,7 +9670,7 @@
         <v>673</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>6</v>
@@ -9837,7 +9957,7 @@
         <v>412</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>6</v>
@@ -9983,7 +10103,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="B61" s="23">
         <v>-28.716666666666665</v>
@@ -10001,7 +10121,7 @@
         <v>838</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>924</v>
@@ -10984,7 +11104,7 @@
         <v>152</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>6</v>
@@ -11015,7 +11135,7 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="B85" s="23">
         <v>-12.819304000000001</v>
@@ -11030,7 +11150,7 @@
         <v>6</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>6</v>
@@ -11254,7 +11374,7 @@
         <v>549</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>912</v>
@@ -11295,7 +11415,7 @@
         <v>904</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="H91" s="17" t="s">
         <v>6</v>
@@ -11425,7 +11545,7 @@
         <v>174</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>6</v>
@@ -11527,7 +11647,7 @@
         <v>6</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>6</v>
@@ -11729,7 +11849,7 @@
         <v>367</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>6</v>
@@ -12360,7 +12480,7 @@
         <v>364</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>6</v>
@@ -12752,7 +12872,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="B126" s="23">
         <v>34.908948000000002</v>
@@ -12767,7 +12887,7 @@
         <v>6</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>6</v>
@@ -12934,7 +13054,7 @@
         <v>249</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>6</v>
@@ -13098,7 +13218,7 @@
         <v>340</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>6</v>
@@ -13139,7 +13259,7 @@
         <v>137</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>6</v>
@@ -13180,7 +13300,7 @@
         <v>328</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>6</v>
@@ -13344,7 +13464,7 @@
         <v>365</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>6</v>
@@ -13580,10 +13700,10 @@
         <v>30.733333333333334</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="F145" s="19" t="s">
         <v>921</v>
@@ -13595,7 +13715,7 @@
         <v>6</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J145" s="26" t="s">
         <v>6</v>
@@ -13681,7 +13801,7 @@
         <v>6</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="F147" s="14" t="s">
         <v>922</v>
@@ -13785,7 +13905,7 @@
         <v>691</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>6</v>
@@ -13875,7 +13995,7 @@
         <v>919</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="H151" s="17" t="s">
         <v>6</v>
@@ -14268,7 +14388,7 @@
         <v>1491</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="H160" s="14" t="s">
         <v>167</v>
@@ -14332,7 +14452,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="B162" s="23">
         <f>-(12+20/60)</f>
@@ -14349,7 +14469,7 @@
         <v>6</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>6</v>
@@ -14393,7 +14513,7 @@
         <v>1335</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="H163" s="14" t="s">
         <v>167</v>
@@ -14498,7 +14618,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="B166" s="23">
         <f>-(37+46/60)</f>
@@ -14512,16 +14632,16 @@
         <v>6</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>6</v>
@@ -14559,7 +14679,7 @@
         <v>1498</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="H167" s="13" t="s">
         <v>757</v>
@@ -14787,7 +14907,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="B173" s="23">
         <v>-15.75</v>
@@ -14802,7 +14922,7 @@
         <v>6</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>6</v>
@@ -15663,7 +15783,7 @@
         <v>597</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>6</v>
@@ -15894,7 +16014,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="B200" s="23">
         <v>8.9478819999999999</v>
@@ -15915,7 +16035,7 @@
         <v>6</v>
       </c>
       <c r="H200" s="13" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="I200" s="3" t="s">
         <v>6</v>
@@ -15950,10 +16070,10 @@
         <v>6</v>
       </c>
       <c r="F201" s="17" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>913</v>
@@ -16967,7 +17087,7 @@
         <v>-64.721029000000001</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="E224" s="18" t="s">
         <v>6</v>
@@ -16982,7 +17102,7 @@
         <v>490</v>
       </c>
       <c r="I224" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J224" s="26">
         <v>8.65</v>
@@ -17031,7 +17151,7 @@
         <v>980</v>
       </c>
       <c r="I225" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J225" s="26" t="s">
         <v>6</v>
@@ -17071,7 +17191,7 @@
         <v>6</v>
       </c>
       <c r="F226" s="19" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="G226" s="19" t="s">
         <v>6</v>
@@ -17080,7 +17200,7 @@
         <v>980</v>
       </c>
       <c r="I226" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J226" s="26" t="s">
         <v>6</v>
@@ -17379,7 +17499,7 @@
         <v>6</v>
       </c>
       <c r="E233" s="18" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="F233" s="19" t="s">
         <v>1589</v>
@@ -17391,7 +17511,7 @@
         <v>983</v>
       </c>
       <c r="I233" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J233" s="26">
         <v>60</v>
@@ -17475,7 +17595,7 @@
         <v>1223</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="H235" s="13" t="s">
         <v>868</v>
@@ -17516,7 +17636,7 @@
         <v>1224</v>
       </c>
       <c r="G236" s="13" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="H236" s="13" t="s">
         <v>868</v>
@@ -17834,7 +17954,7 @@
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="B244" s="23">
         <v>22.344864000000001</v>
@@ -17849,10 +17969,10 @@
         <v>355</v>
       </c>
       <c r="F244" s="13" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="H244" s="14" t="s">
         <v>348</v>
@@ -17942,7 +18062,7 @@
         <v>1453</v>
       </c>
       <c r="G246" s="13" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="H246" s="14" t="s">
         <v>348</v>
@@ -18196,10 +18316,10 @@
         <v>1212</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="H252" s="13" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="I252" s="3" t="s">
         <v>6</v>
@@ -18499,7 +18619,7 @@
         <v>1109</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="H259" s="13" t="s">
         <v>191</v>
@@ -18712,7 +18832,7 @@
         <v>1456</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="H264" s="13" t="s">
         <v>191</v>
@@ -19081,7 +19201,7 @@
         <v>1119</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="H273" s="3" t="s">
         <v>902</v>
@@ -19832,7 +19952,7 @@
         <v>218</v>
       </c>
       <c r="F291" s="17" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>6</v>
@@ -19989,7 +20109,7 @@
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="B295" s="23">
         <v>12.132548999999999</v>
@@ -20004,10 +20124,10 @@
         <v>6</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="H295" s="13" t="s">
         <v>421</v>
@@ -20120,7 +20240,7 @@
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="B298" s="23">
         <f>-(6+1/60)</f>
@@ -20137,7 +20257,7 @@
         <v>6</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>6</v>
@@ -20260,7 +20380,7 @@
         <v>6</v>
       </c>
       <c r="F301" s="17" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>6</v>
@@ -20614,7 +20734,7 @@
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="B310" s="23">
         <v>28.208651</v>
@@ -20629,10 +20749,10 @@
         <v>6</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="H310" s="3" t="s">
         <v>914</v>
@@ -20737,7 +20857,7 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="B313" s="23">
         <v>28.165970999999999</v>
@@ -20752,7 +20872,7 @@
         <v>6</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>6</v>
@@ -20819,7 +20939,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="13" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="B315" s="23">
         <v>27.740449999999999</v>
@@ -20834,7 +20954,7 @@
         <v>6</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="G315" s="3" t="s">
         <v>6</v>
@@ -20878,7 +20998,7 @@
         <v>1238</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="H316" s="13" t="s">
         <v>399</v>
@@ -20916,7 +21036,7 @@
         <v>6</v>
       </c>
       <c r="F317" s="17" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="G317" s="3" t="s">
         <v>6</v>
@@ -21115,7 +21235,7 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="D322" s="18" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="E322" s="18" t="s">
         <v>6</v>
@@ -21130,7 +21250,7 @@
         <v>920</v>
       </c>
       <c r="I322" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J322" s="26" t="s">
         <v>6</v>
@@ -21411,7 +21531,7 @@
         <v>1302</v>
       </c>
       <c r="G329" s="3" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="H329" s="13" t="s">
         <v>502</v>
@@ -21695,7 +21815,7 @@
         <v>6</v>
       </c>
       <c r="F336" s="17" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="G336" s="3" t="s">
         <v>6</v>
@@ -21762,7 +21882,7 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="B338" s="23">
         <v>24.659576000000001</v>
@@ -21777,7 +21897,7 @@
         <v>6</v>
       </c>
       <c r="F338" s="17" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="G338" s="3" t="s">
         <v>6</v>
@@ -23048,7 +23168,7 @@
         <v>6</v>
       </c>
       <c r="F369" s="17" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>6</v>
@@ -24000,7 +24120,7 @@
     </row>
     <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="B392" s="23">
         <v>-23.117222222222221</v>
@@ -24108,7 +24228,7 @@
         <v>1541</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="H394" s="13" t="s">
         <v>375</v>
@@ -24149,7 +24269,7 @@
         <v>1577</v>
       </c>
       <c r="G395" s="15" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="H395" s="13" t="s">
         <v>954</v>
@@ -24190,7 +24310,7 @@
         <v>1575</v>
       </c>
       <c r="G396" s="15" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="H396" s="13" t="s">
         <v>954</v>
@@ -24231,7 +24351,7 @@
         <v>1578</v>
       </c>
       <c r="G397" s="13" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="H397" s="13" t="s">
         <v>954</v>
@@ -24272,7 +24392,7 @@
         <v>1576</v>
       </c>
       <c r="G398" s="13" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="H398" s="13" t="s">
         <v>954</v>
@@ -24313,7 +24433,7 @@
         <v>1572</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="H399" s="13" t="s">
         <v>954</v>
@@ -24354,7 +24474,7 @@
         <v>1573</v>
       </c>
       <c r="G400" s="15" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="H400" s="13" t="s">
         <v>954</v>
@@ -24395,7 +24515,7 @@
         <v>1211</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="H401" s="13" t="s">
         <v>954</v>
@@ -24477,7 +24597,7 @@
         <v>1002</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H403" s="13" t="s">
         <v>17</v>
@@ -24518,7 +24638,7 @@
         <v>1004</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>6</v>
+        <v>2340</v>
       </c>
       <c r="H404" s="13" t="s">
         <v>17</v>
@@ -24559,7 +24679,7 @@
         <v>1009</v>
       </c>
       <c r="G405" s="13" t="s">
-        <v>1646</v>
+        <v>2334</v>
       </c>
       <c r="H405" s="13" t="s">
         <v>17</v>
@@ -24600,7 +24720,7 @@
         <v>1007</v>
       </c>
       <c r="G406" s="13" t="s">
-        <v>1644</v>
+        <v>2335</v>
       </c>
       <c r="H406" s="13" t="s">
         <v>17</v>
@@ -24641,7 +24761,7 @@
         <v>1008</v>
       </c>
       <c r="G407" s="13" t="s">
-        <v>1645</v>
+        <v>2336</v>
       </c>
       <c r="H407" s="13" t="s">
         <v>17</v>
@@ -24682,7 +24802,7 @@
         <v>1001</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>1640</v>
+        <v>2337</v>
       </c>
       <c r="H408" s="13" t="s">
         <v>17</v>
@@ -24723,7 +24843,7 @@
         <v>1006</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>1643</v>
+        <v>2338</v>
       </c>
       <c r="H409" s="13" t="s">
         <v>17</v>
@@ -24764,7 +24884,7 @@
         <v>1003</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>1642</v>
+        <v>2339</v>
       </c>
       <c r="H410" s="13" t="s">
         <v>17</v>
@@ -24877,7 +24997,7 @@
     </row>
     <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="B413" s="23">
         <v>31.932970999999998</v>
@@ -24892,7 +25012,7 @@
         <v>6</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="G413" s="3" t="s">
         <v>6</v>
@@ -25001,7 +25121,7 @@
     </row>
     <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A416" s="13" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="B416" s="23">
         <f>-(14+39/60)</f>
@@ -25018,13 +25138,13 @@
         <v>6</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H416" s="13" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="I416" s="3" t="s">
         <v>6</v>
@@ -25044,7 +25164,7 @@
     </row>
     <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="B417" s="23">
         <v>13.450036000000001</v>
@@ -25059,7 +25179,7 @@
         <v>6</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="G417" s="3" t="s">
         <v>6</v>
@@ -25652,7 +25772,7 @@
         <v>1574</v>
       </c>
       <c r="G431" s="15" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="H431" s="13" t="s">
         <v>874</v>
@@ -25863,7 +25983,7 @@
         <v>814</v>
       </c>
       <c r="I436" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J436" s="26" t="s">
         <v>6</v>
@@ -25996,7 +26116,7 @@
         <v>1218</v>
       </c>
       <c r="G439" s="13" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="H439" s="13" t="s">
         <v>935</v>
@@ -26019,7 +26139,7 @@
     </row>
     <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="14" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="B440" s="23">
         <v>18.974999999999998</v>
@@ -26034,7 +26154,7 @@
         <v>258</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="G440" s="3" t="s">
         <v>6</v>
@@ -26060,7 +26180,7 @@
     </row>
     <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="14" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="B441" s="23">
         <v>10.309486</v>
@@ -26075,7 +26195,7 @@
         <v>6</v>
       </c>
       <c r="F441" s="14" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="G441" s="3" t="s">
         <v>6</v>
@@ -26119,7 +26239,7 @@
         <v>1493</v>
       </c>
       <c r="G442" s="13" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="H442" s="13" t="s">
         <v>253</v>
@@ -26160,7 +26280,7 @@
         <v>1139</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="H443" s="13" t="s">
         <v>253</v>
@@ -26224,7 +26344,7 @@
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="B445" s="23">
         <v>9.9666666666666668</v>
@@ -26239,10 +26359,10 @@
         <v>6</v>
       </c>
       <c r="F445" s="17" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="H445" s="13" t="s">
         <v>888</v>
@@ -26406,7 +26526,7 @@
         <v>1579</v>
       </c>
       <c r="G449" s="13" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="H449" s="13" t="s">
         <v>253</v>
@@ -26444,7 +26564,7 @@
         <v>6</v>
       </c>
       <c r="F450" s="17" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="G450" s="3" t="s">
         <v>6</v>
@@ -26552,7 +26672,7 @@
     </row>
     <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="B453" s="23">
         <v>18.974999999999998</v>
@@ -26570,10 +26690,10 @@
         <v>1137</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="H453" s="13" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="I453" s="3" t="s">
         <v>6</v>
@@ -26652,7 +26772,7 @@
         <v>1141</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="H455" s="13" t="s">
         <v>253</v>
@@ -26693,7 +26813,7 @@
         <v>1142</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="H456" s="13" t="s">
         <v>253</v>
@@ -26824,7 +26944,7 @@
         <v>1147</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="H459" s="13" t="s">
         <v>253</v>
@@ -27165,7 +27285,7 @@
         <v>6</v>
       </c>
       <c r="F467" s="17" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="G467" s="17" t="s">
         <v>6</v>
@@ -27416,7 +27536,7 @@
         <v>6</v>
       </c>
       <c r="E473" s="14" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="F473" s="17" t="s">
         <v>1602</v>
@@ -27558,7 +27678,7 @@
         <v>6</v>
       </c>
       <c r="F476" s="17" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="G476" s="17" t="s">
         <v>6</v>
@@ -27651,7 +27771,7 @@
         <v>1155</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="H478" s="3" t="s">
         <v>279</v>
@@ -27782,7 +27902,7 @@
         <v>1440</v>
       </c>
       <c r="G481" s="13" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="H481" s="13" t="s">
         <v>279</v>
@@ -27936,7 +28056,7 @@
     </row>
     <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485" s="13" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="B485" s="23">
         <v>32.467153000000003</v>
@@ -27951,7 +28071,7 @@
         <v>6</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="G485" s="3" t="s">
         <v>6</v>
@@ -27977,7 +28097,7 @@
     </row>
     <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486" s="13" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="B486" s="23">
         <v>33.001286</v>
@@ -27992,7 +28112,7 @@
         <v>6</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="G486" s="3" t="s">
         <v>6</v>
@@ -28030,7 +28150,7 @@
         <v>6</v>
       </c>
       <c r="E487" s="14" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="F487" s="17" t="s">
         <v>1598</v>
@@ -28067,7 +28187,7 @@
     </row>
     <row r="488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="B488" s="23">
         <v>24.334464000000001</v>
@@ -28082,7 +28202,7 @@
         <v>6</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="G488" s="3" t="s">
         <v>6</v>
@@ -28202,7 +28322,7 @@
         <v>6</v>
       </c>
       <c r="E491" s="14" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="F491" s="17" t="s">
         <v>1600</v>
@@ -28280,7 +28400,7 @@
     </row>
     <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493" s="13" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="B493" s="23">
         <v>32.261271000000001</v>
@@ -28295,7 +28415,7 @@
         <v>6</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="G493" s="3" t="s">
         <v>6</v>
@@ -28321,7 +28441,7 @@
     </row>
     <row r="494" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A494" s="12" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="B494" s="23">
         <v>26.998055555555556</v>
@@ -28336,7 +28456,7 @@
         <v>6</v>
       </c>
       <c r="F494" s="17" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="G494" s="3" t="s">
         <v>1328</v>
@@ -28362,7 +28482,7 @@
     </row>
     <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="B495" s="23">
         <v>34.652751000000002</v>
@@ -28377,7 +28497,7 @@
         <v>6</v>
       </c>
       <c r="F495" s="13" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="G495" s="3" t="s">
         <v>6</v>
@@ -28534,7 +28654,7 @@
     </row>
     <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="B499" s="23">
         <v>33.460037999999997</v>
@@ -28549,7 +28669,7 @@
         <v>6</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="G499" s="3" t="s">
         <v>6</v>
@@ -28634,7 +28754,7 @@
         <v>1167</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="H501" s="14" t="s">
         <v>283</v>
@@ -29003,7 +29123,7 @@
         <v>1454</v>
       </c>
       <c r="G510" s="13" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="H510" s="3" t="s">
         <v>915</v>
@@ -29026,7 +29146,7 @@
     </row>
     <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511" s="14" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="B511" s="23">
         <v>1.4166666666666667</v>
@@ -29625,7 +29745,7 @@
         <v>1135</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="H524" s="13" t="s">
         <v>245</v>
@@ -29689,7 +29809,7 @@
     </row>
     <row r="526" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A526" s="13" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="B526" s="23">
         <v>32.523375999999999</v>
@@ -29710,7 +29830,7 @@
         <v>6</v>
       </c>
       <c r="H526" s="13" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="I526" s="3" t="s">
         <v>6</v>
@@ -29745,7 +29865,7 @@
         <v>6</v>
       </c>
       <c r="F527" s="17" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="G527" s="17" t="s">
         <v>6</v>
@@ -30116,7 +30236,7 @@
         <v>1476</v>
       </c>
       <c r="G535" s="13" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="H535" s="3" t="s">
         <v>310</v>
@@ -30247,7 +30367,7 @@
         <v>1175</v>
       </c>
       <c r="G538" s="3" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="H538" s="13" t="s">
         <v>280</v>
@@ -31050,7 +31170,7 @@
         <v>1581</v>
       </c>
       <c r="G557" s="3" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="H557" s="14" t="s">
         <v>38</v>
@@ -31099,7 +31219,7 @@
         <v>1096</v>
       </c>
       <c r="G558" s="3" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="H558" s="13" t="s">
         <v>155</v>
@@ -31320,7 +31440,7 @@
         <v>1202</v>
       </c>
       <c r="G563" s="3" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="H563" s="13" t="s">
         <v>334</v>
@@ -31351,7 +31471,7 @@
     </row>
     <row r="564" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A564" s="13" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="B564" s="23">
         <v>14.15</v>
@@ -31400,7 +31520,7 @@
     </row>
     <row r="565" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A565" s="13" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="B565" s="23">
         <v>16.863611111111112</v>
@@ -31421,7 +31541,7 @@
         <v>6</v>
       </c>
       <c r="H565" s="3" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="I565" s="3" t="s">
         <v>6</v>
@@ -31672,7 +31792,7 @@
         <v>588</v>
       </c>
       <c r="G571" s="3" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="H571" s="3" t="s">
         <v>901</v>
@@ -31834,7 +31954,7 @@
     </row>
     <row r="575" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="B575" s="23">
         <v>31.556719999999999</v>
@@ -32376,7 +32496,7 @@
         <v>1233</v>
       </c>
       <c r="G587" s="13" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="H587" s="13" t="s">
         <v>379</v>
@@ -32563,7 +32683,7 @@
     </row>
     <row r="592" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A592" s="14" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="B592" s="23">
         <v>-17.564349</v>
@@ -32578,7 +32698,7 @@
         <v>6</v>
       </c>
       <c r="F592" s="3" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="G592" s="3" t="s">
         <v>6</v>
@@ -32850,7 +32970,7 @@
     </row>
     <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" s="13" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="B599" s="23">
         <v>-18.598155999999999</v>
@@ -32865,7 +32985,7 @@
         <v>6</v>
       </c>
       <c r="F599" s="17" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="G599" s="3" t="s">
         <v>6</v>
@@ -32891,7 +33011,7 @@
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="B600" s="23">
         <v>18.96</v>
@@ -32912,7 +33032,7 @@
         <v>6</v>
       </c>
       <c r="H600" s="14" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="I600" s="3" t="s">
         <v>6</v>
@@ -32950,7 +33070,7 @@
         <v>1199</v>
       </c>
       <c r="G601" s="3" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="H601" s="3" t="s">
         <v>904</v>
@@ -33178,7 +33298,7 @@
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" s="13" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="B607" s="23">
         <v>-22.183631999999999</v>
@@ -33193,7 +33313,7 @@
         <v>6</v>
       </c>
       <c r="F607" s="3" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="G607" s="3" t="s">
         <v>6</v>
@@ -33219,7 +33339,7 @@
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" s="13" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="B608" s="23">
         <v>-21.842511999999999</v>
@@ -33234,7 +33354,7 @@
         <v>6</v>
       </c>
       <c r="F608" s="3" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="G608" s="3" t="s">
         <v>6</v>
@@ -33301,7 +33421,7 @@
     </row>
     <row r="610" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="B610" s="23">
         <v>-20.231871000000002</v>
@@ -33316,7 +33436,7 @@
         <v>6</v>
       </c>
       <c r="F610" s="3" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="G610" s="3" t="s">
         <v>6</v>
@@ -33401,7 +33521,7 @@
         <v>1482</v>
       </c>
       <c r="G612" s="13" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="H612" s="13" t="s">
         <v>945</v>
@@ -33892,7 +34012,7 @@
         <v>170.5</v>
       </c>
       <c r="D624" s="13" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="E624" s="13" t="s">
         <v>6</v>
@@ -33933,7 +34053,7 @@
         <v>174.77722222222224</v>
       </c>
       <c r="D625" s="13" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="E625" s="13" t="s">
         <v>6</v>
@@ -34103,7 +34223,7 @@
         <v>6</v>
       </c>
       <c r="F629" s="17" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="G629" s="3" t="s">
         <v>6</v>
@@ -34316,7 +34436,7 @@
         <v>6</v>
       </c>
       <c r="F634" s="17" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="G634" s="3" t="s">
         <v>6</v>
@@ -34686,7 +34806,7 @@
     </row>
     <row r="643" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A643" s="13" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="B643" s="23">
         <v>27.066666666666666</v>
@@ -34707,7 +34827,7 @@
         <v>6</v>
       </c>
       <c r="H643" s="13" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="I643" s="3" t="s">
         <v>6</v>
@@ -34727,7 +34847,7 @@
     </row>
     <row r="644" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A644" s="14" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="B644" s="24">
         <v>34.608727000000002</v>
@@ -34748,7 +34868,7 @@
         <v>6</v>
       </c>
       <c r="H644" s="17" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="I644" s="3" t="s">
         <v>6</v>
@@ -34899,7 +35019,7 @@
     </row>
     <row r="648" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A648" s="14" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="B648" s="24">
         <v>32.704906999999999</v>
@@ -34914,7 +35034,7 @@
         <v>622</v>
       </c>
       <c r="F648" s="14" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="G648" s="17" t="s">
         <v>6</v>
@@ -35130,7 +35250,7 @@
         <v>1345</v>
       </c>
       <c r="G653" s="13" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="H653" s="13" t="s">
         <v>554</v>
@@ -35433,7 +35553,7 @@
         <v>1346</v>
       </c>
       <c r="G660" s="13" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="H660" s="13" t="s">
         <v>554</v>
@@ -35725,7 +35845,7 @@
         <v>391</v>
       </c>
       <c r="F667" s="17" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="G667" s="3" t="s">
         <v>6</v>
@@ -35892,7 +36012,7 @@
         <v>1355</v>
       </c>
       <c r="G671" s="13" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="H671" s="13" t="s">
         <v>554</v>
@@ -36079,7 +36199,7 @@
     </row>
     <row r="676" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A676" s="14" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="B676" s="24">
         <v>8.9576320000000003</v>
@@ -36588,7 +36708,7 @@
         <v>1340</v>
       </c>
       <c r="G687" s="13" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="H687" s="14" t="s">
         <v>912</v>
@@ -36832,7 +36952,7 @@
     </row>
     <row r="693" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A693" s="13" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="B693" s="23">
         <v>23.568995000000001</v>
@@ -36847,13 +36967,13 @@
         <v>6</v>
       </c>
       <c r="F693" s="3" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="G693" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H693" s="13" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="I693" s="3" t="s">
         <v>6</v>
@@ -36873,7 +36993,7 @@
     </row>
     <row r="694" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A694" s="13" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="B694" s="23">
         <v>23.649149000000001</v>
@@ -36888,13 +37008,13 @@
         <v>6</v>
       </c>
       <c r="F694" s="3" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="G694" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H694" s="13" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="I694" s="3" t="s">
         <v>6</v>
@@ -36914,7 +37034,7 @@
     </row>
     <row r="695" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="B695" s="23">
         <v>23.552251999999999</v>
@@ -36929,13 +37049,13 @@
         <v>6</v>
       </c>
       <c r="F695" s="3" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="G695" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H695" s="13" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="I695" s="3" t="s">
         <v>6</v>
@@ -37180,7 +37300,7 @@
         <v>6</v>
       </c>
       <c r="E701" s="14" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="F701" s="17" t="s">
         <v>1588</v>
@@ -37434,7 +37554,7 @@
         <v>6</v>
       </c>
       <c r="E707" s="14" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="F707" s="17" t="s">
         <v>1606</v>
@@ -37483,7 +37603,7 @@
         <v>6</v>
       </c>
       <c r="E708" s="14" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="F708" s="17" t="s">
         <v>1160</v>
@@ -37790,7 +37910,7 @@
     </row>
     <row r="715" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A715" s="13" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="B715" s="23">
         <v>22.060592</v>
@@ -37805,13 +37925,13 @@
         <v>6</v>
       </c>
       <c r="F715" s="3" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="G715" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H715" s="13" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="I715" s="3" t="s">
         <v>6</v>
@@ -37831,7 +37951,7 @@
     </row>
     <row r="716" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A716" s="13" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="B716" s="23">
         <v>21.947125</v>
@@ -37846,13 +37966,13 @@
         <v>6</v>
       </c>
       <c r="F716" s="3" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="G716" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H716" s="13" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="I716" s="3" t="s">
         <v>6</v>
@@ -37913,7 +38033,7 @@
     </row>
     <row r="718" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A718" s="13" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="B718" s="23">
         <v>36.995207000000001</v>
@@ -37928,7 +38048,7 @@
         <v>6</v>
       </c>
       <c r="F718" s="17" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="G718" s="3" t="s">
         <v>1327</v>
@@ -37954,7 +38074,7 @@
     </row>
     <row r="719" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A719" s="13" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="B719" s="23">
         <v>37.116666666666667</v>
@@ -37975,7 +38095,7 @@
         <v>6</v>
       </c>
       <c r="H719" s="13" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="I719" s="3" t="s">
         <v>6</v>
@@ -38118,7 +38238,7 @@
     </row>
     <row r="723" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A723" s="13" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="B723" s="23">
         <v>-27.4087</v>
@@ -38545,7 +38665,7 @@
         <v>153.147615</v>
       </c>
       <c r="D733" s="14" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="E733" s="13" t="s">
         <v>895</v>
@@ -38667,7 +38787,7 @@
     </row>
     <row r="736" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A736" s="13" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="B736" s="23">
         <v>-4.7694960000000002</v>
@@ -38682,7 +38802,7 @@
         <v>6</v>
       </c>
       <c r="F736" s="13" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="G736" s="3" t="s">
         <v>6</v>
@@ -38939,7 +39059,7 @@
         <v>1190</v>
       </c>
       <c r="G742" s="3" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="H742" s="13" t="s">
         <v>951</v>
@@ -39406,7 +39526,7 @@
         <v>1194</v>
       </c>
       <c r="G753" s="13" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="H753" s="13" t="s">
         <v>967</v>
@@ -39608,7 +39728,7 @@
         <v>6</v>
       </c>
       <c r="F758" s="17" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="G758" s="3" t="s">
         <v>6</v>
@@ -40173,7 +40293,7 @@
         <v>6</v>
       </c>
       <c r="F771" s="17" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="G771" s="3" t="s">
         <v>6</v>
@@ -41175,7 +41295,7 @@
         <v>1436</v>
       </c>
       <c r="G794" s="13" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="H794" s="13" t="s">
         <v>288</v>
@@ -41402,7 +41522,7 @@
     </row>
     <row r="799" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A799" s="13" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="B799" s="23">
         <v>20.701582999999999</v>
@@ -41417,10 +41537,10 @@
         <v>6</v>
       </c>
       <c r="F799" s="3" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="G799" s="3" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="H799" s="3" t="s">
         <v>340</v>
@@ -41469,7 +41589,7 @@
         <v>1204</v>
       </c>
       <c r="G800" s="3" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="H800" s="13" t="s">
         <v>340</v>
@@ -41500,7 +41620,7 @@
     </row>
     <row r="801" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A801" s="13" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="B801" s="23">
         <v>25.173145999999999</v>
@@ -41515,7 +41635,7 @@
         <v>6</v>
       </c>
       <c r="F801" s="3" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="G801" s="3" t="s">
         <v>6</v>
@@ -41549,7 +41669,7 @@
     </row>
     <row r="802" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A802" s="13" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="B802" s="23">
         <v>23.568995000000001</v>
@@ -41564,7 +41684,7 @@
         <v>6</v>
       </c>
       <c r="F802" s="3" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="G802" s="3" t="s">
         <v>6</v>
@@ -41598,7 +41718,7 @@
     </row>
     <row r="803" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A803" s="13" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="B803" s="23">
         <v>22.425270999999999</v>
@@ -41613,7 +41733,7 @@
         <v>6</v>
       </c>
       <c r="F803" s="3" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="G803" s="3" t="s">
         <v>6</v>
@@ -41696,7 +41816,7 @@
     </row>
     <row r="805" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A805" s="13" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="B805" s="23">
         <v>23.133963999999999</v>
@@ -41711,7 +41831,7 @@
         <v>6</v>
       </c>
       <c r="F805" s="3" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="G805" s="3" t="s">
         <v>6</v>
@@ -41745,7 +41865,7 @@
     </row>
     <row r="806" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A806" s="13" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="B806" s="23">
         <v>22.766970000000001</v>
@@ -41760,7 +41880,7 @@
         <v>6</v>
       </c>
       <c r="F806" s="3" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="G806" s="3" t="s">
         <v>6</v>
@@ -41812,7 +41932,7 @@
         <v>1205</v>
       </c>
       <c r="G807" s="3" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="H807" s="13" t="s">
         <v>340</v>
@@ -41843,7 +41963,7 @@
     </row>
     <row r="808" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A808" s="13" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="B808" s="23">
         <v>24.714859000000001</v>
@@ -41858,7 +41978,7 @@
         <v>6</v>
       </c>
       <c r="F808" s="3" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="G808" s="3" t="s">
         <v>6</v>
@@ -42856,7 +42976,7 @@
     </row>
     <row r="829" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A829" s="13" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="B829" s="23">
         <v>13.500923</v>
@@ -42871,13 +42991,13 @@
         <v>6</v>
       </c>
       <c r="F829" s="3" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="G829" s="3" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="H829" s="13" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="I829" s="3" t="s">
         <v>6</v>
@@ -42954,7 +43074,7 @@
     </row>
     <row r="831" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A831" s="13" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="B831" s="23">
         <v>9.5333330000000007</v>
@@ -42969,13 +43089,13 @@
         <v>6</v>
       </c>
       <c r="F831" s="3" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="G831" s="3" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="H831" s="3" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="I831" s="3" t="s">
         <v>6</v>
@@ -43003,7 +43123,7 @@
     </row>
     <row r="832" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A832" s="14" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="B832" s="23">
         <v>12.052453</v>
@@ -43018,13 +43138,13 @@
         <v>6</v>
       </c>
       <c r="F832" s="17" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="G832" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H832" s="15" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="I832" s="3" t="s">
         <v>6</v>
@@ -43070,7 +43190,7 @@
         <v>1197</v>
       </c>
       <c r="G833" s="13" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="H833" s="14" t="s">
         <v>328</v>
@@ -43119,7 +43239,7 @@
         <v>1437</v>
       </c>
       <c r="G834" s="13" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="H834" s="14" t="s">
         <v>328</v>
@@ -43150,7 +43270,7 @@
     </row>
     <row r="835" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A835" s="14" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="B835" s="23">
         <v>9.4166666666666661</v>
@@ -43171,7 +43291,7 @@
         <v>6</v>
       </c>
       <c r="H835" s="14" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="I835" s="3" t="s">
         <v>6</v>
@@ -43199,7 +43319,7 @@
     </row>
     <row r="836" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A836" s="13" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="B836" s="23">
         <v>7.6021840000000003</v>
@@ -43214,7 +43334,7 @@
         <v>6</v>
       </c>
       <c r="F836" s="17" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
       <c r="G836" s="17" t="s">
         <v>1213</v>
@@ -43248,7 +43368,7 @@
     </row>
     <row r="837" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A837" s="13" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="B837" s="23">
         <v>13.541382</v>
@@ -43263,13 +43383,13 @@
         <v>6</v>
       </c>
       <c r="F837" s="3" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="G837" s="3" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="H837" s="15" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="I837" s="3" t="s">
         <v>6</v>
@@ -43297,7 +43417,7 @@
     </row>
     <row r="838" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A838" s="13" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="B838" s="23">
         <v>13.530984999999999</v>
@@ -43312,13 +43432,13 @@
         <v>6</v>
       </c>
       <c r="F838" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G838" s="3" t="s">
         <v>1838</v>
       </c>
-      <c r="G838" s="3" t="s">
-        <v>1844</v>
-      </c>
       <c r="H838" s="15" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="I838" s="3" t="s">
         <v>6</v>
@@ -43395,7 +43515,7 @@
     </row>
     <row r="840" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A840" s="13" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="B840" s="23">
         <v>25.046275000000001</v>
@@ -43560,7 +43680,7 @@
         <v>1220</v>
       </c>
       <c r="G843" s="13" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>365</v>
@@ -43894,7 +44014,7 @@
         <v>30.733333333333334</v>
       </c>
       <c r="D850" s="18" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="E850" s="18" t="s">
         <v>6</v>
@@ -43909,7 +44029,7 @@
         <v>921</v>
       </c>
       <c r="I850" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J850" s="26" t="s">
         <v>6</v>
@@ -44032,7 +44152,7 @@
     </row>
     <row r="853" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A853" s="13" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="B853" s="23">
         <v>25.145078000000002</v>
@@ -44047,7 +44167,7 @@
         <v>717</v>
       </c>
       <c r="F853" s="13" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="G853" s="3" t="s">
         <v>6</v>
@@ -44434,13 +44554,13 @@
         <v>1519</v>
       </c>
       <c r="G861" s="18" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="H861" s="19" t="s">
         <v>922</v>
       </c>
       <c r="I861" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J861" s="26" t="s">
         <v>6</v>
@@ -45112,7 +45232,7 @@
         <v>922</v>
       </c>
       <c r="I876" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J876" s="26" t="s">
         <v>6</v>
@@ -45178,7 +45298,7 @@
     </row>
     <row r="878" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="B878" s="23">
         <v>10.435408000000001</v>
@@ -45193,7 +45313,7 @@
         <v>6</v>
       </c>
       <c r="F878" s="17" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="G878" s="3" t="s">
         <v>6</v>
@@ -45612,7 +45732,7 @@
         <v>979</v>
       </c>
       <c r="I888" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J888" s="26" t="s">
         <v>6</v>
@@ -45655,7 +45775,7 @@
         <v>1478</v>
       </c>
       <c r="G889" s="13" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="H889" s="13" t="s">
         <v>919</v>
@@ -45678,7 +45798,7 @@
     </row>
     <row r="890" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A890" s="13" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="B890" s="23">
         <v>12.2611601</v>
@@ -45693,7 +45813,7 @@
         <v>6</v>
       </c>
       <c r="F890" s="3" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="G890" s="3" t="s">
         <v>6</v>
@@ -46096,7 +46216,7 @@
     </row>
     <row r="900" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="B900" s="23">
         <v>-13.343563</v>
@@ -46111,7 +46231,7 @@
         <v>6</v>
       </c>
       <c r="F900" s="3" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="G900" s="3" t="s">
         <v>6</v>
@@ -46161,7 +46281,7 @@
         <v>977</v>
       </c>
       <c r="I901" s="19" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J901" s="26" t="s">
         <v>6</v>
@@ -46245,7 +46365,7 @@
         <v>1032</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="H903" s="13" t="s">
         <v>924</v>
@@ -46440,7 +46560,7 @@
     </row>
     <row r="908" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A908" s="13" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="B908" s="23">
         <v>24.714859000000001</v>
@@ -46455,13 +46575,13 @@
         <v>6</v>
       </c>
       <c r="F908" s="3" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="G908" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H908" s="3" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="I908" s="3" t="s">
         <v>6</v>
@@ -46499,7 +46619,7 @@
         <v>1569</v>
       </c>
       <c r="G909" s="3" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="H909" s="13" t="s">
         <v>955</v>
@@ -46540,7 +46660,7 @@
         <v>1570</v>
       </c>
       <c r="G910" s="3" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="H910" s="13" t="s">
         <v>955</v>
@@ -46604,7 +46724,7 @@
     </row>
     <row r="912" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A912" s="13" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="B912" s="23">
         <f>25+44/60</f>
@@ -46621,7 +46741,7 @@
         <v>6</v>
       </c>
       <c r="F912" s="17" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="G912" s="3" t="s">
         <v>6</v>
@@ -46655,7 +46775,7 @@
     </row>
     <row r="913" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A913" s="14" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="B913" s="23">
         <v>-3.5011920000000001</v>
@@ -46670,7 +46790,7 @@
         <v>6</v>
       </c>
       <c r="F913" s="17" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="G913" s="3" t="s">
         <v>6</v>
@@ -46696,7 +46816,7 @@
     </row>
     <row r="914" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A914" s="13" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="B914" s="23">
         <f>20+14/60</f>
@@ -46713,7 +46833,7 @@
         <v>6</v>
       </c>
       <c r="F914" s="17" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="G914" s="3" t="s">
         <v>6</v>
@@ -46739,7 +46859,7 @@
     </row>
     <row r="915" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A915" s="15" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="B915" s="23">
         <f>19+50/60+58/3600</f>
@@ -46756,7 +46876,7 @@
         <v>6</v>
       </c>
       <c r="F915" s="17" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="G915" s="3" t="s">
         <v>6</v>
@@ -46782,7 +46902,7 @@
     </row>
     <row r="916" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A916" s="13" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="B916" s="23">
         <v>3.0512429999999999</v>
@@ -46797,10 +46917,10 @@
         <v>6</v>
       </c>
       <c r="F916" s="17" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="G916" s="13" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="H916" s="13" t="s">
         <v>324</v>
@@ -46823,7 +46943,7 @@
     </row>
     <row r="917" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A917" s="14" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="B917" s="23">
         <v>7.3155919999999997</v>
@@ -46838,7 +46958,7 @@
         <v>6</v>
       </c>
       <c r="F917" s="17" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="G917" s="13" t="s">
         <v>6</v>
@@ -46872,7 +46992,7 @@
     </row>
     <row r="918" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A918" s="14" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="B918" s="23">
         <v>7.4869459999999997</v>
@@ -46887,13 +47007,13 @@
         <v>6</v>
       </c>
       <c r="F918" s="17" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="G918" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H918" s="14" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="I918" s="3" t="s">
         <v>6</v>
@@ -46921,7 +47041,7 @@
     </row>
     <row r="919" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A919" s="14" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="B919" s="23">
         <f>33+21/60</f>
@@ -46938,7 +47058,7 @@
         <v>6</v>
       </c>
       <c r="F919" s="17" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="G919" s="3" t="s">
         <v>6</v>
@@ -46964,7 +47084,7 @@
     </row>
     <row r="920" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A920" s="15" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="B920" s="23">
         <f>33+21/60</f>
@@ -46981,13 +47101,13 @@
         <v>6</v>
       </c>
       <c r="F920" s="3" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="G920" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H920" s="14" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="I920" s="3" t="s">
         <v>6</v>
@@ -47007,7 +47127,7 @@
     </row>
     <row r="921" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A921" s="14" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="B921" s="23">
         <v>36.559615000000001</v>
@@ -47022,7 +47142,7 @@
         <v>6</v>
       </c>
       <c r="F921" s="14" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="G921" s="3" t="s">
         <v>6</v>
@@ -47048,7 +47168,7 @@
     </row>
     <row r="922" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A922" s="14" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="B922" s="23">
         <v>36.525897000000001</v>
@@ -47063,13 +47183,13 @@
         <v>6</v>
       </c>
       <c r="F922" s="3" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="G922" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H922" s="14" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="I922" s="3" t="s">
         <v>6</v>
@@ -47089,7 +47209,7 @@
     </row>
     <row r="923" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A923" s="13" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="B923" s="23">
         <v>-5.4493239999999998</v>
@@ -47104,7 +47224,7 @@
         <v>6</v>
       </c>
       <c r="F923" s="17" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="G923" s="3" t="s">
         <v>6</v>
@@ -47130,7 +47250,7 @@
     </row>
     <row r="924" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A924" s="13" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="B924" s="23">
         <v>-4.5518999999999998</v>
@@ -47145,13 +47265,13 @@
         <v>6</v>
       </c>
       <c r="F924" s="3" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="G924" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H924" s="13" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="I924" s="3" t="s">
         <v>6</v>
@@ -47171,7 +47291,7 @@
     </row>
     <row r="925" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="B925" s="23">
         <v>-1.394989</v>
@@ -47186,7 +47306,7 @@
         <v>6</v>
       </c>
       <c r="F925" s="13" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="G925" s="3" t="s">
         <v>6</v>
@@ -47212,7 +47332,7 @@
     </row>
     <row r="926" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="B926" s="23">
         <v>21.630330000000001</v>
@@ -47227,13 +47347,13 @@
         <v>6</v>
       </c>
       <c r="F926" s="3" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="G926" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H926" s="3" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="I926" s="3" t="s">
         <v>6</v>
@@ -47253,7 +47373,7 @@
     </row>
     <row r="927" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A927" s="13" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="B927" s="23">
         <v>21.630330000000001</v>
@@ -47268,7 +47388,7 @@
         <v>6</v>
       </c>
       <c r="F927" s="3" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="G927" s="3" t="s">
         <v>6</v>
@@ -47294,7 +47414,7 @@
     </row>
     <row r="928" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="B928" s="23">
         <v>11.432632</v>
@@ -47309,13 +47429,13 @@
         <v>6</v>
       </c>
       <c r="F928" s="13" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="G928" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H928" s="3" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="I928" s="3" t="s">
         <v>6</v>
@@ -47335,7 +47455,7 @@
     </row>
     <row r="929" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="B929" s="23">
         <v>9.9960050000000003</v>
@@ -47350,7 +47470,7 @@
         <v>6</v>
       </c>
       <c r="F929" s="3" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="G929" s="3" t="s">
         <v>6</v>
@@ -47376,7 +47496,7 @@
     </row>
     <row r="930" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A930" s="15" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="B930" s="23">
         <v>25.552605</v>
@@ -47391,7 +47511,7 @@
         <v>6</v>
       </c>
       <c r="F930" s="15" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="G930" s="3" t="s">
         <v>6</v>
@@ -47425,7 +47545,7 @@
     </row>
     <row r="931" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A931" s="15" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="B931" s="23">
         <v>32.604813</v>
@@ -47440,7 +47560,7 @@
         <v>6</v>
       </c>
       <c r="F931" s="3" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="G931" s="3" t="s">
         <v>6</v>
@@ -47466,7 +47586,7 @@
     </row>
     <row r="932" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="B932" s="23">
         <v>-3.3708459999999998</v>
@@ -47481,7 +47601,7 @@
         <v>6</v>
       </c>
       <c r="F932" s="3" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="G932" s="3" t="s">
         <v>6</v>
@@ -47507,7 +47627,7 @@
     </row>
     <row r="933" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="B933" s="23">
         <v>-12.768999000000001</v>
@@ -47522,7 +47642,7 @@
         <v>6</v>
       </c>
       <c r="F933" s="13" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="G933" s="3" t="s">
         <v>6</v>
@@ -47548,7 +47668,7 @@
     </row>
     <row r="934" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A934" s="13" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="B934" s="23">
         <v>29.176556000000001</v>
@@ -47563,13 +47683,13 @@
         <v>6</v>
       </c>
       <c r="F934" s="13" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="G934" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H934" s="13" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="I934" s="3" t="s">
         <v>6</v>
@@ -47597,7 +47717,7 @@
     </row>
     <row r="935" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A935" s="13" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="B935" s="23">
         <v>29.185521999999999</v>
@@ -47612,7 +47732,7 @@
         <v>6</v>
       </c>
       <c r="F935" s="13" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="G935" s="3" t="s">
         <v>6</v>
@@ -47646,7 +47766,7 @@
     </row>
     <row r="936" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A936" s="14" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="B936" s="24">
         <v>8.9720069999999996</v>
@@ -47661,7 +47781,7 @@
         <v>6</v>
       </c>
       <c r="F936" s="17" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="G936" s="17" t="s">
         <v>6</v>
@@ -47695,7 +47815,7 @@
     </row>
     <row r="937" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A937" s="14" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="B937" s="23">
         <v>22.43197</v>
@@ -47710,7 +47830,7 @@
         <v>6</v>
       </c>
       <c r="F937" s="17" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="G937" s="3" t="s">
         <v>6</v>
@@ -47736,7 +47856,7 @@
     </row>
     <row r="938" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A938" s="13" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="B938" s="23">
         <v>-29.873280000000001</v>
@@ -47751,7 +47871,7 @@
         <v>6</v>
       </c>
       <c r="F938" s="17" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="G938" s="3" t="s">
         <v>6</v>
@@ -47777,7 +47897,7 @@
     </row>
     <row r="939" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A939" s="13" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="B939" s="23">
         <v>-12.236026000000001</v>
@@ -47792,7 +47912,7 @@
         <v>6</v>
       </c>
       <c r="F939" s="17" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="G939" s="3" t="s">
         <v>6</v>
@@ -47818,7 +47938,7 @@
     </row>
     <row r="940" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="B940" s="23">
         <v>33.376955000000002</v>
@@ -47833,7 +47953,7 @@
         <v>6</v>
       </c>
       <c r="F940" s="3" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="G940" s="3" t="s">
         <v>6</v>
@@ -47859,7 +47979,7 @@
     </row>
     <row r="941" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A941" s="13" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="B941" s="23">
         <v>-17.662678799999998</v>
@@ -47874,7 +47994,7 @@
         <v>6</v>
       </c>
       <c r="F941" s="17" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="G941" s="3" t="s">
         <v>6</v>
@@ -47900,7 +48020,7 @@
     </row>
     <row r="942" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A942" s="13" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="B942" s="23">
         <v>-17.223067</v>
@@ -47915,7 +48035,7 @@
         <v>6</v>
       </c>
       <c r="F942" s="17" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="G942" s="3" t="s">
         <v>6</v>
@@ -47941,7 +48061,7 @@
     </row>
     <row r="943" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A943" s="14" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="B943" s="23">
         <v>13.722815000000001</v>
@@ -47956,7 +48076,7 @@
         <v>6</v>
       </c>
       <c r="F943" s="17" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="G943" s="3" t="s">
         <v>6</v>
@@ -47982,7 +48102,7 @@
     </row>
     <row r="944" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A944" s="13" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="B944" s="23">
         <v>40.961748</v>
@@ -47997,7 +48117,7 @@
         <v>6</v>
       </c>
       <c r="F944" s="17" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="G944" s="3" t="s">
         <v>6</v>
@@ -48023,7 +48143,7 @@
     </row>
     <row r="945" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A945" s="13" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="B945" s="23">
         <v>27.420902999999999</v>
@@ -48038,7 +48158,7 @@
         <v>6</v>
       </c>
       <c r="F945" s="13" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="G945" s="3" t="s">
         <v>6</v>
@@ -48072,7 +48192,7 @@
     </row>
     <row r="946" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A946" s="13" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="B946" s="23">
         <v>37.721311</v>
@@ -48087,13 +48207,13 @@
         <v>6</v>
       </c>
       <c r="F946" s="17" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="G946" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H946" s="13" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="I946" s="3" t="s">
         <v>6</v>
@@ -48113,7 +48233,7 @@
     </row>
     <row r="947" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A947" s="13" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="B947" s="23">
         <v>-21.971533000000001</v>
@@ -48128,7 +48248,7 @@
         <v>6</v>
       </c>
       <c r="F947" s="17" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="G947" s="3" t="s">
         <v>6</v>
@@ -48154,7 +48274,7 @@
     </row>
     <row r="948" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A948" s="15" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="B948" s="23">
         <f>33.25</f>
@@ -48171,13 +48291,13 @@
         <v>6</v>
       </c>
       <c r="F948" s="3" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="G948" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H948" s="15" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="I948" s="3" t="s">
         <v>6</v>
@@ -48197,7 +48317,7 @@
     </row>
     <row r="949" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A949" s="15" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="B949" s="23">
         <f>33.25</f>
@@ -48214,7 +48334,7 @@
         <v>6</v>
       </c>
       <c r="F949" s="3" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="G949" s="3" t="s">
         <v>6</v>
@@ -48240,7 +48360,7 @@
     </row>
     <row r="950" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="B950" s="23">
         <v>23.419602000000001</v>
@@ -48255,7 +48375,7 @@
         <v>6</v>
       </c>
       <c r="F950" s="3" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="G950" s="3" t="s">
         <v>6</v>
@@ -48281,7 +48401,7 @@
     </row>
     <row r="951" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="B951" s="23">
         <v>23.213844999999999</v>
@@ -48296,7 +48416,7 @@
         <v>6</v>
       </c>
       <c r="F951" s="13" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="G951" s="3" t="s">
         <v>6</v>
@@ -48322,7 +48442,7 @@
     </row>
     <row r="952" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A952" s="13" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="B952" s="23">
         <v>22.951715</v>
@@ -48337,7 +48457,7 @@
         <v>6</v>
       </c>
       <c r="F952" s="13" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="G952" s="3" t="s">
         <v>6</v>
@@ -48363,7 +48483,7 @@
     </row>
     <row r="953" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A953" s="13" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="B953" s="23">
         <v>23.093249</v>
@@ -48378,7 +48498,7 @@
         <v>6</v>
       </c>
       <c r="F953" s="3" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="G953" s="3" t="s">
         <v>6</v>
@@ -48404,7 +48524,7 @@
     </row>
     <row r="954" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A954" s="15" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="B954" s="23">
         <v>39.59581</v>
@@ -48419,7 +48539,7 @@
         <v>6</v>
       </c>
       <c r="F954" s="3" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="G954" s="3" t="s">
         <v>6</v>
@@ -48445,7 +48565,7 @@
     </row>
     <row r="955" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A955" s="13" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="B955" s="23">
         <v>18.124458000000001</v>
@@ -48460,7 +48580,7 @@
         <v>6</v>
       </c>
       <c r="F955" s="14" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
       <c r="G955" s="3" t="s">
         <v>6</v>
@@ -48486,7 +48606,7 @@
     </row>
     <row r="956" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A956" s="13" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="B956" s="23">
         <f>18+6.1879/60</f>
@@ -48503,13 +48623,13 @@
         <v>6</v>
       </c>
       <c r="F956" s="13" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="G956" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H956" s="13" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="I956" s="3" t="s">
         <v>6</v>
@@ -48529,7 +48649,7 @@
     </row>
     <row r="957" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A957" s="13" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="B957" s="23">
         <v>18.114735</v>
@@ -48544,13 +48664,13 @@
         <v>6</v>
       </c>
       <c r="F957" s="13" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="G957" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H957" s="13" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="I957" s="3" t="s">
         <v>6</v>
@@ -48570,7 +48690,7 @@
     </row>
     <row r="958" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A958" s="13" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
       <c r="B958" s="23">
         <f>18+7.049/60</f>
@@ -48587,13 +48707,13 @@
         <v>6</v>
       </c>
       <c r="F958" s="13" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="G958" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H958" s="13" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="I958" s="3" t="s">
         <v>6</v>
@@ -48613,7 +48733,7 @@
     </row>
     <row r="959" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A959" s="13" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="B959" s="23">
         <v>24.627679000000001</v>
@@ -48628,7 +48748,7 @@
         <v>6</v>
       </c>
       <c r="F959" s="3" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="G959" s="3" t="s">
         <v>6</v>
@@ -48654,7 +48774,7 @@
     </row>
     <row r="960" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="B960" s="23">
         <v>41.135652</v>
@@ -48669,7 +48789,7 @@
         <v>6</v>
       </c>
       <c r="F960" s="3" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="G960" s="3" t="s">
         <v>6</v>
@@ -48695,7 +48815,7 @@
     </row>
     <row r="961" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A961" s="13" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="B961" s="23">
         <v>41.027695000000001</v>
@@ -48710,13 +48830,13 @@
         <v>6</v>
       </c>
       <c r="F961" s="3" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="G961" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H961" s="13" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="I961" s="3" t="s">
         <v>6</v>
@@ -48736,7 +48856,7 @@
     </row>
     <row r="962" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A962" s="15" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="B962" s="23">
         <v>30.349630999999999</v>
@@ -48751,7 +48871,7 @@
         <v>6</v>
       </c>
       <c r="F962" s="3" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="G962" s="3" t="s">
         <v>6</v>
@@ -48777,7 +48897,7 @@
     </row>
     <row r="963" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A963" s="13" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="B963" s="23">
         <v>12.410007</v>
@@ -48792,13 +48912,13 @@
         <v>6</v>
       </c>
       <c r="F963" s="3" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="G963" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H963" s="15" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="I963" s="3" t="s">
         <v>6</v>
@@ -48818,7 +48938,7 @@
     </row>
     <row r="964" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="B964" s="23">
         <v>21.931944999999999</v>
@@ -48833,7 +48953,7 @@
         <v>6</v>
       </c>
       <c r="F964" s="17" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="G964" s="3" t="s">
         <v>6</v>
@@ -48859,7 +48979,7 @@
     </row>
     <row r="965" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A965" s="14" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="B965" s="23">
         <v>7.540419</v>
@@ -48874,13 +48994,13 @@
         <v>6</v>
       </c>
       <c r="F965" s="17" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="G965" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H965" s="14" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="I965" s="3" t="s">
         <v>6</v>
@@ -48908,7 +49028,7 @@
     </row>
     <row r="966" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A966" s="14" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="B966" s="23">
         <v>9.8969009999999997</v>
@@ -48923,13 +49043,13 @@
         <v>6</v>
       </c>
       <c r="F966" s="3" t="s">
-        <v>1969</v>
+        <v>1963</v>
       </c>
       <c r="G966" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H966" s="14" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
       <c r="I966" s="3" t="s">
         <v>6</v>
@@ -48949,7 +49069,7 @@
     </row>
     <row r="967" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A967" s="14" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
       <c r="B967" s="23">
         <v>9.8969009999999997</v>
@@ -48964,7 +49084,7 @@
         <v>6</v>
       </c>
       <c r="F967" s="3" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="G967" s="3" t="s">
         <v>6</v>
@@ -48990,7 +49110,7 @@
     </row>
     <row r="968" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A968" s="14" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="B968" s="23">
         <v>34.228783999999997</v>
@@ -49005,13 +49125,13 @@
         <v>6</v>
       </c>
       <c r="F968" s="3" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="G968" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H968" s="14" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="I968" s="3" t="s">
         <v>6</v>
@@ -49031,7 +49151,7 @@
     </row>
     <row r="969" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A969" s="14" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="B969" s="23">
         <v>34.240357000000003</v>
@@ -49046,7 +49166,7 @@
         <v>6</v>
       </c>
       <c r="F969" s="3" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="G969" s="3" t="s">
         <v>6</v>
@@ -49072,7 +49192,7 @@
     </row>
     <row r="970" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A970" s="14" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="B970" s="23">
         <v>41.307788000000002</v>
@@ -49087,7 +49207,7 @@
         <v>6</v>
       </c>
       <c r="F970" s="14" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="G970" s="3" t="s">
         <v>6</v>
@@ -49121,7 +49241,7 @@
     </row>
     <row r="971" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A971" s="13" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="B971" s="23">
         <f>-(36+0.366666666666667)</f>
@@ -49135,16 +49255,16 @@
         <v>6</v>
       </c>
       <c r="E971" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F971" s="3" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="G971" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H971" s="13" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="I971" s="3" t="s">
         <v>6</v>
@@ -49164,7 +49284,7 @@
     </row>
     <row r="972" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A972" s="13" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="B972" s="23">
         <v>-36.056485000000002</v>
@@ -49179,13 +49299,13 @@
         <v>6</v>
       </c>
       <c r="F972" s="13" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="G972" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H972" s="13" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="I972" s="3" t="s">
         <v>6</v>
@@ -49205,7 +49325,7 @@
     </row>
     <row r="973" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A973" s="13" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="B973" s="23">
         <v>-5.4292740000000004</v>
@@ -49220,7 +49340,7 @@
         <v>6</v>
       </c>
       <c r="F973" s="17" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="G973" s="3" t="s">
         <v>6</v>
@@ -49254,22 +49374,22 @@
     </row>
     <row r="974" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A974" s="20" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B974" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C974" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D974" s="20" t="s">
         <v>1983</v>
       </c>
-      <c r="B974" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C974" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D974" s="20" t="s">
-        <v>1989</v>
-      </c>
       <c r="E974" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F974" s="20" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="G974" s="21" t="s">
         <v>6</v>
@@ -49295,7 +49415,7 @@
     </row>
     <row r="975" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A975" s="20" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="B975" s="30" t="s">
         <v>6</v>
@@ -49304,13 +49424,13 @@
         <v>6</v>
       </c>
       <c r="D975" s="20" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="E975" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F975" s="20" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="G975" s="21" t="s">
         <v>6</v>
@@ -49336,7 +49456,7 @@
     </row>
     <row r="976" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A976" s="20" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="B976" s="30" t="s">
         <v>6</v>
@@ -49345,13 +49465,13 @@
         <v>6</v>
       </c>
       <c r="D976" s="20" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="E976" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F976" s="20" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="G976" s="21" t="s">
         <v>6</v>
@@ -49377,7 +49497,7 @@
     </row>
     <row r="977" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A977" s="20" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="B977" s="30" t="s">
         <v>6</v>
@@ -49386,13 +49506,13 @@
         <v>6</v>
       </c>
       <c r="D977" s="20" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E977" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F977" s="20" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="G977" s="21" t="s">
         <v>6</v>
@@ -49418,7 +49538,7 @@
     </row>
     <row r="978" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A978" s="20" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="B978" s="30" t="s">
         <v>6</v>
@@ -49427,13 +49547,13 @@
         <v>6</v>
       </c>
       <c r="D978" s="20" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E978" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F978" s="20" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="G978" s="21" t="s">
         <v>6</v>
@@ -49459,7 +49579,7 @@
     </row>
     <row r="979" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A979" s="14" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B979" s="23">
         <v>35.114106999999997</v>
@@ -49474,7 +49594,7 @@
         <v>6</v>
       </c>
       <c r="F979" s="14" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="G979" s="3" t="s">
         <v>6</v>
@@ -49500,7 +49620,7 @@
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A980" s="13" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="B980" s="23">
         <v>34.740808000000001</v>
@@ -49515,13 +49635,13 @@
         <v>6</v>
       </c>
       <c r="F980" s="13" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="G980" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H980" s="14" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="I980" s="3" t="s">
         <v>6</v>
@@ -49541,7 +49661,7 @@
     </row>
     <row r="981" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="B981" s="23">
         <f>17+27/60+8/3600</f>
@@ -49555,16 +49675,16 @@
         <v>6</v>
       </c>
       <c r="E981" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F981" s="13" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="G981" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H981" s="13" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="I981" s="3" t="s">
         <v>6</v>
@@ -49584,7 +49704,7 @@
     </row>
     <row r="982" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="B982" s="23">
         <f>16+40/60+13/3600</f>
@@ -49598,16 +49718,16 @@
         <v>6</v>
       </c>
       <c r="E982" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F982" s="13" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="G982" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H982" s="13" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="I982" s="3" t="s">
         <v>6</v>
@@ -49627,7 +49747,7 @@
     </row>
     <row r="983" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B983" s="23">
         <f>16+23/60+11/3600</f>
@@ -49641,10 +49761,10 @@
         <v>6</v>
       </c>
       <c r="E983" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F983" s="13" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="G983" s="3" t="s">
         <v>6</v>
@@ -49670,7 +49790,7 @@
     </row>
     <row r="984" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A984" s="13" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="B984" s="23">
         <v>37.018192999999997</v>
@@ -49685,13 +49805,13 @@
         <v>6</v>
       </c>
       <c r="F984" s="13" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="G984" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H984" s="13" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="I984" s="3" t="s">
         <v>6</v>
@@ -49711,7 +49831,7 @@
     </row>
     <row r="985" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="B985" s="23">
         <v>24.267513999999998</v>
@@ -49726,7 +49846,7 @@
         <v>6</v>
       </c>
       <c r="F985" s="3" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="G985" s="3" t="s">
         <v>6</v>
@@ -49752,7 +49872,7 @@
     </row>
     <row r="986" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="B986" s="23">
         <f>20+46/60+22/3600</f>
@@ -49766,10 +49886,10 @@
         <v>6</v>
       </c>
       <c r="E986" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F986" s="13" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="G986" s="3" t="s">
         <v>6</v>
@@ -49795,7 +49915,7 @@
     </row>
     <row r="987" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A987" s="13" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="B987" s="23">
         <v>-12.414944999999999</v>
@@ -49810,7 +49930,7 @@
         <v>6</v>
       </c>
       <c r="F987" s="17" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="G987" s="3" t="s">
         <v>6</v>
@@ -49836,7 +49956,7 @@
     </row>
     <row r="988" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="B988" s="23">
         <v>27.201198999999999</v>
@@ -49851,7 +49971,7 @@
         <v>6</v>
       </c>
       <c r="F988" s="3" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="G988" s="3" t="s">
         <v>6</v>
@@ -49877,7 +49997,7 @@
     </row>
     <row r="989" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A989" s="13" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="B989" s="23">
         <v>25.974143999999999</v>
@@ -49892,13 +50012,13 @@
         <v>6</v>
       </c>
       <c r="F989" s="3" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="G989" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H989" s="13" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="I989" s="3" t="s">
         <v>6</v>
@@ -49918,7 +50038,7 @@
     </row>
     <row r="990" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="B990" s="23">
         <v>26.201933</v>
@@ -49933,7 +50053,7 @@
         <v>6</v>
       </c>
       <c r="F990" s="3" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="G990" s="3" t="s">
         <v>6</v>
@@ -49959,7 +50079,7 @@
     </row>
     <row r="991" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A991" s="13" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="B991" s="23">
         <v>17.435803</v>
@@ -49974,7 +50094,7 @@
         <v>6</v>
       </c>
       <c r="F991" s="13" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="G991" s="3" t="s">
         <v>6</v>
@@ -50000,7 +50120,7 @@
     </row>
     <row r="992" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A992" s="13" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="B992" s="23">
         <v>-34.591310999999997</v>
@@ -50015,13 +50135,13 @@
         <v>6</v>
       </c>
       <c r="F992" s="13" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="G992" s="3" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="H992" s="13" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="I992" s="3" t="s">
         <v>6</v>
@@ -50041,7 +50161,7 @@
     </row>
     <row r="993" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A993" s="13" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B993" s="23">
         <f>-(29+27/60)</f>
@@ -50055,10 +50175,10 @@
         <v>6</v>
       </c>
       <c r="E993" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F993" s="17" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="G993" s="3" t="s">
         <v>6</v>
@@ -50084,7 +50204,7 @@
     </row>
     <row r="994" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A994" s="15" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B994" s="23">
         <v>-19.404575000000001</v>
@@ -50099,7 +50219,7 @@
         <v>6</v>
       </c>
       <c r="F994" s="3" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G994" s="3" t="s">
         <v>6</v>
@@ -50125,7 +50245,7 @@
     </row>
     <row r="995" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A995" s="15" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="B995" s="23">
         <v>32.638810999999997</v>
@@ -50140,7 +50260,7 @@
         <v>6</v>
       </c>
       <c r="F995" s="3" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="G995" s="3" t="s">
         <v>6</v>
@@ -50166,7 +50286,7 @@
     </row>
     <row r="996" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A996" s="14" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="B996" s="23">
         <v>18.974999999999998</v>
@@ -50181,7 +50301,7 @@
         <v>258</v>
       </c>
       <c r="F996" s="17" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="G996" s="3" t="s">
         <v>6</v>
@@ -50207,7 +50327,7 @@
     </row>
     <row r="997" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="B997" s="23">
         <v>19.054444</v>
@@ -50222,13 +50342,13 @@
         <v>6</v>
       </c>
       <c r="F997" s="3" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="G997" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H997" s="13" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="I997" s="3" t="s">
         <v>6</v>
@@ -50248,7 +50368,7 @@
     </row>
     <row r="998" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A998" s="13" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
       <c r="B998" s="23">
         <v>19.146744999999999</v>
@@ -50263,13 +50383,13 @@
         <v>6</v>
       </c>
       <c r="F998" s="3" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="G998" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H998" s="13" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="I998" s="3" t="s">
         <v>6</v>
@@ -50289,7 +50409,7 @@
     </row>
     <row r="999" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="B999" s="23">
         <v>15.41405</v>
@@ -50304,7 +50424,7 @@
         <v>6</v>
       </c>
       <c r="F999" s="17" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="G999" s="3" t="s">
         <v>6</v>
@@ -50330,7 +50450,7 @@
     </row>
     <row r="1000" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1000" s="14" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="B1000" s="23">
         <v>9.9971960000000006</v>
@@ -50345,13 +50465,13 @@
         <v>6</v>
       </c>
       <c r="F1000" s="3" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="G1000" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1000" s="14" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="I1000" s="3" t="s">
         <v>6</v>
@@ -50371,7 +50491,7 @@
     </row>
     <row r="1001" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1001" s="14" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="B1001" s="23">
         <v>10.085326</v>
@@ -50386,13 +50506,13 @@
         <v>6</v>
       </c>
       <c r="F1001" s="3" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="G1001" s="3" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="H1001" s="14" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="I1001" s="3" t="s">
         <v>6</v>
@@ -50412,7 +50532,7 @@
     </row>
     <row r="1002" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1002" s="14" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="B1002" s="23">
         <v>8.0805559999999996</v>
@@ -50427,13 +50547,13 @@
         <v>6</v>
       </c>
       <c r="F1002" s="3" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="G1002" s="3" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="H1002" s="13" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="I1002" s="3" t="s">
         <v>6</v>
@@ -50453,7 +50573,7 @@
     </row>
     <row r="1003" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="13" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="B1003" s="23">
         <v>19.146744999999999</v>
@@ -50468,13 +50588,13 @@
         <v>6</v>
       </c>
       <c r="F1003" s="3" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="G1003" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1003" s="13" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="I1003" s="3" t="s">
         <v>6</v>
@@ -50494,7 +50614,7 @@
     </row>
     <row r="1004" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1004" s="15" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
       <c r="B1004" s="23">
         <v>-5.5378249999999998</v>
@@ -50509,7 +50629,7 @@
         <v>6</v>
       </c>
       <c r="F1004" s="3" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="G1004" s="3" t="s">
         <v>6</v>
@@ -50535,7 +50655,7 @@
     </row>
     <row r="1005" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1005" s="15" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="B1005" s="23">
         <v>11.68</v>
@@ -50550,7 +50670,7 @@
         <v>6</v>
       </c>
       <c r="F1005" s="15" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="G1005" s="3" t="s">
         <v>6</v>
@@ -50576,7 +50696,7 @@
     </row>
     <row r="1006" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="13" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="B1006" s="23">
         <v>36.693707000000003</v>
@@ -50591,13 +50711,13 @@
         <v>6</v>
       </c>
       <c r="F1006" s="17" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="G1006" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H1006" s="13" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="I1006" s="3" t="s">
         <v>6</v>
@@ -50617,7 +50737,7 @@
     </row>
     <row r="1007" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="13" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="B1007" s="23">
         <v>36.693707000000003</v>
@@ -50632,7 +50752,7 @@
         <v>6</v>
       </c>
       <c r="F1007" s="17" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="G1007" s="3" t="s">
         <v>6</v>
@@ -50658,7 +50778,7 @@
     </row>
     <row r="1008" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1008" s="15" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="B1008" s="23">
         <v>13.500923</v>
@@ -50673,7 +50793,7 @@
         <v>6</v>
       </c>
       <c r="F1008" s="15" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="G1008" s="3" t="s">
         <v>6</v>
@@ -50699,7 +50819,7 @@
     </row>
     <row r="1009" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1009" s="15" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="B1009" s="23">
         <v>12.164811</v>
@@ -50714,7 +50834,7 @@
         <v>6</v>
       </c>
       <c r="F1009" s="15" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="G1009" s="3" t="s">
         <v>6</v>
@@ -50740,7 +50860,7 @@
     </row>
     <row r="1010" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1010" s="15" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="B1010" s="23">
         <v>9.2372270000000007</v>
@@ -50755,7 +50875,7 @@
         <v>6</v>
       </c>
       <c r="F1010" s="15" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="G1010" s="3" t="s">
         <v>6</v>
@@ -50781,7 +50901,7 @@
     </row>
     <row r="1011" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1011" s="15" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="B1011" s="23">
         <v>11.738125</v>
@@ -50796,7 +50916,7 @@
         <v>6</v>
       </c>
       <c r="F1011" s="15" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="G1011" s="3" t="s">
         <v>6</v>
@@ -50822,7 +50942,7 @@
     </row>
     <row r="1012" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="15" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="B1012" s="23">
         <v>8.5584100000000003</v>
@@ -50837,7 +50957,7 @@
         <v>6</v>
       </c>
       <c r="F1012" s="15" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="G1012" s="3" t="s">
         <v>6</v>
@@ -50863,7 +50983,7 @@
     </row>
     <row r="1013" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1013" s="15" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="B1013" s="23">
         <v>13.541382</v>
@@ -50878,7 +50998,7 @@
         <v>6</v>
       </c>
       <c r="F1013" s="3" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
       <c r="G1013" s="3" t="s">
         <v>6</v>
@@ -50904,7 +51024,7 @@
     </row>
     <row r="1014" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="13" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="B1014" s="23">
         <v>37.721311</v>
@@ -50919,7 +51039,7 @@
         <v>6</v>
       </c>
       <c r="F1014" s="17" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="G1014" s="3" t="s">
         <v>6</v>
@@ -50945,7 +51065,7 @@
     </row>
     <row r="1015" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="13" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="B1015" s="23">
         <v>16.863611111111112</v>
@@ -50960,7 +51080,7 @@
         <v>6</v>
       </c>
       <c r="F1015" s="3" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="G1015" s="3" t="s">
         <v>6</v>
@@ -50986,7 +51106,7 @@
     </row>
     <row r="1016" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="13" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="B1016" s="23">
         <v>4.4948560000000004</v>
@@ -51001,7 +51121,7 @@
         <v>6</v>
       </c>
       <c r="F1016" s="13" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="G1016" s="3" t="s">
         <v>6</v>
@@ -51027,7 +51147,7 @@
     </row>
     <row r="1017" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="13" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="B1017" s="23">
         <v>11.048157</v>
@@ -51042,7 +51162,7 @@
         <v>6</v>
       </c>
       <c r="F1017" s="13" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="G1017" s="3" t="s">
         <v>6</v>
@@ -51068,7 +51188,7 @@
     </row>
     <row r="1018" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1018" s="16" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="B1018" s="23">
         <v>16.058672999999999</v>
@@ -51083,7 +51203,7 @@
         <v>6</v>
       </c>
       <c r="F1018" s="16" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="G1018" s="3" t="s">
         <v>6</v>
@@ -51109,7 +51229,7 @@
     </row>
     <row r="1019" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1019" s="15" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="B1019" s="23">
         <f>-(23+24/60+57/3600)</f>
@@ -51123,10 +51243,10 @@
         <v>6</v>
       </c>
       <c r="E1019" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F1019" s="15" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="G1019" s="3" t="s">
         <v>6</v>
@@ -51152,7 +51272,7 @@
     </row>
     <row r="1020" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1020" s="15" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
       <c r="B1020" s="23">
         <f>-(23+20/60+17/3600)</f>
@@ -51166,10 +51286,10 @@
         <v>6</v>
       </c>
       <c r="E1020" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F1020" s="15" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="G1020" s="3" t="s">
         <v>6</v>
@@ -51195,7 +51315,7 @@
     </row>
     <row r="1021" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1021" s="28" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="B1021" s="23">
         <f>39+27/60+2.68/3600</f>
@@ -51212,13 +51332,13 @@
         <v>6</v>
       </c>
       <c r="F1021" s="28" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="G1021" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1021" s="28" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="I1021" s="3" t="s">
         <v>6</v>
@@ -51238,7 +51358,7 @@
     </row>
     <row r="1022" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="28" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="B1022" s="23">
         <v>39.442863000000003</v>
@@ -51253,7 +51373,7 @@
         <v>6</v>
       </c>
       <c r="F1022" s="28" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="G1022" s="3" t="s">
         <v>6</v>
@@ -51279,7 +51399,7 @@
     </row>
     <row r="1023" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1023" s="15" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="B1023" s="23">
         <v>21.607123000000001</v>
@@ -51294,7 +51414,7 @@
         <v>6</v>
       </c>
       <c r="F1023" s="15" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="G1023" s="3" t="s">
         <v>6</v>
@@ -51320,7 +51440,7 @@
     </row>
     <row r="1024" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1024" s="15" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="B1024" s="23">
         <f>42+55/60+27/3600</f>
@@ -51337,7 +51457,7 @@
         <v>6</v>
       </c>
       <c r="F1024" s="3" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
       <c r="G1024" s="3" t="s">
         <v>6</v>
@@ -51363,7 +51483,7 @@
     </row>
     <row r="1025" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1025" s="15" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="B1025" s="23">
         <f t="shared" ref="B1025:B1026" si="0">42+55/60+27/3600</f>
@@ -51380,13 +51500,13 @@
         <v>6</v>
       </c>
       <c r="F1025" s="3" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="G1025" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1025" s="15" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="I1025" s="3" t="s">
         <v>6</v>
@@ -51406,7 +51526,7 @@
     </row>
     <row r="1026" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1026" s="15" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="B1026" s="23">
         <f t="shared" si="0"/>
@@ -51420,16 +51540,16 @@
         <v>6</v>
       </c>
       <c r="E1026" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F1026" s="15" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="G1026" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1026" s="15" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="I1026" s="3" t="s">
         <v>6</v>
@@ -51449,7 +51569,7 @@
     </row>
     <row r="1027" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1027" s="15" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="B1027" s="23">
         <f>42+49/60+57/3600</f>
@@ -51466,7 +51586,7 @@
         <v>6</v>
       </c>
       <c r="F1027" s="3" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
       <c r="G1027" s="3" t="s">
         <v>6</v>
@@ -51492,7 +51612,7 @@
     </row>
     <row r="1028" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1028" s="15" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
       <c r="B1028" s="23">
         <f>42+49/60+57/3600</f>
@@ -51506,16 +51626,16 @@
         <v>6</v>
       </c>
       <c r="E1028" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F1028" s="15" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
       <c r="G1028" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1028" s="15" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="I1028" s="3" t="s">
         <v>6</v>
@@ -51535,7 +51655,7 @@
     </row>
     <row r="1029" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1029" s="15" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="B1029" s="23">
         <f>42+46/60+34/3600</f>
@@ -51552,7 +51672,7 @@
         <v>6</v>
       </c>
       <c r="F1029" s="3" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
       <c r="G1029" s="3" t="s">
         <v>6</v>
@@ -51578,7 +51698,7 @@
     </row>
     <row r="1030" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1030" s="15" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="B1030" s="23">
         <f>42+46/60+34/3600</f>
@@ -51592,16 +51712,16 @@
         <v>6</v>
       </c>
       <c r="E1030" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F1030" s="3" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
       <c r="G1030" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1030" s="15" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="I1030" s="3" t="s">
         <v>6</v>
@@ -51621,7 +51741,7 @@
     </row>
     <row r="1031" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1031" s="15" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
       <c r="B1031" s="23">
         <f t="shared" ref="B1031:B1032" si="2">42+44/60+37/3600</f>
@@ -51638,7 +51758,7 @@
         <v>6</v>
       </c>
       <c r="F1031" s="3" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="G1031" s="3" t="s">
         <v>6</v>
@@ -51664,7 +51784,7 @@
     </row>
     <row r="1032" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1032" s="15" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="B1032" s="23">
         <f t="shared" si="2"/>
@@ -51681,13 +51801,13 @@
         <v>6</v>
       </c>
       <c r="F1032" s="15" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="G1032" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1032" s="15" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
       <c r="I1032" s="3" t="s">
         <v>6</v>
@@ -51707,7 +51827,7 @@
     </row>
     <row r="1033" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1033" s="15" t="s">
-        <v>2129</v>
+        <v>2123</v>
       </c>
       <c r="B1033" s="23">
         <f>42+44/60+37/3600</f>
@@ -51721,16 +51841,16 @@
         <v>6</v>
       </c>
       <c r="E1033" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F1033" s="15" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="G1033" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1033" s="15" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="I1033" s="3" t="s">
         <v>6</v>
@@ -51750,7 +51870,7 @@
     </row>
     <row r="1034" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1034" s="15" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="B1034" s="23">
         <f>42+43/60+16/3600</f>
@@ -51767,7 +51887,7 @@
         <v>6</v>
       </c>
       <c r="F1034" s="3" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="G1034" s="3" t="s">
         <v>6</v>
@@ -51793,7 +51913,7 @@
     </row>
     <row r="1035" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1035" s="15" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
       <c r="B1035" s="23">
         <f>42+43/60+16/3600</f>
@@ -51807,16 +51927,16 @@
         <v>6</v>
       </c>
       <c r="E1035" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F1035" s="3" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
       <c r="G1035" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1035" s="15" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="I1035" s="3" t="s">
         <v>6</v>
@@ -51836,7 +51956,7 @@
     </row>
     <row r="1036" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1036" s="15" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="B1036" s="23">
         <f>42+38/60+7/3600</f>
@@ -51853,7 +51973,7 @@
         <v>6</v>
       </c>
       <c r="F1036" s="3" t="s">
-        <v>2135</v>
+        <v>2129</v>
       </c>
       <c r="G1036" s="3" t="s">
         <v>6</v>
@@ -51879,7 +51999,7 @@
     </row>
     <row r="1037" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1037" s="15" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
       <c r="B1037" s="23">
         <f>42+38/60+7/3600</f>
@@ -51893,16 +52013,16 @@
         <v>6</v>
       </c>
       <c r="E1037" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F1037" s="3" t="s">
-        <v>2136</v>
+        <v>2130</v>
       </c>
       <c r="G1037" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1037" s="15" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="I1037" s="3" t="s">
         <v>6</v>
@@ -51922,7 +52042,7 @@
     </row>
     <row r="1038" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1038" s="15" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="B1038" s="23">
         <v>42.610613999999998</v>
@@ -51937,7 +52057,7 @@
         <v>6</v>
       </c>
       <c r="F1038" s="3" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="G1038" s="3" t="s">
         <v>6</v>
@@ -51963,7 +52083,7 @@
     </row>
     <row r="1039" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1039" s="15" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="B1039" s="23">
         <f>42+38/60+14/3600</f>
@@ -51980,13 +52100,13 @@
         <v>6</v>
       </c>
       <c r="F1039" s="3" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="G1039" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1039" s="15" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="I1039" s="3" t="s">
         <v>6</v>
@@ -52006,7 +52126,7 @@
     </row>
     <row r="1040" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1040" s="15" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="B1040" s="23">
         <v>42.574767000000001</v>
@@ -52021,7 +52141,7 @@
         <v>6</v>
       </c>
       <c r="F1040" s="3" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="G1040" s="3" t="s">
         <v>6</v>
@@ -52047,7 +52167,7 @@
     </row>
     <row r="1041" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1041" s="3" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="B1041" s="23">
         <f>42+34/60+41/3600</f>
@@ -52064,13 +52184,13 @@
         <v>6</v>
       </c>
       <c r="F1041" s="3" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="G1041" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1041" s="15" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="I1041" s="3" t="s">
         <v>6</v>
@@ -52090,7 +52210,7 @@
     </row>
     <row r="1042" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1042" s="3" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="B1042" s="23">
         <f>42+33/60+56/3600</f>
@@ -52107,13 +52227,13 @@
         <v>6</v>
       </c>
       <c r="F1042" s="3" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="G1042" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1042" s="15" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="I1042" s="3" t="s">
         <v>6</v>
@@ -52133,7 +52253,7 @@
     </row>
     <row r="1043" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1043" s="15" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="B1043" s="23">
         <f>42+32/60+48/3600</f>
@@ -52150,7 +52270,7 @@
         <v>6</v>
       </c>
       <c r="F1043" s="3" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="G1043" s="3" t="s">
         <v>6</v>
@@ -52176,7 +52296,7 @@
     </row>
     <row r="1044" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1044" s="15" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="B1044" s="23">
         <f>42+13/60+35/3600</f>
@@ -52193,7 +52313,7 @@
         <v>6</v>
       </c>
       <c r="F1044" s="3" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="G1044" s="3" t="s">
         <v>6</v>
@@ -52219,7 +52339,7 @@
     </row>
     <row r="1045" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1045" s="3" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="B1045" s="23">
         <f>42+32/60+48/3600</f>
@@ -52236,13 +52356,13 @@
         <v>6</v>
       </c>
       <c r="F1045" s="3" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="G1045" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1045" s="15" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="I1045" s="3" t="s">
         <v>6</v>
@@ -52262,7 +52382,7 @@
     </row>
     <row r="1046" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1046" s="15" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="B1046" s="23">
         <f>42+13/60+35/3600</f>
@@ -52279,13 +52399,13 @@
         <v>6</v>
       </c>
       <c r="F1046" s="15" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="G1046" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1046" s="15" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="I1046" s="3" t="s">
         <v>6</v>
@@ -52305,7 +52425,7 @@
     </row>
     <row r="1047" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="16" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="B1047" s="23">
         <v>13.41362</v>
@@ -52320,7 +52440,7 @@
         <v>6</v>
       </c>
       <c r="F1047" s="16" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="G1047" s="3" t="s">
         <v>6</v>
@@ -52346,7 +52466,7 @@
     </row>
     <row r="1048" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="13" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="B1048" s="23">
         <v>13.919836999999999</v>
@@ -52361,7 +52481,7 @@
         <v>6</v>
       </c>
       <c r="F1048" s="13" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="G1048" s="3" t="s">
         <v>6</v>
@@ -52387,7 +52507,7 @@
     </row>
     <row r="1049" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1049" s="15" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="B1049" s="23">
         <f>34+25/60</f>
@@ -52401,16 +52521,16 @@
         <v>6</v>
       </c>
       <c r="E1049" s="13" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F1049" s="13" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="G1049" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1049" s="15" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="I1049" s="3" t="s">
         <v>6</v>
@@ -52430,7 +52550,7 @@
     </row>
     <row r="1050" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1050" s="15" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="B1050" s="23">
         <v>34.411288999999996</v>
@@ -52445,7 +52565,7 @@
         <v>6</v>
       </c>
       <c r="F1050" s="3" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="G1050" s="3" t="s">
         <v>6</v>
@@ -52471,7 +52591,7 @@
     </row>
     <row r="1051" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1051" s="15" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="B1051" s="23">
         <v>28.066286000000002</v>
@@ -52486,7 +52606,7 @@
         <v>6</v>
       </c>
       <c r="F1051" s="15" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="G1051" s="3" t="s">
         <v>6</v>
@@ -52512,7 +52632,7 @@
     </row>
     <row r="1052" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1052" s="15" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="B1052" s="23">
         <v>26.776126999999999</v>
@@ -52527,7 +52647,7 @@
         <v>6</v>
       </c>
       <c r="F1052" s="3" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="G1052" s="3" t="s">
         <v>6</v>
@@ -52553,7 +52673,7 @@
     </row>
     <row r="1053" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1053" s="15" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="B1053" s="23">
         <f>10+40/60</f>
@@ -52570,13 +52690,13 @@
         <v>6</v>
       </c>
       <c r="F1053" s="3" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="G1053" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1053" s="15" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="I1053" s="3" t="s">
         <v>6</v>
@@ -52596,7 +52716,7 @@
     </row>
     <row r="1054" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1054" s="15" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="B1054" s="23">
         <v>10.682840000000001</v>
@@ -52611,7 +52731,7 @@
         <v>6</v>
       </c>
       <c r="F1054" s="3" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="G1054" s="3" t="s">
         <v>6</v>
@@ -52637,7 +52757,7 @@
     </row>
     <row r="1055" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1055" s="15" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="B1055" s="23">
         <v>10.610061</v>
@@ -52652,13 +52772,13 @@
         <v>6</v>
       </c>
       <c r="F1055" s="3" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="G1055" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1055" s="15" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="I1055" s="3" t="s">
         <v>6</v>
@@ -52678,7 +52798,7 @@
     </row>
     <row r="1056" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1056" s="15" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="B1056" s="23">
         <v>2.7884769999999999</v>
@@ -52693,7 +52813,7 @@
         <v>6</v>
       </c>
       <c r="F1056" s="3" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="G1056" s="3" t="s">
         <v>6</v>
@@ -52719,7 +52839,7 @@
     </row>
     <row r="1057" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1057" s="15" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="B1057" s="23">
         <v>1.6549739999999999</v>
@@ -52734,7 +52854,7 @@
         <v>6</v>
       </c>
       <c r="F1057" s="3" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="G1057" s="3" t="s">
         <v>6</v>
@@ -52760,7 +52880,7 @@
     </row>
     <row r="1058" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1058" s="15" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="B1058" s="23">
         <v>5.0913979999999999</v>
@@ -52775,7 +52895,7 @@
         <v>6</v>
       </c>
       <c r="F1058" s="3" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="G1058" s="3" t="s">
         <v>6</v>
@@ -52801,7 +52921,7 @@
     </row>
     <row r="1059" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1059" s="15" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="B1059" s="23">
         <v>36.584448000000002</v>
@@ -52816,13 +52936,13 @@
         <v>6</v>
       </c>
       <c r="F1059" s="15" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="G1059" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1059" s="15" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="I1059" s="3" t="s">
         <v>6</v>
@@ -52842,7 +52962,7 @@
     </row>
     <row r="1060" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1060" s="15" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="B1060" s="23">
         <v>36.537478</v>
@@ -52857,7 +52977,7 @@
         <v>6</v>
       </c>
       <c r="F1060" s="15" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="G1060" s="3" t="s">
         <v>6</v>
@@ -52883,7 +53003,7 @@
     </row>
     <row r="1061" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1061" s="15" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="B1061" s="23">
         <v>28.041312000000001</v>
@@ -52898,13 +53018,13 @@
         <v>6</v>
       </c>
       <c r="F1061" s="3" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="G1061" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1061" s="15" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="I1061" s="3" t="s">
         <v>6</v>
@@ -52924,7 +53044,7 @@
     </row>
     <row r="1062" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1062" s="15" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="B1062" s="23">
         <v>27.724446</v>
@@ -52939,7 +53059,7 @@
         <v>6</v>
       </c>
       <c r="F1062" s="3" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="G1062" s="3" t="s">
         <v>6</v>
@@ -52965,7 +53085,7 @@
     </row>
     <row r="1063" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1063" s="15" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="B1063" s="23">
         <f>25+48/60+54/3600</f>
@@ -52982,7 +53102,7 @@
         <v>6</v>
       </c>
       <c r="F1063" s="3" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="G1063" s="3" t="s">
         <v>6</v>
@@ -53008,7 +53128,7 @@
     </row>
     <row r="1064" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1064" s="15" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="B1064" s="23">
         <v>-16.161854000000002</v>
@@ -53023,7 +53143,7 @@
         <v>6</v>
       </c>
       <c r="F1064" s="3" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="G1064" s="3" t="s">
         <v>6</v>
@@ -53049,7 +53169,7 @@
     </row>
     <row r="1065" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1065" s="13" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="B1065" s="23">
         <v>22.852709999999998</v>
@@ -53064,13 +53184,13 @@
         <v>6</v>
       </c>
       <c r="F1065" s="3" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="G1065" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1065" s="13" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="I1065" s="3" t="s">
         <v>6</v>
@@ -53090,7 +53210,7 @@
     </row>
     <row r="1066" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1066" s="3" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="B1066" s="23">
         <v>26.802807000000001</v>
@@ -53105,7 +53225,7 @@
         <v>6</v>
       </c>
       <c r="F1066" s="3" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="G1066" s="3" t="s">
         <v>6</v>
@@ -53131,7 +53251,7 @@
     </row>
     <row r="1067" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1067" s="3" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="B1067" s="23">
         <v>30.18984</v>
@@ -53146,13 +53266,13 @@
         <v>6</v>
       </c>
       <c r="F1067" s="3" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="G1067" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1067" s="3" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="I1067" s="3" t="s">
         <v>6</v>
@@ -53172,7 +53292,7 @@
     </row>
     <row r="1068" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="B1068" s="23">
         <v>29.906593000000001</v>
@@ -53187,7 +53307,7 @@
         <v>6</v>
       </c>
       <c r="F1068" s="3" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="G1068" s="3" t="s">
         <v>6</v>
@@ -53213,7 +53333,7 @@
     </row>
     <row r="1069" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="B1069" s="23">
         <v>-4.43011</v>
@@ -53228,7 +53348,7 @@
         <v>6</v>
       </c>
       <c r="F1069" s="17" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="G1069" s="3" t="s">
         <v>6</v>
@@ -53254,7 +53374,7 @@
     </row>
     <row r="1070" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="B1070" s="23">
         <v>24.454169</v>
@@ -53269,7 +53389,7 @@
         <v>6</v>
       </c>
       <c r="F1070" s="3" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="G1070" s="3" t="s">
         <v>6</v>
@@ -53295,7 +53415,7 @@
     </row>
     <row r="1071" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1071" s="13" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="B1071" s="23">
         <v>-15.320285</v>
@@ -53310,7 +53430,7 @@
         <v>6</v>
       </c>
       <c r="F1071" s="3" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="G1071" s="3" t="s">
         <v>6</v>
@@ -53336,7 +53456,7 @@
     </row>
     <row r="1072" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="B1072" s="23">
         <v>10.19791</v>
@@ -53351,7 +53471,7 @@
         <v>6</v>
       </c>
       <c r="F1072" s="3" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="G1072" s="3" t="s">
         <v>6</v>
@@ -53377,7 +53497,7 @@
     </row>
     <row r="1073" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1073" s="13" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="B1073" s="23">
         <v>24.039268</v>
@@ -53392,7 +53512,7 @@
         <v>6</v>
       </c>
       <c r="F1073" s="17" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="G1073" s="3" t="s">
         <v>6</v>
@@ -53426,7 +53546,7 @@
     </row>
     <row r="1074" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1074" s="13" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="B1074" s="23">
         <v>23.973965</v>
@@ -53441,13 +53561,13 @@
         <v>6</v>
       </c>
       <c r="F1074" s="3" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="G1074" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1074" s="13" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="I1074" s="3" t="s">
         <v>6</v>
@@ -53467,7 +53587,7 @@
     </row>
     <row r="1075" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="B1075" s="23">
         <v>-3.7194060000000002</v>
@@ -53482,7 +53602,7 @@
         <v>6</v>
       </c>
       <c r="F1075" s="13" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="G1075" s="3" t="s">
         <v>6</v>
@@ -53508,7 +53628,7 @@
     </row>
     <row r="1076" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1076" s="13" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="B1076" s="23">
         <v>-3.7194060000000002</v>
@@ -53523,13 +53643,13 @@
         <v>6</v>
       </c>
       <c r="F1076" s="3" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="G1076" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1076" s="13" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="I1076" s="3" t="s">
         <v>6</v>
@@ -53549,7 +53669,7 @@
     </row>
     <row r="1077" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1077" s="13" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="B1077" s="23">
         <v>-3.7220580000000001</v>
@@ -53564,13 +53684,13 @@
         <v>6</v>
       </c>
       <c r="F1077" s="13" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="G1077" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1077" s="13" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="I1077" s="3" t="s">
         <v>6</v>
@@ -53590,7 +53710,7 @@
     </row>
     <row r="1078" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1078" s="13" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="B1078" s="23">
         <v>26.109795999999999</v>
@@ -53605,13 +53725,13 @@
         <v>6</v>
       </c>
       <c r="F1078" s="3" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="G1078" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1078" s="13" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="I1078" s="3" t="s">
         <v>6</v>
@@ -53631,7 +53751,7 @@
     </row>
     <row r="1079" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="B1079" s="23">
         <v>29.097078</v>
@@ -53646,7 +53766,7 @@
         <v>6</v>
       </c>
       <c r="F1079" s="3" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="G1079" s="3" t="s">
         <v>6</v>
@@ -53672,7 +53792,7 @@
     </row>
     <row r="1080" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="B1080" s="23">
         <v>29.452794000000001</v>
@@ -53687,7 +53807,7 @@
         <v>6</v>
       </c>
       <c r="F1080" s="3" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="G1080" s="3" t="s">
         <v>6</v>
@@ -53713,7 +53833,7 @@
     </row>
     <row r="1081" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="B1081" s="23">
         <v>29.684439999999999</v>
@@ -53728,7 +53848,7 @@
         <v>6</v>
       </c>
       <c r="F1081" s="3" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
       <c r="G1081" s="3" t="s">
         <v>6</v>
@@ -53754,7 +53874,7 @@
     </row>
     <row r="1082" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1082" s="13" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="B1082" s="23">
         <v>-20.806073999999999</v>
@@ -53769,7 +53889,7 @@
         <v>6</v>
       </c>
       <c r="F1082" s="17" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="G1082" s="3" t="s">
         <v>6</v>
@@ -53795,7 +53915,7 @@
     </row>
     <row r="1083" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1083" s="13" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="B1083" s="23">
         <v>27.450400999999999</v>
@@ -53810,7 +53930,7 @@
         <v>6</v>
       </c>
       <c r="F1083" s="3" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
       <c r="G1083" s="3" t="s">
         <v>6</v>
@@ -53836,7 +53956,7 @@
     </row>
     <row r="1084" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1084" s="13" t="s">
-        <v>2233</v>
+        <v>2227</v>
       </c>
       <c r="B1084" s="23">
         <v>27.355049999999999</v>
@@ -53851,13 +53971,13 @@
         <v>6</v>
       </c>
       <c r="F1084" s="3" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="G1084" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1084" s="13" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="I1084" s="3" t="s">
         <v>6</v>
@@ -53877,7 +53997,7 @@
     </row>
     <row r="1085" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1085" s="13" t="s">
-        <v>2234</v>
+        <v>2228</v>
       </c>
       <c r="B1085" s="23">
         <v>27.840060000000001</v>
@@ -53892,7 +54012,7 @@
         <v>6</v>
       </c>
       <c r="F1085" s="17" t="s">
-        <v>2235</v>
+        <v>2229</v>
       </c>
       <c r="G1085" s="3" t="s">
         <v>6</v>
@@ -53926,7 +54046,7 @@
     </row>
     <row r="1086" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>2236</v>
+        <v>2230</v>
       </c>
       <c r="B1086" s="23">
         <v>38.088352999999998</v>
@@ -53941,7 +54061,7 @@
         <v>6</v>
       </c>
       <c r="F1086" s="3" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="G1086" s="3" t="s">
         <v>6</v>
@@ -53967,7 +54087,7 @@
     </row>
     <row r="1087" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>2238</v>
+        <v>2232</v>
       </c>
       <c r="B1087" s="23">
         <v>18.489757000000001</v>
@@ -53982,7 +54102,7 @@
         <v>6</v>
       </c>
       <c r="F1087" s="3" t="s">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="G1087" s="3" t="s">
         <v>6</v>
@@ -54008,7 +54128,7 @@
     </row>
     <row r="1088" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>2243</v>
+        <v>2237</v>
       </c>
       <c r="B1088" s="23">
         <v>18.418773999999999</v>
@@ -54023,13 +54143,13 @@
         <v>6</v>
       </c>
       <c r="F1088" s="3" t="s">
-        <v>2242</v>
+        <v>2236</v>
       </c>
       <c r="G1088" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1088" s="13" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="I1088" s="3" t="s">
         <v>6</v>
@@ -54049,7 +54169,7 @@
     </row>
     <row r="1089" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="B1089" s="23">
         <v>9.3175080000000001</v>
@@ -54064,7 +54184,7 @@
         <v>6</v>
       </c>
       <c r="F1089" s="3" t="s">
-        <v>2244</v>
+        <v>2238</v>
       </c>
       <c r="G1089" s="3" t="s">
         <v>6</v>
@@ -54090,7 +54210,7 @@
     </row>
     <row r="1090" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="B1090" s="23">
         <v>18.431000999999998</v>
@@ -54105,7 +54225,7 @@
         <v>6</v>
       </c>
       <c r="F1090" s="13" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="G1090" s="3" t="s">
         <v>6</v>
@@ -54131,7 +54251,7 @@
     </row>
     <row r="1091" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1091" s="14" t="s">
-        <v>2245</v>
+        <v>2239</v>
       </c>
       <c r="B1091" s="23">
         <v>22.243793</v>
@@ -54146,7 +54266,7 @@
         <v>6</v>
       </c>
       <c r="F1091" s="17" t="s">
-        <v>2246</v>
+        <v>2240</v>
       </c>
       <c r="G1091" s="3" t="s">
         <v>6</v>
@@ -54172,7 +54292,7 @@
     </row>
     <row r="1092" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1092" s="13" t="s">
-        <v>2247</v>
+        <v>2241</v>
       </c>
       <c r="B1092" s="23">
         <v>-12.920805</v>
@@ -54187,13 +54307,13 @@
         <v>6</v>
       </c>
       <c r="F1092" s="3" t="s">
-        <v>2248</v>
+        <v>2242</v>
       </c>
       <c r="G1092" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1092" s="13" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="I1092" s="3" t="s">
         <v>6</v>
@@ -54213,7 +54333,7 @@
     </row>
     <row r="1093" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>2249</v>
+        <v>2243</v>
       </c>
       <c r="B1093" s="23">
         <v>10.030799999999999</v>
@@ -54228,7 +54348,7 @@
         <v>6</v>
       </c>
       <c r="F1093" s="3" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
       <c r="G1093" s="3" t="s">
         <v>6</v>
@@ -54254,7 +54374,7 @@
     </row>
     <row r="1094" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1094" s="13" t="s">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="B1094" s="23">
         <v>37.386279000000002</v>
@@ -54269,13 +54389,13 @@
         <v>6</v>
       </c>
       <c r="F1094" s="13" t="s">
-        <v>2251</v>
+        <v>2245</v>
       </c>
       <c r="G1094" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1094" s="13" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="I1094" s="3" t="s">
         <v>6</v>
@@ -54295,7 +54415,7 @@
     </row>
     <row r="1095" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1095" s="13" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="B1095" s="23">
         <v>19.967858</v>
@@ -54310,7 +54430,7 @@
         <v>6</v>
       </c>
       <c r="F1095" s="17" t="s">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="G1095" s="3" t="s">
         <v>6</v>
@@ -54336,7 +54456,7 @@
     </row>
     <row r="1096" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1096" s="13" t="s">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="B1096" s="23">
         <v>-16.891017000000002</v>
@@ -54351,7 +54471,7 @@
         <v>6</v>
       </c>
       <c r="F1096" s="17" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
       <c r="G1096" s="3" t="s">
         <v>6</v>
@@ -54377,7 +54497,7 @@
     </row>
     <row r="1097" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1097" s="16" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="B1097" s="23">
         <v>-20.654817999999999</v>
@@ -54392,7 +54512,7 @@
         <v>6</v>
       </c>
       <c r="F1097" s="14" t="s">
-        <v>2258</v>
+        <v>2252</v>
       </c>
       <c r="G1097" s="13" t="s">
         <v>6</v>
@@ -54418,22 +54538,22 @@
     </row>
     <row r="1098" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1098" s="16" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="B1098" s="23">
-        <v>-16.18713</v>
+        <v>-14.552915</v>
       </c>
       <c r="C1098" s="23">
-        <v>123.62708499999999</v>
+        <v>125.32448599999999</v>
       </c>
       <c r="D1098" s="13" t="s">
-        <v>6</v>
+        <v>2305</v>
       </c>
       <c r="E1098" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F1098" s="14" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
       <c r="G1098" s="13" t="s">
         <v>6</v>
@@ -54459,7 +54579,7 @@
     </row>
     <row r="1099" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1099" s="15" t="s">
-        <v>2262</v>
+        <v>2256</v>
       </c>
       <c r="B1099" s="23">
         <v>2.4358909999999998</v>
@@ -54474,13 +54594,13 @@
         <v>6</v>
       </c>
       <c r="F1099" s="3" t="s">
-        <v>2261</v>
+        <v>2255</v>
       </c>
       <c r="G1099" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1099" s="15" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="I1099" s="3" t="s">
         <v>6</v>
@@ -54500,7 +54620,7 @@
     </row>
     <row r="1100" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1100" s="14" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="B1100" s="24">
         <v>5.7312000000000003</v>
@@ -54515,7 +54635,7 @@
         <v>6</v>
       </c>
       <c r="F1100" s="17" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="G1100" s="17" t="s">
         <v>6</v>
@@ -54549,7 +54669,7 @@
     </row>
     <row r="1101" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1101" s="13" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="B1101" s="23">
         <v>-12.891586999999999</v>
@@ -54564,13 +54684,13 @@
         <v>6</v>
       </c>
       <c r="F1101" s="3" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="G1101" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1101" s="13" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="I1101" s="3" t="s">
         <v>6</v>
@@ -54590,7 +54710,7 @@
     </row>
     <row r="1102" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1102" s="16" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="B1102" s="23">
         <v>-14.749665999999999</v>
@@ -54605,7 +54725,7 @@
         <v>6</v>
       </c>
       <c r="F1102" s="14" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="G1102" s="13" t="s">
         <v>6</v>
@@ -54631,7 +54751,7 @@
     </row>
     <row r="1103" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1103" s="13" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="B1103" s="23">
         <v>-25.263362000000001</v>
@@ -54646,7 +54766,7 @@
         <v>6</v>
       </c>
       <c r="F1103" s="17" t="s">
-        <v>2270</v>
+        <v>2264</v>
       </c>
       <c r="G1103" s="3" t="s">
         <v>6</v>
@@ -54672,7 +54792,7 @@
     </row>
     <row r="1104" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1104" s="13" t="s">
-        <v>2271</v>
+        <v>2265</v>
       </c>
       <c r="B1104" s="23">
         <v>27.646242999999998</v>
@@ -54687,7 +54807,7 @@
         <v>6</v>
       </c>
       <c r="F1104" s="17" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
       <c r="G1104" s="3" t="s">
         <v>6</v>
@@ -54713,7 +54833,7 @@
     </row>
     <row r="1105" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1105" s="13" t="s">
-        <v>2273</v>
+        <v>2267</v>
       </c>
       <c r="B1105" s="23">
         <v>-19.45</v>
@@ -54728,7 +54848,7 @@
         <v>6</v>
       </c>
       <c r="F1105" s="17" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="G1105" s="3" t="s">
         <v>6</v>
@@ -54754,7 +54874,7 @@
     </row>
     <row r="1106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="B1106" s="23">
         <v>-2.2800639999999999</v>
@@ -54769,10 +54889,10 @@
         <v>6</v>
       </c>
       <c r="F1106" s="3" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="G1106" s="3" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="H1106" s="3" t="s">
         <v>279</v>
@@ -54795,7 +54915,7 @@
     </row>
     <row r="1107" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1107" s="13" t="s">
-        <v>2278</v>
+        <v>2272</v>
       </c>
       <c r="B1107" s="23">
         <v>-7.7236989999999999</v>
@@ -54810,7 +54930,7 @@
         <v>6</v>
       </c>
       <c r="F1107" s="17" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="G1107" s="3" t="s">
         <v>6</v>
@@ -54836,7 +54956,7 @@
     </row>
     <row r="1108" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1108" s="14" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="B1108" s="23">
         <v>23.124517999999998</v>
@@ -54851,13 +54971,13 @@
         <v>6</v>
       </c>
       <c r="F1108" s="3" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="G1108" s="3" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="H1108" s="13" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="I1108" s="3" t="s">
         <v>6</v>
@@ -54885,7 +55005,7 @@
     </row>
     <row r="1109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1109" s="14" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="B1109" s="23">
         <v>23.324971000000001</v>
@@ -54900,7 +55020,7 @@
         <v>6</v>
       </c>
       <c r="F1109" s="3" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="G1109" s="3" t="s">
         <v>6</v>
@@ -54926,7 +55046,7 @@
     </row>
     <row r="1110" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1110" s="14" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="B1110" s="24">
         <v>32.704906999999999</v>
@@ -54941,7 +55061,7 @@
         <v>622</v>
       </c>
       <c r="F1110" s="14" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="G1110" s="17" t="s">
         <v>6</v>
@@ -54975,7 +55095,7 @@
     </row>
     <row r="1111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1111" s="14" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="B1111" s="23">
         <v>-21.9</v>
@@ -54984,13 +55104,13 @@
         <v>149.468155</v>
       </c>
       <c r="D1111" s="14" t="s">
-        <v>2297</v>
+        <v>2291</v>
       </c>
       <c r="E1111" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F1111" s="3" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="G1111" s="3" t="s">
         <v>6</v>
@@ -55016,7 +55136,7 @@
     </row>
     <row r="1112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1112" s="14" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="B1112" s="23">
         <v>-16.919616000000001</v>
@@ -55025,13 +55145,13 @@
         <v>145.783006</v>
       </c>
       <c r="D1112" s="14" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="E1112" s="14" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="F1112" s="3" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="G1112" s="3" t="s">
         <v>6</v>
@@ -55057,7 +55177,7 @@
     </row>
     <row r="1113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1113" s="14" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="B1113" s="23">
         <v>-20.654817999999999</v>
@@ -55069,10 +55189,10 @@
         <v>6</v>
       </c>
       <c r="E1113" s="14" t="s">
-        <v>2292</v>
+        <v>2286</v>
       </c>
       <c r="F1113" s="3" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="G1113" s="3" t="s">
         <v>6</v>
@@ -55094,6 +55214,705 @@
       </c>
       <c r="M1113" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1114" s="14" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1114" s="23">
+        <v>9.1206800000000001</v>
+      </c>
+      <c r="C1114" s="23">
+        <v>76.484787999999995</v>
+      </c>
+      <c r="D1114" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1114" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1114" s="3" t="s">
+        <v>2301</v>
+      </c>
+      <c r="G1114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1114" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="I1114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1114" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1114" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1114" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1114" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1115" s="14" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B1115" s="23">
+        <v>-16.07489</v>
+      </c>
+      <c r="C1115" s="23">
+        <v>123.536524</v>
+      </c>
+      <c r="D1115" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1115" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1115" s="14" t="s">
+        <v>2302</v>
+      </c>
+      <c r="G1115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1115" s="3" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I1115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1115" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1116" s="14" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1116" s="23">
+        <v>-16.266521000000001</v>
+      </c>
+      <c r="C1116" s="23">
+        <v>123.44146499999999</v>
+      </c>
+      <c r="D1116" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1116" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1116" s="14" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G1116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1116" s="3" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I1116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1116" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1117" s="14" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B1117" s="23">
+        <v>-15.339668</v>
+      </c>
+      <c r="C1117" s="23">
+        <v>124.327626</v>
+      </c>
+      <c r="D1117" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1117" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1117" s="14" t="s">
+        <v>2306</v>
+      </c>
+      <c r="G1117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1117" s="3" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I1117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1117" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1118" s="14" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B1118" s="23">
+        <v>-15.024312</v>
+      </c>
+      <c r="C1118" s="23">
+        <v>124.77984600000001</v>
+      </c>
+      <c r="D1118" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1118" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1118" s="14" t="s">
+        <v>2304</v>
+      </c>
+      <c r="G1118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1118" s="3" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I1118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1118" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1119" s="13" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B1119" s="23">
+        <v>33.79074</v>
+      </c>
+      <c r="C1119" s="23">
+        <v>130.45912300000001</v>
+      </c>
+      <c r="D1119" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1119" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1119" s="3" t="s">
+        <v>2312</v>
+      </c>
+      <c r="G1119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1119" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="I1119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1119" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1119" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1119" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1119" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="13" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B1120" s="23">
+        <v>13.970395</v>
+      </c>
+      <c r="C1120" s="23">
+        <v>-16.740738</v>
+      </c>
+      <c r="D1120" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1120" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1120" s="17" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G1120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1120" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1120" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1120" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1120" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1120" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B1121" s="23">
+        <v>31.686962000000001</v>
+      </c>
+      <c r="C1121" s="23">
+        <v>-81.296132</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1121" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1121" s="3" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G1121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1121" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1121" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1121" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1121" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1121" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B1122" s="23">
+        <f>11+12/60</f>
+        <v>11.2</v>
+      </c>
+      <c r="C1122" s="23">
+        <f>-(15+53/60)</f>
+        <v>-15.883333333333333</v>
+      </c>
+      <c r="D1122" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1122" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1122" s="13" t="s">
+        <v>2318</v>
+      </c>
+      <c r="G1122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1122" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="I1122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1122" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1122" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1122" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1122" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B1123" s="23">
+        <v>29.117218999999999</v>
+      </c>
+      <c r="C1123" s="23">
+        <v>-90.177826999999994</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1123" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1123" s="3" t="s">
+        <v>2320</v>
+      </c>
+      <c r="G1123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1123" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="I1123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1123" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1123" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1123" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1123" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="13" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1124" s="23">
+        <v>29.100874000000001</v>
+      </c>
+      <c r="C1124" s="23">
+        <v>-90.194265999999999</v>
+      </c>
+      <c r="D1124" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1124" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1124" s="17" t="s">
+        <v>2322</v>
+      </c>
+      <c r="G1124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1124" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="I1124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1124" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1124" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1124" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1124" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="13" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1125" s="23">
+        <v>-0.74693100000000001</v>
+      </c>
+      <c r="C1125" s="23">
+        <v>-90.308261000000002</v>
+      </c>
+      <c r="D1125" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1125" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1125" s="13" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G1125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1125" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1125" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="K1125" s="27">
+        <v>-88.7</v>
+      </c>
+      <c r="L1125" s="27">
+        <v>-2</v>
+      </c>
+      <c r="M1125" s="27">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1126" s="13" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1126" s="23">
+        <v>-1.221017</v>
+      </c>
+      <c r="C1126" s="23">
+        <v>-90.423460000000006</v>
+      </c>
+      <c r="D1126" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1126" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1126" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="G1126" s="13" t="s">
+        <v>2333</v>
+      </c>
+      <c r="H1126" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1126" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="K1126" s="27">
+        <v>-88.7</v>
+      </c>
+      <c r="L1126" s="27">
+        <v>-2</v>
+      </c>
+      <c r="M1126" s="27">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="13" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1127" s="23">
+        <v>0.31190800000000002</v>
+      </c>
+      <c r="C1127" s="23">
+        <v>-89.954133999999996</v>
+      </c>
+      <c r="D1127" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1127" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1127" s="3" t="s">
+        <v>2327</v>
+      </c>
+      <c r="G1127" s="13" t="s">
+        <v>2332</v>
+      </c>
+      <c r="H1127" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1127" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="K1127" s="27">
+        <v>-88.7</v>
+      </c>
+      <c r="L1127" s="27">
+        <v>-2</v>
+      </c>
+      <c r="M1127" s="27">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1128" s="13" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1128" s="23">
+        <v>-0.496309</v>
+      </c>
+      <c r="C1128" s="23">
+        <v>-91.432417999999998</v>
+      </c>
+      <c r="D1128" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1128" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1128" s="3" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G1128" s="13" t="s">
+        <v>2331</v>
+      </c>
+      <c r="H1128" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1128" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="K1128" s="27">
+        <v>-88.7</v>
+      </c>
+      <c r="L1128" s="27">
+        <v>-2</v>
+      </c>
+      <c r="M1128" s="27">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="13" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1129" s="23">
+        <v>-0.21699299999999999</v>
+      </c>
+      <c r="C1129" s="23">
+        <v>-90.844719999999995</v>
+      </c>
+      <c r="D1129" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1129" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1129" s="3" t="s">
+        <v>2341</v>
+      </c>
+      <c r="G1129" s="3" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H1129" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1129" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1129" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="K1129" s="27">
+        <v>-88.7</v>
+      </c>
+      <c r="L1129" s="27">
+        <v>-2</v>
+      </c>
+      <c r="M1129" s="27">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="13" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1130" s="23">
+        <v>-0.199577</v>
+      </c>
+      <c r="C1130" s="23">
+        <v>-91.383596999999995</v>
+      </c>
+      <c r="D1130" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1130" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1130" s="3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G1130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1130" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="K1130" s="27">
+        <v>-88.7</v>
+      </c>
+      <c r="L1130" s="27">
+        <v>-2</v>
+      </c>
+      <c r="M1130" s="27">
+        <v>-93</v>
       </c>
     </row>
   </sheetData>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1065" windowWidth="22995" windowHeight="12645"/>
+    <workbookView xWindow="240" yWindow="1065" windowWidth="22995" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -14,13 +19,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$M$1113</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11158" uniqueCount="2346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11268" uniqueCount="2366">
   <si>
     <t>Latitude</t>
   </si>
@@ -7058,12 +7063,72 @@
   </si>
   <si>
     <t>Caleta Black, Isabela Island, Galápagos Islands</t>
+  </si>
+  <si>
+    <t>Playa El Agallito</t>
+  </si>
+  <si>
+    <t>Chitré District, Panama</t>
+  </si>
+  <si>
+    <t>Chitré District</t>
+  </si>
+  <si>
+    <t>Playa El Agallito, Chitré District, Panama</t>
+  </si>
+  <si>
+    <t>Scallop Pond</t>
+  </si>
+  <si>
+    <t>North Sea, Long Island, New York, USA</t>
+  </si>
+  <si>
+    <t>Scallop Pond, North Sea, Long Island, New York, USA</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Gravine Island</t>
+  </si>
+  <si>
+    <t>Gravine Island, Alabama, USA</t>
+  </si>
+  <si>
+    <t>South Deer Island</t>
+  </si>
+  <si>
+    <t>South Deer Island, Texas, USA</t>
+  </si>
+  <si>
+    <t>Milford, Connecticut, USA</t>
+  </si>
+  <si>
+    <t>Charles E. Wheeler Salt Marsh, Milford, Connecticut, USA</t>
+  </si>
+  <si>
+    <t>Milford</t>
+  </si>
+  <si>
+    <t>Charles E. Wheeler Salt Marsh</t>
+  </si>
+  <si>
+    <t>Kilifi Creek</t>
+  </si>
+  <si>
+    <t>Kilifi Creek, Kenya</t>
+  </si>
+  <si>
+    <t>Mithbav Creek, Maharashtra, India</t>
+  </si>
+  <si>
+    <t>Mithbav Creek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -7239,7 +7304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7272,9 +7337,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7307,6 +7389,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7482,27 +7581,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U1140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A1113" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A1103" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="C1135" sqref="C1135"/>
+      <selection pane="bottomLeft" activeCell="B1140" sqref="B1140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="13" style="23" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="3" customWidth="1"/>
-    <col min="10" max="13" width="8.375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="3" customWidth="1"/>
+    <col min="10" max="13" width="8.42578125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -55915,8 +56014,418 @@
         <v>-93</v>
       </c>
     </row>
+    <row r="1131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1131" s="23">
+        <v>8.0079150000000006</v>
+      </c>
+      <c r="C1131" s="23">
+        <v>-80.402409000000006</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1131" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1131" s="13" t="s">
+        <v>2346</v>
+      </c>
+      <c r="G1131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1131" s="13" t="s">
+        <v>2347</v>
+      </c>
+      <c r="I1131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1131" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1132" s="23">
+        <v>8.0079150000000006</v>
+      </c>
+      <c r="C1132" s="23">
+        <v>-80.402409000000006</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1132" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1132" s="13" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G1132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1132" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1132" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1133" s="13" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1133" s="23">
+        <v>40.952477000000002</v>
+      </c>
+      <c r="C1133" s="23">
+        <v>-72.403469000000001</v>
+      </c>
+      <c r="D1133" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1133" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1133" s="17" t="s">
+        <v>2353</v>
+      </c>
+      <c r="G1133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1133" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1133" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1133" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1133" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1133" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1134" s="23">
+        <v>40.940573999999998</v>
+      </c>
+      <c r="C1134" s="23">
+        <v>-72.433162999999993</v>
+      </c>
+      <c r="D1134" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1134" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1134" s="17" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G1134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1134" s="13" t="s">
+        <v>2351</v>
+      </c>
+      <c r="I1134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1134" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1135" s="13" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1135" s="23">
+        <v>30.787163</v>
+      </c>
+      <c r="C1135" s="23">
+        <v>-87.928777999999994</v>
+      </c>
+      <c r="D1135" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1135" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1135" s="3" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G1135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1135" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1135" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1135" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1135" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1135" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1136" s="23">
+        <v>29.272089999999999</v>
+      </c>
+      <c r="C1136" s="23">
+        <v>-94.911739999999995</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1136" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1136" s="13" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G1136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1136" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="I1136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1136" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1136" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1136" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1136" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1137" s="15" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1137" s="23">
+        <v>41.178292999999996</v>
+      </c>
+      <c r="C1137" s="23">
+        <v>-73.119415000000004</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1137" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1137" s="15" t="s">
+        <v>2361</v>
+      </c>
+      <c r="G1137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1137" s="13" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1137" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1138" s="23">
+        <v>41.178292999999996</v>
+      </c>
+      <c r="C1138" s="23">
+        <v>-73.119415000000004</v>
+      </c>
+      <c r="D1138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1138" s="3" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G1138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1138" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="I1138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1138" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="13" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1139" s="23">
+        <v>-3.6296659999999998</v>
+      </c>
+      <c r="C1139" s="23">
+        <v>39.822648999999998</v>
+      </c>
+      <c r="D1139" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1139" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1139" s="17" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G1139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1139" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="I1139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1139" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1139" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1139" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1139" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="14" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B1140" s="23">
+        <v>18.974999999999998</v>
+      </c>
+      <c r="C1140" s="23">
+        <v>72.825833333333335</v>
+      </c>
+      <c r="D1140" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1140" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1140" s="17" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G1140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1140" s="13" t="s">
+        <v>2024</v>
+      </c>
+      <c r="I1140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1140" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1140" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1140" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1140" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M1113"/>
+  <autoFilter ref="A1:M1113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:U925">
     <sortCondition ref="H2:H925"/>
     <sortCondition ref="A2:A925"/>
@@ -55927,7 +56436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -55939,7 +56448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898ADB49-E6A9-44B5-93D5-4A23CF4EB1EC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2610" yWindow="720" windowWidth="22995" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1384</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1410</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15048" uniqueCount="2902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15360" uniqueCount="2957">
   <si>
     <t>Latitude</t>
   </si>
@@ -8731,6 +8732,171 @@
   </si>
   <si>
     <t>Newport Bay, Newport Beach, Orange County, California, USA</t>
+  </si>
+  <si>
+    <t>Ishigaki, Okinawa, Ryukyu Islands, Japan</t>
+  </si>
+  <si>
+    <t>Ishigaki</t>
+  </si>
+  <si>
+    <t>Nagura River, Ishigaki, Okinawa, Ryukyu Islands, Japan</t>
+  </si>
+  <si>
+    <t>Nagura River</t>
+  </si>
+  <si>
+    <t>Nakakama River, Iriomote-jima, Okinawa, Ryukyu Islands, Japan</t>
+  </si>
+  <si>
+    <t>Nakakama River</t>
+  </si>
+  <si>
+    <t>Haemi, Iriomote-jima, Okinawa, Ryukyu Islands, Japan</t>
+  </si>
+  <si>
+    <t>Haemi</t>
+  </si>
+  <si>
+    <t>Ohara River</t>
+  </si>
+  <si>
+    <t>Ohara River, Haemi, Iriomote-jima, Okinawa, Ryukyu Islands, Japan</t>
+  </si>
+  <si>
+    <t>Nakamazaki, Iriomote-jima, Okinawa, Ryukyu Islands, Japan</t>
+  </si>
+  <si>
+    <t>Nakamazaki</t>
+  </si>
+  <si>
+    <t>Shirahama, Iriomote-jima, Okinawa, Ryukyu Islands, Japan</t>
+  </si>
+  <si>
+    <t>Shirahama</t>
+  </si>
+  <si>
+    <t>Ohara, Haemi, Iriomote-jima, Okinawa, Ryukyu Islands, Japan</t>
+  </si>
+  <si>
+    <t>Ohara</t>
+  </si>
+  <si>
+    <t>Saji River, Haemi, Iriomote-jima, Okinawa, Ryukyu Islands, Japan</t>
+  </si>
+  <si>
+    <t>Saji River</t>
+  </si>
+  <si>
+    <t>Location usure, but flows into Ohara</t>
+  </si>
+  <si>
+    <t>Dajia River</t>
+  </si>
+  <si>
+    <t>TaChia River</t>
+  </si>
+  <si>
+    <t>Taichung</t>
+  </si>
+  <si>
+    <t>Taichung, Taiwan</t>
+  </si>
+  <si>
+    <t>Dajia River, Taichung, Taiwan</t>
+  </si>
+  <si>
+    <t>Gaomei Wetlands, Taichung, Taiwan</t>
+  </si>
+  <si>
+    <t>Kaomei Wetlands</t>
+  </si>
+  <si>
+    <t>Gaomei Wetlands</t>
+  </si>
+  <si>
+    <t>Bahía Sucia</t>
+  </si>
+  <si>
+    <t>Bahía Sucia, Puerto Rico</t>
+  </si>
+  <si>
+    <t>Coroa Grande, Rio de Janeiro, Brazil</t>
+  </si>
+  <si>
+    <t>Coroa Grande</t>
+  </si>
+  <si>
+    <t>Yao Yai Island, Phang-nga, Thailand</t>
+  </si>
+  <si>
+    <t>Yao Yai Island</t>
+  </si>
+  <si>
+    <t>Krabi</t>
+  </si>
+  <si>
+    <t>Krabi, Thailand</t>
+  </si>
+  <si>
+    <t>Satun</t>
+  </si>
+  <si>
+    <t>Satun, Thailand</t>
+  </si>
+  <si>
+    <t>Chon Buri, Thailand</t>
+  </si>
+  <si>
+    <t>Chon Buri</t>
+  </si>
+  <si>
+    <t>Rayong, Thailand</t>
+  </si>
+  <si>
+    <t>Rayong</t>
+  </si>
+  <si>
+    <t>Samut Prakan, Thailand</t>
+  </si>
+  <si>
+    <t>Samut Prakan</t>
+  </si>
+  <si>
+    <t>Chumphon</t>
+  </si>
+  <si>
+    <t>Chumphon, Thailand</t>
+  </si>
+  <si>
+    <t>Pattani, Thailand</t>
+  </si>
+  <si>
+    <t>Pattani</t>
+  </si>
+  <si>
+    <t>Narathiwat</t>
+  </si>
+  <si>
+    <t>Narathiwat, Thailand</t>
+  </si>
+  <si>
+    <t>Chanthaburi, Thailand</t>
+  </si>
+  <si>
+    <t>Chanthaburi</t>
+  </si>
+  <si>
+    <t>Phetchaburi, Thailand</t>
+  </si>
+  <si>
+    <t>Phetchaburi</t>
+  </si>
+  <si>
+    <t>Nakhon Si Thammarat</t>
+  </si>
+  <si>
+    <t>Nakhon Si Thammarat, Thailand</t>
   </si>
 </sst>
 </file>
@@ -8815,7 +8981,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -8855,6 +9021,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -9196,14 +9368,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1384"/>
+  <dimension ref="A1:N1412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A1199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1212" sqref="A1212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" customWidth="1"/>
     <col min="2" max="2" width="13" style="22" customWidth="1"/>
@@ -70254,8 +70426,1155 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1385" s="32" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1385" s="22">
+        <v>24.407776999999999</v>
+      </c>
+      <c r="C1385" s="22">
+        <v>124.192294</v>
+      </c>
+      <c r="D1385" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1385" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1385" s="33" t="s">
+        <v>2903</v>
+      </c>
+      <c r="G1385" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1385" s="32" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I1385" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1385" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1385" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1385" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1385" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1385" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1386" s="32" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1386" s="22">
+        <v>24.400324000000001</v>
+      </c>
+      <c r="C1386" s="22">
+        <v>124.144706</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1386" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1386" s="3" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G1386" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1386" s="32" t="s">
+        <v>2902</v>
+      </c>
+      <c r="I1386" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1386" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1386" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1386" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1386" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1386" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1387" s="32" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1387" s="22">
+        <v>24.287683999999999</v>
+      </c>
+      <c r="C1387" s="22">
+        <v>123.871855</v>
+      </c>
+      <c r="D1387" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1387" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1387" s="33" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G1387" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1387" s="30" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I1387" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1387" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1387" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1387" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1387" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1387" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1388" s="32" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1388" s="22">
+        <v>24.271895000000001</v>
+      </c>
+      <c r="C1388" s="22">
+        <v>123.828957</v>
+      </c>
+      <c r="D1388" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1388" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1388" s="33" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G1388" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1388" s="30" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I1388" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1388" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1388" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1388" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1388" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1388" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1389" s="32" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B1389" s="22">
+        <v>24.265557999999999</v>
+      </c>
+      <c r="C1389" s="22">
+        <v>123.88087299999999</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1389" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1389" s="3" t="s">
+        <v>2910</v>
+      </c>
+      <c r="G1389" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1389" s="32" t="s">
+        <v>2908</v>
+      </c>
+      <c r="I1389" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1389" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1389" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1389" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1389" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1389" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1390" s="32" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1390" s="22">
+        <v>24.274135000000001</v>
+      </c>
+      <c r="C1390" s="22">
+        <v>123.902495</v>
+      </c>
+      <c r="D1390" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1390" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1390" s="33" t="s">
+        <v>2913</v>
+      </c>
+      <c r="G1390" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1390" s="30" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I1390" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1390" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1390" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1390" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1390" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1390" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1391" s="32" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1391" s="22">
+        <v>24.359615000000002</v>
+      </c>
+      <c r="C1391" s="22">
+        <v>123.746559</v>
+      </c>
+      <c r="D1391" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1391" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1391" s="33" t="s">
+        <v>2915</v>
+      </c>
+      <c r="G1391" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1391" s="30" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I1391" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1391" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1391" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1391" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1391" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1391" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1392" s="32" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1392" s="22">
+        <v>24.272199000000001</v>
+      </c>
+      <c r="C1392" s="22">
+        <v>123.88336</v>
+      </c>
+      <c r="D1392" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1392" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1392" s="33" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G1392" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1392" s="32" t="s">
+        <v>2908</v>
+      </c>
+      <c r="I1392" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1392" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1392" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1392" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1392" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1392" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1393" s="32" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1393" s="22">
+        <v>24.272199000000001</v>
+      </c>
+      <c r="C1393" s="22">
+        <v>123.88336</v>
+      </c>
+      <c r="D1393" s="30" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E1393" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1393" s="33" t="s">
+        <v>2919</v>
+      </c>
+      <c r="G1393" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1393" s="32" t="s">
+        <v>2916</v>
+      </c>
+      <c r="I1393" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1393" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1393" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1393" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1393" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1393" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1394" s="32" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B1394" s="22">
+        <v>24.326426000000001</v>
+      </c>
+      <c r="C1394" s="22">
+        <v>120.565224</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1394" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1394" s="3" t="s">
+        <v>2921</v>
+      </c>
+      <c r="G1394" s="3" t="s">
+        <v>2922</v>
+      </c>
+      <c r="H1394" s="32" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I1394" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1394" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1394" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1394" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1394" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1394" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1395" s="32" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1395" s="22">
+        <v>24.326256000000001</v>
+      </c>
+      <c r="C1395" s="22">
+        <v>120.553476</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1395" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1395" s="3" t="s">
+        <v>2923</v>
+      </c>
+      <c r="G1395" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1395" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1395" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1395" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1395" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1395" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1395" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1395" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1396" s="32" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B1396" s="22">
+        <v>24.311903999999998</v>
+      </c>
+      <c r="C1396" s="22">
+        <v>120.54974300000001</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1396" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1396" s="3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="G1396" s="3" t="s">
+        <v>2927</v>
+      </c>
+      <c r="H1396" s="32" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I1396" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1396" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1396" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1396" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1396" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1396" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1397" s="32" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1397" s="22">
+        <v>17.962233000000001</v>
+      </c>
+      <c r="C1397" s="22">
+        <v>-67.183820999999995</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1397" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1397" s="32" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G1397" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1397" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1397" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1397" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1397" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1397" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1397" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1397" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1398" s="30" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B1398" s="22">
+        <v>-22.903687000000001</v>
+      </c>
+      <c r="C1398" s="22">
+        <v>-43.863487999999997</v>
+      </c>
+      <c r="D1398" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1398" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1398" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="G1398" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1398" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1398" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1398" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1398" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1398" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1398" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1398" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1399" s="32" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B1399" s="22">
+        <v>8.0057799999999997</v>
+      </c>
+      <c r="C1399" s="22">
+        <v>98.593380999999994</v>
+      </c>
+      <c r="D1399" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1399" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1399" s="16" t="s">
+        <v>2934</v>
+      </c>
+      <c r="G1399" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1399" s="32" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I1399" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1399" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1399" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1399" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1399" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1399" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1400" s="32" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1400" s="22">
+        <v>8.0059629999999995</v>
+      </c>
+      <c r="C1400" s="22">
+        <v>98.948590999999993</v>
+      </c>
+      <c r="D1400" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1400" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1400" s="33" t="s">
+        <v>2935</v>
+      </c>
+      <c r="G1400" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1400" s="31" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I1400" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1400" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1400" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1400" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1400" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1400" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1401" s="32" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1401" s="22">
+        <v>6.7213710000000004</v>
+      </c>
+      <c r="C1401" s="22">
+        <v>99.905745999999994</v>
+      </c>
+      <c r="D1401" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1401" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1401" s="33" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G1401" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1401" s="31" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I1401" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1401" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1401" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1401" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1401" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1401" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1402" s="30" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B1402" s="22">
+        <v>13.163854000000001</v>
+      </c>
+      <c r="C1402" s="22">
+        <v>100.917452</v>
+      </c>
+      <c r="D1402" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1402" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1402" s="16" t="s">
+        <v>2940</v>
+      </c>
+      <c r="G1402" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1402" s="32" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I1402" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1402" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1402" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1402" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1402" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1402" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1403" s="30" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B1403" s="22">
+        <v>12.586899000000001</v>
+      </c>
+      <c r="C1403" s="22">
+        <v>101.420317</v>
+      </c>
+      <c r="D1403" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1403" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1403" s="16" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G1403" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1403" s="32" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I1403" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1403" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1403" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1403" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1403" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1403" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1404" s="30" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B1404" s="22">
+        <v>13.556298999999999</v>
+      </c>
+      <c r="C1404" s="22">
+        <v>100.577839</v>
+      </c>
+      <c r="D1404" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1404" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1404" s="16" t="s">
+        <v>2944</v>
+      </c>
+      <c r="G1404" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1404" s="32" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I1404" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1404" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1404" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1404" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1404" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1404" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1405" s="30" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1405" s="22">
+        <v>10.340699000000001</v>
+      </c>
+      <c r="C1405" s="22">
+        <v>99.149124</v>
+      </c>
+      <c r="D1405" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1405" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1405" s="16" t="s">
+        <v>2945</v>
+      </c>
+      <c r="G1405" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1405" s="32" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I1405" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1405" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1405" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1405" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1405" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1405" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1406" s="30" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B1406" s="22">
+        <v>6.8865879999999997</v>
+      </c>
+      <c r="C1406" s="22">
+        <v>101.307793</v>
+      </c>
+      <c r="D1406" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1406" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1406" s="16" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G1406" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1406" s="32" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I1406" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1406" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1406" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1406" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1406" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1406" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1407" s="30" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1407" s="22">
+        <v>6.3715380000000001</v>
+      </c>
+      <c r="C1407" s="22">
+        <v>101.917599</v>
+      </c>
+      <c r="D1407" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1407" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1407" s="3" t="s">
+        <v>2949</v>
+      </c>
+      <c r="G1407" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1407" s="32" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I1407" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1407" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1407" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1407" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1407" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1407" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1408" s="30" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B1408" s="22">
+        <v>12.527203</v>
+      </c>
+      <c r="C1408" s="22">
+        <v>102.0117</v>
+      </c>
+      <c r="D1408" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1408" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1408" s="33" t="s">
+        <v>2952</v>
+      </c>
+      <c r="G1408" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1408" s="32" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I1408" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1408" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1408" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1408" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1408" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1408" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1409" s="30" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B1409" s="22">
+        <v>12.949738999999999</v>
+      </c>
+      <c r="C1409" s="22">
+        <v>100.033761</v>
+      </c>
+      <c r="D1409" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1409" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1409" s="33" t="s">
+        <v>2954</v>
+      </c>
+      <c r="G1409" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1409" s="32" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I1409" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1409" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1409" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1409" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1409" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1409" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1410" s="35" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B1410" s="22">
+        <v>8.5812430000000006</v>
+      </c>
+      <c r="C1410" s="22">
+        <v>100.009213</v>
+      </c>
+      <c r="D1410" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1410" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1410" s="38" t="s">
+        <v>2955</v>
+      </c>
+      <c r="G1410" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1410" s="37" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I1410" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1410" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1410" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1410" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1410" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1410" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1412" s="36"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N1384" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N1410" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A360:N1155">
       <sortCondition ref="C1:C1235"/>
     </sortState>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D4607-30D6-4FFF-AACA-158B218193F0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB428EE-592C-45EC-BEC1-52FAF0BD6613}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2610" yWindow="720" windowWidth="22995" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1583</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1652</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17344" uniqueCount="3314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18172" uniqueCount="3462">
   <si>
     <t>Latitude</t>
   </si>
@@ -9226,9 +9226,6 @@
     <t>Gulf of Oman coast of Iran</t>
   </si>
   <si>
-    <t>Southwestern India;Arabian Sea</t>
-  </si>
-  <si>
     <t>Africa;Indian coast of Africa;Gulf of Aden</t>
   </si>
   <si>
@@ -9968,6 +9965,453 @@
   </si>
   <si>
     <t>Manora, Karachi, Sindh, Pakistan</t>
+  </si>
+  <si>
+    <t>Panaji, Goa, India</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
+    <t>Kanchipuram District, Tamil Nadu, India</t>
+  </si>
+  <si>
+    <t>Chingleput District</t>
+  </si>
+  <si>
+    <t>Krishna District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Krishna District</t>
+  </si>
+  <si>
+    <t>Kanchipuram District</t>
+  </si>
+  <si>
+    <t>Manginapudi, Krishna District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Manginapudi</t>
+  </si>
+  <si>
+    <t>Voyalur, Kanchipuram District, Tamil Nadu, India</t>
+  </si>
+  <si>
+    <t>Voyalur</t>
+  </si>
+  <si>
+    <t>Canning, South 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Canning</t>
+  </si>
+  <si>
+    <t>Port Canning</t>
+  </si>
+  <si>
+    <t>Hugli-Matla Estuarine Area</t>
+  </si>
+  <si>
+    <t>Hugli-Matla Estuarine Area, West Bengal. India</t>
+  </si>
+  <si>
+    <t>Bakkhali, South 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Bakkhali</t>
+  </si>
+  <si>
+    <t>Haldia</t>
+  </si>
+  <si>
+    <t>Purba Medinipur District, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Haldia, Purba Medinipur District, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Purba Medinipur District</t>
+  </si>
+  <si>
+    <t>Iswaripur</t>
+  </si>
+  <si>
+    <t>Iswaripur, South 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Jharkhali, South 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Jharkhali</t>
+  </si>
+  <si>
+    <t>Orissa</t>
+  </si>
+  <si>
+    <t>Jhingekhali, South 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Jhingekhali</t>
+  </si>
+  <si>
+    <t>South Andaman, Andaman Islands</t>
+  </si>
+  <si>
+    <t>South Andaman</t>
+  </si>
+  <si>
+    <t>Corbyn's Cove</t>
+  </si>
+  <si>
+    <t>Corbyn's Cove, South Andaman, Andaman Islands</t>
+  </si>
+  <si>
+    <t>Chidya Tapu, South Andaman, Andaman Islands</t>
+  </si>
+  <si>
+    <t>Chidya Tapu</t>
+  </si>
+  <si>
+    <t>Mahanadi River Estuary, Odisha, India</t>
+  </si>
+  <si>
+    <t>Mahanadi River Estuary</t>
+  </si>
+  <si>
+    <t>Shimo la Tewa</t>
+  </si>
+  <si>
+    <t>Shimo la Tewa, Mombasa, Kenya</t>
+  </si>
+  <si>
+    <t>Kamphuan Mangrove Forest, Ranong, Thailand</t>
+  </si>
+  <si>
+    <t>Kamphuan Mangrove Forest</t>
+  </si>
+  <si>
+    <t>Daiman and Diu, India</t>
+  </si>
+  <si>
+    <t>Daiman and Diu</t>
+  </si>
+  <si>
+    <t>Diu District, Daiman and Diu, India</t>
+  </si>
+  <si>
+    <t>Diu Distrit</t>
+  </si>
+  <si>
+    <t>Chalong Bay, Phuket Island, Thailand</t>
+  </si>
+  <si>
+    <t>Chalong Bay</t>
+  </si>
+  <si>
+    <t>Laem Tukkae, Phuket Island, Thailand</t>
+  </si>
+  <si>
+    <t>Laem Tukkae</t>
+  </si>
+  <si>
+    <t>Tha Thiap Ruea Bang Rong</t>
+  </si>
+  <si>
+    <t>Tha Thiap Ruea Bang Rong, Phuket Island, Thailand</t>
+  </si>
+  <si>
+    <t>Hooghly River, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Hooghly River</t>
+  </si>
+  <si>
+    <t>Karnataka, India</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Malpe</t>
+  </si>
+  <si>
+    <t>Malpe, Karnataka, India</t>
+  </si>
+  <si>
+    <t>Gulf of Khambhat, Gujarat, India</t>
+  </si>
+  <si>
+    <t>Gulf of Khambat</t>
+  </si>
+  <si>
+    <t>Gulf of Kachchh</t>
+  </si>
+  <si>
+    <t>Saurashtra, Gujarat, India</t>
+  </si>
+  <si>
+    <t>Saurashtra</t>
+  </si>
+  <si>
+    <t>River Nua Nai Estuary, Odisha, India</t>
+  </si>
+  <si>
+    <t>River Nua Nai Estuary</t>
+  </si>
+  <si>
+    <t>Brahmani-Baitarani Estuarine Complex, Odisha, India</t>
+  </si>
+  <si>
+    <t>Brahmani-Baitarani Estuarine Complex</t>
+  </si>
+  <si>
+    <t>Talsari, Balasore, Odisha, India</t>
+  </si>
+  <si>
+    <t>Talsari</t>
+  </si>
+  <si>
+    <t>Kirtania, Balasore, Odisha, India</t>
+  </si>
+  <si>
+    <t>Kirtania</t>
+  </si>
+  <si>
+    <t>Kankrapal, Balasore, Odisha, India</t>
+  </si>
+  <si>
+    <t>Kankrapal</t>
+  </si>
+  <si>
+    <t>Kasaragod District</t>
+  </si>
+  <si>
+    <t>Malappuram District, Kerala, India</t>
+  </si>
+  <si>
+    <t>Malappuram District</t>
+  </si>
+  <si>
+    <t>Kasaragod District, Kerala, India</t>
+  </si>
+  <si>
+    <t>Kozhikode District, Kerala, India</t>
+  </si>
+  <si>
+    <t>Kozhikode District</t>
+  </si>
+  <si>
+    <t>Calicut District</t>
+  </si>
+  <si>
+    <t>Ganjam, Odisha, India</t>
+  </si>
+  <si>
+    <t>Ganjam</t>
+  </si>
+  <si>
+    <t>Yanam</t>
+  </si>
+  <si>
+    <t>Yanam, Puducherry, India</t>
+  </si>
+  <si>
+    <t>Chollangi, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Chollangi</t>
+  </si>
+  <si>
+    <t>Sagar Island, South 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Sagar Island</t>
+  </si>
+  <si>
+    <t>Lothian Island, South 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Lothian Island</t>
+  </si>
+  <si>
+    <t>Luthian Island</t>
+  </si>
+  <si>
+    <t>Prentice Island, South 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Prentice Island</t>
+  </si>
+  <si>
+    <t>Basirhat</t>
+  </si>
+  <si>
+    <t>Gosaba</t>
+  </si>
+  <si>
+    <t>Sajnekhali, South 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Sajnekhali</t>
+  </si>
+  <si>
+    <t>North 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>North 24 Parganas</t>
+  </si>
+  <si>
+    <t>Basirhat, North 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Gosaba, South 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Tamluk, Purba Medinipur District, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Tamluk</t>
+  </si>
+  <si>
+    <t>Krishna River, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Krishna River</t>
+  </si>
+  <si>
+    <t>Palakayatippa, Krishna District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Palakayatippa</t>
+  </si>
+  <si>
+    <t>Gullalamoda, Krishna District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Gullalamoda</t>
+  </si>
+  <si>
+    <t>Guntur District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Guntur Distict</t>
+  </si>
+  <si>
+    <t>Lankevanidibba, Guntur District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Lankevanidibba</t>
+  </si>
+  <si>
+    <t>Lankevenitippa</t>
+  </si>
+  <si>
+    <t>Kanur Creek, Krishna District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Kanur Creek</t>
+  </si>
+  <si>
+    <t>Pallethummalapalem, Krishna District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Pallethummalapalem</t>
+  </si>
+  <si>
+    <t>Sangameswara, Krishna District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Sangameswara</t>
+  </si>
+  <si>
+    <t>Kamaveicheruvu, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Precise location unknown, but part of the Krishna River Estuary</t>
+  </si>
+  <si>
+    <t>Kamaveicheruvu</t>
+  </si>
+  <si>
+    <t>Nazat, North 24 Parganas, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Nazat</t>
+  </si>
+  <si>
+    <t>Najat</t>
+  </si>
+  <si>
+    <t>Sorala</t>
+  </si>
+  <si>
+    <t>Sorala, Ganjam, Odisha, India</t>
+  </si>
+  <si>
+    <t>Keuta Sonepur, Ganjam, Odisha, India</t>
+  </si>
+  <si>
+    <t>Keuta Sonepur</t>
+  </si>
+  <si>
+    <t>Sonapur, Ganjam, Odisha, India</t>
+  </si>
+  <si>
+    <t>Sonapur</t>
+  </si>
+  <si>
+    <t>Bahuda River, Ganjam, Odisha, India</t>
+  </si>
+  <si>
+    <t>Bahuda River</t>
+  </si>
+  <si>
+    <t>Srikakulam District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Srikakulam District</t>
+  </si>
+  <si>
+    <t>Kalingapatnam, Srikakulam District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Kalingapatnam</t>
+  </si>
+  <si>
+    <t>Nagavali River, Srikakulam District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Nagavali River</t>
+  </si>
+  <si>
+    <t>Pukkalapeta, Srikakulam District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Pukkalapeta</t>
+  </si>
+  <si>
+    <t>Exact location  unclear, but fishing village near mouth of Nagavali River.</t>
+  </si>
+  <si>
+    <t>Digha, Purba Medinipur District, West Bengal, India</t>
+  </si>
+  <si>
+    <t>Digha</t>
+  </si>
+  <si>
+    <t>St Lucia, KwaZulu-Natal, South Africa</t>
+  </si>
+  <si>
+    <t>St Lucia</t>
+  </si>
+  <si>
+    <t>Southern India</t>
+  </si>
+  <si>
+    <t>Southeastern India;Bay of Bengal;Southern India</t>
+  </si>
+  <si>
+    <t>Southwestern India;Arabian Sea;Southern India</t>
   </si>
 </sst>
 </file>
@@ -10443,19 +10887,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1583"/>
+  <dimension ref="A1:N1672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D568" sqref="D568"/>
+      <pane ySplit="1" topLeftCell="A1622" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1656" sqref="A1656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="13" style="22" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="13" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="3" customWidth="1"/>
@@ -10712,7 +11156,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>6</v>
@@ -11240,7 +11684,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>6</v>
@@ -11814,7 +12258,7 @@
         <v>6</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>6</v>
@@ -11946,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>6</v>
@@ -11990,7 +12434,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>6</v>
@@ -12650,7 +13094,7 @@
         <v>6</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="J50" s="37" t="s">
         <v>6</v>
@@ -15466,7 +15910,7 @@
         <v>6</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>6</v>
@@ -15510,7 +15954,7 @@
         <v>6</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>6</v>
@@ -16698,7 +17142,7 @@
         <v>6</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="J142" s="3" t="s">
         <v>6</v>
@@ -22146,7 +22590,7 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="34" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="B266" s="22">
         <v>3.747077</v>
@@ -22167,7 +22611,7 @@
         <v>6</v>
       </c>
       <c r="H266" s="34" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="I266" s="37" t="s">
         <v>6</v>
@@ -22234,7 +22678,7 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="B268" s="22">
         <v>8.9487050000000004</v>
@@ -22255,7 +22699,7 @@
         <v>6</v>
       </c>
       <c r="H268" s="40" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="I268" s="34" t="s">
         <v>6</v>
@@ -33498,7 +33942,7 @@
         <v>828</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>6</v>
+        <v>3372</v>
       </c>
       <c r="H523" s="30" t="s">
         <v>2395</v>
@@ -33636,7 +34080,7 @@
         <v>180</v>
       </c>
       <c r="I526" s="30" t="s">
-        <v>3066</v>
+        <v>3461</v>
       </c>
       <c r="J526" s="3" t="s">
         <v>6</v>
@@ -34032,7 +34476,7 @@
         <v>180</v>
       </c>
       <c r="I535" s="36" t="s">
-        <v>2404</v>
+        <v>3460</v>
       </c>
       <c r="J535" s="3" t="s">
         <v>6</v>
@@ -36308,7 +36752,7 @@
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A587" s="36" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B587" s="22">
         <v>24.803308999999999</v>
@@ -36329,7 +36773,7 @@
         <v>6</v>
       </c>
       <c r="H587" s="38" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="I587" s="34" t="s">
         <v>6</v>
@@ -36352,7 +36796,7 @@
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588" s="34" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B588" s="22">
         <v>24.840235</v>
@@ -36373,7 +36817,7 @@
         <v>6</v>
       </c>
       <c r="H588" s="38" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="I588" s="30" t="s">
         <v>6</v>
@@ -43967,7 +44411,7 @@
         <v>6</v>
       </c>
       <c r="F760" s="16" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="G760" s="3" t="s">
         <v>6</v>
@@ -46603,7 +47047,7 @@
     </row>
     <row r="820" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A820" s="34" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B820" s="22">
         <v>24.826332000000001</v>
@@ -46624,7 +47068,7 @@
         <v>6</v>
       </c>
       <c r="H820" s="39" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="I820" s="34" t="s">
         <v>6</v>
@@ -46759,7 +47203,7 @@
         <v>402</v>
       </c>
       <c r="I823" s="40" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="J823" s="3" t="s">
         <v>6</v>
@@ -46823,7 +47267,7 @@
     </row>
     <row r="825" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A825" s="40" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="B825" s="23">
         <v>8.942285</v>
@@ -46838,7 +47282,7 @@
         <v>6</v>
       </c>
       <c r="F825" s="16" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="G825" s="16" t="s">
         <v>6</v>
@@ -47375,7 +47819,7 @@
         <v>402</v>
       </c>
       <c r="I837" s="40" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="J837" s="3" t="s">
         <v>6</v>
@@ -47419,7 +47863,7 @@
         <v>398</v>
       </c>
       <c r="I838" s="40" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="J838" s="3" t="s">
         <v>2951</v>
@@ -66729,7 +67173,7 @@
         <v>2375</v>
       </c>
       <c r="G1276" s="34" t="s">
-        <v>6</v>
+        <v>3339</v>
       </c>
       <c r="H1276" s="36" t="s">
         <v>180</v>
@@ -73207,7 +73651,7 @@
         <v>6</v>
       </c>
       <c r="I1423" s="38" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="J1423" s="3" t="s">
         <v>6</v>
@@ -73647,7 +74091,7 @@
         <v>6</v>
       </c>
       <c r="I1433" s="38" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="J1433" s="37" t="s">
         <v>6</v>
@@ -73946,7 +74390,7 @@
         <v>6</v>
       </c>
       <c r="F1440" s="37" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="G1440" s="37" t="s">
         <v>6</v>
@@ -74307,7 +74751,7 @@
         <v>6</v>
       </c>
       <c r="I1448" s="38" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="J1448" s="37" t="s">
         <v>6</v>
@@ -74439,7 +74883,7 @@
         <v>6</v>
       </c>
       <c r="I1451" s="38" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="J1451" s="37" t="s">
         <v>6</v>
@@ -75211,7 +75655,7 @@
     </row>
     <row r="1469" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1469" s="36" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="B1469" s="22">
         <f>1+48/60</f>
@@ -75228,7 +75672,7 @@
         <v>6</v>
       </c>
       <c r="F1469" s="16" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="G1469" s="37" t="s">
         <v>6</v>
@@ -75257,7 +75701,7 @@
     </row>
     <row r="1470" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1470" s="36" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="B1470" s="22">
         <f>24+28/60</f>
@@ -75274,7 +75718,7 @@
         <v>6</v>
       </c>
       <c r="F1470" s="16" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="G1470" s="34" t="s">
         <v>6</v>
@@ -75303,7 +75747,7 @@
     </row>
     <row r="1471" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1471" s="36" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="B1471" s="22">
         <v>24.439064999999999</v>
@@ -75318,7 +75762,7 @@
         <v>6</v>
       </c>
       <c r="F1471" s="16" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="G1471" s="34" t="s">
         <v>6</v>
@@ -75347,7 +75791,7 @@
     </row>
     <row r="1472" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1472" s="34" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="B1472" s="22">
         <v>-2.5210170000000001</v>
@@ -75362,7 +75806,7 @@
         <v>6</v>
       </c>
       <c r="F1472" s="3" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="G1472" s="37" t="s">
         <v>6</v>
@@ -75391,7 +75835,7 @@
     </row>
     <row r="1473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1473" s="37" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="B1473" s="22">
         <v>-2.8749609999999999</v>
@@ -75406,13 +75850,13 @@
         <v>6</v>
       </c>
       <c r="F1473" s="37" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="G1473" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1473" s="3" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="I1473" s="34" t="s">
         <v>6</v>
@@ -75435,7 +75879,7 @@
     </row>
     <row r="1474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1474" s="37" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="B1474" s="22">
         <f>-(2+49/60+54.24/3600)</f>
@@ -75452,13 +75896,13 @@
         <v>6</v>
       </c>
       <c r="F1474" s="3" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="G1474" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1474" s="37" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="I1474" s="34" t="s">
         <v>6</v>
@@ -75481,7 +75925,7 @@
     </row>
     <row r="1475" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1475" s="34" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B1475" s="22">
         <v>-2.5777540000000001</v>
@@ -75496,7 +75940,7 @@
         <v>6</v>
       </c>
       <c r="F1475" s="37" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="G1475" s="37" t="s">
         <v>6</v>
@@ -75525,7 +75969,7 @@
     </row>
     <row r="1476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1476" s="34" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="B1476" s="22">
         <f>-(2+35/60+57.7/3600)</f>
@@ -75542,13 +75986,13 @@
         <v>6</v>
       </c>
       <c r="F1476" s="3" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="G1476" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1476" s="34" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="I1476" s="34" t="s">
         <v>6</v>
@@ -75571,7 +76015,7 @@
     </row>
     <row r="1477" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1477" s="34" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="B1477" s="22">
         <v>-33.170459999999999</v>
@@ -75586,7 +76030,7 @@
         <v>6</v>
       </c>
       <c r="F1477" s="16" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="G1477" s="37" t="s">
         <v>6</v>
@@ -75615,7 +76059,7 @@
     </row>
     <row r="1478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1478" s="34" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="B1478" s="22">
         <v>-33.670180999999999</v>
@@ -75630,13 +76074,13 @@
         <v>6</v>
       </c>
       <c r="F1478" s="3" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="G1478" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1478" s="34" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="I1478" s="37" t="s">
         <v>6</v>
@@ -75659,7 +76103,7 @@
     </row>
     <row r="1479" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1479" s="34" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="B1479" s="22">
         <v>16.816994999999999</v>
@@ -75674,7 +76118,7 @@
         <v>6</v>
       </c>
       <c r="F1479" s="34" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="G1479" s="37" t="s">
         <v>6</v>
@@ -75703,7 +76147,7 @@
     </row>
     <row r="1480" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1480" s="36" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="B1480" s="22">
         <v>4.3354730000000004</v>
@@ -75718,7 +76162,7 @@
         <v>6</v>
       </c>
       <c r="F1480" s="16" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="G1480" s="37" t="s">
         <v>6</v>
@@ -75747,7 +76191,7 @@
     </row>
     <row r="1481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1481" s="36" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="B1481" s="22">
         <v>4.8349640000000003</v>
@@ -75762,13 +76206,13 @@
         <v>6</v>
       </c>
       <c r="F1481" s="3" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="G1481" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1481" s="36" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="I1481" s="34" t="s">
         <v>6</v>
@@ -75791,7 +76235,7 @@
     </row>
     <row r="1482" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1482" s="34" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="B1482" s="22">
         <v>36.873108000000002</v>
@@ -75806,7 +76250,7 @@
         <v>6</v>
       </c>
       <c r="F1482" s="16" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="G1482" s="37" t="s">
         <v>6</v>
@@ -75835,7 +76279,7 @@
     </row>
     <row r="1483" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1483" s="34" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="B1483" s="22">
         <v>36.908861000000002</v>
@@ -75850,7 +76294,7 @@
         <v>6</v>
       </c>
       <c r="F1483" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="G1483" s="37" t="s">
         <v>6</v>
@@ -75879,7 +76323,7 @@
     </row>
     <row r="1484" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1484" s="34" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="B1484" s="22">
         <v>-7.9253790000000004</v>
@@ -75894,7 +76338,7 @@
         <v>6</v>
       </c>
       <c r="F1484" s="16" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="G1484" s="37" t="s">
         <v>6</v>
@@ -75923,7 +76367,7 @@
     </row>
     <row r="1485" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1485" s="34" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="B1485" s="22">
         <v>-7.885065</v>
@@ -75938,13 +76382,13 @@
         <v>6</v>
       </c>
       <c r="F1485" s="16" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="G1485" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1485" s="34" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="I1485" s="34" t="s">
         <v>6</v>
@@ -75967,7 +76411,7 @@
     </row>
     <row r="1486" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1486" s="34" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B1486" s="22">
         <v>3.592797</v>
@@ -75976,13 +76420,13 @@
         <v>9.6447029999999998</v>
       </c>
       <c r="D1486" s="34" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="E1486" s="34" t="s">
         <v>6</v>
       </c>
       <c r="F1486" s="16" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="G1486" s="37" t="s">
         <v>6</v>
@@ -76011,7 +76455,7 @@
     </row>
     <row r="1487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B1487" s="22">
         <v>4.3661899999999996</v>
@@ -76020,13 +76464,13 @@
         <v>8.8943180000000002</v>
       </c>
       <c r="D1487" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="E1487" s="34" t="s">
         <v>6</v>
       </c>
       <c r="F1487" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="G1487" s="37" t="s">
         <v>6</v>
@@ -76055,7 +76499,7 @@
     </row>
     <row r="1488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1488" s="34" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B1488" s="22">
         <v>4.0076390000000002</v>
@@ -76070,13 +76514,13 @@
         <v>6</v>
       </c>
       <c r="F1488" s="3" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="G1488" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1488" s="34" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="I1488" s="37" t="s">
         <v>6</v>
@@ -76099,7 +76543,7 @@
     </row>
     <row r="1489" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1489" s="34" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="B1489" s="22">
         <v>4.0664579999999999</v>
@@ -76114,13 +76558,13 @@
         <v>6</v>
       </c>
       <c r="F1489" s="37" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="G1489" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1489" s="34" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="I1489" s="37" t="s">
         <v>6</v>
@@ -76143,7 +76587,7 @@
     </row>
     <row r="1490" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1490" s="34" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="B1490" s="22">
         <v>4.0122309999999999</v>
@@ -76158,13 +76602,13 @@
         <v>6</v>
       </c>
       <c r="F1490" s="37" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="G1490" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1490" s="34" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="I1490" s="37" t="s">
         <v>6</v>
@@ -76187,7 +76631,7 @@
     </row>
     <row r="1491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1491" s="34" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B1491" s="22">
         <v>3.9455610000000001</v>
@@ -76202,13 +76646,13 @@
         <v>6</v>
       </c>
       <c r="F1491" s="16" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="G1491" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1491" s="34" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="I1491" s="37" t="s">
         <v>6</v>
@@ -76231,7 +76675,7 @@
     </row>
     <row r="1492" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1492" s="34" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B1492" s="22">
         <v>3.6010430000000002</v>
@@ -76246,13 +76690,13 @@
         <v>6</v>
       </c>
       <c r="F1492" s="16" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="G1492" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1492" s="34" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="I1492" s="37" t="s">
         <v>6</v>
@@ -76275,7 +76719,7 @@
     </row>
     <row r="1493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="B1493" s="22">
         <v>4.0006370000000002</v>
@@ -76290,13 +76734,13 @@
         <v>6</v>
       </c>
       <c r="F1493" s="16" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="G1493" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1493" s="34" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="I1493" s="37" t="s">
         <v>6</v>
@@ -76319,7 +76763,7 @@
     </row>
     <row r="1494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="B1494" s="22">
         <v>-25.916163999999998</v>
@@ -76334,7 +76778,7 @@
         <v>6</v>
       </c>
       <c r="F1494" s="3" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="G1494" s="3" t="s">
         <v>6</v>
@@ -76363,7 +76807,7 @@
     </row>
     <row r="1495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1495" s="34" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="B1495" s="22">
         <v>-26.025044000000001</v>
@@ -76378,7 +76822,7 @@
         <v>6</v>
       </c>
       <c r="F1495" s="3" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="G1495" s="36" t="s">
         <v>6</v>
@@ -76407,7 +76851,7 @@
     </row>
     <row r="1496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1496" s="34" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="B1496" s="22">
         <v>-26.046329</v>
@@ -76422,7 +76866,7 @@
         <v>6</v>
       </c>
       <c r="F1496" s="3" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="G1496" s="36" t="s">
         <v>6</v>
@@ -76451,7 +76895,7 @@
     </row>
     <row r="1497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="B1497" s="22">
         <v>21.854507999999999</v>
@@ -76466,7 +76910,7 @@
         <v>6</v>
       </c>
       <c r="F1497" s="3" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="G1497" s="3" t="s">
         <v>6</v>
@@ -76495,7 +76939,7 @@
     </row>
     <row r="1498" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1498" s="36" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="B1498" s="22">
         <v>19.588564000000002</v>
@@ -76510,7 +76954,7 @@
         <v>6</v>
       </c>
       <c r="F1498" s="16" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="G1498" s="37" t="s">
         <v>6</v>
@@ -76539,7 +76983,7 @@
     </row>
     <row r="1499" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1499" s="36" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="B1499" s="22">
         <v>27.669426999999999</v>
@@ -76554,7 +76998,7 @@
         <v>6</v>
       </c>
       <c r="F1499" s="36" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="G1499" s="37" t="s">
         <v>6</v>
@@ -76583,7 +77027,7 @@
     </row>
     <row r="1500" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1500" s="36" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="B1500" s="22">
         <v>27.701763</v>
@@ -76598,13 +77042,13 @@
         <v>6</v>
       </c>
       <c r="F1500" s="36" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="G1500" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1500" s="36" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="I1500" s="37" t="s">
         <v>6</v>
@@ -76627,7 +77071,7 @@
     </row>
     <row r="1501" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1501" s="36" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="B1501" s="22">
         <v>30.356784999999999</v>
@@ -76642,7 +77086,7 @@
         <v>6</v>
       </c>
       <c r="F1501" s="16" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="G1501" s="37" t="s">
         <v>6</v>
@@ -76671,7 +77115,7 @@
     </row>
     <row r="1502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1502" s="36" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="B1502" s="22">
         <v>30.823521</v>
@@ -76686,7 +77130,7 @@
         <v>6</v>
       </c>
       <c r="F1502" s="36" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="G1502" s="3" t="s">
         <v>6</v>
@@ -76715,7 +77159,7 @@
     </row>
     <row r="1503" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1503" s="40" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="B1503" s="22">
         <f>15+49/60+31/3600</f>
@@ -76732,7 +77176,7 @@
         <v>1583</v>
       </c>
       <c r="F1503" s="42" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="G1503" s="41" t="s">
         <v>6</v>
@@ -76761,7 +77205,7 @@
     </row>
     <row r="1504" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1504" s="40" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="B1504" s="22">
         <f>15+56/60+7/3600</f>
@@ -76778,7 +77222,7 @@
         <v>1583</v>
       </c>
       <c r="F1504" s="42" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="G1504" s="41" t="s">
         <v>6</v>
@@ -76807,7 +77251,7 @@
     </row>
     <row r="1505" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1505" s="40" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="B1505" s="23">
         <v>15.452553999999999</v>
@@ -76822,7 +77266,7 @@
         <v>6</v>
       </c>
       <c r="F1505" s="42" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="G1505" s="42" t="s">
         <v>6</v>
@@ -76851,7 +77295,7 @@
     </row>
     <row r="1506" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1506" s="40" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="B1506" s="22">
         <f>15+51/60+29.8/3600</f>
@@ -76868,13 +77312,13 @@
         <v>1583</v>
       </c>
       <c r="F1506" s="42" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="G1506" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1506" s="40" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="I1506" s="38" t="s">
         <v>6</v>
@@ -76897,7 +77341,7 @@
     </row>
     <row r="1507" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1507" s="40" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="B1507" s="22">
         <f>15+11/60+36/3600</f>
@@ -76914,13 +77358,13 @@
         <v>1583</v>
       </c>
       <c r="F1507" s="39" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="G1507" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1507" s="40" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="I1507" s="38" t="s">
         <v>6</v>
@@ -76943,7 +77387,7 @@
     </row>
     <row r="1508" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1508" s="40" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="B1508" s="22">
         <v>21.386023000000002</v>
@@ -76958,7 +77402,7 @@
         <v>6</v>
       </c>
       <c r="F1508" s="41" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="G1508" s="42" t="s">
         <v>6</v>
@@ -76987,7 +77431,7 @@
     </row>
     <row r="1509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1509" s="39" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="B1509" s="22">
         <v>21.264493000000002</v>
@@ -77002,13 +77446,13 @@
         <v>6</v>
       </c>
       <c r="F1509" s="3" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="G1509" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1509" s="40" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="I1509" s="40" t="s">
         <v>6</v>
@@ -77031,7 +77475,7 @@
     </row>
     <row r="1510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1510" s="39" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="B1510" s="22">
         <v>21.959662000000002</v>
@@ -77046,7 +77490,7 @@
         <v>6</v>
       </c>
       <c r="F1510" s="41" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="G1510" s="41" t="s">
         <v>6</v>
@@ -77075,7 +77519,7 @@
     </row>
     <row r="1511" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1511" s="40" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B1511" s="22">
         <v>25.083307000000001</v>
@@ -77090,7 +77534,7 @@
         <v>6</v>
       </c>
       <c r="F1511" s="42" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="G1511" s="41" t="s">
         <v>6</v>
@@ -77119,7 +77563,7 @@
     </row>
     <row r="1512" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1512" s="39" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="B1512" s="22">
         <v>21.995585999999999</v>
@@ -77134,7 +77578,7 @@
         <v>6</v>
       </c>
       <c r="F1512" s="41" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="G1512" s="41" t="s">
         <v>6</v>
@@ -77163,7 +77607,7 @@
     </row>
     <row r="1513" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1513" s="39" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B1513" s="22">
         <v>22.041837000000001</v>
@@ -77178,7 +77622,7 @@
         <v>6</v>
       </c>
       <c r="F1513" s="41" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="G1513" s="41" t="s">
         <v>6</v>
@@ -77207,7 +77651,7 @@
     </row>
     <row r="1514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1514" s="40" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="B1514" s="22">
         <v>22.258317999999999</v>
@@ -77222,7 +77666,7 @@
         <v>6</v>
       </c>
       <c r="F1514" s="3" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="G1514" s="3" t="s">
         <v>6</v>
@@ -77251,7 +77695,7 @@
     </row>
     <row r="1515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1515" s="40" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="B1515" s="22">
         <v>24.003516000000001</v>
@@ -77266,7 +77710,7 @@
         <v>6</v>
       </c>
       <c r="F1515" s="42" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="G1515" s="38" t="s">
         <v>6</v>
@@ -77295,7 +77739,7 @@
     </row>
     <row r="1516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1516" s="40" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="B1516" s="22">
         <v>24.426369999999999</v>
@@ -77310,13 +77754,13 @@
         <v>6</v>
       </c>
       <c r="F1516" s="3" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="G1516" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1516" s="40" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="I1516" s="40" t="s">
         <v>6</v>
@@ -77339,7 +77783,7 @@
     </row>
     <row r="1517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1517" s="40" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="B1517" s="22">
         <v>23.930942000000002</v>
@@ -77354,13 +77798,13 @@
         <v>6</v>
       </c>
       <c r="F1517" s="41" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="G1517" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1517" s="40" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="I1517" s="40" t="s">
         <v>6</v>
@@ -77383,7 +77827,7 @@
     </row>
     <row r="1518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1518" s="40" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="B1518" s="22">
         <v>23.932131999999999</v>
@@ -77398,13 +77842,13 @@
         <v>6</v>
       </c>
       <c r="F1518" s="41" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="G1518" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1518" s="40" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="I1518" s="40" t="s">
         <v>6</v>
@@ -77427,7 +77871,7 @@
     </row>
     <row r="1519" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1519" s="40" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="B1519" s="22">
         <v>24.859815999999999</v>
@@ -77442,7 +77886,7 @@
         <v>6</v>
       </c>
       <c r="F1519" s="42" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="G1519" s="38" t="s">
         <v>6</v>
@@ -77471,7 +77915,7 @@
     </row>
     <row r="1520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1520" s="40" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="B1520" s="22">
         <v>24.859192</v>
@@ -77486,13 +77930,13 @@
         <v>6</v>
       </c>
       <c r="F1520" s="3" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="G1520" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1520" s="40" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="I1520" s="40" t="s">
         <v>6</v>
@@ -77515,7 +77959,7 @@
     </row>
     <row r="1521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1521" s="40" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="B1521" s="22">
         <v>36.213586999999997</v>
@@ -77530,7 +77974,7 @@
         <v>6</v>
       </c>
       <c r="F1521" s="3" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="G1521" s="38" t="s">
         <v>6</v>
@@ -77559,7 +78003,7 @@
     </row>
     <row r="1522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1522" s="40" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="B1522" s="22">
         <v>36.414357000000003</v>
@@ -77574,13 +78018,13 @@
         <v>6</v>
       </c>
       <c r="F1522" s="3" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="G1522" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1522" s="40" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="I1522" s="39" t="s">
         <v>6</v>
@@ -77603,7 +78047,7 @@
     </row>
     <row r="1523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1523" s="40" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="B1523" s="22">
         <v>36.23265</v>
@@ -77618,13 +78062,13 @@
         <v>6</v>
       </c>
       <c r="F1523" s="3" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="G1523" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1523" s="40" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="I1523" s="39" t="s">
         <v>6</v>
@@ -77647,7 +78091,7 @@
     </row>
     <row r="1524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1524" s="40" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B1524" s="22">
         <v>36.565714999999997</v>
@@ -77662,13 +78106,13 @@
         <v>6</v>
       </c>
       <c r="F1524" s="3" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="G1524" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1524" s="40" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="I1524" s="39" t="s">
         <v>6</v>
@@ -77691,7 +78135,7 @@
     </row>
     <row r="1525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1525" s="40" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B1525" s="22">
         <v>36.051963999999998</v>
@@ -77706,13 +78150,13 @@
         <v>6</v>
       </c>
       <c r="F1525" s="41" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="G1525" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1525" s="40" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="I1525" s="39" t="s">
         <v>6</v>
@@ -77735,7 +78179,7 @@
     </row>
     <row r="1526" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1526" s="40" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B1526" s="22">
         <v>35.862741999999997</v>
@@ -77750,13 +78194,13 @@
         <v>6</v>
       </c>
       <c r="F1526" s="41" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="G1526" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1526" s="40" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="I1526" s="39" t="s">
         <v>6</v>
@@ -77779,7 +78223,7 @@
     </row>
     <row r="1527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1527" s="40" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B1527" s="22">
         <v>35.972638000000003</v>
@@ -77794,13 +78238,13 @@
         <v>6</v>
       </c>
       <c r="F1527" s="3" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="G1527" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1527" s="40" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="I1527" s="39" t="s">
         <v>6</v>
@@ -77823,7 +78267,7 @@
     </row>
     <row r="1528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1528" s="39" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B1528" s="22">
         <v>34.753537999999999</v>
@@ -77838,7 +78282,7 @@
         <v>6</v>
       </c>
       <c r="F1528" s="41" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="G1528" s="41" t="s">
         <v>6</v>
@@ -77867,7 +78311,7 @@
     </row>
     <row r="1529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1529" s="40" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="B1529" s="22">
         <v>31.328506000000001</v>
@@ -77882,7 +78326,7 @@
         <v>6</v>
       </c>
       <c r="F1529" s="3" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="G1529" s="3" t="s">
         <v>6</v>
@@ -77911,7 +78355,7 @@
     </row>
     <row r="1530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1530" s="40" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="B1530" s="22">
         <v>28.021397</v>
@@ -77926,10 +78370,10 @@
         <v>6</v>
       </c>
       <c r="F1530" s="42" t="s">
+        <v>3191</v>
+      </c>
+      <c r="G1530" s="41" t="s">
         <v>3192</v>
-      </c>
-      <c r="G1530" s="41" t="s">
-        <v>3193</v>
       </c>
       <c r="H1530" s="40" t="s">
         <v>589</v>
@@ -77955,7 +78399,7 @@
     </row>
     <row r="1531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1531" s="40" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="B1531" s="22">
         <v>28.341228999999998</v>
@@ -77970,13 +78414,13 @@
         <v>6</v>
       </c>
       <c r="F1531" s="3" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="G1531" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1531" s="40" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="I1531" s="41" t="s">
         <v>6</v>
@@ -77999,7 +78443,7 @@
     </row>
     <row r="1532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1532" s="40" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="B1532" s="22">
         <v>22.294461999999999</v>
@@ -78014,7 +78458,7 @@
         <v>6</v>
       </c>
       <c r="F1532" s="41" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="G1532" s="41" t="s">
         <v>6</v>
@@ -78043,7 +78487,7 @@
     </row>
     <row r="1533" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1533" s="39" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="B1533" s="22">
         <v>33.623010000000001</v>
@@ -78058,7 +78502,7 @@
         <v>6</v>
       </c>
       <c r="F1533" s="41" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="G1533" s="41" t="s">
         <v>6</v>
@@ -78087,7 +78531,7 @@
     </row>
     <row r="1534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1534" s="39" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="B1534" s="22">
         <v>33.856228000000002</v>
@@ -78102,13 +78546,13 @@
         <v>6</v>
       </c>
       <c r="F1534" s="3" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="G1534" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1534" s="39" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="I1534" s="32" t="s">
         <v>6</v>
@@ -78131,7 +78575,7 @@
     </row>
     <row r="1535" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1535" s="39" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="B1535" s="22">
         <v>32.22043</v>
@@ -78146,7 +78590,7 @@
         <v>6</v>
       </c>
       <c r="F1535" s="41" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="G1535" s="41" t="s">
         <v>6</v>
@@ -78175,7 +78619,7 @@
     </row>
     <row r="1536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1536" s="39" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="B1536" s="22">
         <v>32.519027000000001</v>
@@ -78190,13 +78634,13 @@
         <v>6</v>
       </c>
       <c r="F1536" s="3" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="G1536" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1536" s="39" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="I1536" s="26" t="s">
         <v>6</v>
@@ -78219,7 +78663,7 @@
     </row>
     <row r="1537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1537" s="39" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="B1537" s="22">
         <v>32.414468999999997</v>
@@ -78234,13 +78678,13 @@
         <v>6</v>
       </c>
       <c r="F1537" s="3" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="G1537" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1537" s="39" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="I1537" s="26" t="s">
         <v>6</v>
@@ -78263,7 +78707,7 @@
     </row>
     <row r="1538" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1538" s="40" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="B1538" s="22">
         <v>21.713432999999998</v>
@@ -78278,7 +78722,7 @@
         <v>6</v>
       </c>
       <c r="F1538" s="41" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="G1538" s="41" t="s">
         <v>6</v>
@@ -78307,7 +78751,7 @@
     </row>
     <row r="1539" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1539" s="40" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B1539" s="22">
         <v>20.079339000000001</v>
@@ -78322,7 +78766,7 @@
         <v>6</v>
       </c>
       <c r="F1539" s="42" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="G1539" s="41" t="s">
         <v>6</v>
@@ -78351,7 +78795,7 @@
     </row>
     <row r="1540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1540" s="40" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="B1540" s="22">
         <v>19.987279999999998</v>
@@ -78366,13 +78810,13 @@
         <v>6</v>
       </c>
       <c r="F1540" s="3" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="G1540" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1540" s="40" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="I1540" s="26" t="s">
         <v>6</v>
@@ -78395,7 +78839,7 @@
     </row>
     <row r="1541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1541" s="40" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="B1541" s="22">
         <v>20.0244</v>
@@ -78410,13 +78854,13 @@
         <v>6</v>
       </c>
       <c r="F1541" s="3" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="G1541" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1541" s="40" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="I1541" s="26" t="s">
         <v>6</v>
@@ -78439,7 +78883,7 @@
     </row>
     <row r="1542" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1542" s="39" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="B1542" s="22">
         <v>31.708872</v>
@@ -78454,13 +78898,13 @@
         <v>6</v>
       </c>
       <c r="F1542" s="41" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="G1542" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1542" s="39" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="I1542" s="39" t="s">
         <v>6</v>
@@ -78483,7 +78927,7 @@
     </row>
     <row r="1543" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1543" s="40" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="B1543" s="22">
         <v>36.23265</v>
@@ -78492,19 +78936,19 @@
         <v>120.320171</v>
       </c>
       <c r="D1543" s="38" t="s">
+        <v>3219</v>
+      </c>
+      <c r="E1543" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1543" s="41" t="s">
         <v>3220</v>
       </c>
-      <c r="E1543" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1543" s="41" t="s">
-        <v>3221</v>
-      </c>
       <c r="G1543" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1543" s="40" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="I1543" s="39" t="s">
         <v>6</v>
@@ -78527,7 +78971,7 @@
     </row>
     <row r="1544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1544" s="40" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="B1544" s="22">
         <v>35.862741999999997</v>
@@ -78536,19 +78980,19 @@
         <v>120.05868599999999</v>
       </c>
       <c r="D1544" s="38" t="s">
+        <v>3222</v>
+      </c>
+      <c r="E1544" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1544" s="3" t="s">
         <v>3223</v>
       </c>
-      <c r="E1544" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1544" s="3" t="s">
-        <v>3224</v>
-      </c>
       <c r="G1544" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1544" s="40" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="I1544" s="32" t="s">
         <v>6</v>
@@ -78571,7 +79015,7 @@
     </row>
     <row r="1545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1545" s="40" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="B1545" s="22">
         <v>19.967858</v>
@@ -78580,13 +79024,13 @@
         <v>110.605422</v>
       </c>
       <c r="D1545" s="38" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="E1545" s="38" t="s">
         <v>6</v>
       </c>
       <c r="F1545" s="42" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="G1545" s="41" t="s">
         <v>6</v>
@@ -78615,7 +79059,7 @@
     </row>
     <row r="1546" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1546" s="40" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="B1546" s="22">
         <v>25.886959000000001</v>
@@ -78630,7 +79074,7 @@
         <v>6</v>
       </c>
       <c r="F1546" s="42" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="G1546" s="39" t="s">
         <v>6</v>
@@ -78659,7 +79103,7 @@
     </row>
     <row r="1547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1547" s="40" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="B1547" s="22">
         <v>25.963774000000001</v>
@@ -78674,13 +79118,13 @@
         <v>6</v>
       </c>
       <c r="F1547" s="42" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="G1547" s="39" t="s">
         <v>6</v>
       </c>
       <c r="H1547" s="40" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="I1547" s="38" t="s">
         <v>6</v>
@@ -78703,7 +79147,7 @@
     </row>
     <row r="1548" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1548" s="40" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="B1548" s="22">
         <v>25.587443</v>
@@ -78718,7 +79162,7 @@
         <v>6</v>
       </c>
       <c r="F1548" s="42" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="G1548" s="39" t="s">
         <v>6</v>
@@ -78747,7 +79191,7 @@
     </row>
     <row r="1549" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1549" s="40" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="B1549" s="22">
         <v>23.691583999999999</v>
@@ -78762,13 +79206,13 @@
         <v>6</v>
       </c>
       <c r="F1549" s="41" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="G1549" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1549" s="40" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="I1549" s="40" t="s">
         <v>6</v>
@@ -78791,7 +79235,7 @@
     </row>
     <row r="1550" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1550" s="40" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="B1550" s="22">
         <v>19.635489</v>
@@ -78806,7 +79250,7 @@
         <v>6</v>
       </c>
       <c r="F1550" s="42" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="G1550" s="41" t="s">
         <v>6</v>
@@ -78835,7 +79279,7 @@
     </row>
     <row r="1551" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1551" s="40" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="B1551" s="22">
         <v>21.475555</v>
@@ -78850,7 +79294,7 @@
         <v>6</v>
       </c>
       <c r="F1551" s="41" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="G1551" s="41" t="s">
         <v>6</v>
@@ -78879,7 +79323,7 @@
     </row>
     <row r="1552" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1552" s="40" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="B1552" s="22">
         <v>21.503340000000001</v>
@@ -78894,13 +79338,13 @@
         <v>6</v>
       </c>
       <c r="F1552" s="41" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="G1552" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1552" s="40" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="I1552" s="41" t="s">
         <v>6</v>
@@ -78923,7 +79367,7 @@
     </row>
     <row r="1553" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1553" s="40" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="B1553" s="22">
         <v>19.537081000000001</v>
@@ -78938,13 +79382,13 @@
         <v>6</v>
       </c>
       <c r="F1553" s="42" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="G1553" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1553" s="40" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="I1553" s="26" t="s">
         <v>6</v>
@@ -78967,7 +79411,7 @@
     </row>
     <row r="1554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1554" s="40" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="B1554" s="22">
         <v>27.371483999999999</v>
@@ -78982,7 +79426,7 @@
         <v>6</v>
       </c>
       <c r="F1554" s="42" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="G1554" s="41" t="s">
         <v>6</v>
@@ -79011,7 +79455,7 @@
     </row>
     <row r="1555" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1555" s="40" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="B1555" s="22">
         <v>27.201333000000002</v>
@@ -79026,13 +79470,13 @@
         <v>6</v>
       </c>
       <c r="F1555" s="42" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="G1555" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1555" s="40" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="I1555" s="38" t="s">
         <v>6</v>
@@ -79055,7 +79499,7 @@
     </row>
     <row r="1556" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1556" s="40" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B1556" s="22">
         <v>24.576640999999999</v>
@@ -79070,13 +79514,13 @@
         <v>6</v>
       </c>
       <c r="F1556" s="41" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="G1556" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1556" s="40" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="I1556" s="40" t="s">
         <v>6</v>
@@ -79099,7 +79543,7 @@
     </row>
     <row r="1557" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1557" s="40" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B1557" s="22">
         <v>24.851973000000001</v>
@@ -79114,13 +79558,13 @@
         <v>6</v>
       </c>
       <c r="F1557" s="41" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="G1557" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1557" s="40" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="I1557" s="40" t="s">
         <v>6</v>
@@ -79143,7 +79587,7 @@
     </row>
     <row r="1558" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1558" s="40" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="B1558" s="22">
         <v>23.349851000000001</v>
@@ -79158,7 +79602,7 @@
         <v>6</v>
       </c>
       <c r="F1558" s="38" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="G1558" s="38" t="s">
         <v>6</v>
@@ -79187,7 +79631,7 @@
     </row>
     <row r="1559" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1559" s="40" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="B1559" s="22">
         <v>23.435082999999999</v>
@@ -79202,13 +79646,13 @@
         <v>6</v>
       </c>
       <c r="F1559" s="38" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="G1559" s="38" t="s">
         <v>6</v>
       </c>
       <c r="H1559" s="40" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="I1559" s="40" t="s">
         <v>6</v>
@@ -79231,7 +79675,7 @@
     </row>
     <row r="1560" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1560" s="40" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B1560" s="22">
         <v>18.213629999999998</v>
@@ -79246,7 +79690,7 @@
         <v>6</v>
       </c>
       <c r="F1560" s="42" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="G1560" s="41" t="s">
         <v>6</v>
@@ -79275,7 +79719,7 @@
     </row>
     <row r="1561" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1561" s="40" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B1561" s="22">
         <v>23.94773</v>
@@ -79290,13 +79734,13 @@
         <v>6</v>
       </c>
       <c r="F1561" s="41" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="G1561" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1561" s="40" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="I1561" s="40" t="s">
         <v>6</v>
@@ -79319,7 +79763,7 @@
     </row>
     <row r="1562" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1562" s="40" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B1562" s="22">
         <v>26.046897000000001</v>
@@ -79334,13 +79778,13 @@
         <v>6</v>
       </c>
       <c r="F1562" s="42" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="G1562" s="39" t="s">
         <v>6</v>
       </c>
       <c r="H1562" s="40" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="I1562" s="38" t="s">
         <v>6</v>
@@ -79363,7 +79807,7 @@
     </row>
     <row r="1563" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1563" s="40" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B1563" s="22">
         <v>24.908868999999999</v>
@@ -79378,13 +79822,13 @@
         <v>6</v>
       </c>
       <c r="F1563" s="41" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="G1563" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1563" s="40" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="I1563" s="40" t="s">
         <v>6</v>
@@ -79407,7 +79851,7 @@
     </row>
     <row r="1564" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1564" s="40" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B1564" s="22">
         <v>21.060977999999999</v>
@@ -79422,7 +79866,7 @@
         <v>6</v>
       </c>
       <c r="F1564" s="38" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="G1564" s="38" t="s">
         <v>6</v>
@@ -79451,7 +79895,7 @@
     </row>
     <row r="1565" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1565" s="40" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1565" s="22">
         <v>21.566727</v>
@@ -79466,13 +79910,13 @@
         <v>6</v>
       </c>
       <c r="F1565" s="38" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="G1565" s="38" t="s">
         <v>6</v>
       </c>
       <c r="H1565" s="40" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="I1565" s="40" t="s">
         <v>6</v>
@@ -79495,7 +79939,7 @@
     </row>
     <row r="1566" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1566" s="40" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B1566" s="22">
         <v>19.950396999999999</v>
@@ -79510,13 +79954,13 @@
         <v>6</v>
       </c>
       <c r="F1566" s="41" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="G1566" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1566" s="40" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="I1566" s="26" t="s">
         <v>6</v>
@@ -79539,7 +79983,7 @@
     </row>
     <row r="1567" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1567" s="40" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B1567" s="22">
         <v>21.49324</v>
@@ -79554,7 +79998,7 @@
         <v>6</v>
       </c>
       <c r="F1567" s="42" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="G1567" s="41" t="s">
         <v>6</v>
@@ -79583,7 +80027,7 @@
     </row>
     <row r="1568" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1568" s="40" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B1568" s="22">
         <v>21.475553000000001</v>
@@ -79598,13 +80042,13 @@
         <v>6</v>
       </c>
       <c r="F1568" s="42" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="G1568" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1568" s="40" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="I1568" s="38" t="s">
         <v>6</v>
@@ -79627,7 +80071,7 @@
     </row>
     <row r="1569" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1569" s="40" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="B1569" s="22">
         <v>21.574145999999999</v>
@@ -79642,13 +80086,13 @@
         <v>6</v>
       </c>
       <c r="F1569" s="42" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="G1569" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1569" s="40" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="I1569" s="38" t="s">
         <v>6</v>
@@ -79671,7 +80115,7 @@
     </row>
     <row r="1570" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1570" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="B1570" s="22">
         <v>36.781182999999999</v>
@@ -79686,7 +80130,7 @@
         <v>6</v>
       </c>
       <c r="F1570" s="38" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="G1570" s="3" t="s">
         <v>6</v>
@@ -79715,7 +80159,7 @@
     </row>
     <row r="1571" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1571" s="40" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="B1571" s="22">
         <v>9.0006599999999999</v>
@@ -79730,7 +80174,7 @@
         <v>6</v>
       </c>
       <c r="F1571" s="3" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="G1571" s="3" t="s">
         <v>6</v>
@@ -79739,7 +80183,7 @@
         <v>402</v>
       </c>
       <c r="I1571" s="40" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="J1571" s="3" t="s">
         <v>6</v>
@@ -79759,7 +80203,7 @@
     </row>
     <row r="1572" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1572" s="40" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="B1572" s="22">
         <v>31.202279000000001</v>
@@ -79774,13 +80218,13 @@
         <v>6</v>
       </c>
       <c r="F1572" s="40" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="G1572" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1572" s="40" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="I1572" s="41" t="s">
         <v>6</v>
@@ -79803,7 +80247,7 @@
     </row>
     <row r="1573" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1573" s="40" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="B1573" s="22">
         <v>31.278476000000001</v>
@@ -79818,13 +80262,13 @@
         <v>6</v>
       </c>
       <c r="F1573" s="40" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="G1573" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1573" s="3" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="I1573" s="41" t="s">
         <v>6</v>
@@ -79847,7 +80291,7 @@
     </row>
     <row r="1574" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1574" s="40" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="B1574" s="22">
         <v>23.548964999999999</v>
@@ -79862,7 +80306,7 @@
         <v>6</v>
       </c>
       <c r="F1574" s="41" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1574" s="41" t="s">
         <v>6</v>
@@ -79891,7 +80335,7 @@
     </row>
     <row r="1575" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1575" s="39" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B1575" s="22">
         <v>24.780802999999999</v>
@@ -79906,13 +80350,13 @@
         <v>6</v>
       </c>
       <c r="F1575" s="3" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="G1575" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1575" s="3" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="I1575" s="38" t="s">
         <v>6</v>
@@ -79935,7 +80379,7 @@
     </row>
     <row r="1576" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1576" s="39" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="B1576" s="22">
         <v>24.136002999999999</v>
@@ -79950,13 +80394,13 @@
         <v>6</v>
       </c>
       <c r="F1576" s="3" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="G1576" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1576" s="3" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="I1576" s="38" t="s">
         <v>6</v>
@@ -79979,7 +80423,7 @@
     </row>
     <row r="1577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1577" s="39" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B1577" s="22">
         <v>24.795572</v>
@@ -79994,13 +80438,13 @@
         <v>6</v>
       </c>
       <c r="F1577" s="3" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="G1577" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1577" s="3" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="I1577" s="38" t="s">
         <v>6</v>
@@ -80023,7 +80467,7 @@
     </row>
     <row r="1578" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1578" s="39" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B1578" s="22">
         <v>24.752690000000001</v>
@@ -80038,13 +80482,13 @@
         <v>6</v>
       </c>
       <c r="F1578" s="39" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="G1578" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1578" s="3" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="I1578" s="38" t="s">
         <v>6</v>
@@ -80067,7 +80511,7 @@
     </row>
     <row r="1579" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1579" s="39" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B1579" s="22">
         <v>24.697590000000002</v>
@@ -80082,13 +80526,13 @@
         <v>6</v>
       </c>
       <c r="F1579" s="39" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="G1579" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1579" s="39" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="I1579" s="38" t="s">
         <v>6</v>
@@ -80111,7 +80555,7 @@
     </row>
     <row r="1580" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1580" s="39" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B1580" s="22">
         <v>24.884602999999998</v>
@@ -80126,13 +80570,13 @@
         <v>6</v>
       </c>
       <c r="F1580" s="39" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="G1580" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1580" s="3" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="I1580" s="38" t="s">
         <v>6</v>
@@ -80155,7 +80599,7 @@
     </row>
     <row r="1581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1581" s="39" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="B1581" s="22">
         <v>25.423663999999999</v>
@@ -80170,13 +80614,13 @@
         <v>6</v>
       </c>
       <c r="F1581" s="39" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="G1581" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H1581" s="39" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="I1581" s="38" t="s">
         <v>6</v>
@@ -80199,7 +80643,7 @@
     </row>
     <row r="1582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1582" s="39" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="B1582" s="22">
         <v>24.260273999999999</v>
@@ -80214,7 +80658,7 @@
         <v>6</v>
       </c>
       <c r="F1582" s="42" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="G1582" s="41" t="s">
         <v>6</v>
@@ -80243,7 +80687,7 @@
     </row>
     <row r="1583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1583" s="39" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="B1583" s="22">
         <v>25.248843000000001</v>
@@ -80258,7 +80702,7 @@
         <v>6</v>
       </c>
       <c r="F1583" s="42" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="G1583" s="41" t="s">
         <v>6</v>
@@ -80285,8 +80729,3136 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1584" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1584" s="40" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B1584" s="22">
+        <v>9.9723749999999995</v>
+      </c>
+      <c r="C1584" s="22">
+        <v>76.242914999999996</v>
+      </c>
+      <c r="D1584" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1584" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1584" s="41" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G1584" s="41" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H1584" s="40" t="s">
+        <v>2386</v>
+      </c>
+      <c r="I1584" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1584" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1584" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1584" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1584" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1584" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1585" s="40" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B1585" s="22">
+        <v>15.496553</v>
+      </c>
+      <c r="C1585" s="22">
+        <v>73.817747999999995</v>
+      </c>
+      <c r="D1585" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1585" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1585" s="42" t="s">
+        <v>3314</v>
+      </c>
+      <c r="G1585" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1585" s="40" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I1585" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1585" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1585" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1585" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1585" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1585" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1586" s="40" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B1586" s="22">
+        <v>12.475816</v>
+      </c>
+      <c r="C1586" s="22">
+        <v>80.129238000000001</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1586" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1586" s="3" t="s">
+        <v>3319</v>
+      </c>
+      <c r="G1586" s="3" t="s">
+        <v>3316</v>
+      </c>
+      <c r="H1586" s="40" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I1586" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1586" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1586" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1586" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1586" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1586" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1587" s="40" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B1587" s="22">
+        <v>16.198695000000001</v>
+      </c>
+      <c r="C1587" s="22">
+        <v>81.209496999999999</v>
+      </c>
+      <c r="D1587" s="38" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1587" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1587" s="41" t="s">
+        <v>3318</v>
+      </c>
+      <c r="G1587" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1587" s="40" t="s">
+        <v>2352</v>
+      </c>
+      <c r="I1587" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1587" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1587" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1587" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1587" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1587" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1588" s="40" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B1588" s="22">
+        <v>16.225197999999999</v>
+      </c>
+      <c r="C1588" s="22">
+        <v>81.205186999999995</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1588" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1588" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G1588" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1588" s="40" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I1588" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1588" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1588" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1588" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1588" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1588" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1589" s="40" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B1589" s="22">
+        <v>12.96583</v>
+      </c>
+      <c r="C1589" s="22">
+        <v>79.880449999999996</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1589" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1589" s="3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="G1589" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1589" s="40" t="s">
+        <v>3315</v>
+      </c>
+      <c r="I1589" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1589" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1589" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1589" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1589" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1589" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1590" s="15" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B1590" s="22">
+        <v>22.304601999999999</v>
+      </c>
+      <c r="C1590" s="22">
+        <v>88.677719999999994</v>
+      </c>
+      <c r="D1590" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1590" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1590" s="42" t="s">
+        <v>3325</v>
+      </c>
+      <c r="G1590" s="41" t="s">
+        <v>3326</v>
+      </c>
+      <c r="H1590" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1590" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1590" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1590" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1590" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1590" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1590" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1591" s="40" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B1591" s="22">
+        <v>22.035862000000002</v>
+      </c>
+      <c r="C1591" s="22">
+        <v>88.141389000000004</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1591" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1591" s="40" t="s">
+        <v>3327</v>
+      </c>
+      <c r="G1591" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1591" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1591" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1591" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1591" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1591" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1591" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1591" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1592" s="40" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B1592" s="22">
+        <v>21.560496000000001</v>
+      </c>
+      <c r="C1592" s="22">
+        <v>88.258221000000006</v>
+      </c>
+      <c r="D1592" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1592" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1592" s="42" t="s">
+        <v>3330</v>
+      </c>
+      <c r="G1592" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1592" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1592" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1592" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1592" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1592" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1592" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1592" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1593" s="39" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1593" s="22">
+        <v>21.828513999999998</v>
+      </c>
+      <c r="C1593" s="22">
+        <v>87.943601999999998</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1593" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1593" s="3" t="s">
+        <v>3334</v>
+      </c>
+      <c r="G1593" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1593" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1593" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1593" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1593" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1593" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1593" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1593" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1594" s="39" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B1594" s="22">
+        <v>22.015342</v>
+      </c>
+      <c r="C1594" s="22">
+        <v>88.065094999999999</v>
+      </c>
+      <c r="D1594" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1594" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1594" s="3" t="s">
+        <v>3331</v>
+      </c>
+      <c r="G1594" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1594" s="39" t="s">
+        <v>3332</v>
+      </c>
+      <c r="I1594" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1594" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1594" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1594" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1594" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1594" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1595" s="39" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B1595" s="22">
+        <v>21.752226</v>
+      </c>
+      <c r="C1595" s="22">
+        <v>88.273861999999994</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1595" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1595" s="3" t="s">
+        <v>3335</v>
+      </c>
+      <c r="G1595" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1595" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1595" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1595" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1595" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1595" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1595" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1595" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1596" s="39" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B1596" s="22">
+        <v>22.024391999999999</v>
+      </c>
+      <c r="C1596" s="22">
+        <v>88.663623000000001</v>
+      </c>
+      <c r="D1596" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1596" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1596" s="41" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G1596" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1596" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1596" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1596" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1596" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1596" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1596" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1596" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1597" s="39" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1597" s="22">
+        <v>22.206783000000001</v>
+      </c>
+      <c r="C1597" s="22">
+        <v>89.018732999999997</v>
+      </c>
+      <c r="D1597" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1597" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1597" s="41" t="s">
+        <v>3341</v>
+      </c>
+      <c r="G1597" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1597" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1597" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1597" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1597" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1597" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1597" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1597" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1598" s="39" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1598" s="22">
+        <v>11.806067000000001</v>
+      </c>
+      <c r="C1598" s="22">
+        <v>92.629192000000003</v>
+      </c>
+      <c r="D1598" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1598" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1598" s="40" t="s">
+        <v>3343</v>
+      </c>
+      <c r="G1598" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1598" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1598" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1598" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1598" s="26">
+        <v>13.9</v>
+      </c>
+      <c r="L1598" s="26">
+        <v>94</v>
+      </c>
+      <c r="M1598" s="26">
+        <v>10.3</v>
+      </c>
+      <c r="N1598" s="26">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1599" s="39" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1599" s="22">
+        <v>11.643280000000001</v>
+      </c>
+      <c r="C1599" s="22">
+        <v>92.746992000000006</v>
+      </c>
+      <c r="D1599" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1599" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1599" s="40" t="s">
+        <v>3344</v>
+      </c>
+      <c r="G1599" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1599" s="39" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I1599" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1599" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1599" s="26">
+        <v>13.9</v>
+      </c>
+      <c r="L1599" s="26">
+        <v>94</v>
+      </c>
+      <c r="M1599" s="26">
+        <v>10.3</v>
+      </c>
+      <c r="N1599" s="26">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1600" s="39" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1600" s="22">
+        <v>11.505547999999999</v>
+      </c>
+      <c r="C1600" s="22">
+        <v>92.700596000000004</v>
+      </c>
+      <c r="D1600" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1600" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1600" s="40" t="s">
+        <v>3347</v>
+      </c>
+      <c r="G1600" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1600" s="39" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I1600" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1600" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1600" s="26">
+        <v>13.9</v>
+      </c>
+      <c r="L1600" s="26">
+        <v>94</v>
+      </c>
+      <c r="M1600" s="26">
+        <v>10.3</v>
+      </c>
+      <c r="N1600" s="26">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1601" s="40" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1601" s="22">
+        <v>20.299356</v>
+      </c>
+      <c r="C1601" s="22">
+        <v>86.696111000000002</v>
+      </c>
+      <c r="D1601" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1601" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1601" s="42" t="s">
+        <v>3349</v>
+      </c>
+      <c r="G1601" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1601" s="38" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I1601" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1601" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1601" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1601" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1601" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1601" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1602" s="38" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B1602" s="22">
+        <v>-3.9556209999999998</v>
+      </c>
+      <c r="C1602" s="22">
+        <v>39.730125000000001</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1602" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1602" s="3" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1602" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1602" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="I1602" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1602" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1602" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1602" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1602" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1602" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1603" s="40" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B1603" s="22">
+        <v>9.3810009999999995</v>
+      </c>
+      <c r="C1603" s="22">
+        <v>98.401966999999999</v>
+      </c>
+      <c r="D1603" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1603" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1603" s="41" t="s">
+        <v>3353</v>
+      </c>
+      <c r="G1603" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1603" s="40" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I1603" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1603" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1603" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1603" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1603" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1603" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1604" s="39" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B1604" s="22">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="C1604" s="22">
+        <v>27.83</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1604" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1604" s="3" t="s">
+        <v>3355</v>
+      </c>
+      <c r="G1604" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1604" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1604" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1604" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1604" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1604" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1604" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1604" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1605" s="39" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B1605" s="22">
+        <v>20.71</v>
+      </c>
+      <c r="C1605" s="22">
+        <v>70.959999999999994</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1605" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1605" s="3" t="s">
+        <v>3357</v>
+      </c>
+      <c r="G1605" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1605" s="39" t="s">
+        <v>3354</v>
+      </c>
+      <c r="I1605" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1605" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1605" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1605" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1605" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1605" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1606" s="38" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B1606" s="22">
+        <v>7.8151359999999999</v>
+      </c>
+      <c r="C1606" s="22">
+        <v>98.363759000000002</v>
+      </c>
+      <c r="D1606" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1606" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1606" s="42" t="s">
+        <v>3359</v>
+      </c>
+      <c r="G1606" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1606" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1606" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1606" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1606" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1606" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1606" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1606" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1607" s="38" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1607" s="22">
+        <v>7.8675360000000003</v>
+      </c>
+      <c r="C1607" s="22">
+        <v>98.435446999999996</v>
+      </c>
+      <c r="D1607" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1607" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1607" s="42" t="s">
+        <v>3361</v>
+      </c>
+      <c r="G1607" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1607" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1607" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1607" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1607" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1607" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1607" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1607" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1608" s="38" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1608" s="22">
+        <v>8.0496090000000002</v>
+      </c>
+      <c r="C1608" s="22">
+        <v>98.416016999999997</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1608" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1608" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="G1608" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1608" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1608" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1608" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1608" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1608" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1608" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1608" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1609" s="39" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B1609" s="22">
+        <v>21.896636999999998</v>
+      </c>
+      <c r="C1609" s="22">
+        <v>88.066716</v>
+      </c>
+      <c r="D1609" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1609" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1609" s="41" t="s">
+        <v>3365</v>
+      </c>
+      <c r="G1609" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1609" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1609" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1609" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1609" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1609" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1609" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1609" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1610" s="15" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1610" s="22">
+        <v>13.956143000000001</v>
+      </c>
+      <c r="C1610" s="22">
+        <v>74.510136000000003</v>
+      </c>
+      <c r="D1610" s="38" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E1610" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1610" s="42" t="s">
+        <v>3367</v>
+      </c>
+      <c r="G1610" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1610" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1610" s="38" t="s">
+        <v>3057</v>
+      </c>
+      <c r="J1610" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1610" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1610" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1610" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1610" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1611" s="15" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B1611" s="22">
+        <v>13.344923</v>
+      </c>
+      <c r="C1611" s="22">
+        <v>74.703727000000001</v>
+      </c>
+      <c r="D1611" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1611" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1611" s="42" t="s">
+        <v>3368</v>
+      </c>
+      <c r="G1611" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1611" s="15" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I1611" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1611" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1611" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1611" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1611" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1611" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1612" s="40" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1612" s="22">
+        <v>21.915113999999999</v>
+      </c>
+      <c r="C1612" s="22">
+        <v>72.401950999999997</v>
+      </c>
+      <c r="D1612" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1612" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1612" s="42" t="s">
+        <v>3371</v>
+      </c>
+      <c r="G1612" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1612" s="38" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I1612" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1612" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1612" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1612" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1612" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1612" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1613" s="40" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1613" s="22">
+        <v>20.949594000000001</v>
+      </c>
+      <c r="C1613" s="22">
+        <v>70.289345999999995</v>
+      </c>
+      <c r="D1613" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1613" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1613" s="42" t="s">
+        <v>3374</v>
+      </c>
+      <c r="G1613" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1613" s="38" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I1613" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1613" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1613" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1613" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1613" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1613" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1614" s="40" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1614" s="22">
+        <v>19.823391000000001</v>
+      </c>
+      <c r="C1614" s="22">
+        <v>85.907141999999993</v>
+      </c>
+      <c r="D1614" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1614" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1614" s="42" t="s">
+        <v>3376</v>
+      </c>
+      <c r="G1614" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1614" s="38" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I1614" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1614" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1614" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1614" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1614" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1614" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1615" s="40" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B1615" s="22">
+        <v>20.698858000000001</v>
+      </c>
+      <c r="C1615" s="22">
+        <v>86.800033600000006</v>
+      </c>
+      <c r="D1615" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1615" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1615" s="40" t="s">
+        <v>3378</v>
+      </c>
+      <c r="G1615" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1615" s="38" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I1615" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1615" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1615" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1615" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1615" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1615" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1616" s="40" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B1616" s="22">
+        <v>21.600916000000002</v>
+      </c>
+      <c r="C1616" s="22">
+        <v>87.462620999999999</v>
+      </c>
+      <c r="D1616" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1616" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1616" s="42" t="s">
+        <v>3380</v>
+      </c>
+      <c r="G1616" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1616" s="40" t="s">
+        <v>3268</v>
+      </c>
+      <c r="I1616" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1616" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1616" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1616" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1616" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1616" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1617" s="40" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1617" s="22">
+        <v>21.576158</v>
+      </c>
+      <c r="C1617" s="22">
+        <v>87.373281000000006</v>
+      </c>
+      <c r="D1617" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1617" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1617" s="42" t="s">
+        <v>3382</v>
+      </c>
+      <c r="G1617" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1617" s="40" t="s">
+        <v>3268</v>
+      </c>
+      <c r="I1617" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1617" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1617" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1617" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1617" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1617" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1618" s="40" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B1618" s="22">
+        <v>21.558869999999999</v>
+      </c>
+      <c r="C1618" s="22">
+        <v>87.358323999999996</v>
+      </c>
+      <c r="D1618" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1618" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1618" s="42" t="s">
+        <v>3384</v>
+      </c>
+      <c r="G1618" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1618" s="40" t="s">
+        <v>3268</v>
+      </c>
+      <c r="I1618" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1618" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1618" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1618" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1618" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1618" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1619" s="38" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B1619" s="22">
+        <v>10.901415</v>
+      </c>
+      <c r="C1619" s="22">
+        <v>75.883859000000001</v>
+      </c>
+      <c r="D1619" s="38" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1619" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1619" s="41" t="s">
+        <v>3387</v>
+      </c>
+      <c r="G1619" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1619" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="I1619" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1619" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1619" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1619" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1619" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1619" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1620" s="38" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B1620" s="22">
+        <v>12.419095</v>
+      </c>
+      <c r="C1620" s="22">
+        <v>75.012449000000004</v>
+      </c>
+      <c r="D1620" s="38" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1620" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1620" s="41" t="s">
+        <v>3385</v>
+      </c>
+      <c r="G1620" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1620" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="I1620" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1620" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1620" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1620" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1620" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1620" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1621" s="38" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B1621" s="22">
+        <v>11.427339999999999</v>
+      </c>
+      <c r="C1621" s="22">
+        <v>75.695561999999995</v>
+      </c>
+      <c r="D1621" s="38" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1621" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1621" s="41" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G1621" s="38" t="s">
+        <v>3391</v>
+      </c>
+      <c r="H1621" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="I1621" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1621" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1621" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1621" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1621" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1621" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1622" s="40" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B1622" s="22">
+        <v>19.381923</v>
+      </c>
+      <c r="C1622" s="22">
+        <v>85.041768000000005</v>
+      </c>
+      <c r="D1622" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1622" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1622" s="42" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G1622" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1622" s="38" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I1622" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1622" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1622" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1622" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1622" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1622" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1623" s="40" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B1623" s="22">
+        <v>16.724986000000001</v>
+      </c>
+      <c r="C1623" s="22">
+        <v>82.220563999999996</v>
+      </c>
+      <c r="D1623" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1623" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1623" s="42" t="s">
+        <v>3394</v>
+      </c>
+      <c r="G1623" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1623" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1623" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1623" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1623" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1623" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1623" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1623" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1624" s="38" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B1624" s="22">
+        <v>16.895085999999999</v>
+      </c>
+      <c r="C1624" s="22">
+        <v>82.249702999999997</v>
+      </c>
+      <c r="D1624" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1624" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1624" s="38" t="s">
+        <v>3397</v>
+      </c>
+      <c r="G1624" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1624" s="41" t="s">
+        <v>2352</v>
+      </c>
+      <c r="I1624" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1624" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1624" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1624" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1624" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1624" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1625" s="39" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1625" s="22">
+        <v>21.724271999999999</v>
+      </c>
+      <c r="C1625" s="22">
+        <v>88.108954999999995</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1625" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1625" s="3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="G1625" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1625" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1625" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1625" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1625" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1625" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1625" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1625" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1626" s="39" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B1626" s="22">
+        <v>21.667570999999999</v>
+      </c>
+      <c r="C1626" s="22">
+        <v>88.330053000000007</v>
+      </c>
+      <c r="D1626" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1626" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1626" s="41" t="s">
+        <v>3401</v>
+      </c>
+      <c r="G1626" s="41" t="s">
+        <v>3402</v>
+      </c>
+      <c r="H1626" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1626" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1626" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1626" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1626" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1626" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1626" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1627" s="39" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B1627" s="22">
+        <v>21.741834000000001</v>
+      </c>
+      <c r="C1627" s="22">
+        <v>88.290891000000002</v>
+      </c>
+      <c r="D1627" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1627" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1627" s="41" t="s">
+        <v>3404</v>
+      </c>
+      <c r="G1627" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1627" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1627" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1627" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1627" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1627" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1627" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1627" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1628" s="39" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B1628" s="22">
+        <v>21.124590999999999</v>
+      </c>
+      <c r="C1628" s="22">
+        <v>88.829937999999999</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1628" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1628" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="G1628" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1628" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1628" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1628" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1628" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1628" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1628" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1628" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1629" s="38" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B1629" s="22">
+        <v>22.302447000000001</v>
+      </c>
+      <c r="C1629" s="22">
+        <v>88.938039000000003</v>
+      </c>
+      <c r="D1629" s="38" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1629" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1629" s="41" t="s">
+        <v>3410</v>
+      </c>
+      <c r="G1629" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1629" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1629" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1629" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1629" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1629" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1629" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1629" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1630" s="38" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B1630" s="22">
+        <v>22.663551999999999</v>
+      </c>
+      <c r="C1630" s="22">
+        <v>88.865404999999996</v>
+      </c>
+      <c r="D1630" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1630" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1630" s="41" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G1630" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1630" s="38" t="s">
+        <v>3409</v>
+      </c>
+      <c r="I1630" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1630" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1630" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1630" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1630" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1630" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1631" s="39" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B1631" s="22">
+        <v>22.179818999999998</v>
+      </c>
+      <c r="C1631" s="22">
+        <v>88.809763000000004</v>
+      </c>
+      <c r="D1631" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1631" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1631" s="41" t="s">
+        <v>3406</v>
+      </c>
+      <c r="G1631" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1631" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1631" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1631" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1631" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1631" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1631" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1631" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1632" s="39" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B1632" s="22">
+        <v>22.281271</v>
+      </c>
+      <c r="C1632" s="22">
+        <v>87.933412000000004</v>
+      </c>
+      <c r="D1632" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1632" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1632" s="41" t="s">
+        <v>3414</v>
+      </c>
+      <c r="G1632" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1632" s="39" t="s">
+        <v>3332</v>
+      </c>
+      <c r="I1632" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1632" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1632" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1632" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1632" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1632" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1633" s="38" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B1633" s="22">
+        <v>15.866659</v>
+      </c>
+      <c r="C1633" s="22">
+        <v>80.876642000000004</v>
+      </c>
+      <c r="D1633" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1633" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1633" s="38" t="s">
+        <v>3416</v>
+      </c>
+      <c r="G1633" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1633" s="41" t="s">
+        <v>2352</v>
+      </c>
+      <c r="I1633" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1633" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1633" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1633" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1633" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1633" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1634" s="40" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B1634" s="22">
+        <v>15.978856</v>
+      </c>
+      <c r="C1634" s="22">
+        <v>81.108149999999995</v>
+      </c>
+      <c r="D1634" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1634" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1634" s="41" t="s">
+        <v>3418</v>
+      </c>
+      <c r="G1634" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1634" s="40" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I1634" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1634" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1634" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1634" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1634" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1634" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1635" s="40" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B1635" s="22">
+        <v>15.825881000000001</v>
+      </c>
+      <c r="C1635" s="22">
+        <v>80.923158000000001</v>
+      </c>
+      <c r="D1635" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1635" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1635" s="41" t="s">
+        <v>3420</v>
+      </c>
+      <c r="G1635" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1635" s="40" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I1635" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1635" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1635" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1635" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1635" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1635" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1636" s="40" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B1636" s="22">
+        <v>15.880520000000001</v>
+      </c>
+      <c r="C1636" s="22">
+        <v>80.662136000000004</v>
+      </c>
+      <c r="D1636" s="38" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1636" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1636" s="41" t="s">
+        <v>3422</v>
+      </c>
+      <c r="G1636" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1636" s="40" t="s">
+        <v>2352</v>
+      </c>
+      <c r="I1636" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1636" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1636" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1636" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1636" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1636" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1637" s="40" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B1637" s="22">
+        <v>15.791059000000001</v>
+      </c>
+      <c r="C1637" s="22">
+        <v>80.845968999999997</v>
+      </c>
+      <c r="D1637" s="38" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1637" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1637" s="41" t="s">
+        <v>3424</v>
+      </c>
+      <c r="G1637" s="41" t="s">
+        <v>3425</v>
+      </c>
+      <c r="H1637" s="40" t="s">
+        <v>3421</v>
+      </c>
+      <c r="I1637" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1637" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1637" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1637" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1637" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1637" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1638" s="40" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B1638" s="22">
+        <v>16.278065999999999</v>
+      </c>
+      <c r="C1638" s="22">
+        <v>81.267050999999995</v>
+      </c>
+      <c r="D1638" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1638" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1638" s="41" t="s">
+        <v>3427</v>
+      </c>
+      <c r="G1638" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1638" s="40" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I1638" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1638" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1638" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1638" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1638" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1638" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1639" s="40" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B1639" s="22">
+        <v>16.011313000000001</v>
+      </c>
+      <c r="C1639" s="22">
+        <v>81.096847999999994</v>
+      </c>
+      <c r="D1639" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1639" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1639" s="41" t="s">
+        <v>3429</v>
+      </c>
+      <c r="G1639" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1639" s="40" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I1639" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1639" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1639" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1639" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1639" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1639" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1640" s="40" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B1640" s="22">
+        <v>15.902703000000001</v>
+      </c>
+      <c r="C1640" s="22">
+        <v>81.018154999999993</v>
+      </c>
+      <c r="D1640" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1640" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1640" s="41" t="s">
+        <v>3431</v>
+      </c>
+      <c r="G1640" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1640" s="40" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I1640" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1640" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1640" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1640" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1640" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1640" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1641" s="38" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B1641" s="22">
+        <v>15.866659</v>
+      </c>
+      <c r="C1641" s="22">
+        <v>80.876642000000004</v>
+      </c>
+      <c r="D1641" s="38" t="s">
+        <v>3433</v>
+      </c>
+      <c r="E1641" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1641" s="38" t="s">
+        <v>3434</v>
+      </c>
+      <c r="G1641" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1641" s="41" t="s">
+        <v>2352</v>
+      </c>
+      <c r="I1641" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1641" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1641" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1641" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1641" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1641" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1642" s="38" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B1642" s="22">
+        <v>22.437678999999999</v>
+      </c>
+      <c r="C1642" s="22">
+        <v>88.838274999999996</v>
+      </c>
+      <c r="D1642" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1642" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1642" s="41" t="s">
+        <v>3436</v>
+      </c>
+      <c r="G1642" s="38" t="s">
+        <v>3437</v>
+      </c>
+      <c r="H1642" s="38" t="s">
+        <v>3409</v>
+      </c>
+      <c r="I1642" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1642" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1642" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1642" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1642" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1642" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1643" s="40" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1643" s="22">
+        <v>19.116662000000002</v>
+      </c>
+      <c r="C1643" s="22">
+        <v>84.748216999999997</v>
+      </c>
+      <c r="D1643" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1643" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1643" s="42" t="s">
+        <v>3438</v>
+      </c>
+      <c r="G1643" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1643" s="40" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I1643" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1643" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1643" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1643" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1643" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1643" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1644" s="40" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B1644" s="22">
+        <v>19.103846000000001</v>
+      </c>
+      <c r="C1644" s="22">
+        <v>84.770567</v>
+      </c>
+      <c r="D1644" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1644" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1644" s="42" t="s">
+        <v>3441</v>
+      </c>
+      <c r="G1644" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1644" s="40" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I1644" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1644" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1644" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1644" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1644" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1644" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1645" s="40" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B1645" s="22">
+        <v>19.086625999999999</v>
+      </c>
+      <c r="C1645" s="22">
+        <v>84.770180999999994</v>
+      </c>
+      <c r="D1645" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1645" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1645" s="42" t="s">
+        <v>3443</v>
+      </c>
+      <c r="G1645" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1645" s="40" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I1645" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1645" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1645" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1645" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1645" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1645" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1646" s="39" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B1646" s="22">
+        <v>19.117044</v>
+      </c>
+      <c r="C1646" s="22">
+        <v>84.786075999999994</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1646" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1646" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="G1646" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1646" s="40" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I1646" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1646" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1646" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1646" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1646" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1646" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1647" s="41" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B1647" s="22">
+        <v>18.520403000000002</v>
+      </c>
+      <c r="C1647" s="22">
+        <v>84.296920999999998</v>
+      </c>
+      <c r="D1647" s="38" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1647" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1647" s="41" t="s">
+        <v>3447</v>
+      </c>
+      <c r="G1647" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1647" s="40" t="s">
+        <v>2352</v>
+      </c>
+      <c r="I1647" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1647" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1647" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1647" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1647" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1647" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1648" s="41" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B1648" s="22">
+        <v>18.342687000000002</v>
+      </c>
+      <c r="C1648" s="22">
+        <v>84.123500000000007</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1648" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1648" s="3" t="s">
+        <v>3449</v>
+      </c>
+      <c r="G1648" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1648" s="41" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I1648" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1648" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1648" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1648" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1648" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1648" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1649" s="41" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B1649" s="22">
+        <v>18.213972999999999</v>
+      </c>
+      <c r="C1649" s="22">
+        <v>83.837575000000001</v>
+      </c>
+      <c r="D1649" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1649" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1649" s="41" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G1649" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1649" s="41" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I1649" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1649" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1649" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1649" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1649" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1649" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1650" s="41" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B1650" s="22">
+        <v>18.221910999999999</v>
+      </c>
+      <c r="C1650" s="22">
+        <v>83.929593999999994</v>
+      </c>
+      <c r="D1650" s="38" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E1650" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1650" s="41" t="s">
+        <v>3453</v>
+      </c>
+      <c r="G1650" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1650" s="41" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I1650" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1650" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1650" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1650" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1650" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1650" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1651" s="39" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B1651" s="22">
+        <v>21.619062</v>
+      </c>
+      <c r="C1651" s="22">
+        <v>87.510040000000004</v>
+      </c>
+      <c r="D1651" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1651" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1651" s="41" t="s">
+        <v>3456</v>
+      </c>
+      <c r="G1651" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1651" s="39" t="s">
+        <v>3332</v>
+      </c>
+      <c r="I1651" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1651" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1651" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1651" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1651" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1651" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1652" s="40" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B1652" s="23">
+        <v>-28.388821</v>
+      </c>
+      <c r="C1652" s="23">
+        <v>32.409216999999998</v>
+      </c>
+      <c r="D1652" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1652" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1652" s="42" t="s">
+        <v>3458</v>
+      </c>
+      <c r="G1652" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1652" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="I1652" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1652" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1652" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1652" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1652" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1652" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1653" s="39" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B1653" s="22">
+        <v>8.0789299999999997</v>
+      </c>
+      <c r="C1653" s="22">
+        <v>77.543690999999995</v>
+      </c>
+      <c r="D1653" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1653" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1653" s="3" t="s">
+        <v>3459</v>
+      </c>
+      <c r="G1653" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1653" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1653" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1653" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1653" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1653" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1653" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1653" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1654" s="39"/>
+    </row>
+    <row r="1655" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1655" s="39"/>
+    </row>
+    <row r="1656" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1656" s="39"/>
+    </row>
+    <row r="1657" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1657" s="39"/>
+    </row>
+    <row r="1658" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1658" s="39"/>
+    </row>
+    <row r="1659" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1659" s="39"/>
+    </row>
+    <row r="1662" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1662" s="39"/>
+    </row>
+    <row r="1664" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1664" s="39"/>
+    </row>
+    <row r="1665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1665" s="39"/>
+    </row>
+    <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1666" s="39"/>
+    </row>
+    <row r="1667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1667" s="39"/>
+    </row>
+    <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1668" s="39"/>
+    </row>
+    <row r="1669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1669" s="39"/>
+    </row>
+    <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1670" s="39"/>
+    </row>
+    <row r="1671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1671" s="39"/>
+    </row>
+    <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1672" s="39"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N1583" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N1652" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:N1409">
       <sortCondition ref="C1:C1234"/>
     </sortState>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB428EE-592C-45EC-BEC1-52FAF0BD6613}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15FCE70-96F0-429C-B5E0-DED714B5F8F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2610" yWindow="720" windowWidth="22995" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1652</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18172" uniqueCount="3462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18232" uniqueCount="3472">
   <si>
     <t>Latitude</t>
   </si>
@@ -10412,6 +10419,36 @@
   </si>
   <si>
     <t>Southwestern India;Arabian Sea;Southern India</t>
+  </si>
+  <si>
+    <t>Ensenada, Baja California, Mexico</t>
+  </si>
+  <si>
+    <t>Ensenada</t>
+  </si>
+  <si>
+    <t>Bolsa Chica Ecological Reserve</t>
+  </si>
+  <si>
+    <t>Huntington Beach</t>
+  </si>
+  <si>
+    <t>Huntington Beach, Orange County, California, USA</t>
+  </si>
+  <si>
+    <t>Bolsa Chica Ecological Reserve, Huntington Beach, Orange County, California, USA</t>
+  </si>
+  <si>
+    <t>San Diego Bay National Wildlife Refuge, San Diego Bay, San Diego County, California, USA</t>
+  </si>
+  <si>
+    <t>San Diego Bay National Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>San Diego Bay, San Diego County, California, USA</t>
+  </si>
+  <si>
+    <t>San Diego Bay</t>
   </si>
 </sst>
 </file>
@@ -10890,8 +10927,8 @@
   <dimension ref="A1:N1672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1622" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1656" sqref="A1656"/>
+      <pane ySplit="1" topLeftCell="A1638" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1654" sqref="I1654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83809,23 +83846,238 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1654" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1654" s="39"/>
+    <row r="1654" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1654" s="40" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1654" s="22">
+        <v>31.85</v>
+      </c>
+      <c r="C1654" s="22">
+        <v>-116.63</v>
+      </c>
+      <c r="D1654" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1654" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1654" s="40" t="s">
+        <v>3463</v>
+      </c>
+      <c r="G1654" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1654" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1654" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1654" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1654" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1654" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1654" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1654" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1655" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1655" s="39"/>
+      <c r="A1655" s="39" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B1655" s="22">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C1655" s="22">
+        <v>-118.05</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1655" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1655" s="39" t="s">
+        <v>3464</v>
+      </c>
+      <c r="G1655" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1655" s="3" t="s">
+        <v>3466</v>
+      </c>
+      <c r="I1655" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1655" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1655" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1655" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1655" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1655" s="41" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1656" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1656" s="39"/>
+      <c r="A1656" s="39" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B1656" s="22">
+        <v>33.679611000000001</v>
+      </c>
+      <c r="C1656" s="22">
+        <v>-118.03188400000001</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1656" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1656" s="39" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1656" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1656" s="40" t="s">
+        <v>2877</v>
+      </c>
+      <c r="I1656" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1656" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1656" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1656" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1656" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1656" s="41" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1657" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1657" s="39"/>
+      <c r="A1657" s="39" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B1657" s="22">
+        <v>32.643070000000002</v>
+      </c>
+      <c r="C1657" s="22">
+        <v>-117.114982</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1657" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1657" s="3" t="s">
+        <v>3469</v>
+      </c>
+      <c r="G1657" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1657" s="3" t="s">
+        <v>3470</v>
+      </c>
+      <c r="I1657" s="15" t="s">
+        <v>2570</v>
+      </c>
+      <c r="J1657" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1657" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1657" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1657" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1657" s="41" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1658" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1658" s="39"/>
+      <c r="A1658" s="39" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B1658" s="22">
+        <v>32.652721</v>
+      </c>
+      <c r="C1658" s="22">
+        <v>-117.132677</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1658" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1658" s="3" t="s">
+        <v>3471</v>
+      </c>
+      <c r="G1658" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1658" s="40" t="s">
+        <v>2562</v>
+      </c>
+      <c r="I1658" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1658" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1658" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1658" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1658" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1658" s="41" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1659" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1659" s="39"/>
+    </row>
+    <row r="1661" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1661" s="40"/>
+      <c r="D1661" s="38"/>
+      <c r="E1661" s="38"/>
+      <c r="F1661" s="42"/>
+      <c r="G1661" s="41"/>
+      <c r="H1661" s="40"/>
+      <c r="I1661" s="40"/>
+      <c r="J1661" s="41"/>
     </row>
     <row r="1662" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1662" s="39"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7761C89-A749-42B3-A2E8-D36A1FAE68F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36818CC1-ADF5-4759-A558-5F154B661529}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2616" yWindow="720" windowWidth="22992" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1682</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1688</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18520" uniqueCount="3522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18592" uniqueCount="3533">
   <si>
     <t>Latitude</t>
   </si>
@@ -10599,6 +10599,39 @@
   </si>
   <si>
     <t>Marapanim</t>
+  </si>
+  <si>
+    <t>Accabonac Harbor, Suffolk County, New York, USA</t>
+  </si>
+  <si>
+    <t>Accabonac Harbor</t>
+  </si>
+  <si>
+    <t>Hackensack Meadowlands</t>
+  </si>
+  <si>
+    <t>Bergen County, New Jersey, USA</t>
+  </si>
+  <si>
+    <t>Hackensack Meadowlands, Bergen County, New Jersey, USA</t>
+  </si>
+  <si>
+    <t>Bergen County</t>
+  </si>
+  <si>
+    <t>Great Sippewisset Marsh, Falmouth, Barnstable County, Massachusetts, USA</t>
+  </si>
+  <si>
+    <t>Great Sippewisset Marsh</t>
+  </si>
+  <si>
+    <t>West coast of Madagascar</t>
+  </si>
+  <si>
+    <t>Weifang, Shandong, China</t>
+  </si>
+  <si>
+    <t>Weifang</t>
   </si>
 </sst>
 </file>
@@ -11074,11 +11107,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1687"/>
+  <dimension ref="A1:N1693"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1641" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1664" sqref="F1664"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E303" sqref="E303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39256,8 +39289,8 @@
       <c r="H639" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="I639" s="30" t="s">
-        <v>6</v>
+      <c r="I639" s="39" t="s">
+        <v>3530</v>
       </c>
       <c r="J639" s="3" t="s">
         <v>6</v>
@@ -85273,22 +85306,283 @@
       </c>
     </row>
     <row r="1683" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1683" s="39"/>
-    </row>
-    <row r="1684" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1684" s="39"/>
-    </row>
-    <row r="1685" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1685" s="39"/>
-    </row>
-    <row r="1686" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1686" s="39"/>
+      <c r="A1683" s="39" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B1683" s="22">
+        <v>41.025874999999999</v>
+      </c>
+      <c r="C1683" s="22">
+        <v>72.142347999999998</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1683" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1683" s="3" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G1683" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1683" s="38" t="s">
+        <v>2612</v>
+      </c>
+      <c r="I1683" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1683" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1683" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1683" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1683" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1683" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1684" s="39" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B1684" s="22">
+        <v>40.812446000000001</v>
+      </c>
+      <c r="C1684" s="22">
+        <v>-74.037208000000007</v>
+      </c>
+      <c r="D1684" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1684" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1684" s="41" t="s">
+        <v>3524</v>
+      </c>
+      <c r="G1684" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1684" s="39" t="s">
+        <v>3525</v>
+      </c>
+      <c r="I1684" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1684" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1684" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1684" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1684" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1684" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1685" s="39" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B1685" s="22">
+        <v>40.889007999999997</v>
+      </c>
+      <c r="C1685" s="22">
+        <v>-73.940613999999997</v>
+      </c>
+      <c r="D1685" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1685" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1685" s="41" t="s">
+        <v>3527</v>
+      </c>
+      <c r="G1685" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1685" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1685" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1685" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1685" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1685" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1685" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1685" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1686" s="40" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B1686" s="22">
+        <v>41.588399000000003</v>
+      </c>
+      <c r="C1686" s="22">
+        <v>-70.643327999999997</v>
+      </c>
+      <c r="D1686" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1686" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1686" s="42" t="s">
+        <v>3529</v>
+      </c>
+      <c r="G1686" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1686" s="38" t="s">
+        <v>2587</v>
+      </c>
+      <c r="I1686" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1686" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1686" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1686" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1686" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1686" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1687" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1687" s="39"/>
+      <c r="A1687" s="39" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B1687" s="22">
+        <v>-17.608816000000001</v>
+      </c>
+      <c r="C1687" s="22">
+        <v>43.957824000000002</v>
+      </c>
+      <c r="D1687" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1687" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1687" s="38" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G1687" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1687" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1687" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1687" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1687" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1687" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1687" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1687" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1688" s="40" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B1688" s="22">
+        <v>37.165308000000003</v>
+      </c>
+      <c r="C1688" s="22">
+        <v>119.23543100000001</v>
+      </c>
+      <c r="D1688" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1688" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1688" s="41" t="s">
+        <v>3532</v>
+      </c>
+      <c r="G1688" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1688" s="38" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I1688" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1688" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1688" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1688" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1688" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1688" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1689" s="39"/>
+    </row>
+    <row r="1691" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1691" s="39"/>
+    </row>
+    <row r="1692" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1692" s="39"/>
+    </row>
+    <row r="1693" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1693" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1682" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N1688" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:N1409">
       <sortCondition ref="C1:C1234"/>
     </sortState>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628990BF-1D06-4714-9A16-D0D421A8A17E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269C6D2-31BF-4225-B5EA-63DC0E8A1C5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5652" yWindow="336" windowWidth="23160" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31236" yWindow="0" windowWidth="20472" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1879</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1881</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20868" uniqueCount="3946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20912" uniqueCount="3954">
   <si>
     <t>Latitude</t>
   </si>
@@ -11872,6 +11872,30 @@
   </si>
   <si>
     <t>Klong Ngao, Phang Nga, Thailand</t>
+  </si>
+  <si>
+    <t>North Falmouth, Falmouth, Barnstable County, Massachusetts, USA</t>
+  </si>
+  <si>
+    <t>North Falmouth</t>
+  </si>
+  <si>
+    <t>Wild Harbor, North Falmouth, Falmouth, Barnstable County, Massachusetts, USA</t>
+  </si>
+  <si>
+    <t>Wild Harbor</t>
+  </si>
+  <si>
+    <t>Sarasota, Sarasota County, Florida, USA</t>
+  </si>
+  <si>
+    <t>Sarasota</t>
+  </si>
+  <si>
+    <t>Eastpoint</t>
+  </si>
+  <si>
+    <t>Eastpoint, Franklin County, Florida, USA</t>
   </si>
 </sst>
 </file>
@@ -12329,8 +12353,8 @@
   <dimension ref="A1:O23577"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1839" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1859" sqref="H1859"/>
+      <pane ySplit="1" topLeftCell="A1303" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1321" sqref="A1321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -95196,11 +95220,181 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1880" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1880" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B1880" s="10">
+        <v>41.646666000000003</v>
+      </c>
+      <c r="C1880" s="10">
+        <v>-70.645465000000002</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1880" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1880" s="3" t="s">
+        <v>3947</v>
+      </c>
+      <c r="G1880" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1880" t="s">
+        <v>2561</v>
+      </c>
+      <c r="I1880" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1880" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1880" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1880" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1880" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1880" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1881" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B1881" s="10">
+        <v>41.638331000000001</v>
+      </c>
+      <c r="C1881" s="10">
+        <v>-70.646871000000004</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1881" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1881" s="3" t="s">
+        <v>3949</v>
+      </c>
+      <c r="G1881" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1881" t="s">
+        <v>3946</v>
+      </c>
+      <c r="I1881" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1881" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1881" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1881" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1881" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1881" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="1882" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1882" s="4"/>
+      <c r="A1882" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B1882" s="10">
+        <v>27.334793999999999</v>
+      </c>
+      <c r="C1882" s="10">
+        <v>-82.551835999999994</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1882" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1882" s="3" t="s">
+        <v>3951</v>
+      </c>
+      <c r="G1882" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1882" s="3" t="s">
+        <v>2750</v>
+      </c>
+      <c r="I1882" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1882" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1882" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1882" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1882" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1882" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1883" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1883" s="4"/>
+      <c r="A1883" s="4" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B1883" s="10">
+        <v>29.728752</v>
+      </c>
+      <c r="C1883" s="10">
+        <v>-84.896028000000001</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1883" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1883" s="3" t="s">
+        <v>3952</v>
+      </c>
+      <c r="G1883" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1883" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="I1883" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1883" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1883" s="13">
+        <v>31</v>
+      </c>
+      <c r="L1883" s="13">
+        <v>-79.5</v>
+      </c>
+      <c r="M1883" s="13">
+        <v>23.9</v>
+      </c>
+      <c r="N1883" s="13">
+        <v>-88</v>
+      </c>
     </row>
     <row r="1885" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1885" s="4"/>
@@ -95220,7 +95414,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1879" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N1881" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N1870">
       <sortCondition sortBy="cellColor" ref="A1:A1870" dxfId="0"/>
     </sortState>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269C6D2-31BF-4225-B5EA-63DC0E8A1C5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E15FFD2-5490-42A0-9376-87CDF55D9657}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31236" yWindow="0" windowWidth="20472" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31056" yWindow="180" windowWidth="26412" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1881</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1889</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20912" uniqueCount="3954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20984" uniqueCount="3966">
   <si>
     <t>Latitude</t>
   </si>
@@ -11896,6 +11896,42 @@
   </si>
   <si>
     <t>Eastpoint, Franklin County, Florida, USA</t>
+  </si>
+  <si>
+    <t>Mahakam River Delta, East Kalimantan, Borneo, Indonesia</t>
+  </si>
+  <si>
+    <t>Mahkam River Delta</t>
+  </si>
+  <si>
+    <t>Bayor, Mahakam River Delta, East Kalimantan, Borneo, Indonesia</t>
+  </si>
+  <si>
+    <t>Bayor</t>
+  </si>
+  <si>
+    <t>Ilu, Mahakam River Delta, East Kalimantan, Borneo, Indonesia</t>
+  </si>
+  <si>
+    <t>Beji, Mahakam River Delta, East Kalimantan, Borneo, Indonesia</t>
+  </si>
+  <si>
+    <t>Ilu</t>
+  </si>
+  <si>
+    <t>Beji</t>
+  </si>
+  <si>
+    <t>Kaeli, Mahakam River Delta, East Kalimantan, Borneo, Indonesia</t>
+  </si>
+  <si>
+    <t>Kaeli</t>
+  </si>
+  <si>
+    <t>Cajigal, Sucre, Venezuela</t>
+  </si>
+  <si>
+    <t>Cajigal</t>
   </si>
 </sst>
 </file>
@@ -12353,8 +12389,8 @@
   <dimension ref="A1:O23577"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1321" sqref="A1321"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1889" sqref="A1889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -95396,17 +95432,269 @@
         <v>-88</v>
       </c>
     </row>
+    <row r="1884" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1884" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1884" s="10">
+        <v>-0.58662899999999996</v>
+      </c>
+      <c r="C1884" s="10">
+        <v>117.28622</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1884" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1884" s="3" t="s">
+        <v>3955</v>
+      </c>
+      <c r="G1884" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1884" t="s">
+        <v>2445</v>
+      </c>
+      <c r="I1884" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1884" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1884" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1884" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1884" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1884" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="1885" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1885" s="4"/>
+      <c r="A1885" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1885" s="10">
+        <v>-0.70904699999999998</v>
+      </c>
+      <c r="C1885" s="10">
+        <v>117.514206</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1885" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1885" s="3" t="s">
+        <v>3957</v>
+      </c>
+      <c r="G1885" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1885" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I1885" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1885" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1885" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1885" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1885" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1885" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1886" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1886" s="4"/>
+      <c r="A1886" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B1886" s="10">
+        <v>-0.41949399999999998</v>
+      </c>
+      <c r="C1886" s="10">
+        <v>117.544653</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1886" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1886" s="3" t="s">
+        <v>3960</v>
+      </c>
+      <c r="G1886" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1886" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I1886" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1886" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1886" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1886" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1886" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1886" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1887" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1887" s="4"/>
+      <c r="A1887" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B1887" s="10">
+        <v>-0.49251499999999998</v>
+      </c>
+      <c r="C1887" s="10">
+        <v>117.56899</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1887" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1887" s="3" t="s">
+        <v>3963</v>
+      </c>
+      <c r="G1887" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1887" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I1887" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1887" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1887" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1887" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1887" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1887" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1888" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1888" s="4"/>
+      <c r="A1888" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B1888" s="10">
+        <v>-0.81097799999999998</v>
+      </c>
+      <c r="C1888" s="10">
+        <v>117.4914</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1888" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1888" s="3" t="s">
+        <v>3961</v>
+      </c>
+      <c r="G1888" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1888" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I1888" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1888" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1888" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1888" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1888" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1888" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1889" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1889" s="10">
+        <v>10.549402000000001</v>
+      </c>
+      <c r="C1889" s="10">
+        <v>-62.804592</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1889" s="3" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G1889" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1889" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I1889" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1889" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1889" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1889" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1889" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1889" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23577" t="s">
@@ -95414,7 +95702,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1881" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N1889" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N1870">
       <sortCondition sortBy="cellColor" ref="A1:A1870" dxfId="0"/>
     </sortState>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E15FFD2-5490-42A0-9376-87CDF55D9657}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0390BBD-8A9B-40BC-AB56-4A2E33AFDC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31056" yWindow="180" windowWidth="26412" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="624" windowWidth="16548" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -12389,8 +12389,8 @@
   <dimension ref="A1:O23577"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1889" sqref="A1889"/>
+      <pane ySplit="1" topLeftCell="A1717" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1736" sqref="C1736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -88924,8 +88924,8 @@
         <v>-5.4975000000000005</v>
       </c>
       <c r="C1736" s="10">
-        <f>125+45/60+21/3600</f>
-        <v>125.75583333333333</v>
+        <f>123.759761</f>
+        <v>123.759761</v>
       </c>
       <c r="D1736" t="s">
         <v>6</v>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8258717D-920D-47C7-9FDA-C569797B0C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89609F67-8C4F-4F00-8906-94316DCC2966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7344" yWindow="72" windowWidth="23160" windowHeight="16572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="708" windowWidth="18288" windowHeight="16572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1888</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1906</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20972" uniqueCount="3965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21188" uniqueCount="4004">
   <si>
     <t>Latitude</t>
   </si>
@@ -11223,21 +11223,12 @@
     <t>Banc d'Arguin</t>
   </si>
   <si>
-    <t>Al-Gharqana, Nabq, South Sinai Governorate, Egypt</t>
-  </si>
-  <si>
     <t>Al-Gharqana</t>
   </si>
   <si>
-    <t>Al-Rewaissia, Nabq, South Sinai Governorate, Egypt</t>
-  </si>
-  <si>
     <t>Al-Rewaissia</t>
   </si>
   <si>
-    <t>Located near Nabq</t>
-  </si>
-  <si>
     <t>Safaga</t>
   </si>
   <si>
@@ -11929,6 +11920,132 @@
   </si>
   <si>
     <t>Cajigal</t>
+  </si>
+  <si>
+    <t>Muskeget Island</t>
+  </si>
+  <si>
+    <t>Nantucket County</t>
+  </si>
+  <si>
+    <t>Nantucket County, Massachusetts, USA</t>
+  </si>
+  <si>
+    <t>Muskeget Island, Nantucket County, Massachusetts, USA</t>
+  </si>
+  <si>
+    <t>Lampung Bay, Lampung, Sumatra, Indonesia</t>
+  </si>
+  <si>
+    <t>Lampung Bay</t>
+  </si>
+  <si>
+    <t>Muntun, Lampung, Sumatra, Indonesia</t>
+  </si>
+  <si>
+    <t>Muntun</t>
+  </si>
+  <si>
+    <t>Suamalu, Lampung, Sumatra, Indonesia</t>
+  </si>
+  <si>
+    <t>Suamalu</t>
+  </si>
+  <si>
+    <t>Liang Island, Sumbawa, West Nusa Tenggara, Indonesia</t>
+  </si>
+  <si>
+    <t>Liang Island</t>
+  </si>
+  <si>
+    <t>Kai Islands, Maluku Province, Maluku Islands, Indonesia</t>
+  </si>
+  <si>
+    <t>Kai Islands</t>
+  </si>
+  <si>
+    <t>Kolseer</t>
+  </si>
+  <si>
+    <t>Kolseer, Kai Islands, Maluku Province, Maluku Islands, Indonesia</t>
+  </si>
+  <si>
+    <t>Seram Island, Maluku Province, Maluku Islands, Indonesia</t>
+  </si>
+  <si>
+    <t>Seram Island</t>
+  </si>
+  <si>
+    <t>Piru Bay, Seram Island, Maluku Province, Maluku Islands, Indonesia</t>
+  </si>
+  <si>
+    <t>Piru Bay</t>
+  </si>
+  <si>
+    <t>Cilacap</t>
+  </si>
+  <si>
+    <t>Parigi</t>
+  </si>
+  <si>
+    <t>Parigi, West Java, Java, Indonesia</t>
+  </si>
+  <si>
+    <t>Cilacap, West Java, Java, Indonesia</t>
+  </si>
+  <si>
+    <t>Kepulauan Seribu, Jakarta, Java, Indonesia</t>
+  </si>
+  <si>
+    <t>Kepulauan Seribu</t>
+  </si>
+  <si>
+    <t>Thousand Islands</t>
+  </si>
+  <si>
+    <t>Haruku Island, Maluku Province, Maluku Islands, Indonesia</t>
+  </si>
+  <si>
+    <t>Haruku Island</t>
+  </si>
+  <si>
+    <t>Trenggalek, East Java, Java, Indonesia</t>
+  </si>
+  <si>
+    <t>Trenggalek</t>
+  </si>
+  <si>
+    <t>Location from El Serehy</t>
+  </si>
+  <si>
+    <t>Al-Gharqana, South Sinai Governorate, Egypt</t>
+  </si>
+  <si>
+    <t>Al-Rewaissia, South Sinai Governorate, Egypt</t>
+  </si>
+  <si>
+    <t>Shura El Ruwaysia</t>
+  </si>
+  <si>
+    <t>Shura El Gharqana</t>
+  </si>
+  <si>
+    <t>Zira, Banc d'Arguin, Mauritania</t>
+  </si>
+  <si>
+    <t>Zira</t>
+  </si>
+  <si>
+    <t>Agheneiver</t>
+  </si>
+  <si>
+    <t>Agheneiver, Banc d'Arguin, Mauritania</t>
+  </si>
+  <si>
+    <t>Salina San Carlos</t>
+  </si>
+  <si>
+    <t>Salina San Carlos, Cádiz, Andalusia, Spain</t>
   </si>
 </sst>
 </file>
@@ -12040,15 +12157,7 @@
     <cellStyle name="Neutral 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -12393,9 +12502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1241" sqref="C1241"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1871" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1871" sqref="D1871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26885,7 +26994,7 @@
         <v>6</v>
       </c>
       <c r="E329" t="s">
-        <v>6</v>
+        <v>3993</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>1393</v>
@@ -27008,16 +27117,16 @@
         <v>2293</v>
       </c>
       <c r="B332" s="10">
-        <v>28.165970999999999</v>
+        <v>28.141604000000001</v>
       </c>
       <c r="C332" s="10">
-        <v>34.448242999999998</v>
+        <v>34.440826000000001</v>
       </c>
       <c r="D332" t="s">
         <v>6</v>
       </c>
       <c r="E332" t="s">
-        <v>6</v>
+        <v>3993</v>
       </c>
       <c r="F332" s="3" t="s">
         <v>1392</v>
@@ -37189,7 +37298,7 @@
     </row>
     <row r="563" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="B563" s="10">
         <v>27.183333333333334</v>
@@ -37233,7 +37342,7 @@
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A564" s="4" t="s">
-        <v>3744</v>
+        <v>3741</v>
       </c>
       <c r="B564" s="10">
         <f>25+48/60+54/3600</f>
@@ -37279,7 +37388,7 @@
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
-        <v>3743</v>
+        <v>3740</v>
       </c>
       <c r="B565" s="10">
         <v>26.802807000000001</v>
@@ -39948,7 +40057,7 @@
         <v>198</v>
       </c>
       <c r="F625" s="3" t="s">
-        <v>3887</v>
+        <v>3884</v>
       </c>
       <c r="G625" s="3" t="s">
         <v>6</v>
@@ -44313,7 +44422,7 @@
     </row>
     <row r="724" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>3889</v>
+        <v>3886</v>
       </c>
       <c r="B724" s="10">
         <v>6.916666666666667</v>
@@ -90876,95 +90985,95 @@
     </row>
     <row r="1780" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1780" s="4" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B1780" s="10">
+        <v>28.105308000000001</v>
+      </c>
+      <c r="C1780" s="10">
+        <v>34.437908999999998</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>3993</v>
+      </c>
+      <c r="F1780" s="4" t="s">
         <v>3729</v>
       </c>
-      <c r="B1780" s="10">
-        <v>28.120000999999998</v>
-      </c>
-      <c r="C1780" s="10">
-        <v>34.442537999999999</v>
-      </c>
-      <c r="D1780" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1780" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1780" s="4" t="s">
-        <v>3730</v>
-      </c>
       <c r="G1780" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1780" s="4" t="s">
-        <v>2291</v>
-      </c>
-      <c r="I1780" s="3" t="s">
-        <v>6</v>
+        <v>3997</v>
+      </c>
+      <c r="H1780" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I1780" t="s">
+        <v>545</v>
       </c>
       <c r="J1780" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1780" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1780" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1780" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1780" s="3" t="s">
+      <c r="K1780" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1780" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1780" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1780" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="1781" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1781" s="4" t="s">
-        <v>3731</v>
+        <v>3995</v>
       </c>
       <c r="B1781" s="10">
-        <v>28.041312000000001</v>
+        <v>28.178459</v>
       </c>
       <c r="C1781" s="10">
-        <v>34.436759000000002</v>
+        <v>34.447631000000001</v>
       </c>
       <c r="D1781" t="s">
-        <v>3733</v>
+        <v>6</v>
       </c>
       <c r="E1781" t="s">
-        <v>6</v>
+        <v>3993</v>
       </c>
       <c r="F1781" s="4" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="G1781" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1781" s="4" t="s">
-        <v>2291</v>
-      </c>
-      <c r="I1781" s="3" t="s">
-        <v>6</v>
+        <v>3996</v>
+      </c>
+      <c r="H1781" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I1781" t="s">
+        <v>545</v>
       </c>
       <c r="J1781" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1781" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1781" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1781" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1781" s="3" t="s">
+      <c r="K1781" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1781" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1781" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1781" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="1782" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1782" t="s">
-        <v>3739</v>
+        <v>3736</v>
       </c>
       <c r="B1782" s="10">
         <v>26.62527</v>
@@ -90973,13 +91082,13 @@
         <v>33.997200999999997</v>
       </c>
       <c r="D1782" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="E1782" t="s">
         <v>6</v>
       </c>
       <c r="F1782" s="3" t="s">
-        <v>3734</v>
+        <v>3731</v>
       </c>
       <c r="G1782" s="3" t="s">
         <v>6</v>
@@ -91008,7 +91117,7 @@
     </row>
     <row r="1783" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1783" t="s">
-        <v>3737</v>
+        <v>3734</v>
       </c>
       <c r="B1783" s="10">
         <v>26.398467</v>
@@ -91017,13 +91126,13 @@
         <v>34.117618</v>
       </c>
       <c r="D1783" t="s">
-        <v>3735</v>
+        <v>3732</v>
       </c>
       <c r="E1783" t="s">
         <v>6</v>
       </c>
       <c r="F1783" s="3" t="s">
-        <v>3736</v>
+        <v>3733</v>
       </c>
       <c r="G1783" s="3" t="s">
         <v>6</v>
@@ -91052,7 +91161,7 @@
     </row>
     <row r="1784" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1784" t="s">
-        <v>3740</v>
+        <v>3737</v>
       </c>
       <c r="B1784" s="10">
         <v>24.288315000000001</v>
@@ -91067,7 +91176,7 @@
         <v>6</v>
       </c>
       <c r="F1784" s="3" t="s">
-        <v>3741</v>
+        <v>3738</v>
       </c>
       <c r="G1784" s="3" t="s">
         <v>6</v>
@@ -91096,7 +91205,7 @@
     </row>
     <row r="1785" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1785" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
       <c r="B1785" s="10">
         <f>27 + 11/60</f>
@@ -91113,13 +91222,13 @@
         <v>1567</v>
       </c>
       <c r="F1785" s="3" t="s">
+        <v>3739</v>
+      </c>
+      <c r="G1785" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1785" t="s">
         <v>3742</v>
-      </c>
-      <c r="G1785" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1785" t="s">
-        <v>3745</v>
       </c>
       <c r="I1785" s="3" t="s">
         <v>6</v>
@@ -91142,7 +91251,7 @@
     </row>
     <row r="1786" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1786" t="s">
-        <v>3747</v>
+        <v>3744</v>
       </c>
       <c r="B1786" s="10">
         <f>26+19/60</f>
@@ -91159,7 +91268,7 @@
         <v>1567</v>
       </c>
       <c r="F1786" s="3" t="s">
-        <v>3748</v>
+        <v>3745</v>
       </c>
       <c r="G1786" s="3" t="s">
         <v>6</v>
@@ -91188,7 +91297,7 @@
     </row>
     <row r="1787" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1787" s="3" t="s">
-        <v>3749</v>
+        <v>3746</v>
       </c>
       <c r="B1787" s="10">
         <v>26.978231000000001</v>
@@ -91203,13 +91312,13 @@
         <v>6</v>
       </c>
       <c r="F1787" s="3" t="s">
-        <v>3750</v>
+        <v>3747</v>
       </c>
       <c r="G1787" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1787" s="3" t="s">
-        <v>3743</v>
+        <v>3740</v>
       </c>
       <c r="I1787" s="3" t="s">
         <v>6</v>
@@ -91232,7 +91341,7 @@
     </row>
     <row r="1788" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1788" t="s">
-        <v>3751</v>
+        <v>3748</v>
       </c>
       <c r="B1788" s="10">
         <v>26.940346000000002</v>
@@ -91247,7 +91356,7 @@
         <v>6</v>
       </c>
       <c r="F1788" s="3" t="s">
-        <v>3752</v>
+        <v>3749</v>
       </c>
       <c r="G1788" s="3" t="s">
         <v>6</v>
@@ -91276,7 +91385,7 @@
     </row>
     <row r="1789" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1789" t="s">
-        <v>3753</v>
+        <v>3750</v>
       </c>
       <c r="B1789" s="10">
         <v>26.603210000000001</v>
@@ -91291,7 +91400,7 @@
         <v>6</v>
       </c>
       <c r="F1789" s="3" t="s">
-        <v>3754</v>
+        <v>3751</v>
       </c>
       <c r="G1789" s="3" t="s">
         <v>6</v>
@@ -91320,7 +91429,7 @@
     </row>
     <row r="1790" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1790" t="s">
-        <v>3755</v>
+        <v>3752</v>
       </c>
       <c r="B1790" s="10">
         <v>27.056854999999999</v>
@@ -91335,7 +91444,7 @@
         <v>6</v>
       </c>
       <c r="F1790" s="3" t="s">
-        <v>3756</v>
+        <v>3753</v>
       </c>
       <c r="G1790" s="3" t="s">
         <v>6</v>
@@ -91364,7 +91473,7 @@
     </row>
     <row r="1791" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1791" t="s">
-        <v>3760</v>
+        <v>3757</v>
       </c>
       <c r="B1791" s="10">
         <v>27.113057000000001</v>
@@ -91379,7 +91488,7 @@
         <v>6</v>
       </c>
       <c r="F1791" s="3" t="s">
-        <v>3757</v>
+        <v>3754</v>
       </c>
       <c r="G1791" s="3" t="s">
         <v>6</v>
@@ -91408,7 +91517,7 @@
     </row>
     <row r="1792" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1792" t="s">
-        <v>3758</v>
+        <v>3755</v>
       </c>
       <c r="B1792" s="10">
         <v>26.974069</v>
@@ -91423,7 +91532,7 @@
         <v>6</v>
       </c>
       <c r="F1792" s="3" t="s">
-        <v>3759</v>
+        <v>3756</v>
       </c>
       <c r="G1792" s="3" t="s">
         <v>6</v>
@@ -91452,7 +91561,7 @@
     </row>
     <row r="1793" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1793" t="s">
-        <v>3761</v>
+        <v>3758</v>
       </c>
       <c r="B1793" s="10">
         <v>26.786686</v>
@@ -91467,7 +91576,7 @@
         <v>6</v>
       </c>
       <c r="F1793" s="3" t="s">
-        <v>3762</v>
+        <v>3759</v>
       </c>
       <c r="G1793" s="3" t="s">
         <v>6</v>
@@ -91496,7 +91605,7 @@
     </row>
     <row r="1794" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1794" s="3" t="s">
-        <v>3765</v>
+        <v>3762</v>
       </c>
       <c r="B1794" s="10">
         <v>26.732489999999999</v>
@@ -91511,13 +91620,13 @@
         <v>6</v>
       </c>
       <c r="F1794" s="3" t="s">
-        <v>3763</v>
+        <v>3760</v>
       </c>
       <c r="G1794" s="3" t="s">
-        <v>3764</v>
+        <v>3761</v>
       </c>
       <c r="H1794" s="3" t="s">
-        <v>3743</v>
+        <v>3740</v>
       </c>
       <c r="I1794" s="3" t="s">
         <v>6</v>
@@ -91540,7 +91649,7 @@
     </row>
     <row r="1795" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1795" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="B1795" s="10">
         <v>26.713488999999999</v>
@@ -91555,13 +91664,13 @@
         <v>6</v>
       </c>
       <c r="F1795" s="3" t="s">
-        <v>3767</v>
+        <v>3764</v>
       </c>
       <c r="G1795" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1795" s="3" t="s">
-        <v>3743</v>
+        <v>3740</v>
       </c>
       <c r="I1795" s="3" t="s">
         <v>6</v>
@@ -91584,7 +91693,7 @@
     </row>
     <row r="1796" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1796" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="B1796" s="10">
         <v>28.515899999999998</v>
@@ -91599,7 +91708,7 @@
         <v>6</v>
       </c>
       <c r="F1796" s="3" t="s">
-        <v>3770</v>
+        <v>3767</v>
       </c>
       <c r="G1796" s="3" t="s">
         <v>6</v>
@@ -91628,7 +91737,7 @@
     </row>
     <row r="1797" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1797" t="s">
-        <v>3769</v>
+        <v>3766</v>
       </c>
       <c r="B1797" s="10">
         <v>30.424486000000002</v>
@@ -91643,7 +91752,7 @@
         <v>6</v>
       </c>
       <c r="F1797" t="s">
-        <v>3771</v>
+        <v>3768</v>
       </c>
       <c r="G1797" s="3" t="s">
         <v>6</v>
@@ -91672,7 +91781,7 @@
     </row>
     <row r="1798" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1798" t="s">
-        <v>3772</v>
+        <v>3769</v>
       </c>
       <c r="B1798" s="10">
         <v>30.459457</v>
@@ -91687,13 +91796,13 @@
         <v>6</v>
       </c>
       <c r="F1798" t="s">
-        <v>3773</v>
+        <v>3770</v>
       </c>
       <c r="G1798" s="3" t="s">
-        <v>3774</v>
+        <v>3771</v>
       </c>
       <c r="H1798" t="s">
-        <v>3769</v>
+        <v>3766</v>
       </c>
       <c r="I1798" s="3" t="s">
         <v>6</v>
@@ -91716,7 +91825,7 @@
     </row>
     <row r="1799" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1799" t="s">
-        <v>3776</v>
+        <v>3773</v>
       </c>
       <c r="B1799" s="10">
         <v>30.507823999999999</v>
@@ -91725,19 +91834,19 @@
         <v>49.206209000000001</v>
       </c>
       <c r="D1799" t="s">
-        <v>3777</v>
+        <v>3774</v>
       </c>
       <c r="E1799" t="s">
         <v>6</v>
       </c>
       <c r="F1799" t="s">
-        <v>3775</v>
+        <v>3772</v>
       </c>
       <c r="G1799" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1799" t="s">
-        <v>3769</v>
+        <v>3766</v>
       </c>
       <c r="I1799" s="3" t="s">
         <v>6</v>
@@ -91760,7 +91869,7 @@
     </row>
     <row r="1800" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1800" t="s">
-        <v>3778</v>
+        <v>3775</v>
       </c>
       <c r="B1800" s="10">
         <v>29.935987999999998</v>
@@ -91769,19 +91878,19 @@
         <v>48.608375000000002</v>
       </c>
       <c r="D1800" t="s">
-        <v>3780</v>
+        <v>3777</v>
       </c>
       <c r="E1800" t="s">
         <v>6</v>
       </c>
       <c r="F1800" t="s">
-        <v>3779</v>
+        <v>3776</v>
       </c>
       <c r="G1800" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1800" t="s">
-        <v>3769</v>
+        <v>3766</v>
       </c>
       <c r="I1800" s="3" t="s">
         <v>6</v>
@@ -91804,7 +91913,7 @@
     </row>
     <row r="1801" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1801" t="s">
-        <v>3782</v>
+        <v>3779</v>
       </c>
       <c r="B1801" s="10">
         <v>28.750177999999998</v>
@@ -91819,13 +91928,13 @@
         <v>6</v>
       </c>
       <c r="F1801" s="3" t="s">
-        <v>3781</v>
+        <v>3778</v>
       </c>
       <c r="G1801" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1801" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1801" s="3" t="s">
         <v>6</v>
@@ -91848,7 +91957,7 @@
     </row>
     <row r="1802" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1802" t="s">
-        <v>3783</v>
+        <v>3780</v>
       </c>
       <c r="B1802" s="10">
         <v>28.015481999999999</v>
@@ -91863,13 +91972,13 @@
         <v>6</v>
       </c>
       <c r="F1802" s="3" t="s">
-        <v>3784</v>
+        <v>3781</v>
       </c>
       <c r="G1802" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1802" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1802" s="3" t="s">
         <v>6</v>
@@ -91892,7 +92001,7 @@
     </row>
     <row r="1803" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1803" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B1803" s="10">
         <v>29.486322999999999</v>
@@ -91907,13 +92016,13 @@
         <v>6</v>
       </c>
       <c r="F1803" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="G1803" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1803" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1803" s="3" t="s">
         <v>6</v>
@@ -91936,7 +92045,7 @@
     </row>
     <row r="1804" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1804" t="s">
-        <v>3788</v>
+        <v>3785</v>
       </c>
       <c r="B1804" s="10">
         <v>27.830199</v>
@@ -91951,13 +92060,13 @@
         <v>6</v>
       </c>
       <c r="F1804" s="3" t="s">
-        <v>3787</v>
+        <v>3784</v>
       </c>
       <c r="G1804" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1804" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1804" s="3" t="s">
         <v>6</v>
@@ -91980,7 +92089,7 @@
     </row>
     <row r="1805" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1805" t="s">
-        <v>3789</v>
+        <v>3786</v>
       </c>
       <c r="B1805" s="10">
         <v>27.842139</v>
@@ -91995,13 +92104,13 @@
         <v>6</v>
       </c>
       <c r="F1805" s="3" t="s">
-        <v>3790</v>
+        <v>3787</v>
       </c>
       <c r="G1805" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1805" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1805" s="3" t="s">
         <v>6</v>
@@ -92024,7 +92133,7 @@
     </row>
     <row r="1806" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1806" s="16" t="s">
-        <v>3792</v>
+        <v>3789</v>
       </c>
       <c r="B1806" s="10">
         <v>30.175961000000001</v>
@@ -92039,13 +92148,13 @@
         <v>6</v>
       </c>
       <c r="F1806" s="16" t="s">
-        <v>3791</v>
+        <v>3788</v>
       </c>
       <c r="G1806" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1806" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1806" s="3" t="s">
         <v>6</v>
@@ -92068,7 +92177,7 @@
     </row>
     <row r="1807" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1807" s="16" t="s">
-        <v>3793</v>
+        <v>3790</v>
       </c>
       <c r="B1807" s="10">
         <v>29.196332999999999</v>
@@ -92083,13 +92192,13 @@
         <v>6</v>
       </c>
       <c r="F1807" s="16" t="s">
-        <v>3794</v>
+        <v>3791</v>
       </c>
       <c r="G1807" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1807" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1807" s="3" t="s">
         <v>6</v>
@@ -92112,7 +92221,7 @@
     </row>
     <row r="1808" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1808" s="16" t="s">
-        <v>3795</v>
+        <v>3792</v>
       </c>
       <c r="B1808" s="10">
         <v>29.691655999999998</v>
@@ -92127,13 +92236,13 @@
         <v>6</v>
       </c>
       <c r="F1808" s="16" t="s">
-        <v>3796</v>
+        <v>3793</v>
       </c>
       <c r="G1808" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1808" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1808" s="3" t="s">
         <v>6</v>
@@ -92156,7 +92265,7 @@
     </row>
     <row r="1809" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1809" s="16" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="B1809" s="10">
         <v>27.428108000000002</v>
@@ -92171,13 +92280,13 @@
         <v>6</v>
       </c>
       <c r="F1809" s="16" t="s">
-        <v>3798</v>
+        <v>3795</v>
       </c>
       <c r="G1809" s="3" t="s">
-        <v>3799</v>
+        <v>3796</v>
       </c>
       <c r="H1809" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1809" s="3" t="s">
         <v>6</v>
@@ -92200,7 +92309,7 @@
     </row>
     <row r="1810" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1810" s="16" t="s">
-        <v>3800</v>
+        <v>3797</v>
       </c>
       <c r="B1810" s="10">
         <v>29.939945999999999</v>
@@ -92215,13 +92324,13 @@
         <v>6</v>
       </c>
       <c r="F1810" s="16" t="s">
-        <v>3802</v>
+        <v>3799</v>
       </c>
       <c r="G1810" s="3" t="s">
-        <v>3801</v>
+        <v>3798</v>
       </c>
       <c r="H1810" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1810" s="3" t="s">
         <v>6</v>
@@ -92244,7 +92353,7 @@
     </row>
     <row r="1811" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1811" s="16" t="s">
-        <v>3803</v>
+        <v>3800</v>
       </c>
       <c r="B1811" s="10">
         <v>29.873377000000001</v>
@@ -92259,13 +92368,13 @@
         <v>6</v>
       </c>
       <c r="F1811" s="16" t="s">
-        <v>3804</v>
+        <v>3801</v>
       </c>
       <c r="G1811" s="3" t="s">
-        <v>3805</v>
+        <v>3802</v>
       </c>
       <c r="H1811" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="I1811" s="3" t="s">
         <v>6</v>
@@ -92288,7 +92397,7 @@
     </row>
     <row r="1812" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1812" t="s">
-        <v>3806</v>
+        <v>3803</v>
       </c>
       <c r="B1812" s="10">
         <f>27+1/60+50.5/3600</f>
@@ -92302,13 +92411,13 @@
         <v>1567</v>
       </c>
       <c r="F1812" t="s">
-        <v>3807</v>
+        <v>3804</v>
       </c>
       <c r="G1812" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1812" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="I1812" s="3" t="s">
         <v>6</v>
@@ -92331,7 +92440,7 @@
     </row>
     <row r="1813" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1813" s="4" t="s">
-        <v>3812</v>
+        <v>3809</v>
       </c>
       <c r="B1813" s="10">
         <v>21.699987</v>
@@ -92346,7 +92455,7 @@
         <v>6</v>
       </c>
       <c r="F1813" s="3" t="s">
-        <v>3811</v>
+        <v>3808</v>
       </c>
       <c r="G1813" s="3" t="s">
         <v>6</v>
@@ -92375,7 +92484,7 @@
     </row>
     <row r="1814" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1814" t="s">
-        <v>3808</v>
+        <v>3805</v>
       </c>
       <c r="B1814" s="10">
         <v>22.579585999999999</v>
@@ -92390,10 +92499,10 @@
         <v>6</v>
       </c>
       <c r="F1814" s="3" t="s">
-        <v>3810</v>
+        <v>3807</v>
       </c>
       <c r="G1814" s="3" t="s">
-        <v>3809</v>
+        <v>3806</v>
       </c>
       <c r="H1814" s="3" t="s">
         <v>182</v>
@@ -92419,7 +92528,7 @@
     </row>
     <row r="1815" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1815" t="s">
-        <v>3814</v>
+        <v>3811</v>
       </c>
       <c r="B1815" s="10">
         <v>-13.284136999999999</v>
@@ -92434,7 +92543,7 @@
         <v>6</v>
       </c>
       <c r="F1815" t="s">
-        <v>3813</v>
+        <v>3810</v>
       </c>
       <c r="G1815" s="3" t="s">
         <v>6</v>
@@ -92463,7 +92572,7 @@
     </row>
     <row r="1816" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1816" s="4" t="s">
-        <v>3815</v>
+        <v>3812</v>
       </c>
       <c r="B1816" s="10">
         <v>17.636119000000001</v>
@@ -92478,7 +92587,7 @@
         <v>6</v>
       </c>
       <c r="F1816" s="4" t="s">
-        <v>3816</v>
+        <v>3813</v>
       </c>
       <c r="G1816" s="3" t="s">
         <v>6</v>
@@ -92507,7 +92616,7 @@
     </row>
     <row r="1817" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1817" t="s">
-        <v>3817</v>
+        <v>3814</v>
       </c>
       <c r="B1817" s="10">
         <v>9.9343620000000001</v>
@@ -92522,7 +92631,7 @@
         <v>6</v>
       </c>
       <c r="F1817" s="3" t="s">
-        <v>3818</v>
+        <v>3815</v>
       </c>
       <c r="G1817" s="3" t="s">
         <v>6</v>
@@ -92551,7 +92660,7 @@
     </row>
     <row r="1818" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1818" t="s">
-        <v>3819</v>
+        <v>3816</v>
       </c>
       <c r="B1818" s="10">
         <v>3.093051</v>
@@ -92566,7 +92675,7 @@
         <v>6</v>
       </c>
       <c r="F1818" s="3" t="s">
-        <v>3820</v>
+        <v>3817</v>
       </c>
       <c r="G1818" s="3" t="s">
         <v>6</v>
@@ -92595,7 +92704,7 @@
     </row>
     <row r="1819" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1819" t="s">
-        <v>3821</v>
+        <v>3818</v>
       </c>
       <c r="B1819" s="10">
         <v>3.076711</v>
@@ -92610,13 +92719,13 @@
         <v>6</v>
       </c>
       <c r="F1819" t="s">
-        <v>3822</v>
+        <v>3819</v>
       </c>
       <c r="G1819" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1819" t="s">
-        <v>3819</v>
+        <v>3816</v>
       </c>
       <c r="I1819" t="s">
         <v>6</v>
@@ -92639,7 +92748,7 @@
     </row>
     <row r="1820" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1820" s="16" t="s">
-        <v>3823</v>
+        <v>3820</v>
       </c>
       <c r="B1820" s="10">
         <v>-16.830210999999998</v>
@@ -92654,7 +92763,7 @@
         <v>6</v>
       </c>
       <c r="F1820" s="3" t="s">
-        <v>3824</v>
+        <v>3821</v>
       </c>
       <c r="G1820" s="3" t="s">
         <v>6</v>
@@ -92683,7 +92792,7 @@
     </row>
     <row r="1821" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1821" s="4" t="s">
-        <v>3825</v>
+        <v>3822</v>
       </c>
       <c r="B1821" s="10">
         <v>-8.6813590000000005</v>
@@ -92698,7 +92807,7 @@
         <v>6</v>
       </c>
       <c r="F1821" s="3" t="s">
-        <v>3826</v>
+        <v>3823</v>
       </c>
       <c r="G1821" s="3" t="s">
         <v>6</v>
@@ -92727,7 +92836,7 @@
     </row>
     <row r="1822" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1822" s="4" t="s">
-        <v>3827</v>
+        <v>3824</v>
       </c>
       <c r="B1822" s="10">
         <v>-8.7222489999999997</v>
@@ -92742,13 +92851,13 @@
         <v>6</v>
       </c>
       <c r="F1822" s="3" t="s">
-        <v>3888</v>
+        <v>3885</v>
       </c>
       <c r="G1822" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1822" s="4" t="s">
-        <v>3825</v>
+        <v>3822</v>
       </c>
       <c r="I1822" t="s">
         <v>6</v>
@@ -92771,7 +92880,7 @@
     </row>
     <row r="1823" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1823" t="s">
-        <v>3829</v>
+        <v>3826</v>
       </c>
       <c r="B1823" s="10">
         <v>-0.59271200000000002</v>
@@ -92786,7 +92895,7 @@
         <v>6</v>
       </c>
       <c r="F1823" s="3" t="s">
-        <v>3828</v>
+        <v>3825</v>
       </c>
       <c r="G1823" s="3" t="s">
         <v>6</v>
@@ -92815,7 +92924,7 @@
     </row>
     <row r="1824" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1824" t="s">
-        <v>3830</v>
+        <v>3827</v>
       </c>
       <c r="B1824" s="10">
         <v>9.8198679999999996</v>
@@ -92830,7 +92939,7 @@
         <v>6</v>
       </c>
       <c r="F1824" t="s">
-        <v>3831</v>
+        <v>3828</v>
       </c>
       <c r="G1824" s="3" t="s">
         <v>6</v>
@@ -92859,7 +92968,7 @@
     </row>
     <row r="1825" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1825" s="4" t="s">
-        <v>3833</v>
+        <v>3830</v>
       </c>
       <c r="B1825" s="10">
         <v>23.298559000000001</v>
@@ -92874,7 +92983,7 @@
         <v>6</v>
       </c>
       <c r="F1825" s="3" t="s">
-        <v>3832</v>
+        <v>3829</v>
       </c>
       <c r="G1825" s="3" t="s">
         <v>6</v>
@@ -92903,7 +93012,7 @@
     </row>
     <row r="1826" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1826" t="s">
-        <v>3834</v>
+        <v>3831</v>
       </c>
       <c r="B1826" s="10">
         <v>16.930658999999999</v>
@@ -92918,7 +93027,7 @@
         <v>6</v>
       </c>
       <c r="F1826" s="3" t="s">
-        <v>3842</v>
+        <v>3839</v>
       </c>
       <c r="G1826" s="3" t="s">
         <v>6</v>
@@ -92947,7 +93056,7 @@
     </row>
     <row r="1827" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1827" t="s">
-        <v>3836</v>
+        <v>3833</v>
       </c>
       <c r="B1827" s="10">
         <v>16.983827999999999</v>
@@ -92962,13 +93071,13 @@
         <v>6</v>
       </c>
       <c r="F1827" s="3" t="s">
-        <v>3835</v>
+        <v>3832</v>
       </c>
       <c r="G1827" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1827" t="s">
-        <v>3834</v>
+        <v>3831</v>
       </c>
       <c r="I1827" s="3" t="s">
         <v>6</v>
@@ -92991,7 +93100,7 @@
     </row>
     <row r="1828" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1828" t="s">
-        <v>3837</v>
+        <v>3834</v>
       </c>
       <c r="B1828" s="10">
         <v>16.441682</v>
@@ -93006,13 +93115,13 @@
         <v>6</v>
       </c>
       <c r="F1828" s="3" t="s">
-        <v>3838</v>
+        <v>3835</v>
       </c>
       <c r="G1828" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1828" t="s">
-        <v>3834</v>
+        <v>3831</v>
       </c>
       <c r="I1828" s="3" t="s">
         <v>6</v>
@@ -93035,7 +93144,7 @@
     </row>
     <row r="1829" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1829" t="s">
-        <v>3839</v>
+        <v>3836</v>
       </c>
       <c r="B1829" s="10">
         <v>15.898812</v>
@@ -93050,7 +93159,7 @@
         <v>6</v>
       </c>
       <c r="F1829" s="3" t="s">
-        <v>3840</v>
+        <v>3837</v>
       </c>
       <c r="G1829" s="3" t="s">
         <v>6</v>
@@ -93079,7 +93188,7 @@
     </row>
     <row r="1830" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1830" t="s">
-        <v>3843</v>
+        <v>3840</v>
       </c>
       <c r="B1830" s="10">
         <v>14.581695</v>
@@ -93094,7 +93203,7 @@
         <v>6</v>
       </c>
       <c r="F1830" s="3" t="s">
-        <v>3841</v>
+        <v>3838</v>
       </c>
       <c r="G1830" s="3" t="s">
         <v>6</v>
@@ -93123,7 +93232,7 @@
     </row>
     <row r="1831" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1831" t="s">
-        <v>3844</v>
+        <v>3841</v>
       </c>
       <c r="B1831" s="10">
         <v>14.411833</v>
@@ -93138,13 +93247,13 @@
         <v>6</v>
       </c>
       <c r="F1831" t="s">
-        <v>3845</v>
+        <v>3842</v>
       </c>
       <c r="G1831" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1831" t="s">
-        <v>3843</v>
+        <v>3840</v>
       </c>
       <c r="I1831" s="3" t="s">
         <v>6</v>
@@ -93167,7 +93276,7 @@
     </row>
     <row r="1832" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1832" t="s">
-        <v>3846</v>
+        <v>3843</v>
       </c>
       <c r="B1832" s="10">
         <v>14.2667</v>
@@ -93182,13 +93291,13 @@
         <v>6</v>
       </c>
       <c r="F1832" t="s">
-        <v>3847</v>
+        <v>3844</v>
       </c>
       <c r="G1832" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1832" t="s">
-        <v>3843</v>
+        <v>3840</v>
       </c>
       <c r="I1832" s="3" t="s">
         <v>6</v>
@@ -93211,7 +93320,7 @@
     </row>
     <row r="1833" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1833" t="s">
-        <v>3848</v>
+        <v>3845</v>
       </c>
       <c r="B1833" s="10">
         <v>18.013256999999999</v>
@@ -93226,7 +93335,7 @@
         <v>6</v>
       </c>
       <c r="F1833" s="3" t="s">
-        <v>3849</v>
+        <v>3846</v>
       </c>
       <c r="G1833" s="3" t="s">
         <v>6</v>
@@ -93255,7 +93364,7 @@
     </row>
     <row r="1834" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1834" t="s">
-        <v>3851</v>
+        <v>3848</v>
       </c>
       <c r="B1834" s="10">
         <v>18.012131</v>
@@ -93270,13 +93379,13 @@
         <v>6</v>
       </c>
       <c r="F1834" s="3" t="s">
-        <v>3850</v>
+        <v>3847</v>
       </c>
       <c r="G1834" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1834" t="s">
-        <v>3848</v>
+        <v>3845</v>
       </c>
       <c r="I1834" s="3" t="s">
         <v>6</v>
@@ -93299,7 +93408,7 @@
     </row>
     <row r="1835" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1835" t="s">
-        <v>3852</v>
+        <v>3849</v>
       </c>
       <c r="B1835" s="10">
         <v>15.872059</v>
@@ -93308,13 +93417,13 @@
         <v>80.615423000000007</v>
       </c>
       <c r="D1835" t="s">
-        <v>3854</v>
+        <v>3851</v>
       </c>
       <c r="E1835" t="s">
         <v>6</v>
       </c>
       <c r="F1835" s="3" t="s">
-        <v>3853</v>
+        <v>3850</v>
       </c>
       <c r="G1835" s="3" t="s">
         <v>6</v>
@@ -93343,7 +93452,7 @@
     </row>
     <row r="1836" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1836" t="s">
-        <v>3855</v>
+        <v>3852</v>
       </c>
       <c r="B1836" s="10">
         <v>14.252371</v>
@@ -93358,7 +93467,7 @@
         <v>6</v>
       </c>
       <c r="F1836" s="3" t="s">
-        <v>3856</v>
+        <v>3853</v>
       </c>
       <c r="G1836" s="3" t="s">
         <v>6</v>
@@ -93387,7 +93496,7 @@
     </row>
     <row r="1837" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1837" t="s">
-        <v>3857</v>
+        <v>3854</v>
       </c>
       <c r="B1837" s="10">
         <v>15.525017999999999</v>
@@ -93402,10 +93511,10 @@
         <v>6</v>
       </c>
       <c r="F1837" s="3" t="s">
-        <v>3858</v>
+        <v>3855</v>
       </c>
       <c r="G1837" s="3" t="s">
-        <v>3859</v>
+        <v>3856</v>
       </c>
       <c r="H1837" t="s">
         <v>1612</v>
@@ -93431,7 +93540,7 @@
     </row>
     <row r="1838" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1838" t="s">
-        <v>3860</v>
+        <v>3857</v>
       </c>
       <c r="B1838" s="10">
         <v>14.989167</v>
@@ -93446,7 +93555,7 @@
         <v>6</v>
       </c>
       <c r="F1838" s="3" t="s">
-        <v>3861</v>
+        <v>3858</v>
       </c>
       <c r="G1838" s="3" t="s">
         <v>6</v>
@@ -93475,7 +93584,7 @@
     </row>
     <row r="1839" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1839" t="s">
-        <v>3862</v>
+        <v>3859</v>
       </c>
       <c r="B1839" s="10">
         <v>15.4092</v>
@@ -93490,7 +93599,7 @@
         <v>6</v>
       </c>
       <c r="F1839" s="3" t="s">
-        <v>3863</v>
+        <v>3860</v>
       </c>
       <c r="G1839" s="3" t="s">
         <v>6</v>
@@ -93519,7 +93628,7 @@
     </row>
     <row r="1840" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1840" t="s">
-        <v>3865</v>
+        <v>3862</v>
       </c>
       <c r="B1840" s="10">
         <v>15.414351</v>
@@ -93534,7 +93643,7 @@
         <v>6</v>
       </c>
       <c r="F1840" t="s">
-        <v>3864</v>
+        <v>3861</v>
       </c>
       <c r="G1840" s="3" t="s">
         <v>6</v>
@@ -93543,7 +93652,7 @@
         <v>1612</v>
       </c>
       <c r="I1840" t="s">
-        <v>3862</v>
+        <v>3859</v>
       </c>
       <c r="J1840" s="3" t="s">
         <v>6</v>
@@ -93563,7 +93672,7 @@
     </row>
     <row r="1841" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1841" t="s">
-        <v>3866</v>
+        <v>3863</v>
       </c>
       <c r="B1841" s="10">
         <v>15.36802</v>
@@ -93578,7 +93687,7 @@
         <v>6</v>
       </c>
       <c r="F1841" s="3" t="s">
-        <v>3867</v>
+        <v>3864</v>
       </c>
       <c r="G1841" s="3" t="s">
         <v>6</v>
@@ -93587,7 +93696,7 @@
         <v>1612</v>
       </c>
       <c r="I1841" t="s">
-        <v>3862</v>
+        <v>3859</v>
       </c>
       <c r="J1841" s="3" t="s">
         <v>6</v>
@@ -93607,7 +93716,7 @@
     </row>
     <row r="1842" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1842" t="s">
-        <v>3869</v>
+        <v>3866</v>
       </c>
       <c r="B1842" s="10">
         <v>15.539446</v>
@@ -93622,7 +93731,7 @@
         <v>6</v>
       </c>
       <c r="F1842" t="s">
-        <v>3868</v>
+        <v>3865</v>
       </c>
       <c r="G1842" s="3" t="s">
         <v>6</v>
@@ -93651,7 +93760,7 @@
     </row>
     <row r="1843" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1843" t="s">
-        <v>3871</v>
+        <v>3868</v>
       </c>
       <c r="B1843" s="10">
         <v>15.506379000000001</v>
@@ -93666,7 +93775,7 @@
         <v>6</v>
       </c>
       <c r="F1843" s="3" t="s">
-        <v>3870</v>
+        <v>3867</v>
       </c>
       <c r="G1843" s="3" t="s">
         <v>6</v>
@@ -93695,7 +93804,7 @@
     </row>
     <row r="1844" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1844" t="s">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="B1844" s="10">
         <v>13.068675000000001</v>
@@ -93710,7 +93819,7 @@
         <v>6</v>
       </c>
       <c r="F1844" s="3" t="s">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="G1844" s="3" t="s">
         <v>6</v>
@@ -93739,7 +93848,7 @@
     </row>
     <row r="1845" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1845" t="s">
-        <v>3874</v>
+        <v>3871</v>
       </c>
       <c r="B1845" s="10">
         <v>13.068892</v>
@@ -93754,13 +93863,13 @@
         <v>6</v>
       </c>
       <c r="F1845" s="3" t="s">
-        <v>3875</v>
+        <v>3872</v>
       </c>
       <c r="G1845" s="3" t="s">
-        <v>3876</v>
+        <v>3873</v>
       </c>
       <c r="H1845" t="s">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="I1845" t="s">
         <v>6</v>
@@ -93783,7 +93892,7 @@
     </row>
     <row r="1846" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1846" t="s">
-        <v>3877</v>
+        <v>3874</v>
       </c>
       <c r="B1846" s="10">
         <v>13.000826999999999</v>
@@ -93798,7 +93907,7 @@
         <v>6</v>
       </c>
       <c r="F1846" s="3" t="s">
-        <v>3878</v>
+        <v>3875</v>
       </c>
       <c r="G1846" t="s">
         <v>6</v>
@@ -93871,7 +93980,7 @@
     </row>
     <row r="1848" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1848" t="s">
-        <v>3880</v>
+        <v>3877</v>
       </c>
       <c r="B1848" s="10">
         <v>9.2155509999999996</v>
@@ -93886,7 +93995,7 @@
         <v>6</v>
       </c>
       <c r="F1848" s="3" t="s">
-        <v>3879</v>
+        <v>3876</v>
       </c>
       <c r="G1848" s="3" t="s">
         <v>6</v>
@@ -93915,7 +94024,7 @@
     </row>
     <row r="1849" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1849" t="s">
-        <v>3881</v>
+        <v>3878</v>
       </c>
       <c r="B1849" s="10">
         <v>9.2771729999999994</v>
@@ -93930,7 +94039,7 @@
         <v>6</v>
       </c>
       <c r="F1849" s="3" t="s">
-        <v>3882</v>
+        <v>3879</v>
       </c>
       <c r="G1849" s="3" t="s">
         <v>6</v>
@@ -93959,7 +94068,7 @@
     </row>
     <row r="1850" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1850" t="s">
-        <v>3883</v>
+        <v>3880</v>
       </c>
       <c r="B1850" s="10">
         <v>9.2576169999999998</v>
@@ -93974,7 +94083,7 @@
         <v>6</v>
       </c>
       <c r="F1850" s="3" t="s">
-        <v>3884</v>
+        <v>3881</v>
       </c>
       <c r="G1850" s="3" t="s">
         <v>6</v>
@@ -94003,7 +94112,7 @@
     </row>
     <row r="1851" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1851" t="s">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="B1851" s="10">
         <v>9.3461049999999997</v>
@@ -94018,7 +94127,7 @@
         <v>6</v>
       </c>
       <c r="F1851" s="3" t="s">
-        <v>3886</v>
+        <v>3883</v>
       </c>
       <c r="G1851" s="3" t="s">
         <v>6</v>
@@ -94047,7 +94156,7 @@
     </row>
     <row r="1852" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1852" t="s">
-        <v>3890</v>
+        <v>3887</v>
       </c>
       <c r="B1852" s="10">
         <v>35.772801000000001</v>
@@ -94062,7 +94171,7 @@
         <v>6</v>
       </c>
       <c r="F1852" s="3" t="s">
-        <v>3892</v>
+        <v>3889</v>
       </c>
       <c r="G1852" s="3" t="s">
         <v>6</v>
@@ -94091,7 +94200,7 @@
     </row>
     <row r="1853" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1853" t="s">
-        <v>3891</v>
+        <v>3888</v>
       </c>
       <c r="B1853" s="10">
         <v>36.186242999999997</v>
@@ -94106,13 +94215,13 @@
         <v>6</v>
       </c>
       <c r="F1853" s="3" t="s">
-        <v>3893</v>
+        <v>3890</v>
       </c>
       <c r="G1853" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1853" t="s">
-        <v>3890</v>
+        <v>3887</v>
       </c>
       <c r="I1853" t="s">
         <v>6</v>
@@ -94135,7 +94244,7 @@
     </row>
     <row r="1854" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1854" t="s">
-        <v>3894</v>
+        <v>3891</v>
       </c>
       <c r="B1854" s="10">
         <v>40.217269000000002</v>
@@ -94150,10 +94259,10 @@
         <v>6</v>
       </c>
       <c r="F1854" t="s">
-        <v>3894</v>
+        <v>3891</v>
       </c>
       <c r="G1854" s="3" t="s">
-        <v>3895</v>
+        <v>3892</v>
       </c>
       <c r="H1854" t="s">
         <v>533</v>
@@ -94180,7 +94289,7 @@
     </row>
     <row r="1855" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1855" t="s">
-        <v>3896</v>
+        <v>3893</v>
       </c>
       <c r="B1855" s="10">
         <v>38.799121999999997</v>
@@ -94195,7 +94304,7 @@
         <v>6</v>
       </c>
       <c r="F1855" s="3" t="s">
-        <v>3897</v>
+        <v>3894</v>
       </c>
       <c r="G1855" s="3" t="s">
         <v>6</v>
@@ -94224,7 +94333,7 @@
     </row>
     <row r="1856" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1856" t="s">
-        <v>3898</v>
+        <v>3895</v>
       </c>
       <c r="B1856" s="10">
         <f>32+2/60+14.2/3600</f>
@@ -94241,7 +94350,7 @@
         <v>6</v>
       </c>
       <c r="F1856" s="3" t="s">
-        <v>3899</v>
+        <v>3896</v>
       </c>
       <c r="G1856" s="3" t="s">
         <v>6</v>
@@ -94270,7 +94379,7 @@
     </row>
     <row r="1857" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1857" t="s">
-        <v>3901</v>
+        <v>3898</v>
       </c>
       <c r="B1857" s="10">
         <f>32+2/60+26.18/3600</f>
@@ -94287,7 +94396,7 @@
         <v>6</v>
       </c>
       <c r="F1857" s="3" t="s">
-        <v>3900</v>
+        <v>3897</v>
       </c>
       <c r="G1857" s="3" t="s">
         <v>6</v>
@@ -94316,7 +94425,7 @@
     </row>
     <row r="1858" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1858" t="s">
-        <v>3902</v>
+        <v>3899</v>
       </c>
       <c r="B1858" s="10">
         <v>37.404423999999999</v>
@@ -94331,7 +94440,7 @@
         <v>6</v>
       </c>
       <c r="F1858" s="3" t="s">
-        <v>3903</v>
+        <v>3900</v>
       </c>
       <c r="G1858" s="3" t="s">
         <v>6</v>
@@ -94360,7 +94469,7 @@
     </row>
     <row r="1859" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1859" t="s">
-        <v>3904</v>
+        <v>3901</v>
       </c>
       <c r="B1859" s="10">
         <f>37+18/60+31/3600</f>
@@ -94371,13 +94480,13 @@
         <v>-76.418055555555554</v>
       </c>
       <c r="F1859" s="3" t="s">
-        <v>3905</v>
+        <v>3902</v>
       </c>
       <c r="G1859" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1859" t="s">
-        <v>3902</v>
+        <v>3899</v>
       </c>
       <c r="I1859" t="s">
         <v>6</v>
@@ -94400,7 +94509,7 @@
     </row>
     <row r="1860" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1860" t="s">
-        <v>3906</v>
+        <v>3903</v>
       </c>
       <c r="B1860" s="10">
         <v>-4.4491379999999996</v>
@@ -94415,7 +94524,7 @@
         <v>6</v>
       </c>
       <c r="F1860" s="3" t="s">
-        <v>3907</v>
+        <v>3904</v>
       </c>
       <c r="G1860" s="3" t="s">
         <v>6</v>
@@ -94444,7 +94553,7 @@
     </row>
     <row r="1861" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1861" s="4" t="s">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="B1861" s="10">
         <v>9.5962099999999992</v>
@@ -94459,7 +94568,7 @@
         <v>6</v>
       </c>
       <c r="F1861" t="s">
-        <v>3908</v>
+        <v>3905</v>
       </c>
       <c r="G1861" s="3" t="s">
         <v>6</v>
@@ -94488,7 +94597,7 @@
     </row>
     <row r="1862" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1862" t="s">
-        <v>3910</v>
+        <v>3907</v>
       </c>
       <c r="B1862" s="10">
         <v>15.5062</v>
@@ -94503,7 +94612,7 @@
         <v>6</v>
       </c>
       <c r="F1862" s="3" t="s">
-        <v>3911</v>
+        <v>3908</v>
       </c>
       <c r="G1862" s="3" t="s">
         <v>6</v>
@@ -94532,7 +94641,7 @@
     </row>
     <row r="1863" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1863" s="3" t="s">
-        <v>3912</v>
+        <v>3909</v>
       </c>
       <c r="B1863" s="10">
         <v>15.514170999999999</v>
@@ -94547,7 +94656,7 @@
         <v>6</v>
       </c>
       <c r="F1863" s="3" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="G1863" s="3" t="s">
         <v>6</v>
@@ -94576,7 +94685,7 @@
     </row>
     <row r="1864" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1864" t="s">
-        <v>3914</v>
+        <v>3911</v>
       </c>
       <c r="B1864" s="10">
         <v>7.9755089999999997</v>
@@ -94585,7 +94694,7 @@
         <v>93.557203000000001</v>
       </c>
       <c r="F1864" s="3" t="s">
-        <v>3915</v>
+        <v>3912</v>
       </c>
       <c r="G1864" s="3" t="s">
         <v>6</v>
@@ -94614,7 +94723,7 @@
     </row>
     <row r="1865" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1865" t="s">
-        <v>3916</v>
+        <v>3913</v>
       </c>
       <c r="B1865" s="10">
         <v>7.0269310000000003</v>
@@ -94623,7 +94732,7 @@
         <v>93.821753999999999</v>
       </c>
       <c r="F1865" s="3" t="s">
-        <v>3917</v>
+        <v>3914</v>
       </c>
       <c r="G1865" s="3" t="s">
         <v>6</v>
@@ -94652,7 +94761,7 @@
     </row>
     <row r="1866" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1866" t="s">
-        <v>3918</v>
+        <v>3915</v>
       </c>
       <c r="B1866" s="10">
         <v>9.1740949999999994</v>
@@ -94661,7 +94770,7 @@
         <v>92.777254999999997</v>
       </c>
       <c r="F1866" s="3" t="s">
-        <v>3919</v>
+        <v>3916</v>
       </c>
       <c r="G1866" s="3" t="s">
         <v>6</v>
@@ -94690,7 +94799,7 @@
     </row>
     <row r="1867" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1867" s="4" t="s">
-        <v>3921</v>
+        <v>3918</v>
       </c>
       <c r="B1867" s="10">
         <v>10.701536000000001</v>
@@ -94705,7 +94814,7 @@
         <v>6</v>
       </c>
       <c r="F1867" t="s">
-        <v>3920</v>
+        <v>3917</v>
       </c>
       <c r="G1867" s="3" t="s">
         <v>6</v>
@@ -94734,7 +94843,7 @@
     </row>
     <row r="1868" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1868" s="4" t="s">
-        <v>3922</v>
+        <v>3919</v>
       </c>
       <c r="B1868" s="10">
         <v>12.535909999999999</v>
@@ -94749,7 +94858,7 @@
         <v>6</v>
       </c>
       <c r="F1868" t="s">
-        <v>3923</v>
+        <v>3920</v>
       </c>
       <c r="G1868" s="3" t="s">
         <v>6</v>
@@ -94779,7 +94888,7 @@
     </row>
     <row r="1869" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1869" s="4" t="s">
-        <v>3924</v>
+        <v>3921</v>
       </c>
       <c r="B1869" s="10">
         <v>13.211948</v>
@@ -94794,7 +94903,7 @@
         <v>6</v>
       </c>
       <c r="F1869" t="s">
-        <v>3925</v>
+        <v>3922</v>
       </c>
       <c r="G1869" s="3" t="s">
         <v>6</v>
@@ -94823,7 +94932,7 @@
     </row>
     <row r="1870" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1870" t="s">
-        <v>3926</v>
+        <v>3923</v>
       </c>
       <c r="B1870" s="10">
         <v>31.6418</v>
@@ -94838,7 +94947,7 @@
         <v>6</v>
       </c>
       <c r="F1870" t="s">
-        <v>3927</v>
+        <v>3924</v>
       </c>
       <c r="G1870" s="3" t="s">
         <v>6</v>
@@ -94867,7 +94976,7 @@
     </row>
     <row r="1871" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1871" t="s">
-        <v>3928</v>
+        <v>3925</v>
       </c>
       <c r="B1871" s="10">
         <v>33.430712</v>
@@ -94882,7 +94991,7 @@
         <v>6</v>
       </c>
       <c r="F1871" s="3" t="s">
-        <v>3929</v>
+        <v>3926</v>
       </c>
       <c r="G1871" s="3" t="s">
         <v>6</v>
@@ -94911,7 +95020,7 @@
     </row>
     <row r="1872" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1872" t="s">
-        <v>3932</v>
+        <v>3929</v>
       </c>
       <c r="B1872" s="10">
         <v>-0.90666400000000003</v>
@@ -94926,10 +95035,10 @@
         <v>6</v>
       </c>
       <c r="F1872" t="s">
-        <v>3933</v>
+        <v>3930</v>
       </c>
       <c r="G1872" t="s">
-        <v>3930</v>
+        <v>3927</v>
       </c>
       <c r="H1872" t="s">
         <v>332</v>
@@ -94955,7 +95064,7 @@
     </row>
     <row r="1873" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1873" t="s">
-        <v>3934</v>
+        <v>3931</v>
       </c>
       <c r="B1873" s="10">
         <v>-0.87556500000000004</v>
@@ -94970,13 +95079,13 @@
         <v>6</v>
       </c>
       <c r="F1873" t="s">
-        <v>3931</v>
+        <v>3928</v>
       </c>
       <c r="G1873" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1873" t="s">
-        <v>3932</v>
+        <v>3929</v>
       </c>
       <c r="I1873" t="s">
         <v>6</v>
@@ -94999,7 +95108,7 @@
     </row>
     <row r="1874" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1874" t="s">
-        <v>3935</v>
+        <v>3932</v>
       </c>
       <c r="B1874" s="10">
         <v>27.884976000000002</v>
@@ -95014,7 +95123,7 @@
         <v>6</v>
       </c>
       <c r="F1874" s="3" t="s">
-        <v>3936</v>
+        <v>3933</v>
       </c>
       <c r="G1874" s="3" t="s">
         <v>6</v>
@@ -95043,7 +95152,7 @@
     </row>
     <row r="1875" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1875" t="s">
-        <v>3939</v>
+        <v>3936</v>
       </c>
       <c r="B1875" s="10">
         <v>-3.1884709999999998</v>
@@ -95058,13 +95167,13 @@
         <v>6</v>
       </c>
       <c r="F1875" s="3" t="s">
-        <v>3937</v>
+        <v>3934</v>
       </c>
       <c r="G1875" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1875" t="s">
-        <v>3938</v>
+        <v>3935</v>
       </c>
       <c r="I1875" s="3" t="s">
         <v>6</v>
@@ -95087,7 +95196,7 @@
     </row>
     <row r="1876" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1876" t="s">
-        <v>3938</v>
+        <v>3935</v>
       </c>
       <c r="B1876" s="10">
         <v>-3.223894</v>
@@ -95102,7 +95211,7 @@
         <v>6</v>
       </c>
       <c r="F1876" s="3" t="s">
-        <v>3940</v>
+        <v>3937</v>
       </c>
       <c r="G1876" s="3" t="s">
         <v>6</v>
@@ -95131,7 +95240,7 @@
     </row>
     <row r="1877" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1877" s="4" t="s">
-        <v>3944</v>
+        <v>3941</v>
       </c>
       <c r="B1877" s="10">
         <v>9.0921450000000004</v>
@@ -95146,13 +95255,13 @@
         <v>6</v>
       </c>
       <c r="F1877" s="3" t="s">
-        <v>3941</v>
+        <v>3938</v>
       </c>
       <c r="G1877" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1877" s="4" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="I1877" t="s">
         <v>6</v>
@@ -95175,7 +95284,7 @@
     </row>
     <row r="1878" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1878" s="4" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="B1878" s="10">
         <v>8.5609540000000006</v>
@@ -95190,7 +95299,7 @@
         <v>6</v>
       </c>
       <c r="F1878" s="3" t="s">
-        <v>3943</v>
+        <v>3940</v>
       </c>
       <c r="G1878" s="3" t="s">
         <v>6</v>
@@ -95219,7 +95328,7 @@
     </row>
     <row r="1879" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1879" t="s">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="B1879" s="10">
         <v>41.646666000000003</v>
@@ -95234,7 +95343,7 @@
         <v>6</v>
       </c>
       <c r="F1879" s="3" t="s">
-        <v>3946</v>
+        <v>3943</v>
       </c>
       <c r="G1879" s="3" t="s">
         <v>6</v>
@@ -95263,7 +95372,7 @@
     </row>
     <row r="1880" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1880" t="s">
-        <v>3947</v>
+        <v>3944</v>
       </c>
       <c r="B1880" s="10">
         <v>41.638331000000001</v>
@@ -95278,13 +95387,13 @@
         <v>6</v>
       </c>
       <c r="F1880" s="3" t="s">
-        <v>3948</v>
+        <v>3945</v>
       </c>
       <c r="G1880" t="s">
         <v>6</v>
       </c>
       <c r="H1880" t="s">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="I1880" t="s">
         <v>6</v>
@@ -95307,7 +95416,7 @@
     </row>
     <row r="1881" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1881" t="s">
-        <v>3949</v>
+        <v>3946</v>
       </c>
       <c r="B1881" s="10">
         <v>27.334793999999999</v>
@@ -95322,7 +95431,7 @@
         <v>6</v>
       </c>
       <c r="F1881" s="3" t="s">
-        <v>3950</v>
+        <v>3947</v>
       </c>
       <c r="G1881" s="3" t="s">
         <v>6</v>
@@ -95351,7 +95460,7 @@
     </row>
     <row r="1882" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1882" s="4" t="s">
-        <v>3952</v>
+        <v>3949</v>
       </c>
       <c r="B1882" s="10">
         <v>29.728752</v>
@@ -95366,7 +95475,7 @@
         <v>6</v>
       </c>
       <c r="F1882" s="3" t="s">
-        <v>3951</v>
+        <v>3948</v>
       </c>
       <c r="G1882" s="3" t="s">
         <v>6</v>
@@ -95395,7 +95504,7 @@
     </row>
     <row r="1883" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1883" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="B1883" s="10">
         <v>-0.58662899999999996</v>
@@ -95410,7 +95519,7 @@
         <v>6</v>
       </c>
       <c r="F1883" s="3" t="s">
-        <v>3954</v>
+        <v>3951</v>
       </c>
       <c r="G1883" s="3" t="s">
         <v>6</v>
@@ -95439,7 +95548,7 @@
     </row>
     <row r="1884" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1884" t="s">
-        <v>3955</v>
+        <v>3952</v>
       </c>
       <c r="B1884" s="10">
         <v>-0.70904699999999998</v>
@@ -95454,13 +95563,13 @@
         <v>6</v>
       </c>
       <c r="F1884" s="3" t="s">
-        <v>3956</v>
+        <v>3953</v>
       </c>
       <c r="G1884" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1884" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="I1884" t="s">
         <v>6</v>
@@ -95483,7 +95592,7 @@
     </row>
     <row r="1885" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1885" t="s">
-        <v>3957</v>
+        <v>3954</v>
       </c>
       <c r="B1885" s="10">
         <v>-0.41949399999999998</v>
@@ -95498,13 +95607,13 @@
         <v>6</v>
       </c>
       <c r="F1885" s="3" t="s">
-        <v>3959</v>
+        <v>3956</v>
       </c>
       <c r="G1885" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1885" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="I1885" t="s">
         <v>6</v>
@@ -95527,7 +95636,7 @@
     </row>
     <row r="1886" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1886" t="s">
-        <v>3961</v>
+        <v>3958</v>
       </c>
       <c r="B1886" s="10">
         <v>-0.49251499999999998</v>
@@ -95542,13 +95651,13 @@
         <v>6</v>
       </c>
       <c r="F1886" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="G1886" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1886" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="I1886" t="s">
         <v>6</v>
@@ -95571,7 +95680,7 @@
     </row>
     <row r="1887" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1887" t="s">
-        <v>3958</v>
+        <v>3955</v>
       </c>
       <c r="B1887" s="10">
         <v>-0.81097799999999998</v>
@@ -95586,13 +95695,13 @@
         <v>6</v>
       </c>
       <c r="F1887" s="3" t="s">
-        <v>3960</v>
+        <v>3957</v>
       </c>
       <c r="G1887" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1887" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="I1887" t="s">
         <v>6</v>
@@ -95615,7 +95724,7 @@
     </row>
     <row r="1888" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1888" t="s">
-        <v>3963</v>
+        <v>3960</v>
       </c>
       <c r="B1888" s="10">
         <v>10.549402000000001</v>
@@ -95630,7 +95739,7 @@
         <v>6</v>
       </c>
       <c r="F1888" s="3" t="s">
-        <v>3964</v>
+        <v>3961</v>
       </c>
       <c r="G1888" s="3" t="s">
         <v>6</v>
@@ -95654,6 +95763,798 @@
         <v>6</v>
       </c>
       <c r="N1888" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1889" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B1889" s="10">
+        <v>41.335776000000003</v>
+      </c>
+      <c r="C1889" s="10">
+        <v>-70.299878000000007</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1889" t="s">
+        <v>3962</v>
+      </c>
+      <c r="G1889" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1889" t="s">
+        <v>3964</v>
+      </c>
+      <c r="I1889" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1889" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1889" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1889" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1889" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1889" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1890" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1890" s="10">
+        <v>41.269261</v>
+      </c>
+      <c r="C1890" s="10">
+        <v>-70.084149999999994</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1890" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1890" t="s">
+        <v>3963</v>
+      </c>
+      <c r="G1890" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1890" t="s">
+        <v>433</v>
+      </c>
+      <c r="I1890" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1890" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1890" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1890" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1890" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1890" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1891" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B1891" s="10">
+        <v>-5.6520599999999996</v>
+      </c>
+      <c r="C1891" s="10">
+        <v>105.338301</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1891" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1891" s="3" t="s">
+        <v>3967</v>
+      </c>
+      <c r="G1891" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1891" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I1891" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1891" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1891" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1891" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1891" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1891" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1892" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B1892" s="10">
+        <v>-5.5137910000000003</v>
+      </c>
+      <c r="C1892" s="10">
+        <v>105.26242499999999</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1892" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1892" s="3" t="s">
+        <v>3969</v>
+      </c>
+      <c r="G1892" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1892" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I1892" t="s">
+        <v>3966</v>
+      </c>
+      <c r="J1892" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1892" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1892" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1892" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1892" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1893" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B1893" s="10">
+        <v>-5.7297729999999998</v>
+      </c>
+      <c r="C1893" s="10">
+        <v>105.196651</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1893" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1893" s="3" t="s">
+        <v>3971</v>
+      </c>
+      <c r="G1893" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1893" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I1893" t="s">
+        <v>3966</v>
+      </c>
+      <c r="J1893" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1893" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1893" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1893" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1893" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1894" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1894" s="10">
+        <v>-8.4923599999999997</v>
+      </c>
+      <c r="C1894" s="10">
+        <v>117.657939</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1894" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1894" s="3" t="s">
+        <v>3973</v>
+      </c>
+      <c r="G1894" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1894" t="s">
+        <v>3629</v>
+      </c>
+      <c r="I1894" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1894" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1894" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1894" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1894" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1894" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1895" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B1895" s="10">
+        <v>-5.7566379999999997</v>
+      </c>
+      <c r="C1895" s="10">
+        <v>132.74209099999999</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1895" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1895" s="3" t="s">
+        <v>3975</v>
+      </c>
+      <c r="G1895" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1895" t="s">
+        <v>2421</v>
+      </c>
+      <c r="I1895" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1895" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1895" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1895" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1895" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1895" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1896" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B1896" s="10">
+        <v>-5.660615</v>
+      </c>
+      <c r="C1896" s="10">
+        <v>132.71764099999999</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1896" s="3" t="s">
+        <v>3976</v>
+      </c>
+      <c r="G1896" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1896" t="s">
+        <v>3974</v>
+      </c>
+      <c r="I1896" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1896" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1896" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1896" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1896" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1896" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1897" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B1897" s="10">
+        <v>-3.0937760000000001</v>
+      </c>
+      <c r="C1897" s="10">
+        <v>129.545188</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1897" s="3" t="s">
+        <v>3979</v>
+      </c>
+      <c r="G1897" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1897" t="s">
+        <v>2421</v>
+      </c>
+      <c r="I1897" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1897" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1897" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1897" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1897" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1897" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1898" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B1898" s="10">
+        <v>-3.1067719999999999</v>
+      </c>
+      <c r="C1898" s="10">
+        <v>128.15756500000001</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1898" s="3" t="s">
+        <v>3981</v>
+      </c>
+      <c r="G1898" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1898" t="s">
+        <v>3978</v>
+      </c>
+      <c r="I1898" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1898" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1898" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1898" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1898" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1898" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1899" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B1899" s="10">
+        <v>-7.6896300000000002</v>
+      </c>
+      <c r="C1899" s="10">
+        <v>108.53264299999999</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1899" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1899" s="3" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G1899" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1899" t="s">
+        <v>2402</v>
+      </c>
+      <c r="I1899" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1899" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1899" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1899" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1899" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1899" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1900" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B1900" s="10">
+        <v>-7.7088799999999997</v>
+      </c>
+      <c r="C1900" s="10">
+        <v>109.038658</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1900" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1900" s="3" t="s">
+        <v>3982</v>
+      </c>
+      <c r="G1900" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1900" t="s">
+        <v>2402</v>
+      </c>
+      <c r="I1900" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1900" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1900" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1900" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1900" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1900" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1901" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B1901" s="10">
+        <v>-5.6586400000000001</v>
+      </c>
+      <c r="C1901" s="10">
+        <v>106.571639</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1901" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1901" s="3" t="s">
+        <v>3987</v>
+      </c>
+      <c r="G1901" s="3" t="s">
+        <v>3988</v>
+      </c>
+      <c r="H1901" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1901" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1901" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1901" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1901" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1901" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1901" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1902" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B1902" s="10">
+        <v>-3.568514</v>
+      </c>
+      <c r="C1902" s="10">
+        <v>128.48195699999999</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1902" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1902" s="3" t="s">
+        <v>3990</v>
+      </c>
+      <c r="G1902" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1902" t="s">
+        <v>2421</v>
+      </c>
+      <c r="I1902" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1902" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1902" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1902" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1902" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1902" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1903" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B1903" s="10">
+        <v>-8.3284559999999992</v>
+      </c>
+      <c r="C1903" s="10">
+        <v>111.57852099999999</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1903" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1903" s="3" t="s">
+        <v>3992</v>
+      </c>
+      <c r="G1903" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1903" t="s">
+        <v>2940</v>
+      </c>
+      <c r="I1903" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1903" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1903" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1903" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1903" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1903" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1904" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B1904" s="10">
+        <v>19.868834</v>
+      </c>
+      <c r="C1904" s="10">
+        <v>-16.296016999999999</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1904" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1904" s="3" t="s">
+        <v>3999</v>
+      </c>
+      <c r="G1904" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1904" t="s">
+        <v>3726</v>
+      </c>
+      <c r="I1904" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1904" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1904" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1904" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1904" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1904" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1905" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B1905" s="10">
+        <v>19.868041000000002</v>
+      </c>
+      <c r="C1905" s="10">
+        <v>-16.389779999999998</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1905" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1905" s="3" t="s">
+        <v>4000</v>
+      </c>
+      <c r="G1905" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1905" t="s">
+        <v>3726</v>
+      </c>
+      <c r="I1905" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1905" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1905" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1905" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1905" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1905" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1906" s="4" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B1906" s="10">
+        <v>36.854978000000003</v>
+      </c>
+      <c r="C1906" s="10">
+        <v>-6.348306</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1906" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1906" s="3" t="s">
+        <v>4002</v>
+      </c>
+      <c r="G1906" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1906" s="4" t="s">
+        <v>2228</v>
+      </c>
+      <c r="I1906" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1906" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1906" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1906" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1906" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1906" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -95663,9 +96564,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1888" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N1906" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N1869">
-      <sortCondition sortBy="cellColor" ref="A1:A1869" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="A1:A1869" dxfId="0"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1803:A1828">

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB6E48-6514-403B-942B-65ABDA0FC53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FAABA3-8AF6-489F-B3AD-EE18CEA27923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12432" yWindow="96" windowWidth="18240" windowHeight="16572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9984" yWindow="96" windowWidth="20244" windowHeight="14388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1928</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$N$1939</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21448" uniqueCount="4049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21580" uniqueCount="4071">
   <si>
     <t>Latitude</t>
   </si>
@@ -12183,6 +12183,72 @@
   </si>
   <si>
     <t>Knysna Lagoon, Western Cape, South Africa</t>
+  </si>
+  <si>
+    <t>Yinhai, Beihai, Guangxi, China</t>
+  </si>
+  <si>
+    <t>Yinhai</t>
+  </si>
+  <si>
+    <t>Alagoas, Brazil</t>
+  </si>
+  <si>
+    <t>Alagoas</t>
+  </si>
+  <si>
+    <t>Mundaú Lagoon, Alagoas, Brazil</t>
+  </si>
+  <si>
+    <t>Mundaú Lagoon</t>
+  </si>
+  <si>
+    <t>Pulicat Lake</t>
+  </si>
+  <si>
+    <t>Pulicat Lake, India</t>
+  </si>
+  <si>
+    <t>Rushikulya Estuary, Odisha, India</t>
+  </si>
+  <si>
+    <t>Rushikulya Estuary</t>
+  </si>
+  <si>
+    <t>Chinnapalam</t>
+  </si>
+  <si>
+    <t>Chinnapalam, Ramanathapuram District, Tamil Nadu, India</t>
+  </si>
+  <si>
+    <t>Kamboi, Gujarat, India</t>
+  </si>
+  <si>
+    <t>Kamboi</t>
+  </si>
+  <si>
+    <t>Nada, Gujarat, India</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Gandhar, Gujarat, India</t>
+  </si>
+  <si>
+    <t>Gandhar</t>
+  </si>
+  <si>
+    <t>Tar Landing Bay, Beaufort, Carteret County, North Carolina, USA</t>
+  </si>
+  <si>
+    <t>Tar Landing Bay</t>
+  </si>
+  <si>
+    <t>Canary Creek Marsh, Lewes, Sussex County, Delaware, USA</t>
+  </si>
+  <si>
+    <t>Canary Creek Marsh</t>
   </si>
 </sst>
 </file>
@@ -12640,8 +12706,8 @@
   <dimension ref="A1:O23576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
+      <pane ySplit="1" topLeftCell="A1906" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1939" sqref="A1939"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -97676,19 +97742,495 @@
       </c>
     </row>
     <row r="1929" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1929" s="4"/>
+      <c r="A1929" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B1929" s="10">
+        <f>21+24/60+31/3600</f>
+        <v>21.40861111111111</v>
+      </c>
+      <c r="C1929" s="10">
+        <f>109+12/60+2/3600</f>
+        <v>109.20055555555555</v>
+      </c>
+      <c r="D1929" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1929" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F1929" s="3" t="s">
+        <v>4050</v>
+      </c>
+      <c r="G1929" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1929" t="s">
+        <v>3208</v>
+      </c>
+      <c r="I1929" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1929" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1929" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1929" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1929" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1929" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1930" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1930" s="4"/>
+      <c r="A1930" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B1930" s="10">
+        <v>-9.5599349999999994</v>
+      </c>
+      <c r="C1930" s="10">
+        <v>-35.720379000000001</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E1930" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1930" s="3" t="s">
+        <v>4052</v>
+      </c>
+      <c r="G1930" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1930" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1930" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1930" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1930" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1930" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1930" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1930" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1931" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B1931" s="10">
+        <v>-9.6263869999999994</v>
+      </c>
+      <c r="C1931" s="10">
+        <v>-35.778005</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1931" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1931" s="3" t="s">
+        <v>4054</v>
+      </c>
+      <c r="G1931" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1931" t="s">
+        <v>4051</v>
+      </c>
+      <c r="I1931" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1931" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1931" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1931" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1931" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1931" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1932" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1932" s="4"/>
+      <c r="A1932" s="4" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B1932" s="10">
+        <v>13.599276</v>
+      </c>
+      <c r="C1932" s="10">
+        <v>80.186243000000005</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1932" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1932" s="3" t="s">
+        <v>4055</v>
+      </c>
+      <c r="G1932" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1932" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1932" s="3" t="s">
+        <v>3643</v>
+      </c>
+      <c r="J1932" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1932" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1932" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1932" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1932" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1933" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1933" s="4"/>
+      <c r="A1933" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B1933" s="10">
+        <v>19.380182000000001</v>
+      </c>
+      <c r="C1933" s="10">
+        <v>85.040762999999998</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1933" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1933" s="3" t="s">
+        <v>4058</v>
+      </c>
+      <c r="G1933" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1933" t="s">
+        <v>2347</v>
+      </c>
+      <c r="I1933" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1933" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1933" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1933" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1933" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1933" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1934" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1934" s="4"/>
+      <c r="A1934" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B1934" s="10">
+        <f>9+16/60</f>
+        <v>9.2666666666666675</v>
+      </c>
+      <c r="C1934" s="10">
+        <f>79+13/60</f>
+        <v>79.216666666666669</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1934" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1934" s="4" t="s">
+        <v>4059</v>
+      </c>
+      <c r="G1934" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1934" t="s">
+        <v>2333</v>
+      </c>
+      <c r="I1934" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1934" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1934" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1934" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1934" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1934" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1935" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B1935" s="10">
+        <v>22.216901</v>
+      </c>
+      <c r="C1935" s="10">
+        <v>72.621713999999997</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1935" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1935" s="3" t="s">
+        <v>4062</v>
+      </c>
+      <c r="G1935" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1935" t="s">
+        <v>2368</v>
+      </c>
+      <c r="I1935" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1935" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1935" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1935" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1935" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1935" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1936" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B1936" s="10">
+        <v>21.922920999999999</v>
+      </c>
+      <c r="C1936" s="10">
+        <v>72.512658999999999</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1936" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1936" s="3" t="s">
+        <v>4064</v>
+      </c>
+      <c r="G1936" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1936" t="s">
+        <v>2368</v>
+      </c>
+      <c r="I1936" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1936" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1936" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1936" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1936" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1936" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1937" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B1937" s="10">
+        <v>21.901105999999999</v>
+      </c>
+      <c r="C1937" s="10">
+        <v>72.625575999999995</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1937" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1937" s="3" t="s">
+        <v>4066</v>
+      </c>
+      <c r="G1937" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1937" t="s">
+        <v>2368</v>
+      </c>
+      <c r="I1937" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1937" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1937" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1937" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1937" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1937" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1938" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B1938" s="10">
+        <v>34.701917000000002</v>
+      </c>
+      <c r="C1938" s="10">
+        <v>-76.704702999999995</v>
+      </c>
+      <c r="D1938" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1938" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1938" s="3" t="s">
+        <v>4068</v>
+      </c>
+      <c r="G1938" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1938" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I1938" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1938" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1938" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1938" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1938" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1938" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1939" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1939" s="10">
+        <v>38.788542999999997</v>
+      </c>
+      <c r="C1939" s="10">
+        <v>-75.165891999999999</v>
+      </c>
+      <c r="D1939" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1939" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1939" s="3" t="s">
+        <v>4070</v>
+      </c>
+      <c r="G1939" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1939" t="s">
+        <v>633</v>
+      </c>
+      <c r="I1939" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1939" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1939" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1939" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1939" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1939" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1941" s="4"/>
     </row>
     <row r="23576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23576" t="s">
@@ -97696,7 +98238,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1928" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N1939" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N1869">
       <sortCondition sortBy="cellColor" ref="A1:A1869" dxfId="0"/>
     </sortState>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24104CC-7A34-45A2-8F1F-D4653D2A3327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA2134-ECA4-48A7-BD84-3066A4C1753B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="750" windowWidth="19830" windowHeight="18045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="15" windowWidth="19485" windowHeight="20850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$1949</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$1967</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15595" uniqueCount="4086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15739" uniqueCount="4123">
   <si>
     <t>Latitude</t>
   </si>
@@ -10322,9 +10322,6 @@
     <t>Southern India</t>
   </si>
   <si>
-    <t>Southwestern India;Arabian Sea;Southern India</t>
-  </si>
-  <si>
     <t>Ensenada, Baja California, Mexico</t>
   </si>
   <si>
@@ -12294,6 +12291,120 @@
   </si>
   <si>
     <t>Kuwait Institute of Scientific Research East Site, Kuwait</t>
+  </si>
+  <si>
+    <t>Graeme Hall Swamp, Barbados</t>
+  </si>
+  <si>
+    <t>Graeme Hall Swamp</t>
+  </si>
+  <si>
+    <t>Puerto Vallarta, Jalisco, Mexico</t>
+  </si>
+  <si>
+    <t>Puerto Vallarta</t>
+  </si>
+  <si>
+    <t>Central Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Gesira</t>
+  </si>
+  <si>
+    <t>Lac Badana</t>
+  </si>
+  <si>
+    <t>Yemn</t>
+  </si>
+  <si>
+    <t>Bender Mtoni</t>
+  </si>
+  <si>
+    <t>Abo</t>
+  </si>
+  <si>
+    <t>Abo, Somalia</t>
+  </si>
+  <si>
+    <t>Jazeera, Somalia</t>
+  </si>
+  <si>
+    <t>Jazeera</t>
+  </si>
+  <si>
+    <t>Webi Jubba River, Somalia</t>
+  </si>
+  <si>
+    <t>Giuba River</t>
+  </si>
+  <si>
+    <t>Webi Jubba River</t>
+  </si>
+  <si>
+    <t>Bender Mtoni, Somalia</t>
+  </si>
+  <si>
+    <t>Lac Badana, Somalia</t>
+  </si>
+  <si>
+    <t>Yemn, Somalia</t>
+  </si>
+  <si>
+    <t>Locationi approximate</t>
+  </si>
+  <si>
+    <t>Southern Somalia</t>
+  </si>
+  <si>
+    <t>West coast of India</t>
+  </si>
+  <si>
+    <t>Southwestern India;Southern India;West coast of India</t>
+  </si>
+  <si>
+    <t>Bahía Blanca, Buenos Aires Province, Argentina</t>
+  </si>
+  <si>
+    <t>Bahía Blanca</t>
+  </si>
+  <si>
+    <t>Puerto Rosales, Bahía Blanca, Buenos Aires Province, Argentina</t>
+  </si>
+  <si>
+    <t>Puerto Rosales</t>
+  </si>
+  <si>
+    <t>Maruhubi, Zanzibar, Unguja, Tanzania</t>
+  </si>
+  <si>
+    <t>Maruhubi</t>
+  </si>
+  <si>
+    <t>Richard's Bay, KwaZulu-Natal, South Africa</t>
+  </si>
+  <si>
+    <t>Richard's Bay</t>
+  </si>
+  <si>
+    <t>Mngazana</t>
+  </si>
+  <si>
+    <t>Mngazana, Eastern Cape, South Africa</t>
+  </si>
+  <si>
+    <t>Mtwapa Creek, Kenya</t>
+  </si>
+  <si>
+    <t>Mtwapa Creek</t>
+  </si>
+  <si>
+    <t>Border of Mombassa and Kilifi Counties</t>
+  </si>
+  <si>
+    <t>Rowes Bay, Townsville, Queensland, Australia</t>
+  </si>
+  <si>
+    <t>Rowes Bay</t>
   </si>
 </sst>
 </file>
@@ -12746,11 +12857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1949"/>
+  <dimension ref="A1:K2004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1950" sqref="A1950"/>
+      <selection pane="bottomLeft" activeCell="A1967" sqref="A1967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13194,7 +13305,7 @@
         <v>160.54427699999999</v>
       </c>
       <c r="D14" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -13497,7 +13608,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>6</v>
@@ -14171,7 +14282,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>6</v>
@@ -14427,7 +14538,7 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>6</v>
@@ -14939,7 +15050,7 @@
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>6</v>
@@ -15835,7 +15946,7 @@
         <v>6</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>6</v>
@@ -16507,7 +16618,7 @@
         <v>6</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>6</v>
@@ -16981,7 +17092,7 @@
         <v>219</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>6</v>
@@ -20764,7 +20875,7 @@
         <v>-64.721029000000001</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>6</v>
@@ -23303,7 +23414,7 @@
         <v>6</v>
       </c>
       <c r="E329" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>1393</v>
@@ -23399,7 +23510,7 @@
         <v>6</v>
       </c>
       <c r="E332" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="F332" s="3" t="s">
         <v>1392</v>
@@ -23675,7 +23786,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="B341" s="10">
         <v>3.5</v>
@@ -24189,7 +24300,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="B357" s="10">
         <v>-8.5</v>
@@ -24210,7 +24321,7 @@
         <v>6</v>
       </c>
       <c r="H357" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="I357" t="s">
         <v>6</v>
@@ -24221,7 +24332,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="B358" s="10">
         <v>-8.5</v>
@@ -24242,7 +24353,7 @@
         <v>6</v>
       </c>
       <c r="H358" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="I358" t="s">
         <v>6</v>
@@ -29317,7 +29428,7 @@
         <v>178</v>
       </c>
       <c r="I516" t="s">
-        <v>6</v>
+        <v>4106</v>
       </c>
       <c r="J516" s="3" t="s">
         <v>6</v>
@@ -29349,7 +29460,7 @@
         <v>178</v>
       </c>
       <c r="I517" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="J517" s="3" t="s">
         <v>6</v>
@@ -29509,7 +29620,7 @@
         <v>178</v>
       </c>
       <c r="I522" t="s">
-        <v>6</v>
+        <v>4106</v>
       </c>
       <c r="J522" s="3" t="s">
         <v>6</v>
@@ -29637,7 +29748,7 @@
         <v>178</v>
       </c>
       <c r="I526" t="s">
-        <v>3428</v>
+        <v>4107</v>
       </c>
       <c r="J526" s="3" t="s">
         <v>6</v>
@@ -29669,7 +29780,7 @@
         <v>178</v>
       </c>
       <c r="I527" t="s">
-        <v>3025</v>
+        <v>4106</v>
       </c>
       <c r="J527" s="3" t="s">
         <v>6</v>
@@ -29925,7 +30036,7 @@
         <v>178</v>
       </c>
       <c r="I535" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="J535" s="3" t="s">
         <v>6</v>
@@ -30053,7 +30164,7 @@
         <v>178</v>
       </c>
       <c r="I539" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="J539" s="3" t="s">
         <v>6</v>
@@ -30166,7 +30277,7 @@
         <v>115.21666666666667</v>
       </c>
       <c r="D543" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="E543" t="s">
         <v>6</v>
@@ -30285,7 +30396,7 @@
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="B547" s="10">
         <v>-8.6728930000000002</v>
@@ -30306,7 +30417,7 @@
         <v>6</v>
       </c>
       <c r="H547" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="I547" s="3" t="s">
         <v>177</v>
@@ -30317,7 +30428,7 @@
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="B548" s="10">
         <v>3.9339599999999999</v>
@@ -30338,7 +30449,7 @@
         <v>6</v>
       </c>
       <c r="H548" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="I548" s="3" t="s">
         <v>6</v>
@@ -30413,7 +30524,7 @@
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="B551" s="10">
         <v>-8.6152999999999995</v>
@@ -30434,7 +30545,7 @@
         <v>6</v>
       </c>
       <c r="H551" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="I551" s="3" t="s">
         <v>177</v>
@@ -30637,7 +30748,7 @@
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="B558" s="10">
         <v>-9.6986729999999994</v>
@@ -30658,7 +30769,7 @@
         <v>6</v>
       </c>
       <c r="H558" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="I558" s="3" t="s">
         <v>177</v>
@@ -30669,7 +30780,7 @@
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="B559" s="10">
         <v>-8.7833333333333332</v>
@@ -30690,7 +30801,7 @@
         <v>6</v>
       </c>
       <c r="H559" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="I559" s="3" t="s">
         <v>177</v>
@@ -30799,7 +30910,7 @@
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="B563" s="10">
         <v>27.183333333333334</v>
@@ -30831,7 +30942,7 @@
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="4" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="B564" s="10">
         <f>25+48/60+54/3600</f>
@@ -30865,7 +30976,7 @@
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="B565" s="10">
         <v>26.802807000000001</v>
@@ -31755,7 +31866,7 @@
         <v>1500</v>
       </c>
       <c r="G592" s="3" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="H592" s="3" t="s">
         <v>2241</v>
@@ -32121,7 +32232,7 @@
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="B604" s="10">
         <v>-9.5975750000000009</v>
@@ -32142,7 +32253,7 @@
         <v>6</v>
       </c>
       <c r="H604" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="I604" t="s">
         <v>6</v>
@@ -32799,7 +32910,7 @@
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="B625" s="10">
         <v>-8.8942899999999998</v>
@@ -32814,13 +32925,13 @@
         <v>198</v>
       </c>
       <c r="F625" s="3" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="G625" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H625" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="I625" t="s">
         <v>6</v>
@@ -32831,7 +32942,7 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="B626" s="10">
         <v>-8.7415380000000003</v>
@@ -32852,7 +32963,7 @@
         <v>6</v>
       </c>
       <c r="H626" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="I626" t="s">
         <v>6</v>
@@ -33271,7 +33382,7 @@
         <v>171</v>
       </c>
       <c r="I639" s="4" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="J639" s="3" t="s">
         <v>6</v>
@@ -34865,7 +34976,7 @@
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B689" s="10">
         <f>20+14/60</f>
@@ -34882,7 +34993,7 @@
         <v>6</v>
       </c>
       <c r="F689" s="3" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="G689" s="3" t="s">
         <v>6</v>
@@ -34899,7 +35010,7 @@
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="B690" s="10">
         <f>19+50/60+58/3600</f>
@@ -34922,7 +35033,7 @@
         <v>2234</v>
       </c>
       <c r="H690" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="I690" t="s">
         <v>6</v>
@@ -35991,7 +36102,7 @@
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="B724" s="10">
         <v>6.916666666666667</v>
@@ -40808,7 +40919,7 @@
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="B874" s="10">
         <v>-9.6075649999999992</v>
@@ -40829,7 +40940,7 @@
         <v>6</v>
       </c>
       <c r="H874" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="I874" t="s">
         <v>6</v>
@@ -44302,7 +44413,7 @@
         <v>1580</v>
       </c>
       <c r="I982" s="4" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="J982" s="3" t="s">
         <v>6</v>
@@ -44336,7 +44447,7 @@
         <v>1580</v>
       </c>
       <c r="I983" s="4" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="J983" s="3" t="s">
         <v>6</v>
@@ -46552,7 +46663,7 @@
     </row>
     <row r="1053" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="B1053" s="10">
         <v>-9.6075210000000002</v>
@@ -46573,7 +46684,7 @@
         <v>6</v>
       </c>
       <c r="H1053" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="I1053" t="s">
         <v>6</v>
@@ -46584,7 +46695,7 @@
     </row>
     <row r="1054" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="B1054" s="10">
         <v>-8.4604879999999998</v>
@@ -46605,7 +46716,7 @@
         <v>6</v>
       </c>
       <c r="H1054" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="I1054" t="s">
         <v>6</v>
@@ -47146,7 +47257,7 @@
         <v>872</v>
       </c>
       <c r="G1071" s="3" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="H1071" t="s">
         <v>1409</v>
@@ -47480,7 +47591,7 @@
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B1082" s="10">
         <v>-6.1636240000000004</v>
@@ -47501,7 +47612,7 @@
         <v>6</v>
       </c>
       <c r="H1082" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="I1082" t="s">
         <v>6</v>
@@ -52040,7 +52151,7 @@
     </row>
     <row r="1224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="B1224" s="10">
         <f>-(6+13/60+19.37/3600)</f>
@@ -52063,7 +52174,7 @@
         <v>6</v>
       </c>
       <c r="H1224" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="I1224" t="s">
         <v>6</v>
@@ -53433,7 +53544,7 @@
         <v>164.73685900000001</v>
       </c>
       <c r="D1267" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="E1267" t="s">
         <v>6</v>
@@ -53480,7 +53591,7 @@
         <v>178</v>
       </c>
       <c r="I1268" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="J1268" s="3" t="s">
         <v>6</v>
@@ -53672,7 +53783,7 @@
         <v>178</v>
       </c>
       <c r="I1274" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="J1274" t="s">
         <v>6</v>
@@ -53864,7 +53975,7 @@
         <v>178</v>
       </c>
       <c r="I1280" t="s">
-        <v>3025</v>
+        <v>4106</v>
       </c>
       <c r="J1280" t="s">
         <v>6</v>
@@ -64384,7 +64495,7 @@
         <v>178</v>
       </c>
       <c r="I1608" t="s">
-        <v>3025</v>
+        <v>4106</v>
       </c>
       <c r="J1608" s="3" t="s">
         <v>6</v>
@@ -65768,7 +65879,7 @@
     </row>
     <row r="1652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1652" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="B1652" s="10">
         <v>31.85</v>
@@ -65783,7 +65894,7 @@
         <v>6</v>
       </c>
       <c r="F1652" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="G1652" s="3" t="s">
         <v>6</v>
@@ -65800,7 +65911,7 @@
     </row>
     <row r="1653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1653" s="4" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="B1653" s="10">
         <v>33.700000000000003</v>
@@ -65815,13 +65926,13 @@
         <v>6</v>
       </c>
       <c r="F1653" s="4" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="G1653" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1653" s="3" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="I1653" s="3" t="s">
         <v>6</v>
@@ -65832,7 +65943,7 @@
     </row>
     <row r="1654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1654" s="4" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="B1654" s="10">
         <v>33.679611000000001</v>
@@ -65847,7 +65958,7 @@
         <v>6</v>
       </c>
       <c r="F1654" s="4" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="G1654" s="3" t="s">
         <v>6</v>
@@ -65864,7 +65975,7 @@
     </row>
     <row r="1655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1655" s="4" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="B1655" s="10">
         <v>32.643070000000002</v>
@@ -65879,13 +65990,13 @@
         <v>6</v>
       </c>
       <c r="F1655" s="3" t="s">
+        <v>3435</v>
+      </c>
+      <c r="G1655" s="3" t="s">
+        <v>3596</v>
+      </c>
+      <c r="H1655" s="3" t="s">
         <v>3436</v>
-      </c>
-      <c r="G1655" s="3" t="s">
-        <v>3597</v>
-      </c>
-      <c r="H1655" s="3" t="s">
-        <v>3437</v>
       </c>
       <c r="I1655" s="4" t="s">
         <v>2538</v>
@@ -65896,7 +66007,7 @@
     </row>
     <row r="1656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1656" s="4" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="B1656" s="10">
         <v>32.652721</v>
@@ -65911,7 +66022,7 @@
         <v>6</v>
       </c>
       <c r="F1656" s="3" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="G1656" s="3" t="s">
         <v>6</v>
@@ -65928,7 +66039,7 @@
     </row>
     <row r="1657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1657" s="3" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="B1657" s="10">
         <v>30.346411</v>
@@ -65943,7 +66054,7 @@
         <v>6</v>
       </c>
       <c r="F1657" s="3" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="G1657" s="3" t="s">
         <v>6</v>
@@ -65952,7 +66063,7 @@
         <v>2786</v>
       </c>
       <c r="I1657" s="4" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="J1657" s="3" t="s">
         <v>6</v>
@@ -65960,7 +66071,7 @@
     </row>
     <row r="1658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1658" s="4" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="B1658" s="10">
         <v>30.380948</v>
@@ -65975,7 +66086,7 @@
         <v>6</v>
       </c>
       <c r="F1658" s="3" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="G1658" s="3" t="s">
         <v>6</v>
@@ -65992,7 +66103,7 @@
     </row>
     <row r="1659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1659" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="B1659" s="10">
         <v>30.029294</v>
@@ -66001,16 +66112,16 @@
         <v>-84.386913000000007</v>
       </c>
       <c r="D1659" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="E1659" t="s">
         <v>6</v>
       </c>
       <c r="F1659" s="3" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="G1659" s="4" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="H1659" t="s">
         <v>2772</v>
@@ -66024,7 +66135,7 @@
     </row>
     <row r="1660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="B1660" s="10">
         <v>-0.85613899999999998</v>
@@ -66039,7 +66150,7 @@
         <v>6</v>
       </c>
       <c r="F1660" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="G1660" s="3" t="s">
         <v>6</v>
@@ -66056,7 +66167,7 @@
     </row>
     <row r="1661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1661" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="B1661" s="10">
         <v>-0.60829200000000005</v>
@@ -66071,7 +66182,7 @@
         <v>6</v>
       </c>
       <c r="F1661" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="G1661" s="3" t="s">
         <v>6</v>
@@ -66088,7 +66199,7 @@
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1662" s="4" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="B1662" s="10">
         <v>-0.78536799999999996</v>
@@ -66103,13 +66214,13 @@
         <v>6</v>
       </c>
       <c r="F1662" s="3" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="G1662" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1662" s="3" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="I1662" t="s">
         <v>6</v>
@@ -66120,7 +66231,7 @@
     </row>
     <row r="1663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1663" s="4" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="B1663" s="10">
         <v>-0.82426200000000005</v>
@@ -66135,13 +66246,13 @@
         <v>6</v>
       </c>
       <c r="F1663" s="4" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="G1663" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1663" s="3" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="I1663" t="s">
         <v>6</v>
@@ -66152,7 +66263,7 @@
     </row>
     <row r="1664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="B1664" s="10">
         <v>33.930973000000002</v>
@@ -66167,7 +66278,7 @@
         <v>6</v>
       </c>
       <c r="F1664" s="3" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="G1664" s="3" t="s">
         <v>6</v>
@@ -66184,7 +66295,7 @@
     </row>
     <row r="1665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="B1665" s="10">
         <v>34.093277999999998</v>
@@ -66199,13 +66310,13 @@
         <v>6</v>
       </c>
       <c r="F1665" s="3" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="G1665" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1665" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="I1665" s="3" t="s">
         <v>6</v>
@@ -66216,7 +66327,7 @@
     </row>
     <row r="1666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1666" s="4" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="B1666" s="10">
         <v>6.3355240000000004</v>
@@ -66231,7 +66342,7 @@
         <v>6</v>
       </c>
       <c r="F1666" s="3" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="G1666" s="3" t="s">
         <v>6</v>
@@ -66248,7 +66359,7 @@
     </row>
     <row r="1667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1667" s="4" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="B1667" s="10">
         <v>6.4017200000000001</v>
@@ -66263,13 +66374,13 @@
         <v>6</v>
       </c>
       <c r="F1667" s="3" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="G1667" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1667" s="4" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="I1667" t="s">
         <v>6</v>
@@ -66280,7 +66391,7 @@
     </row>
     <row r="1668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1668" s="4" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="B1668" s="10">
         <v>5.9687330000000003</v>
@@ -66295,7 +66406,7 @@
         <v>6</v>
       </c>
       <c r="F1668" s="3" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="G1668" s="3" t="s">
         <v>6</v>
@@ -66312,7 +66423,7 @@
     </row>
     <row r="1669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1669" s="4" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="B1669" s="10">
         <v>6.1071179999999998</v>
@@ -66327,13 +66438,13 @@
         <v>6</v>
       </c>
       <c r="F1669" s="3" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="G1669" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1669" s="4" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="I1669" t="s">
         <v>6</v>
@@ -66344,7 +66455,7 @@
     </row>
     <row r="1670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1670" s="4" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="B1670" s="10">
         <v>5.9732200000000004</v>
@@ -66359,13 +66470,13 @@
         <v>6</v>
       </c>
       <c r="F1670" s="3" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="G1670" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1670" s="4" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="I1670" t="s">
         <v>6</v>
@@ -66376,7 +66487,7 @@
     </row>
     <row r="1671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1671" s="4" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="B1671" s="10">
         <v>5.673883</v>
@@ -66391,13 +66502,13 @@
         <v>6</v>
       </c>
       <c r="F1671" s="3" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="G1671" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1671" s="4" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="I1671" t="s">
         <v>6</v>
@@ -66408,7 +66519,7 @@
     </row>
     <row r="1672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="B1672" s="10">
         <v>5.3849179999999999</v>
@@ -66423,7 +66534,7 @@
         <v>6</v>
       </c>
       <c r="F1672" s="3" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="G1672" s="3" t="s">
         <v>6</v>
@@ -66440,7 +66551,7 @@
     </row>
     <row r="1673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="B1673" s="10">
         <v>5.2845209999999998</v>
@@ -66455,7 +66566,7 @@
         <v>6</v>
       </c>
       <c r="F1673" s="3" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="G1673" s="3" t="s">
         <v>6</v>
@@ -66472,7 +66583,7 @@
     </row>
     <row r="1674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="B1674" s="10">
         <v>2.0296789999999998</v>
@@ -66487,7 +66598,7 @@
         <v>6</v>
       </c>
       <c r="F1674" s="3" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="G1674" s="3" t="s">
         <v>6</v>
@@ -66504,7 +66615,7 @@
     </row>
     <row r="1675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1675" s="4" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B1675" s="10">
         <v>36.738377</v>
@@ -66519,7 +66630,7 @@
         <v>6</v>
       </c>
       <c r="F1675" s="3" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="G1675" s="3" t="s">
         <v>6</v>
@@ -66536,7 +66647,7 @@
     </row>
     <row r="1676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="B1676" s="10">
         <v>10.659046</v>
@@ -66551,7 +66662,7 @@
         <v>6</v>
       </c>
       <c r="F1676" s="3" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="G1676" s="3" t="s">
         <v>6</v>
@@ -66568,7 +66679,7 @@
     </row>
     <row r="1677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="B1677" s="10">
         <v>10.392677000000001</v>
@@ -66583,13 +66694,13 @@
         <v>6</v>
       </c>
       <c r="F1677" s="3" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="G1677" t="s">
         <v>6</v>
       </c>
       <c r="H1677" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="I1677" t="s">
         <v>6</v>
@@ -66600,7 +66711,7 @@
     </row>
     <row r="1678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="B1678" s="10">
         <v>10.427044</v>
@@ -66615,7 +66726,7 @@
         <v>6</v>
       </c>
       <c r="F1678" s="3" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="G1678" s="3" t="s">
         <v>6</v>
@@ -66632,7 +66743,7 @@
     </row>
     <row r="1679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="B1679" s="10">
         <v>10.595962</v>
@@ -66647,7 +66758,7 @@
         <v>6</v>
       </c>
       <c r="F1679" s="3" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="G1679" s="3" t="s">
         <v>6</v>
@@ -66664,7 +66775,7 @@
     </row>
     <row r="1680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="B1680" s="10">
         <v>10.595962</v>
@@ -66673,13 +66784,13 @@
         <v>-61.454707999999997</v>
       </c>
       <c r="D1680" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="E1680" t="s">
         <v>6</v>
       </c>
       <c r="F1680" s="3" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="G1680" s="3" t="s">
         <v>6</v>
@@ -66696,7 +66807,7 @@
     </row>
     <row r="1681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1681" s="4" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="B1681" s="10">
         <v>41.025874999999999</v>
@@ -66711,7 +66822,7 @@
         <v>6</v>
       </c>
       <c r="F1681" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="G1681" s="3" t="s">
         <v>6</v>
@@ -66728,7 +66839,7 @@
     </row>
     <row r="1682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1682" s="4" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="B1682" s="10">
         <v>40.812446000000001</v>
@@ -66743,13 +66854,13 @@
         <v>6</v>
       </c>
       <c r="F1682" s="3" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1682" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1682" s="4" t="s">
         <v>3491</v>
-      </c>
-      <c r="G1682" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1682" s="4" t="s">
-        <v>3492</v>
       </c>
       <c r="I1682" s="3" t="s">
         <v>6</v>
@@ -66760,7 +66871,7 @@
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1683" s="4" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="B1683" s="10">
         <v>40.889007999999997</v>
@@ -66775,7 +66886,7 @@
         <v>6</v>
       </c>
       <c r="F1683" s="3" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="G1683" s="3" t="s">
         <v>6</v>
@@ -66792,7 +66903,7 @@
     </row>
     <row r="1684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="B1684" s="10">
         <v>41.588399000000003</v>
@@ -66807,7 +66918,7 @@
         <v>6</v>
       </c>
       <c r="F1684" s="3" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="G1684" s="3" t="s">
         <v>6</v>
@@ -66824,7 +66935,7 @@
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1685" s="4" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="B1685" s="10">
         <v>-17.608816000000001</v>
@@ -66839,7 +66950,7 @@
         <v>6</v>
       </c>
       <c r="F1685" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="G1685" t="s">
         <v>6</v>
@@ -66856,7 +66967,7 @@
     </row>
     <row r="1686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="B1686" s="10">
         <v>37.165308000000003</v>
@@ -66871,7 +66982,7 @@
         <v>6</v>
       </c>
       <c r="F1686" s="3" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="G1686" t="s">
         <v>6</v>
@@ -66888,7 +66999,7 @@
     </row>
     <row r="1687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="B1687" s="10">
         <v>-12.554034</v>
@@ -66903,7 +67014,7 @@
         <v>6</v>
       </c>
       <c r="F1687" s="3" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="G1687" s="3" t="s">
         <v>6</v>
@@ -66920,7 +67031,7 @@
     </row>
     <row r="1688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="B1688" s="10">
         <v>-2.285021</v>
@@ -66935,13 +67046,13 @@
         <v>6</v>
       </c>
       <c r="F1688" s="3" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="G1688" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1688" s="4" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="I1688" s="3" t="s">
         <v>6</v>
@@ -66952,7 +67063,7 @@
     </row>
     <row r="1689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1689" s="4" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="B1689" s="10">
         <v>-1.9667809999999999</v>
@@ -66967,7 +67078,7 @@
         <v>6</v>
       </c>
       <c r="F1689" s="3" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="G1689" s="3" t="s">
         <v>6</v>
@@ -66984,7 +67095,7 @@
     </row>
     <row r="1690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1690" s="4" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="B1690" s="10">
         <v>10.879286</v>
@@ -66999,7 +67110,7 @@
         <v>6</v>
       </c>
       <c r="F1690" s="3" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="G1690" s="3" t="s">
         <v>6</v>
@@ -67016,7 +67127,7 @@
     </row>
     <row r="1691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1691" s="4" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B1691" s="10">
         <v>28.127164</v>
@@ -67031,13 +67142,13 @@
         <v>6</v>
       </c>
       <c r="F1691" s="3" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="G1691" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1691" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="I1691" t="s">
         <v>6</v>
@@ -67048,7 +67159,7 @@
     </row>
     <row r="1692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1692" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B1692" s="10">
         <v>27.958845</v>
@@ -67063,13 +67174,13 @@
         <v>6</v>
       </c>
       <c r="F1692" s="3" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="G1692" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1692" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="I1692" t="s">
         <v>6</v>
@@ -67080,7 +67191,7 @@
     </row>
     <row r="1693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B1693" s="10">
         <v>28.342518999999999</v>
@@ -67095,10 +67206,10 @@
         <v>6</v>
       </c>
       <c r="F1693" s="3" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="G1693" s="3" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="H1693" s="3" t="s">
         <v>93</v>
@@ -67112,7 +67223,7 @@
     </row>
     <row r="1694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1694" s="4" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="B1694" s="10">
         <v>16.081212000000001</v>
@@ -67127,7 +67238,7 @@
         <v>6</v>
       </c>
       <c r="F1694" s="3" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="G1694" s="3" t="s">
         <v>6</v>
@@ -67144,7 +67255,7 @@
     </row>
     <row r="1695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1695" s="4" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="B1695" s="10">
         <v>3.5719850000000002</v>
@@ -67159,7 +67270,7 @@
         <v>6</v>
       </c>
       <c r="F1695" s="3" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="G1695" s="3" t="s">
         <v>6</v>
@@ -67176,7 +67287,7 @@
     </row>
     <row r="1696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1696" s="4" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="B1696" s="10">
         <v>22.422605000000001</v>
@@ -67191,7 +67302,7 @@
         <v>6</v>
       </c>
       <c r="F1696" s="3" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="G1696" s="3" t="s">
         <v>6</v>
@@ -67208,7 +67319,7 @@
     </row>
     <row r="1697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="B1697" s="10">
         <v>22.243656000000001</v>
@@ -67223,7 +67334,7 @@
         <v>6</v>
       </c>
       <c r="F1697" s="3" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="G1697" s="3" t="s">
         <v>6</v>
@@ -67240,7 +67351,7 @@
     </row>
     <row r="1698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="B1698" s="10">
         <v>22.354624000000001</v>
@@ -67255,7 +67366,7 @@
         <v>6</v>
       </c>
       <c r="F1698" s="3" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="G1698" s="3" t="s">
         <v>6</v>
@@ -67272,7 +67383,7 @@
     </row>
     <row r="1699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1699" s="4" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="B1699" s="10">
         <v>22.431801</v>
@@ -67287,7 +67398,7 @@
         <v>6</v>
       </c>
       <c r="F1699" s="4" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="G1699" s="3" t="s">
         <v>6</v>
@@ -67304,7 +67415,7 @@
     </row>
     <row r="1700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1700" s="4" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="B1700" s="10">
         <v>22.411915</v>
@@ -67319,7 +67430,7 @@
         <v>6</v>
       </c>
       <c r="F1700" s="4" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="G1700" s="3" t="s">
         <v>6</v>
@@ -67336,7 +67447,7 @@
     </row>
     <row r="1701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1701" s="4" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="B1701" s="10">
         <v>22.453879000000001</v>
@@ -67351,7 +67462,7 @@
         <v>6</v>
       </c>
       <c r="F1701" s="4" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="G1701" s="3" t="s">
         <v>6</v>
@@ -67368,7 +67479,7 @@
     </row>
     <row r="1702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1702" s="4" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="B1702" s="10">
         <v>22.527396</v>
@@ -67383,7 +67494,7 @@
         <v>6</v>
       </c>
       <c r="F1702" s="4" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="G1702" s="3" t="s">
         <v>6</v>
@@ -67400,7 +67511,7 @@
     </row>
     <row r="1703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1703" s="4" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="B1703" s="10">
         <v>22.350023</v>
@@ -67415,7 +67526,7 @@
         <v>6</v>
       </c>
       <c r="F1703" s="4" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="G1703" s="3" t="s">
         <v>6</v>
@@ -67432,7 +67543,7 @@
     </row>
     <row r="1704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1704" s="4" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="B1704" s="10">
         <v>22.495671999999999</v>
@@ -67447,7 +67558,7 @@
         <v>6</v>
       </c>
       <c r="F1704" s="4" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="G1704" s="3" t="s">
         <v>6</v>
@@ -67464,7 +67575,7 @@
     </row>
     <row r="1705" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1705" s="4" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B1705" s="10">
         <v>22.523129999999998</v>
@@ -67479,7 +67590,7 @@
         <v>6</v>
       </c>
       <c r="F1705" s="4" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="G1705" s="3" t="s">
         <v>6</v>
@@ -67496,7 +67607,7 @@
     </row>
     <row r="1706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1706" s="4" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="B1706" s="10">
         <v>22.278959</v>
@@ -67511,7 +67622,7 @@
         <v>6</v>
       </c>
       <c r="F1706" s="4" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="G1706" s="3" t="s">
         <v>6</v>
@@ -67528,7 +67639,7 @@
     </row>
     <row r="1707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1707" s="4" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="B1707" s="10">
         <v>22.236173000000001</v>
@@ -67543,7 +67654,7 @@
         <v>6</v>
       </c>
       <c r="F1707" s="4" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="G1707" s="3" t="s">
         <v>6</v>
@@ -67560,7 +67671,7 @@
     </row>
     <row r="1708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1708" s="4" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="B1708" s="10">
         <v>22.419775999999999</v>
@@ -67575,7 +67686,7 @@
         <v>6</v>
       </c>
       <c r="F1708" s="4" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="G1708" s="3" t="s">
         <v>6</v>
@@ -67592,7 +67703,7 @@
     </row>
     <row r="1709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1709" s="4" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="B1709" s="10">
         <v>22.510204999999999</v>
@@ -67607,7 +67718,7 @@
         <v>6</v>
       </c>
       <c r="F1709" s="4" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="G1709" s="3" t="s">
         <v>6</v>
@@ -67624,7 +67735,7 @@
     </row>
     <row r="1710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1710" s="4" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="B1710" s="10">
         <v>22.45731</v>
@@ -67639,7 +67750,7 @@
         <v>6</v>
       </c>
       <c r="F1710" s="4" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="G1710" s="3" t="s">
         <v>6</v>
@@ -67656,7 +67767,7 @@
     </row>
     <row r="1711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1711" s="4" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="B1711" s="10">
         <v>22.289726000000002</v>
@@ -67671,7 +67782,7 @@
         <v>6</v>
       </c>
       <c r="F1711" s="4" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="G1711" s="3" t="s">
         <v>6</v>
@@ -67688,7 +67799,7 @@
     </row>
     <row r="1712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1712" s="4" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="B1712" s="10">
         <v>22.269739999999999</v>
@@ -67703,7 +67814,7 @@
         <v>6</v>
       </c>
       <c r="F1712" s="4" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="G1712" s="3" t="s">
         <v>6</v>
@@ -67720,7 +67831,7 @@
     </row>
     <row r="1713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1713" s="4" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="B1713" s="10">
         <v>22.451343000000001</v>
@@ -67735,7 +67846,7 @@
         <v>6</v>
       </c>
       <c r="F1713" s="4" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="G1713" s="3" t="s">
         <v>6</v>
@@ -67752,7 +67863,7 @@
     </row>
     <row r="1714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1714" s="4" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="B1714" s="10">
         <v>22.507352000000001</v>
@@ -67767,7 +67878,7 @@
         <v>6</v>
       </c>
       <c r="F1714" s="4" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="G1714" s="3" t="s">
         <v>6</v>
@@ -67784,7 +67895,7 @@
     </row>
     <row r="1715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1715" s="4" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="B1715" s="10">
         <v>22.354538000000002</v>
@@ -67799,7 +67910,7 @@
         <v>6</v>
       </c>
       <c r="F1715" s="4" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="G1715" s="3" t="s">
         <v>6</v>
@@ -67816,7 +67927,7 @@
     </row>
     <row r="1716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1716" s="4" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="B1716" s="10">
         <v>22.299672000000001</v>
@@ -67831,7 +67942,7 @@
         <v>6</v>
       </c>
       <c r="F1716" s="4" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="G1716" s="3" t="s">
         <v>6</v>
@@ -67848,7 +67959,7 @@
     </row>
     <row r="1717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1717" s="4" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="B1717" s="10">
         <v>22.439948999999999</v>
@@ -67863,7 +67974,7 @@
         <v>6</v>
       </c>
       <c r="F1717" s="4" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="G1717" s="3" t="s">
         <v>6</v>
@@ -67880,7 +67991,7 @@
     </row>
     <row r="1718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1718" s="4" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="B1718" s="10">
         <v>22.308343000000001</v>
@@ -67895,7 +68006,7 @@
         <v>6</v>
       </c>
       <c r="F1718" s="4" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="G1718" s="3" t="s">
         <v>6</v>
@@ -67912,7 +68023,7 @@
     </row>
     <row r="1719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1719" s="4" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="B1719" s="10">
         <v>22.469469</v>
@@ -67927,7 +68038,7 @@
         <v>6</v>
       </c>
       <c r="F1719" s="4" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="G1719" s="3" t="s">
         <v>6</v>
@@ -67944,7 +68055,7 @@
     </row>
     <row r="1720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1720" s="4" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="B1720" s="10">
         <v>22.428571000000002</v>
@@ -67959,7 +68070,7 @@
         <v>6</v>
       </c>
       <c r="F1720" s="4" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="G1720" s="3" t="s">
         <v>6</v>
@@ -67976,7 +68087,7 @@
     </row>
     <row r="1721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1721" s="4" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="B1721" s="10">
         <v>22.486623999999999</v>
@@ -67991,7 +68102,7 @@
         <v>6</v>
       </c>
       <c r="F1721" s="4" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="G1721" s="3" t="s">
         <v>6</v>
@@ -68008,7 +68119,7 @@
     </row>
     <row r="1722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1722" s="4" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="B1722" s="10">
         <v>22.287438999999999</v>
@@ -68023,7 +68134,7 @@
         <v>6</v>
       </c>
       <c r="F1722" s="4" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="G1722" s="3" t="s">
         <v>6</v>
@@ -68040,7 +68151,7 @@
     </row>
     <row r="1723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1723" s="4" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="B1723" s="10">
         <v>22.388552000000001</v>
@@ -68055,7 +68166,7 @@
         <v>6</v>
       </c>
       <c r="F1723" s="4" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="G1723" s="3" t="s">
         <v>6</v>
@@ -68072,7 +68183,7 @@
     </row>
     <row r="1724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1724" s="4" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="B1724" s="10">
         <v>22.534134999999999</v>
@@ -68087,7 +68198,7 @@
         <v>6</v>
       </c>
       <c r="F1724" s="4" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="G1724" s="3" t="s">
         <v>6</v>
@@ -68104,7 +68215,7 @@
     </row>
     <row r="1725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1725" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="B1725" s="10">
         <v>22.328699</v>
@@ -68119,7 +68230,7 @@
         <v>6</v>
       </c>
       <c r="F1725" s="3" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G1725" s="3" t="s">
         <v>6</v>
@@ -68136,7 +68247,7 @@
     </row>
     <row r="1726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1726" s="4" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="B1726" s="10">
         <v>22.237328999999999</v>
@@ -68151,7 +68262,7 @@
         <v>6</v>
       </c>
       <c r="F1726" s="4" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G1726" s="3" t="s">
         <v>6</v>
@@ -68168,7 +68279,7 @@
     </row>
     <row r="1727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1727" s="4" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="B1727" s="10">
         <v>22.470645999999999</v>
@@ -68183,7 +68294,7 @@
         <v>6</v>
       </c>
       <c r="F1727" s="3" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="G1727" s="3" t="s">
         <v>6</v>
@@ -68200,7 +68311,7 @@
     </row>
     <row r="1728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1728" s="4" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="B1728" s="10">
         <v>22.487386999999998</v>
@@ -68215,7 +68326,7 @@
         <v>6</v>
       </c>
       <c r="F1728" s="4" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="G1728" s="3" t="s">
         <v>6</v>
@@ -68232,7 +68343,7 @@
     </row>
     <row r="1729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1729" s="4" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="B1729" s="10">
         <v>22.442202000000002</v>
@@ -68247,7 +68358,7 @@
         <v>6</v>
       </c>
       <c r="F1729" s="4" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="G1729" s="3" t="s">
         <v>6</v>
@@ -68264,7 +68375,7 @@
     </row>
     <row r="1730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1730" s="4" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="B1730" s="10">
         <v>22.440249999999999</v>
@@ -68279,7 +68390,7 @@
         <v>6</v>
       </c>
       <c r="F1730" s="3" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="G1730" s="3" t="s">
         <v>6</v>
@@ -68296,7 +68407,7 @@
     </row>
     <row r="1731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1731" s="4" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="B1731" s="10">
         <v>22.525698999999999</v>
@@ -68311,7 +68422,7 @@
         <v>6</v>
       </c>
       <c r="F1731" s="3" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="G1731" s="3" t="s">
         <v>6</v>
@@ -68328,7 +68439,7 @@
     </row>
     <row r="1732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1732" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="B1732" s="10">
         <v>18.345565000000001</v>
@@ -68343,7 +68454,7 @@
         <v>6</v>
       </c>
       <c r="F1732" s="3" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="G1732" s="3" t="s">
         <v>6</v>
@@ -68360,7 +68471,7 @@
     </row>
     <row r="1733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1733" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="B1733" s="10">
         <v>41.310012</v>
@@ -68375,13 +68486,13 @@
         <v>6</v>
       </c>
       <c r="F1733" s="3" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="G1733" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1733" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="I1733" t="s">
         <v>6</v>
@@ -68392,7 +68503,7 @@
     </row>
     <row r="1734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1734" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="B1734" s="10">
         <v>41.282694999999997</v>
@@ -68407,7 +68518,7 @@
         <v>6</v>
       </c>
       <c r="F1734" s="3" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="G1734" s="3" t="s">
         <v>6</v>
@@ -68424,7 +68535,7 @@
     </row>
     <row r="1735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1735" s="4" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="B1735" s="10">
         <f>-(5+29/60+51/3600)</f>
@@ -68441,7 +68552,7 @@
         <v>6</v>
       </c>
       <c r="F1735" s="3" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="G1735" s="3" t="s">
         <v>6</v>
@@ -68458,7 +68569,7 @@
     </row>
     <row r="1736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1736" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="B1736" s="10">
         <f>-(7+0.683333333333333)</f>
@@ -68475,7 +68586,7 @@
         <v>6</v>
       </c>
       <c r="F1736" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="G1736" s="3" t="s">
         <v>6</v>
@@ -68492,7 +68603,7 @@
     </row>
     <row r="1737" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1737" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="B1737" s="10">
         <v>-8.3938500000000005</v>
@@ -68507,13 +68618,13 @@
         <v>6</v>
       </c>
       <c r="F1737" s="4" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="G1737" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1737" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="I1737" t="s">
         <v>6</v>
@@ -68524,7 +68635,7 @@
     </row>
     <row r="1738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1738" s="4" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="B1738" s="10">
         <v>-8.4004239999999992</v>
@@ -68539,13 +68650,13 @@
         <v>6</v>
       </c>
       <c r="F1738" s="4" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="G1738" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1738" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="I1738" t="s">
         <v>6</v>
@@ -68556,7 +68667,7 @@
     </row>
     <row r="1739" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1739" s="4" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="B1739" s="10">
         <v>-8.7285470000000007</v>
@@ -68571,13 +68682,13 @@
         <v>6</v>
       </c>
       <c r="F1739" s="4" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="G1739" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1739" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="I1739" t="s">
         <v>6</v>
@@ -68588,7 +68699,7 @@
     </row>
     <row r="1740" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1740" s="4" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="B1740" s="10">
         <v>-8.8991170000000004</v>
@@ -68603,13 +68714,13 @@
         <v>6</v>
       </c>
       <c r="F1740" s="4" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="G1740" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1740" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="I1740" t="s">
         <v>6</v>
@@ -68620,7 +68731,7 @@
     </row>
     <row r="1741" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1741" s="4" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="B1741" s="10">
         <v>-8.8238540000000008</v>
@@ -68635,13 +68746,13 @@
         <v>6</v>
       </c>
       <c r="F1741" s="4" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="G1741" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1741" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="I1741" t="s">
         <v>6</v>
@@ -68652,7 +68763,7 @@
     </row>
     <row r="1742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1742" s="4" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="B1742" s="10">
         <v>-8.8238540000000008</v>
@@ -68667,13 +68778,13 @@
         <v>6</v>
       </c>
       <c r="F1742" s="4" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="G1742" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1742" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="I1742" t="s">
         <v>6</v>
@@ -68684,7 +68795,7 @@
     </row>
     <row r="1743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1743" s="4" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="B1743" s="10">
         <v>-8.7767970000000002</v>
@@ -68699,13 +68810,13 @@
         <v>6</v>
       </c>
       <c r="F1743" s="4" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="G1743" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1743" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="I1743" t="s">
         <v>6</v>
@@ -68716,7 +68827,7 @@
     </row>
     <row r="1744" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1744" s="4" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="B1744" s="10">
         <f>-(8+35/60)</f>
@@ -68733,7 +68844,7 @@
         <v>6</v>
       </c>
       <c r="F1744" s="3" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="G1744" s="3" t="s">
         <v>6</v>
@@ -68750,7 +68861,7 @@
     </row>
     <row r="1745" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1745" s="4" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="B1745" s="10">
         <f>-(10+11/60)</f>
@@ -68767,7 +68878,7 @@
         <v>6</v>
       </c>
       <c r="F1745" s="3" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="G1745" s="3" t="s">
         <v>6</v>
@@ -68784,7 +68895,7 @@
     </row>
     <row r="1746" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1746" s="4" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="B1746" s="10">
         <f>3+56/60</f>
@@ -68801,7 +68912,7 @@
         <v>6</v>
       </c>
       <c r="F1746" s="3" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="G1746" s="3" t="s">
         <v>6</v>
@@ -68818,7 +68929,7 @@
     </row>
     <row r="1747" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1747" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="B1747" s="10">
         <v>29.475131999999999</v>
@@ -68833,7 +68944,7 @@
         <v>6</v>
       </c>
       <c r="F1747" s="3" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="G1747" s="3" t="s">
         <v>6</v>
@@ -68850,7 +68961,7 @@
     </row>
     <row r="1748" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1748" s="3" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="B1748" s="10">
         <v>15.753473</v>
@@ -68865,7 +68976,7 @@
         <v>6</v>
       </c>
       <c r="F1748" s="3" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="G1748" s="3" t="s">
         <v>6</v>
@@ -68882,7 +68993,7 @@
     </row>
     <row r="1749" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1749" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="B1749" s="10">
         <v>-6.8228010000000001</v>
@@ -68897,7 +69008,7 @@
         <v>6</v>
       </c>
       <c r="F1749" s="3" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="G1749" s="3" t="s">
         <v>6</v>
@@ -68914,7 +69025,7 @@
     </row>
     <row r="1750" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1750" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="B1750" s="10">
         <v>-6.1175980000000001</v>
@@ -68929,7 +69040,7 @@
         <v>6</v>
       </c>
       <c r="F1750" s="3" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="G1750" s="3" t="s">
         <v>6</v>
@@ -68946,7 +69057,7 @@
     </row>
     <row r="1751" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1751" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="B1751" s="10">
         <v>-6.1607269999999996</v>
@@ -68961,13 +69072,13 @@
         <v>6</v>
       </c>
       <c r="F1751" s="3" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="G1751" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1751" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="I1751" t="s">
         <v>6</v>
@@ -68978,7 +69089,7 @@
     </row>
     <row r="1752" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1752" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1752" s="10">
         <v>18.451329000000001</v>
@@ -68993,7 +69104,7 @@
         <v>6</v>
       </c>
       <c r="F1752" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="G1752" s="3" t="s">
         <v>6</v>
@@ -69010,7 +69121,7 @@
     </row>
     <row r="1753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1753" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="B1753" s="10">
         <v>18.406168000000001</v>
@@ -69025,13 +69136,13 @@
         <v>6</v>
       </c>
       <c r="F1753" s="3" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="G1753" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1753" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="I1753" s="3" t="s">
         <v>6</v>
@@ -69042,7 +69153,7 @@
     </row>
     <row r="1754" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1754" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="B1754" s="10">
         <v>18.412196999999999</v>
@@ -69057,7 +69168,7 @@
         <v>6</v>
       </c>
       <c r="F1754" s="3" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1754" s="3" t="s">
         <v>6</v>
@@ -69074,7 +69185,7 @@
     </row>
     <row r="1755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1755" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="B1755" s="10">
         <f>3+21/60</f>
@@ -69091,7 +69202,7 @@
         <v>1563</v>
       </c>
       <c r="F1755" s="3" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="G1755" s="3" t="s">
         <v>6</v>
@@ -69108,7 +69219,7 @@
     </row>
     <row r="1756" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1756" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="B1756" s="10">
         <v>41.129275999999997</v>
@@ -69123,7 +69234,7 @@
         <v>6</v>
       </c>
       <c r="F1756" s="3" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="G1756" s="3" t="s">
         <v>6</v>
@@ -69140,7 +69251,7 @@
     </row>
     <row r="1757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1757" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="B1757" s="10">
         <v>26.834102000000001</v>
@@ -69149,16 +69260,16 @@
         <v>-82.262201000000005</v>
       </c>
       <c r="D1757" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="E1757" t="s">
         <v>6</v>
       </c>
       <c r="F1757" s="3" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="G1757" s="3" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="H1757" t="s">
         <v>2754</v>
@@ -69172,7 +69283,7 @@
     </row>
     <row r="1758" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1758" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="B1758" s="10">
         <v>34.785606999999999</v>
@@ -69187,10 +69298,10 @@
         <v>6</v>
       </c>
       <c r="F1758" s="3" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="G1758" s="3" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="H1758" t="s">
         <v>2615</v>
@@ -69204,7 +69315,7 @@
     </row>
     <row r="1759" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1759" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="B1759" s="10">
         <v>30.048086000000001</v>
@@ -69219,7 +69330,7 @@
         <v>6</v>
       </c>
       <c r="F1759" s="3" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="G1759" s="3" t="s">
         <v>6</v>
@@ -69236,7 +69347,7 @@
     </row>
     <row r="1760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1760" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="B1760" s="10">
         <v>30.005683999999999</v>
@@ -69251,7 +69362,7 @@
         <v>6</v>
       </c>
       <c r="F1760" s="3" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="G1760" s="3" t="s">
         <v>6</v>
@@ -69268,7 +69379,7 @@
     </row>
     <row r="1761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1761" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="B1761" s="10">
         <v>31.339469000000001</v>
@@ -69283,7 +69394,7 @@
         <v>6</v>
       </c>
       <c r="F1761" s="3" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="G1761" s="3" t="s">
         <v>6</v>
@@ -69300,7 +69411,7 @@
     </row>
     <row r="1762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1762" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="B1762" s="10">
         <v>33.332591999999998</v>
@@ -69315,7 +69426,7 @@
         <v>6</v>
       </c>
       <c r="F1762" s="3" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="G1762" s="3" t="s">
         <v>6</v>
@@ -69332,7 +69443,7 @@
     </row>
     <row r="1763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1763" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="B1763" s="10">
         <v>5.8909459999999996</v>
@@ -69347,7 +69458,7 @@
         <v>6</v>
       </c>
       <c r="F1763" s="3" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="G1763" s="3" t="s">
         <v>6</v>
@@ -69364,7 +69475,7 @@
     </row>
     <row r="1764" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1764" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="B1764" s="10">
         <v>5.900531</v>
@@ -69379,10 +69490,10 @@
         <v>6</v>
       </c>
       <c r="F1764" s="3" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="G1764" s="3" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="H1764" t="s">
         <v>479</v>
@@ -69396,7 +69507,7 @@
     </row>
     <row r="1765" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1765" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="B1765" s="10">
         <v>5.9639439999999997</v>
@@ -69405,13 +69516,13 @@
         <v>-54.616733000000004</v>
       </c>
       <c r="D1765" t="s">
+        <v>3686</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1765" t="s">
         <v>3687</v>
-      </c>
-      <c r="E1765" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1765" t="s">
-        <v>3688</v>
       </c>
       <c r="G1765" s="3" t="s">
         <v>6</v>
@@ -69428,7 +69539,7 @@
     </row>
     <row r="1766" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1766" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="B1766" s="10">
         <v>5.3296619999999999</v>
@@ -69443,7 +69554,7 @@
         <v>6</v>
       </c>
       <c r="F1766" s="3" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="G1766" s="3" t="s">
         <v>6</v>
@@ -69460,7 +69571,7 @@
     </row>
     <row r="1767" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1767" s="4" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="B1767" s="10">
         <v>17.576733000000001</v>
@@ -69469,13 +69580,13 @@
         <v>42.135739999999998</v>
       </c>
       <c r="D1767" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="E1767" t="s">
         <v>6</v>
       </c>
       <c r="F1767" s="4" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="G1767" s="3" t="s">
         <v>6</v>
@@ -69492,7 +69603,7 @@
     </row>
     <row r="1768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1768" s="4" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1768" s="10">
         <v>21.977671999999998</v>
@@ -69507,7 +69618,7 @@
         <v>6</v>
       </c>
       <c r="F1768" s="4" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="G1768" s="3" t="s">
         <v>6</v>
@@ -69524,7 +69635,7 @@
     </row>
     <row r="1769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1769" s="4" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="B1769" s="10">
         <v>16.777089</v>
@@ -69533,13 +69644,13 @@
         <v>41.939571999999998</v>
       </c>
       <c r="D1769" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="E1769" t="s">
         <v>6</v>
       </c>
       <c r="F1769" s="4" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="G1769" s="3" t="s">
         <v>6</v>
@@ -69548,7 +69659,7 @@
         <v>1580</v>
       </c>
       <c r="I1769" s="4" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="J1769" s="3" t="s">
         <v>6</v>
@@ -69556,7 +69667,7 @@
     </row>
     <row r="1770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1770" s="4" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="B1770" s="10">
         <v>16.883614000000001</v>
@@ -69565,13 +69676,13 @@
         <v>42.53904</v>
       </c>
       <c r="D1770" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="E1770" t="s">
         <v>6</v>
       </c>
       <c r="F1770" s="4" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="G1770" s="3" t="s">
         <v>6</v>
@@ -69580,7 +69691,7 @@
         <v>1580</v>
       </c>
       <c r="I1770" s="4" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="J1770" s="3" t="s">
         <v>6</v>
@@ -69588,7 +69699,7 @@
     </row>
     <row r="1771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1771" s="4" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="B1771" s="10">
         <v>-23.000031</v>
@@ -69603,7 +69714,7 @@
         <v>6</v>
       </c>
       <c r="F1771" s="3" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="G1771" s="3" t="s">
         <v>6</v>
@@ -69620,7 +69731,7 @@
     </row>
     <row r="1772" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1772" s="4" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="B1772" s="10">
         <v>28.659935999999998</v>
@@ -69635,7 +69746,7 @@
         <v>6</v>
       </c>
       <c r="F1772" s="3" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="G1772" s="3" t="s">
         <v>6</v>
@@ -69652,7 +69763,7 @@
     </row>
     <row r="1773" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1773" s="4" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="B1773" s="10">
         <v>29.360254000000001</v>
@@ -69667,7 +69778,7 @@
         <v>6</v>
       </c>
       <c r="F1773" s="3" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="G1773" s="3" t="s">
         <v>6</v>
@@ -69676,7 +69787,7 @@
         <v>87</v>
       </c>
       <c r="I1773" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="J1773" s="3" t="s">
         <v>6</v>
@@ -69684,7 +69795,7 @@
     </row>
     <row r="1774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1774" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="B1774" s="10">
         <v>29.319732999999999</v>
@@ -69699,7 +69810,7 @@
         <v>6</v>
       </c>
       <c r="F1774" s="3" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="G1774" s="3" t="s">
         <v>6</v>
@@ -69708,7 +69819,7 @@
         <v>87</v>
       </c>
       <c r="I1774" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="J1774" s="3" t="s">
         <v>6</v>
@@ -69716,7 +69827,7 @@
     </row>
     <row r="1775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1775" s="4" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="B1775" s="10">
         <v>29.415171999999998</v>
@@ -69725,13 +69836,13 @@
         <v>47.756101999999998</v>
       </c>
       <c r="D1775" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="E1775" t="s">
         <v>6</v>
       </c>
       <c r="F1775" s="3" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="G1775" s="3" t="s">
         <v>6</v>
@@ -69740,7 +69851,7 @@
         <v>87</v>
       </c>
       <c r="I1775" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="J1775" s="3" t="s">
         <v>6</v>
@@ -69748,7 +69859,7 @@
     </row>
     <row r="1776" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1776" s="4" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="B1776" s="10">
         <f>29+22/60</f>
@@ -69765,16 +69876,16 @@
         <v>6</v>
       </c>
       <c r="F1776" s="3" t="s">
+        <v>3711</v>
+      </c>
+      <c r="G1776" s="3" t="s">
         <v>3712</v>
-      </c>
-      <c r="G1776" s="3" t="s">
-        <v>3713</v>
       </c>
       <c r="H1776" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I1776" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="J1776" s="3" t="s">
         <v>6</v>
@@ -69782,7 +69893,7 @@
     </row>
     <row r="1777" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1777" s="4" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="B1777" s="10">
         <f>29+23/60+34/3600</f>
@@ -69799,13 +69910,13 @@
         <v>6</v>
       </c>
       <c r="F1777" s="3" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="G1777" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1777" s="4" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="I1777" s="3" t="s">
         <v>6</v>
@@ -69816,7 +69927,7 @@
     </row>
     <row r="1778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1778" s="4" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="B1778" s="10">
         <v>29.384853</v>
@@ -69831,7 +69942,7 @@
         <v>6</v>
       </c>
       <c r="F1778" s="3" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="G1778" s="3" t="s">
         <v>6</v>
@@ -69840,7 +69951,7 @@
         <v>87</v>
       </c>
       <c r="I1778" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="J1778" s="3" t="s">
         <v>6</v>
@@ -69848,7 +69959,7 @@
     </row>
     <row r="1779" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1779" s="4" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="B1779" s="10">
         <f>5+28/60+39/3600</f>
@@ -69865,7 +69976,7 @@
         <v>1563</v>
       </c>
       <c r="F1779" s="3" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="G1779" s="3" t="s">
         <v>6</v>
@@ -69882,7 +69993,7 @@
     </row>
     <row r="1780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1780" s="4" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="B1780" s="10">
         <v>28.105308000000001</v>
@@ -69894,13 +70005,13 @@
         <v>6</v>
       </c>
       <c r="E1780" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="F1780" s="4" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="G1780" s="3" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="H1780" s="3" t="s">
         <v>2284</v>
@@ -69914,7 +70025,7 @@
     </row>
     <row r="1781" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1781" s="4" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="B1781" s="10">
         <v>28.178459</v>
@@ -69926,13 +70037,13 @@
         <v>6</v>
       </c>
       <c r="E1781" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="F1781" s="4" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="G1781" s="3" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="H1781" s="3" t="s">
         <v>2284</v>
@@ -69946,7 +70057,7 @@
     </row>
     <row r="1782" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1782" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="B1782" s="10">
         <v>26.62527</v>
@@ -69955,13 +70066,13 @@
         <v>33.997200999999997</v>
       </c>
       <c r="D1782" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="E1782" t="s">
         <v>6</v>
       </c>
       <c r="F1782" s="3" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="G1782" s="3" t="s">
         <v>6</v>
@@ -69978,7 +70089,7 @@
     </row>
     <row r="1783" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1783" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="B1783" s="10">
         <v>26.398467</v>
@@ -69987,13 +70098,13 @@
         <v>34.117618</v>
       </c>
       <c r="D1783" t="s">
+        <v>3725</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1783" s="3" t="s">
         <v>3726</v>
-      </c>
-      <c r="E1783" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1783" s="3" t="s">
-        <v>3727</v>
       </c>
       <c r="G1783" s="3" t="s">
         <v>6</v>
@@ -70010,7 +70121,7 @@
     </row>
     <row r="1784" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1784" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="B1784" s="10">
         <v>24.288315000000001</v>
@@ -70025,7 +70136,7 @@
         <v>6</v>
       </c>
       <c r="F1784" s="3" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="G1784" s="3" t="s">
         <v>6</v>
@@ -70042,7 +70153,7 @@
     </row>
     <row r="1785" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1785" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="B1785" s="10">
         <f>27 + 11/60</f>
@@ -70059,13 +70170,13 @@
         <v>1563</v>
       </c>
       <c r="F1785" s="3" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="G1785" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1785" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="I1785" s="3" t="s">
         <v>6</v>
@@ -70076,7 +70187,7 @@
     </row>
     <row r="1786" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1786" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="B1786" s="10">
         <f>26+19/60</f>
@@ -70093,7 +70204,7 @@
         <v>1563</v>
       </c>
       <c r="F1786" s="3" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="G1786" s="3" t="s">
         <v>6</v>
@@ -70110,7 +70221,7 @@
     </row>
     <row r="1787" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1787" s="3" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1787" s="10">
         <v>26.978231000000001</v>
@@ -70125,13 +70236,13 @@
         <v>6</v>
       </c>
       <c r="F1787" s="3" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="G1787" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1787" s="3" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="I1787" s="3" t="s">
         <v>6</v>
@@ -70142,7 +70253,7 @@
     </row>
     <row r="1788" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1788" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="B1788" s="10">
         <v>26.940346000000002</v>
@@ -70157,7 +70268,7 @@
         <v>6</v>
       </c>
       <c r="F1788" s="3" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="G1788" s="3" t="s">
         <v>6</v>
@@ -70174,7 +70285,7 @@
     </row>
     <row r="1789" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1789" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="B1789" s="10">
         <v>26.603210000000001</v>
@@ -70189,7 +70300,7 @@
         <v>6</v>
       </c>
       <c r="F1789" s="3" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="G1789" s="3" t="s">
         <v>6</v>
@@ -70206,7 +70317,7 @@
     </row>
     <row r="1790" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1790" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="B1790" s="10">
         <v>27.056854999999999</v>
@@ -70221,7 +70332,7 @@
         <v>6</v>
       </c>
       <c r="F1790" s="3" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="G1790" s="3" t="s">
         <v>6</v>
@@ -70238,7 +70349,7 @@
     </row>
     <row r="1791" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1791" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1791" s="10">
         <v>27.113057000000001</v>
@@ -70253,7 +70364,7 @@
         <v>6</v>
       </c>
       <c r="F1791" s="3" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="G1791" s="3" t="s">
         <v>6</v>
@@ -70270,7 +70381,7 @@
     </row>
     <row r="1792" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="B1792" s="10">
         <v>26.974069</v>
@@ -70285,7 +70396,7 @@
         <v>6</v>
       </c>
       <c r="F1792" s="3" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="G1792" s="3" t="s">
         <v>6</v>
@@ -70302,7 +70413,7 @@
     </row>
     <row r="1793" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1793" s="10">
         <v>26.786686</v>
@@ -70317,7 +70428,7 @@
         <v>6</v>
       </c>
       <c r="F1793" s="3" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="G1793" s="3" t="s">
         <v>6</v>
@@ -70334,7 +70445,7 @@
     </row>
     <row r="1794" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1794" s="3" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="B1794" s="10">
         <v>26.732489999999999</v>
@@ -70349,13 +70460,13 @@
         <v>6</v>
       </c>
       <c r="F1794" s="3" t="s">
+        <v>3753</v>
+      </c>
+      <c r="G1794" s="3" t="s">
         <v>3754</v>
       </c>
-      <c r="G1794" s="3" t="s">
-        <v>3755</v>
-      </c>
       <c r="H1794" s="3" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="I1794" s="3" t="s">
         <v>6</v>
@@ -70366,7 +70477,7 @@
     </row>
     <row r="1795" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1795" s="3" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="B1795" s="10">
         <v>26.713488999999999</v>
@@ -70381,13 +70492,13 @@
         <v>6</v>
       </c>
       <c r="F1795" s="3" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="G1795" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1795" s="3" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="I1795" s="3" t="s">
         <v>6</v>
@@ -70398,7 +70509,7 @@
     </row>
     <row r="1796" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="B1796" s="10">
         <v>28.515899999999998</v>
@@ -70413,7 +70524,7 @@
         <v>6</v>
       </c>
       <c r="F1796" s="3" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="G1796" s="3" t="s">
         <v>6</v>
@@ -70430,7 +70541,7 @@
     </row>
     <row r="1797" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="B1797" s="10">
         <v>30.424486000000002</v>
@@ -70445,7 +70556,7 @@
         <v>6</v>
       </c>
       <c r="F1797" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="G1797" s="3" t="s">
         <v>6</v>
@@ -70462,7 +70573,7 @@
     </row>
     <row r="1798" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="B1798" s="10">
         <v>30.459457</v>
@@ -70477,13 +70588,13 @@
         <v>6</v>
       </c>
       <c r="F1798" t="s">
+        <v>3763</v>
+      </c>
+      <c r="G1798" s="3" t="s">
         <v>3764</v>
       </c>
-      <c r="G1798" s="3" t="s">
-        <v>3765</v>
-      </c>
       <c r="H1798" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="I1798" s="3" t="s">
         <v>6</v>
@@ -70494,7 +70605,7 @@
     </row>
     <row r="1799" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="B1799" s="10">
         <v>30.507823999999999</v>
@@ -70503,19 +70614,19 @@
         <v>49.206209000000001</v>
       </c>
       <c r="D1799" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="E1799" t="s">
         <v>6</v>
       </c>
       <c r="F1799" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="G1799" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1799" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="I1799" s="3" t="s">
         <v>6</v>
@@ -70526,7 +70637,7 @@
     </row>
     <row r="1800" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="B1800" s="10">
         <v>29.935987999999998</v>
@@ -70535,19 +70646,19 @@
         <v>48.608375000000002</v>
       </c>
       <c r="D1800" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="E1800" t="s">
         <v>6</v>
       </c>
       <c r="F1800" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="G1800" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1800" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="I1800" s="3" t="s">
         <v>6</v>
@@ -70558,7 +70669,7 @@
     </row>
     <row r="1801" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="B1801" s="10">
         <v>28.750177999999998</v>
@@ -70573,13 +70684,13 @@
         <v>6</v>
       </c>
       <c r="F1801" s="3" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="G1801" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1801" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1801" s="3" t="s">
         <v>6</v>
@@ -70590,7 +70701,7 @@
     </row>
     <row r="1802" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="B1802" s="10">
         <v>28.015481999999999</v>
@@ -70605,13 +70716,13 @@
         <v>6</v>
       </c>
       <c r="F1802" s="3" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="G1802" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1802" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1802" s="3" t="s">
         <v>6</v>
@@ -70622,7 +70733,7 @@
     </row>
     <row r="1803" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="B1803" s="10">
         <v>29.486322999999999</v>
@@ -70637,13 +70748,13 @@
         <v>6</v>
       </c>
       <c r="F1803" s="3" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="G1803" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1803" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1803" s="3" t="s">
         <v>6</v>
@@ -70654,7 +70765,7 @@
     </row>
     <row r="1804" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="B1804" s="10">
         <v>27.830199</v>
@@ -70669,13 +70780,13 @@
         <v>6</v>
       </c>
       <c r="F1804" s="3" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="G1804" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1804" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1804" s="3" t="s">
         <v>6</v>
@@ -70686,7 +70797,7 @@
     </row>
     <row r="1805" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="B1805" s="10">
         <v>27.842139</v>
@@ -70701,13 +70812,13 @@
         <v>6</v>
       </c>
       <c r="F1805" s="3" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="G1805" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1805" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1805" s="3" t="s">
         <v>6</v>
@@ -70718,7 +70829,7 @@
     </row>
     <row r="1806" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1806" s="14" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="B1806" s="10">
         <v>30.175961000000001</v>
@@ -70733,13 +70844,13 @@
         <v>6</v>
       </c>
       <c r="F1806" s="14" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="G1806" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1806" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1806" s="3" t="s">
         <v>6</v>
@@ -70750,7 +70861,7 @@
     </row>
     <row r="1807" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1807" s="14" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="B1807" s="10">
         <v>29.196332999999999</v>
@@ -70765,13 +70876,13 @@
         <v>6</v>
       </c>
       <c r="F1807" s="14" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="G1807" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1807" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1807" s="3" t="s">
         <v>6</v>
@@ -70782,7 +70893,7 @@
     </row>
     <row r="1808" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1808" s="14" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="B1808" s="10">
         <v>29.691655999999998</v>
@@ -70797,13 +70908,13 @@
         <v>6</v>
       </c>
       <c r="F1808" s="14" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="G1808" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1808" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1808" s="3" t="s">
         <v>6</v>
@@ -70814,7 +70925,7 @@
     </row>
     <row r="1809" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1809" s="14" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="B1809" s="10">
         <v>27.428108000000002</v>
@@ -70829,13 +70940,13 @@
         <v>6</v>
       </c>
       <c r="F1809" s="14" t="s">
+        <v>3788</v>
+      </c>
+      <c r="G1809" s="3" t="s">
         <v>3789</v>
       </c>
-      <c r="G1809" s="3" t="s">
-        <v>3790</v>
-      </c>
       <c r="H1809" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1809" s="3" t="s">
         <v>6</v>
@@ -70846,7 +70957,7 @@
     </row>
     <row r="1810" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1810" s="14" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="B1810" s="10">
         <v>29.939945999999999</v>
@@ -70861,13 +70972,13 @@
         <v>6</v>
       </c>
       <c r="F1810" s="14" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="G1810" s="3" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="H1810" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1810" s="3" t="s">
         <v>6</v>
@@ -70878,7 +70989,7 @@
     </row>
     <row r="1811" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1811" s="14" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="B1811" s="10">
         <v>29.873377000000001</v>
@@ -70893,13 +71004,13 @@
         <v>6</v>
       </c>
       <c r="F1811" s="14" t="s">
+        <v>3794</v>
+      </c>
+      <c r="G1811" s="3" t="s">
         <v>3795</v>
       </c>
-      <c r="G1811" s="3" t="s">
-        <v>3796</v>
-      </c>
       <c r="H1811" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I1811" s="3" t="s">
         <v>6</v>
@@ -70910,7 +71021,7 @@
     </row>
     <row r="1812" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="B1812" s="10">
         <f>27+1/60+50.5/3600</f>
@@ -70924,13 +71035,13 @@
         <v>1563</v>
       </c>
       <c r="F1812" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="G1812" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1812" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="I1812" s="3" t="s">
         <v>6</v>
@@ -70941,7 +71052,7 @@
     </row>
     <row r="1813" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1813" s="4" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="B1813" s="10">
         <v>21.699987</v>
@@ -70956,7 +71067,7 @@
         <v>6</v>
       </c>
       <c r="F1813" s="3" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="G1813" s="3" t="s">
         <v>6</v>
@@ -70973,7 +71084,7 @@
     </row>
     <row r="1814" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="B1814" s="10">
         <v>22.579585999999999</v>
@@ -70988,10 +71099,10 @@
         <v>6</v>
       </c>
       <c r="F1814" s="3" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="G1814" s="3" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="H1814" s="3" t="s">
         <v>182</v>
@@ -71005,7 +71116,7 @@
     </row>
     <row r="1815" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="B1815" s="10">
         <v>-13.284136999999999</v>
@@ -71020,7 +71131,7 @@
         <v>6</v>
       </c>
       <c r="F1815" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="G1815" s="3" t="s">
         <v>6</v>
@@ -71037,7 +71148,7 @@
     </row>
     <row r="1816" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1816" s="4" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="B1816" s="10">
         <v>17.636119000000001</v>
@@ -71052,13 +71163,13 @@
         <v>6</v>
       </c>
       <c r="F1816" s="4" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="G1816" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1816" s="4" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="I1816" s="4" t="s">
         <v>6</v>
@@ -71069,7 +71180,7 @@
     </row>
     <row r="1817" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="B1817" s="10">
         <v>9.9343620000000001</v>
@@ -71084,7 +71195,7 @@
         <v>6</v>
       </c>
       <c r="F1817" s="3" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="G1817" s="3" t="s">
         <v>6</v>
@@ -71101,7 +71212,7 @@
     </row>
     <row r="1818" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1818" s="10">
         <v>3.093051</v>
@@ -71116,7 +71227,7 @@
         <v>6</v>
       </c>
       <c r="F1818" s="3" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="G1818" s="3" t="s">
         <v>6</v>
@@ -71133,7 +71244,7 @@
     </row>
     <row r="1819" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="B1819" s="10">
         <v>3.076711</v>
@@ -71148,13 +71259,13 @@
         <v>6</v>
       </c>
       <c r="F1819" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="G1819" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1819" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="I1819" t="s">
         <v>6</v>
@@ -71165,7 +71276,7 @@
     </row>
     <row r="1820" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1820" s="14" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B1820" s="10">
         <v>-16.830210999999998</v>
@@ -71180,7 +71291,7 @@
         <v>6</v>
       </c>
       <c r="F1820" s="3" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="G1820" s="3" t="s">
         <v>6</v>
@@ -71197,7 +71308,7 @@
     </row>
     <row r="1821" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1821" s="4" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="B1821" s="10">
         <v>-8.6813590000000005</v>
@@ -71212,7 +71323,7 @@
         <v>6</v>
       </c>
       <c r="F1821" s="3" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="G1821" s="3" t="s">
         <v>6</v>
@@ -71229,7 +71340,7 @@
     </row>
     <row r="1822" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1822" s="4" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="B1822" s="10">
         <v>-8.7222489999999997</v>
@@ -71244,13 +71355,13 @@
         <v>6</v>
       </c>
       <c r="F1822" s="3" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="G1822" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1822" s="4" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="I1822" t="s">
         <v>6</v>
@@ -71261,7 +71372,7 @@
     </row>
     <row r="1823" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="B1823" s="10">
         <v>-0.59271200000000002</v>
@@ -71276,7 +71387,7 @@
         <v>6</v>
       </c>
       <c r="F1823" s="3" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="G1823" s="3" t="s">
         <v>6</v>
@@ -71293,7 +71404,7 @@
     </row>
     <row r="1824" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="B1824" s="10">
         <v>9.8198679999999996</v>
@@ -71308,7 +71419,7 @@
         <v>6</v>
       </c>
       <c r="F1824" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="G1824" s="3" t="s">
         <v>6</v>
@@ -71325,7 +71436,7 @@
     </row>
     <row r="1825" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1825" s="4" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="B1825" s="10">
         <v>23.298559000000001</v>
@@ -71340,7 +71451,7 @@
         <v>6</v>
       </c>
       <c r="F1825" s="3" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="G1825" s="3" t="s">
         <v>6</v>
@@ -71357,7 +71468,7 @@
     </row>
     <row r="1826" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="B1826" s="10">
         <v>16.930658999999999</v>
@@ -71372,7 +71483,7 @@
         <v>6</v>
       </c>
       <c r="F1826" s="3" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="G1826" s="3" t="s">
         <v>6</v>
@@ -71389,7 +71500,7 @@
     </row>
     <row r="1827" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1827" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="B1827" s="10">
         <v>16.983827999999999</v>
@@ -71404,13 +71515,13 @@
         <v>6</v>
       </c>
       <c r="F1827" s="3" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="G1827" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1827" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="I1827" s="3" t="s">
         <v>6</v>
@@ -71421,7 +71532,7 @@
     </row>
     <row r="1828" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1828" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="B1828" s="10">
         <v>16.441682</v>
@@ -71436,13 +71547,13 @@
         <v>6</v>
       </c>
       <c r="F1828" s="3" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="G1828" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1828" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="I1828" s="3" t="s">
         <v>6</v>
@@ -71453,7 +71564,7 @@
     </row>
     <row r="1829" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="B1829" s="10">
         <v>15.898812</v>
@@ -71468,7 +71579,7 @@
         <v>6</v>
       </c>
       <c r="F1829" s="3" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="G1829" s="3" t="s">
         <v>6</v>
@@ -71485,7 +71596,7 @@
     </row>
     <row r="1830" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="B1830" s="10">
         <v>14.581695</v>
@@ -71500,7 +71611,7 @@
         <v>6</v>
       </c>
       <c r="F1830" s="3" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="G1830" s="3" t="s">
         <v>6</v>
@@ -71517,7 +71628,7 @@
     </row>
     <row r="1831" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="B1831" s="10">
         <v>14.411833</v>
@@ -71532,13 +71643,13 @@
         <v>6</v>
       </c>
       <c r="F1831" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="G1831" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1831" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="I1831" s="3" t="s">
         <v>6</v>
@@ -71549,7 +71660,7 @@
     </row>
     <row r="1832" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1832" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="B1832" s="10">
         <v>14.2667</v>
@@ -71564,13 +71675,13 @@
         <v>6</v>
       </c>
       <c r="F1832" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="G1832" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1832" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="I1832" s="3" t="s">
         <v>6</v>
@@ -71581,7 +71692,7 @@
     </row>
     <row r="1833" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1833" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="B1833" s="10">
         <v>18.013256999999999</v>
@@ -71596,7 +71707,7 @@
         <v>6</v>
       </c>
       <c r="F1833" s="3" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="G1833" s="3" t="s">
         <v>6</v>
@@ -71613,7 +71724,7 @@
     </row>
     <row r="1834" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1834" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="B1834" s="10">
         <v>18.012131</v>
@@ -71628,13 +71739,13 @@
         <v>6</v>
       </c>
       <c r="F1834" s="3" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="G1834" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1834" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="I1834" s="3" t="s">
         <v>6</v>
@@ -71645,7 +71756,7 @@
     </row>
     <row r="1835" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1835" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="B1835" s="10">
         <v>15.872059</v>
@@ -71654,13 +71765,13 @@
         <v>80.615423000000007</v>
       </c>
       <c r="D1835" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="E1835" t="s">
         <v>6</v>
       </c>
       <c r="F1835" s="3" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="G1835" s="3" t="s">
         <v>6</v>
@@ -71677,7 +71788,7 @@
     </row>
     <row r="1836" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1836" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="B1836" s="10">
         <v>14.252371</v>
@@ -71692,7 +71803,7 @@
         <v>6</v>
       </c>
       <c r="F1836" s="3" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="G1836" s="3" t="s">
         <v>6</v>
@@ -71709,7 +71820,7 @@
     </row>
     <row r="1837" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1837" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="B1837" s="10">
         <v>15.525017999999999</v>
@@ -71724,10 +71835,10 @@
         <v>6</v>
       </c>
       <c r="F1837" s="3" t="s">
+        <v>3848</v>
+      </c>
+      <c r="G1837" s="3" t="s">
         <v>3849</v>
-      </c>
-      <c r="G1837" s="3" t="s">
-        <v>3850</v>
       </c>
       <c r="H1837" t="s">
         <v>1608</v>
@@ -71741,7 +71852,7 @@
     </row>
     <row r="1838" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="B1838" s="10">
         <v>14.989167</v>
@@ -71756,7 +71867,7 @@
         <v>6</v>
       </c>
       <c r="F1838" s="3" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="G1838" s="3" t="s">
         <v>6</v>
@@ -71773,7 +71884,7 @@
     </row>
     <row r="1839" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1839" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B1839" s="10">
         <v>15.4092</v>
@@ -71788,7 +71899,7 @@
         <v>6</v>
       </c>
       <c r="F1839" s="3" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="G1839" s="3" t="s">
         <v>6</v>
@@ -71805,7 +71916,7 @@
     </row>
     <row r="1840" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1840" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="B1840" s="10">
         <v>15.414351</v>
@@ -71820,7 +71931,7 @@
         <v>6</v>
       </c>
       <c r="F1840" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="G1840" s="3" t="s">
         <v>6</v>
@@ -71829,7 +71940,7 @@
         <v>1608</v>
       </c>
       <c r="I1840" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="J1840" s="3" t="s">
         <v>6</v>
@@ -71837,7 +71948,7 @@
     </row>
     <row r="1841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1841" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="B1841" s="10">
         <v>15.36802</v>
@@ -71852,7 +71963,7 @@
         <v>6</v>
       </c>
       <c r="F1841" s="3" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="G1841" s="3" t="s">
         <v>6</v>
@@ -71861,7 +71972,7 @@
         <v>1608</v>
       </c>
       <c r="I1841" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="J1841" s="3" t="s">
         <v>6</v>
@@ -71869,7 +71980,7 @@
     </row>
     <row r="1842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1842" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="B1842" s="10">
         <v>15.539446</v>
@@ -71884,7 +71995,7 @@
         <v>6</v>
       </c>
       <c r="F1842" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="G1842" s="3" t="s">
         <v>6</v>
@@ -71901,7 +72012,7 @@
     </row>
     <row r="1843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1843" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B1843" s="10">
         <v>15.506379000000001</v>
@@ -71916,7 +72027,7 @@
         <v>6</v>
       </c>
       <c r="F1843" s="3" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="G1843" s="3" t="s">
         <v>6</v>
@@ -71933,7 +72044,7 @@
     </row>
     <row r="1844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1844" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B1844" s="10">
         <v>13.068675000000001</v>
@@ -71948,7 +72059,7 @@
         <v>6</v>
       </c>
       <c r="F1844" s="3" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="G1844" s="3" t="s">
         <v>6</v>
@@ -71965,7 +72076,7 @@
     </row>
     <row r="1845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1845" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="B1845" s="10">
         <v>13.068892</v>
@@ -71980,13 +72091,13 @@
         <v>6</v>
       </c>
       <c r="F1845" s="3" t="s">
+        <v>3865</v>
+      </c>
+      <c r="G1845" s="3" t="s">
         <v>3866</v>
       </c>
-      <c r="G1845" s="3" t="s">
-        <v>3867</v>
-      </c>
       <c r="H1845" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="I1845" t="s">
         <v>6</v>
@@ -71997,7 +72108,7 @@
     </row>
     <row r="1846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1846" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="B1846" s="10">
         <v>13.000826999999999</v>
@@ -72012,7 +72123,7 @@
         <v>6</v>
       </c>
       <c r="F1846" s="3" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="G1846" t="s">
         <v>6</v>
@@ -72061,7 +72172,7 @@
     </row>
     <row r="1848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1848" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="B1848" s="10">
         <v>9.2155509999999996</v>
@@ -72076,7 +72187,7 @@
         <v>6</v>
       </c>
       <c r="F1848" s="3" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="G1848" s="3" t="s">
         <v>6</v>
@@ -72093,7 +72204,7 @@
     </row>
     <row r="1849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1849" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="B1849" s="10">
         <v>9.2771729999999994</v>
@@ -72108,7 +72219,7 @@
         <v>6</v>
       </c>
       <c r="F1849" s="3" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="G1849" s="3" t="s">
         <v>6</v>
@@ -72125,7 +72236,7 @@
     </row>
     <row r="1850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1850" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="B1850" s="10">
         <v>9.2576169999999998</v>
@@ -72140,7 +72251,7 @@
         <v>6</v>
       </c>
       <c r="F1850" s="3" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="G1850" s="3" t="s">
         <v>6</v>
@@ -72157,7 +72268,7 @@
     </row>
     <row r="1851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1851" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B1851" s="10">
         <v>9.3461049999999997</v>
@@ -72172,7 +72283,7 @@
         <v>6</v>
       </c>
       <c r="F1851" s="3" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="G1851" s="3" t="s">
         <v>6</v>
@@ -72189,7 +72300,7 @@
     </row>
     <row r="1852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1852" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="B1852" s="10">
         <v>35.772801000000001</v>
@@ -72204,7 +72315,7 @@
         <v>6</v>
       </c>
       <c r="F1852" s="3" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="G1852" s="3" t="s">
         <v>6</v>
@@ -72221,7 +72332,7 @@
     </row>
     <row r="1853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1853" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="B1853" s="10">
         <v>36.186242999999997</v>
@@ -72236,13 +72347,13 @@
         <v>6</v>
       </c>
       <c r="F1853" s="3" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="G1853" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1853" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="I1853" t="s">
         <v>6</v>
@@ -72253,7 +72364,7 @@
     </row>
     <row r="1854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1854" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="B1854" s="10">
         <v>40.217269000000002</v>
@@ -72268,10 +72379,10 @@
         <v>6</v>
       </c>
       <c r="F1854" t="s">
+        <v>3884</v>
+      </c>
+      <c r="G1854" s="3" t="s">
         <v>3885</v>
-      </c>
-      <c r="G1854" s="3" t="s">
-        <v>3886</v>
       </c>
       <c r="H1854" t="s">
         <v>533</v>
@@ -72286,7 +72397,7 @@
     </row>
     <row r="1855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1855" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="B1855" s="10">
         <v>38.799121999999997</v>
@@ -72301,7 +72412,7 @@
         <v>6</v>
       </c>
       <c r="F1855" s="3" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="G1855" s="3" t="s">
         <v>6</v>
@@ -72318,7 +72429,7 @@
     </row>
     <row r="1856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1856" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="B1856" s="10">
         <f>32+2/60+14.2/3600</f>
@@ -72335,7 +72446,7 @@
         <v>6</v>
       </c>
       <c r="F1856" s="3" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="G1856" s="3" t="s">
         <v>6</v>
@@ -72352,7 +72463,7 @@
     </row>
     <row r="1857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1857" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="B1857" s="10">
         <f>32+2/60+26.18/3600</f>
@@ -72369,7 +72480,7 @@
         <v>6</v>
       </c>
       <c r="F1857" s="3" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="G1857" s="3" t="s">
         <v>6</v>
@@ -72386,7 +72497,7 @@
     </row>
     <row r="1858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1858" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="B1858" s="10">
         <v>37.404423999999999</v>
@@ -72401,7 +72512,7 @@
         <v>6</v>
       </c>
       <c r="F1858" s="3" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="G1858" s="3" t="s">
         <v>6</v>
@@ -72418,7 +72529,7 @@
     </row>
     <row r="1859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1859" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="B1859" s="10">
         <f>37+18/60+31/3600</f>
@@ -72429,13 +72540,13 @@
         <v>-76.418055555555554</v>
       </c>
       <c r="F1859" s="3" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="G1859" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1859" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="I1859" t="s">
         <v>6</v>
@@ -72446,7 +72557,7 @@
     </row>
     <row r="1860" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1860" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="B1860" s="10">
         <v>-4.4491379999999996</v>
@@ -72461,7 +72572,7 @@
         <v>6</v>
       </c>
       <c r="F1860" s="3" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="G1860" s="3" t="s">
         <v>6</v>
@@ -72478,7 +72589,7 @@
     </row>
     <row r="1861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1861" s="4" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="B1861" s="10">
         <v>9.5962099999999992</v>
@@ -72493,7 +72604,7 @@
         <v>6</v>
       </c>
       <c r="F1861" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="G1861" s="3" t="s">
         <v>6</v>
@@ -72510,7 +72621,7 @@
     </row>
     <row r="1862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1862" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="B1862" s="10">
         <v>15.5062</v>
@@ -72525,7 +72636,7 @@
         <v>6</v>
       </c>
       <c r="F1862" s="3" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="G1862" s="3" t="s">
         <v>6</v>
@@ -72542,7 +72653,7 @@
     </row>
     <row r="1863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1863" s="3" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="B1863" s="10">
         <v>15.514170999999999</v>
@@ -72557,7 +72668,7 @@
         <v>6</v>
       </c>
       <c r="F1863" s="3" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="G1863" s="3" t="s">
         <v>6</v>
@@ -72574,7 +72685,7 @@
     </row>
     <row r="1864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1864" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="B1864" s="10">
         <v>7.9755089999999997</v>
@@ -72583,7 +72694,7 @@
         <v>93.557203000000001</v>
       </c>
       <c r="F1864" s="3" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="G1864" s="3" t="s">
         <v>6</v>
@@ -72600,7 +72711,7 @@
     </row>
     <row r="1865" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1865" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="B1865" s="10">
         <v>7.0269310000000003</v>
@@ -72609,7 +72720,7 @@
         <v>93.821753999999999</v>
       </c>
       <c r="F1865" s="3" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="G1865" s="3" t="s">
         <v>6</v>
@@ -72626,7 +72737,7 @@
     </row>
     <row r="1866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1866" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="B1866" s="10">
         <v>9.1740949999999994</v>
@@ -72635,7 +72746,7 @@
         <v>92.777254999999997</v>
       </c>
       <c r="F1866" s="3" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="G1866" s="3" t="s">
         <v>6</v>
@@ -72652,7 +72763,7 @@
     </row>
     <row r="1867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1867" s="4" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="B1867" s="10">
         <v>10.701536000000001</v>
@@ -72667,7 +72778,7 @@
         <v>6</v>
       </c>
       <c r="F1867" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="G1867" s="3" t="s">
         <v>6</v>
@@ -72684,7 +72795,7 @@
     </row>
     <row r="1868" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1868" s="4" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="B1868" s="10">
         <v>12.535909999999999</v>
@@ -72699,7 +72810,7 @@
         <v>6</v>
       </c>
       <c r="F1868" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="G1868" s="3" t="s">
         <v>6</v>
@@ -72717,7 +72828,7 @@
     </row>
     <row r="1869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1869" s="4" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="B1869" s="10">
         <v>13.211948</v>
@@ -72732,7 +72843,7 @@
         <v>6</v>
       </c>
       <c r="F1869" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="G1869" s="3" t="s">
         <v>6</v>
@@ -72749,7 +72860,7 @@
     </row>
     <row r="1870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1870" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="B1870" s="10">
         <v>31.6418</v>
@@ -72764,7 +72875,7 @@
         <v>6</v>
       </c>
       <c r="F1870" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="G1870" s="3" t="s">
         <v>6</v>
@@ -72781,7 +72892,7 @@
     </row>
     <row r="1871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1871" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="B1871" s="10">
         <v>33.430712</v>
@@ -72796,7 +72907,7 @@
         <v>6</v>
       </c>
       <c r="F1871" s="3" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="G1871" s="3" t="s">
         <v>6</v>
@@ -72813,7 +72924,7 @@
     </row>
     <row r="1872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1872" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B1872" s="10">
         <v>-0.90666400000000003</v>
@@ -72828,10 +72939,10 @@
         <v>6</v>
       </c>
       <c r="F1872" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="G1872" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="H1872" t="s">
         <v>332</v>
@@ -72845,7 +72956,7 @@
     </row>
     <row r="1873" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1873" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="B1873" s="10">
         <v>-0.87556500000000004</v>
@@ -72860,13 +72971,13 @@
         <v>6</v>
       </c>
       <c r="F1873" t="s">
+        <v>3921</v>
+      </c>
+      <c r="G1873" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1873" t="s">
         <v>3922</v>
-      </c>
-      <c r="G1873" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1873" t="s">
-        <v>3923</v>
       </c>
       <c r="I1873" t="s">
         <v>6</v>
@@ -72877,7 +72988,7 @@
     </row>
     <row r="1874" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1874" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="B1874" s="10">
         <v>27.884976000000002</v>
@@ -72892,7 +73003,7 @@
         <v>6</v>
       </c>
       <c r="F1874" s="3" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="G1874" s="3" t="s">
         <v>6</v>
@@ -72909,7 +73020,7 @@
     </row>
     <row r="1875" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1875" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="B1875" s="10">
         <v>-3.1884709999999998</v>
@@ -72924,13 +73035,13 @@
         <v>6</v>
       </c>
       <c r="F1875" s="3" t="s">
+        <v>3927</v>
+      </c>
+      <c r="G1875" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1875" t="s">
         <v>3928</v>
-      </c>
-      <c r="G1875" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1875" t="s">
-        <v>3929</v>
       </c>
       <c r="I1875" s="3" t="s">
         <v>6</v>
@@ -72941,7 +73052,7 @@
     </row>
     <row r="1876" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1876" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="B1876" s="10">
         <v>-3.223894</v>
@@ -72956,7 +73067,7 @@
         <v>6</v>
       </c>
       <c r="F1876" s="3" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="G1876" s="3" t="s">
         <v>6</v>
@@ -72973,7 +73084,7 @@
     </row>
     <row r="1877" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1877" s="4" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="B1877" s="10">
         <v>9.0921450000000004</v>
@@ -72988,13 +73099,13 @@
         <v>6</v>
       </c>
       <c r="F1877" s="3" t="s">
+        <v>3931</v>
+      </c>
+      <c r="G1877" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1877" s="4" t="s">
         <v>3932</v>
-      </c>
-      <c r="G1877" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1877" s="4" t="s">
-        <v>3933</v>
       </c>
       <c r="I1877" t="s">
         <v>6</v>
@@ -73005,7 +73116,7 @@
     </row>
     <row r="1878" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1878" s="4" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="B1878" s="10">
         <v>8.5609540000000006</v>
@@ -73020,7 +73131,7 @@
         <v>6</v>
       </c>
       <c r="F1878" s="3" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="G1878" s="3" t="s">
         <v>6</v>
@@ -73037,7 +73148,7 @@
     </row>
     <row r="1879" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1879" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="B1879" s="10">
         <v>41.646666000000003</v>
@@ -73052,7 +73163,7 @@
         <v>6</v>
       </c>
       <c r="F1879" s="3" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="G1879" s="3" t="s">
         <v>6</v>
@@ -73069,7 +73180,7 @@
     </row>
     <row r="1880" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1880" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="B1880" s="10">
         <v>41.638331000000001</v>
@@ -73084,13 +73195,13 @@
         <v>6</v>
       </c>
       <c r="F1880" s="3" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="G1880" t="s">
         <v>6</v>
       </c>
       <c r="H1880" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="I1880" t="s">
         <v>6</v>
@@ -73101,7 +73212,7 @@
     </row>
     <row r="1881" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1881" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="B1881" s="10">
         <v>27.334793999999999</v>
@@ -73116,7 +73227,7 @@
         <v>6</v>
       </c>
       <c r="F1881" s="3" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="G1881" s="3" t="s">
         <v>6</v>
@@ -73133,7 +73244,7 @@
     </row>
     <row r="1882" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1882" s="4" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="B1882" s="10">
         <v>29.728752</v>
@@ -73148,7 +73259,7 @@
         <v>6</v>
       </c>
       <c r="F1882" s="3" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="G1882" s="3" t="s">
         <v>6</v>
@@ -73165,7 +73276,7 @@
     </row>
     <row r="1883" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1883" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="B1883" s="10">
         <v>-0.58662899999999996</v>
@@ -73180,7 +73291,7 @@
         <v>6</v>
       </c>
       <c r="F1883" s="3" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="G1883" s="3" t="s">
         <v>6</v>
@@ -73197,7 +73308,7 @@
     </row>
     <row r="1884" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1884" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="B1884" s="10">
         <v>-0.70904699999999998</v>
@@ -73212,13 +73323,13 @@
         <v>6</v>
       </c>
       <c r="F1884" s="3" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="G1884" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1884" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="I1884" t="s">
         <v>6</v>
@@ -73229,7 +73340,7 @@
     </row>
     <row r="1885" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1885" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="B1885" s="10">
         <v>-0.41949399999999998</v>
@@ -73244,13 +73355,13 @@
         <v>6</v>
       </c>
       <c r="F1885" s="3" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="G1885" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1885" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="I1885" t="s">
         <v>6</v>
@@ -73261,7 +73372,7 @@
     </row>
     <row r="1886" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1886" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="B1886" s="10">
         <v>-0.49251499999999998</v>
@@ -73276,13 +73387,13 @@
         <v>6</v>
       </c>
       <c r="F1886" s="3" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="G1886" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1886" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="I1886" t="s">
         <v>6</v>
@@ -73293,7 +73404,7 @@
     </row>
     <row r="1887" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1887" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="B1887" s="10">
         <v>-0.81097799999999998</v>
@@ -73308,13 +73419,13 @@
         <v>6</v>
       </c>
       <c r="F1887" s="3" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="G1887" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1887" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="I1887" t="s">
         <v>6</v>
@@ -73325,7 +73436,7 @@
     </row>
     <row r="1888" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1888" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="B1888" s="10">
         <v>10.549402000000001</v>
@@ -73340,7 +73451,7 @@
         <v>6</v>
       </c>
       <c r="F1888" s="3" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="G1888" s="3" t="s">
         <v>6</v>
@@ -73357,7 +73468,7 @@
     </row>
     <row r="1889" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1889" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="B1889" s="10">
         <v>41.335776000000003</v>
@@ -73372,13 +73483,13 @@
         <v>6</v>
       </c>
       <c r="F1889" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="G1889" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1889" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="I1889" s="4" t="s">
         <v>6</v>
@@ -73389,7 +73500,7 @@
     </row>
     <row r="1890" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1890" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="B1890" s="10">
         <v>41.269261</v>
@@ -73404,7 +73515,7 @@
         <v>6</v>
       </c>
       <c r="F1890" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="G1890" s="3" t="s">
         <v>6</v>
@@ -73421,7 +73532,7 @@
     </row>
     <row r="1891" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1891" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="B1891" s="10">
         <v>-5.6520599999999996</v>
@@ -73436,7 +73547,7 @@
         <v>6</v>
       </c>
       <c r="F1891" s="3" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="G1891" t="s">
         <v>6</v>
@@ -73453,7 +73564,7 @@
     </row>
     <row r="1892" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1892" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="B1892" s="10">
         <v>-5.5137910000000003</v>
@@ -73468,7 +73579,7 @@
         <v>6</v>
       </c>
       <c r="F1892" s="3" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="G1892" t="s">
         <v>6</v>
@@ -73477,7 +73588,7 @@
         <v>1485</v>
       </c>
       <c r="I1892" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="J1892" t="s">
         <v>6</v>
@@ -73485,7 +73596,7 @@
     </row>
     <row r="1893" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1893" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="B1893" s="10">
         <v>-5.7297729999999998</v>
@@ -73500,7 +73611,7 @@
         <v>6</v>
       </c>
       <c r="F1893" s="3" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="G1893" t="s">
         <v>6</v>
@@ -73509,7 +73620,7 @@
         <v>1485</v>
       </c>
       <c r="I1893" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="J1893" t="s">
         <v>6</v>
@@ -73517,7 +73628,7 @@
     </row>
     <row r="1894" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1894" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="B1894" s="10">
         <v>-8.4923599999999997</v>
@@ -73532,13 +73643,13 @@
         <v>6</v>
       </c>
       <c r="F1894" s="3" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="G1894" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1894" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="I1894" t="s">
         <v>6</v>
@@ -73549,7 +73660,7 @@
     </row>
     <row r="1895" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="B1895" s="10">
         <v>-5.7566379999999997</v>
@@ -73564,7 +73675,7 @@
         <v>6</v>
       </c>
       <c r="F1895" s="3" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="G1895" s="3" t="s">
         <v>6</v>
@@ -73581,7 +73692,7 @@
     </row>
     <row r="1896" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1896" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="B1896" s="10">
         <v>-5.660615</v>
@@ -73596,13 +73707,13 @@
         <v>6</v>
       </c>
       <c r="F1896" s="3" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="G1896" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1896" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="I1896" s="3" t="s">
         <v>6</v>
@@ -73613,7 +73724,7 @@
     </row>
     <row r="1897" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1897" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="B1897" s="10">
         <v>-3.0937760000000001</v>
@@ -73628,7 +73739,7 @@
         <v>6</v>
       </c>
       <c r="F1897" s="3" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="G1897" s="3" t="s">
         <v>6</v>
@@ -73645,7 +73756,7 @@
     </row>
     <row r="1898" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1898" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="B1898" s="10">
         <v>-3.1067719999999999</v>
@@ -73660,13 +73771,13 @@
         <v>6</v>
       </c>
       <c r="F1898" s="3" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="G1898" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1898" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="I1898" s="3" t="s">
         <v>6</v>
@@ -73677,7 +73788,7 @@
     </row>
     <row r="1899" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1899" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="B1899" s="10">
         <v>-7.6896300000000002</v>
@@ -73692,7 +73803,7 @@
         <v>6</v>
       </c>
       <c r="F1899" s="3" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="G1899" s="3" t="s">
         <v>6</v>
@@ -73709,7 +73820,7 @@
     </row>
     <row r="1900" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1900" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="B1900" s="10">
         <v>-7.7088799999999997</v>
@@ -73724,7 +73835,7 @@
         <v>6</v>
       </c>
       <c r="F1900" s="3" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="G1900" s="3" t="s">
         <v>6</v>
@@ -73741,7 +73852,7 @@
     </row>
     <row r="1901" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1901" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="B1901" s="10">
         <v>-5.6586400000000001</v>
@@ -73756,10 +73867,10 @@
         <v>6</v>
       </c>
       <c r="F1901" s="3" t="s">
+        <v>3980</v>
+      </c>
+      <c r="G1901" s="3" t="s">
         <v>3981</v>
-      </c>
-      <c r="G1901" s="3" t="s">
-        <v>3982</v>
       </c>
       <c r="H1901" t="s">
         <v>197</v>
@@ -73773,7 +73884,7 @@
     </row>
     <row r="1902" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1902" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="B1902" s="10">
         <v>-3.568514</v>
@@ -73788,7 +73899,7 @@
         <v>6</v>
       </c>
       <c r="F1902" s="3" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="G1902" s="3" t="s">
         <v>6</v>
@@ -73805,7 +73916,7 @@
     </row>
     <row r="1903" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1903" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="B1903" s="10">
         <v>-8.3284559999999992</v>
@@ -73820,7 +73931,7 @@
         <v>6</v>
       </c>
       <c r="F1903" s="3" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="G1903" s="3" t="s">
         <v>6</v>
@@ -73837,7 +73948,7 @@
     </row>
     <row r="1904" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1904" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1904" s="10">
         <v>19.868834</v>
@@ -73852,13 +73963,13 @@
         <v>6</v>
       </c>
       <c r="F1904" s="3" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="G1904" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1904" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="I1904" t="s">
         <v>6</v>
@@ -73869,7 +73980,7 @@
     </row>
     <row r="1905" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1905" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="B1905" s="10">
         <v>19.868041000000002</v>
@@ -73884,13 +73995,13 @@
         <v>6</v>
       </c>
       <c r="F1905" s="3" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="G1905" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1905" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="I1905" t="s">
         <v>6</v>
@@ -73901,7 +74012,7 @@
     </row>
     <row r="1906" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1906" s="4" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B1906" s="10">
         <v>36.854978000000003</v>
@@ -73916,7 +74027,7 @@
         <v>6</v>
       </c>
       <c r="F1906" s="3" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="G1906" s="3" t="s">
         <v>6</v>
@@ -73933,7 +74044,7 @@
     </row>
     <row r="1907" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1907" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B1907" s="10">
         <v>6.4986069999999998</v>
@@ -73948,7 +74059,7 @@
         <v>6</v>
       </c>
       <c r="F1907" s="3" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="G1907" s="3" t="s">
         <v>6</v>
@@ -73965,7 +74076,7 @@
     </row>
     <row r="1908" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1908" s="4" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="B1908" s="10">
         <v>19.191369999999999</v>
@@ -73980,7 +74091,7 @@
         <v>6</v>
       </c>
       <c r="F1908" s="4" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="G1908" s="3" t="s">
         <v>6</v>
@@ -73997,7 +74108,7 @@
     </row>
     <row r="1909" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1909" s="4" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="B1909" s="10">
         <f>25+22/60+10/3600</f>
@@ -74014,7 +74125,7 @@
         <v>1563</v>
       </c>
       <c r="F1909" s="4" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="G1909" s="3" t="s">
         <v>6</v>
@@ -74031,7 +74142,7 @@
     </row>
     <row r="1910" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1910" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B1910" s="10">
         <f>25+28/60+35.1/3600</f>
@@ -74048,7 +74159,7 @@
         <v>1563</v>
       </c>
       <c r="F1910" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="G1910" s="3" t="s">
         <v>6</v>
@@ -74065,7 +74176,7 @@
     </row>
     <row r="1911" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1911" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B1911" s="10">
         <f>25+29/60+18.6/3600</f>
@@ -74082,7 +74193,7 @@
         <v>1563</v>
       </c>
       <c r="F1911" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="G1911" s="3" t="s">
         <v>6</v>
@@ -74099,7 +74210,7 @@
     </row>
     <row r="1912" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1912" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B1912" s="10">
         <v>25.501024000000001</v>
@@ -74114,7 +74225,7 @@
         <v>6</v>
       </c>
       <c r="F1912" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="G1912" s="3" t="s">
         <v>6</v>
@@ -74131,7 +74242,7 @@
     </row>
     <row r="1913" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1913" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B1913" s="10">
         <f>25+30/60+28.1/3600</f>
@@ -74148,7 +74259,7 @@
         <v>1563</v>
       </c>
       <c r="F1913" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="G1913" s="3" t="s">
         <v>6</v>
@@ -74165,7 +74276,7 @@
     </row>
     <row r="1914" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1914" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B1914" s="10">
         <f>24+49/60+10/3600</f>
@@ -74182,7 +74293,7 @@
         <v>1563</v>
       </c>
       <c r="F1914" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="G1914" s="3" t="s">
         <v>6</v>
@@ -74199,7 +74310,7 @@
     </row>
     <row r="1915" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="B1915" s="10">
         <f>24+48/60+45/3600</f>
@@ -74216,7 +74327,7 @@
         <v>1563</v>
       </c>
       <c r="F1915" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="G1915" s="3" t="s">
         <v>6</v>
@@ -74233,7 +74344,7 @@
     </row>
     <row r="1916" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1916" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="B1916" s="10">
         <v>18.441524000000001</v>
@@ -74248,7 +74359,7 @@
         <v>6</v>
       </c>
       <c r="F1916" s="3" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="G1916" s="3" t="s">
         <v>6</v>
@@ -74265,7 +74376,7 @@
     </row>
     <row r="1917" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1917" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="B1917" s="10">
         <v>28.125311</v>
@@ -74280,7 +74391,7 @@
         <v>6</v>
       </c>
       <c r="F1917" s="3" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="G1917" s="3" t="s">
         <v>6</v>
@@ -74297,7 +74408,7 @@
     </row>
     <row r="1918" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1918" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="B1918" s="10">
         <v>21.288554000000001</v>
@@ -74312,7 +74423,7 @@
         <v>6</v>
       </c>
       <c r="F1918" s="3" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="G1918" s="3" t="s">
         <v>6</v>
@@ -74329,7 +74440,7 @@
     </row>
     <row r="1919" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1919" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="B1919" s="10">
         <v>30.269590999999998</v>
@@ -74344,7 +74455,7 @@
         <v>6</v>
       </c>
       <c r="F1919" s="3" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="G1919" s="3" t="s">
         <v>6</v>
@@ -74361,7 +74472,7 @@
     </row>
     <row r="1920" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1920" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="B1920" s="10">
         <v>30.232955</v>
@@ -74376,7 +74487,7 @@
         <v>6</v>
       </c>
       <c r="F1920" s="3" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="G1920" s="3" t="s">
         <v>6</v>
@@ -74393,7 +74504,7 @@
     </row>
     <row r="1921" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1921" s="3" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="B1921" s="10">
         <v>10.066248</v>
@@ -74408,7 +74519,7 @@
         <v>6</v>
       </c>
       <c r="F1921" s="3" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="G1921" s="3" t="s">
         <v>6</v>
@@ -74425,7 +74536,7 @@
     </row>
     <row r="1922" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1922" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="B1922" s="10">
         <v>36.157811000000002</v>
@@ -74440,7 +74551,7 @@
         <v>6</v>
       </c>
       <c r="F1922" s="3" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="G1922" s="3" t="s">
         <v>6</v>
@@ -74457,7 +74568,7 @@
     </row>
     <row r="1923" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1923" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="B1923" s="10">
         <v>1.583072</v>
@@ -74472,7 +74583,7 @@
         <v>6</v>
       </c>
       <c r="F1923" s="3" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="G1923" s="3" t="s">
         <v>6</v>
@@ -74489,7 +74600,7 @@
     </row>
     <row r="1924" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1924" s="4" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="B1924" s="10">
         <v>-26.985075999999999</v>
@@ -74504,10 +74615,10 @@
         <v>6</v>
       </c>
       <c r="F1924" s="3" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="G1924" s="3" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="H1924" s="3" t="s">
         <v>367</v>
@@ -74521,7 +74632,7 @@
     </row>
     <row r="1925" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1925" s="4" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="B1925" s="10">
         <v>-28.943971000000001</v>
@@ -74536,7 +74647,7 @@
         <v>6</v>
       </c>
       <c r="F1925" s="3" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="G1925" s="3" t="s">
         <v>6</v>
@@ -74553,7 +74664,7 @@
     </row>
     <row r="1926" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1926" s="4" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="B1926" s="10">
         <v>-28.389641000000001</v>
@@ -74568,7 +74679,7 @@
         <v>6</v>
       </c>
       <c r="F1926" s="3" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="G1926" s="3" t="s">
         <v>6</v>
@@ -74585,7 +74696,7 @@
     </row>
     <row r="1927" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1927" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="B1927" s="10">
         <v>-34.422046999999999</v>
@@ -74600,7 +74711,7 @@
         <v>6</v>
       </c>
       <c r="F1927" s="3" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="G1927" s="3" t="s">
         <v>6</v>
@@ -74617,7 +74728,7 @@
     </row>
     <row r="1928" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1928" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="B1928" s="10">
         <v>-34.051003999999999</v>
@@ -74632,13 +74743,13 @@
         <v>6</v>
       </c>
       <c r="F1928" s="3" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="G1928" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1928" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="I1928" s="3" t="s">
         <v>6</v>
@@ -74649,7 +74760,7 @@
     </row>
     <row r="1929" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1929" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B1929" s="10">
         <f>21+24/60+31/3600</f>
@@ -74666,7 +74777,7 @@
         <v>1563</v>
       </c>
       <c r="F1929" s="3" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="G1929" s="3" t="s">
         <v>6</v>
@@ -74683,7 +74794,7 @@
     </row>
     <row r="1930" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1930" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="B1930" s="10">
         <v>-9.5599349999999994</v>
@@ -74698,7 +74809,7 @@
         <v>6</v>
       </c>
       <c r="F1930" s="3" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="G1930" s="3" t="s">
         <v>6</v>
@@ -74715,7 +74826,7 @@
     </row>
     <row r="1931" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1931" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="B1931" s="10">
         <v>-9.6263869999999994</v>
@@ -74730,13 +74841,13 @@
         <v>6</v>
       </c>
       <c r="F1931" s="3" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="G1931" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1931" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="I1931" s="3" t="s">
         <v>6</v>
@@ -74747,7 +74858,7 @@
     </row>
     <row r="1932" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1932" s="4" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="B1932" s="10">
         <v>13.599276</v>
@@ -74762,7 +74873,7 @@
         <v>6</v>
       </c>
       <c r="F1932" s="3" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="G1932" s="3" t="s">
         <v>6</v>
@@ -74771,7 +74882,7 @@
         <v>178</v>
       </c>
       <c r="I1932" s="3" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="J1932" s="3" t="s">
         <v>6</v>
@@ -74779,7 +74890,7 @@
     </row>
     <row r="1933" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1933" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="B1933" s="10">
         <v>19.380182000000001</v>
@@ -74794,7 +74905,7 @@
         <v>6</v>
       </c>
       <c r="F1933" s="3" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="G1933" s="3" t="s">
         <v>6</v>
@@ -74811,7 +74922,7 @@
     </row>
     <row r="1934" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1934" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="B1934" s="10">
         <f>9+16/60</f>
@@ -74828,7 +74939,7 @@
         <v>6</v>
       </c>
       <c r="F1934" s="4" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="G1934" s="3" t="s">
         <v>6</v>
@@ -74845,7 +74956,7 @@
     </row>
     <row r="1935" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1935" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="B1935" s="10">
         <v>22.216901</v>
@@ -74860,7 +74971,7 @@
         <v>6</v>
       </c>
       <c r="F1935" s="3" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="G1935" s="3" t="s">
         <v>6</v>
@@ -74877,7 +74988,7 @@
     </row>
     <row r="1936" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1936" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="B1936" s="10">
         <v>21.922920999999999</v>
@@ -74892,7 +75003,7 @@
         <v>6</v>
       </c>
       <c r="F1936" s="3" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="G1936" s="3" t="s">
         <v>6</v>
@@ -74909,7 +75020,7 @@
     </row>
     <row r="1937" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1937" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="B1937" s="10">
         <v>21.901105999999999</v>
@@ -74924,7 +75035,7 @@
         <v>6</v>
       </c>
       <c r="F1937" s="3" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
       <c r="G1937" s="3" t="s">
         <v>6</v>
@@ -74941,7 +75052,7 @@
     </row>
     <row r="1938" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1938" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B1938" s="10">
         <v>34.701917000000002</v>
@@ -74956,7 +75067,7 @@
         <v>6</v>
       </c>
       <c r="F1938" s="3" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="G1938" s="3" t="s">
         <v>6</v>
@@ -74973,7 +75084,7 @@
     </row>
     <row r="1939" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1939" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="B1939" s="10">
         <v>38.788542999999997</v>
@@ -74988,7 +75099,7 @@
         <v>6</v>
       </c>
       <c r="F1939" s="3" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="G1939" s="3" t="s">
         <v>6</v>
@@ -75005,7 +75116,7 @@
     </row>
     <row r="1940" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1940" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="B1940" s="10">
         <v>33.968932000000002</v>
@@ -75020,13 +75131,13 @@
         <v>6</v>
       </c>
       <c r="F1940" s="3" t="s">
+        <v>4065</v>
+      </c>
+      <c r="G1940" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1940" t="s">
         <v>4066</v>
-      </c>
-      <c r="G1940" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1940" t="s">
-        <v>4067</v>
       </c>
       <c r="I1940" t="s">
         <v>6</v>
@@ -75037,7 +75148,7 @@
     </row>
     <row r="1941" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1941" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="B1941" s="10">
         <v>34.716991</v>
@@ -75052,7 +75163,7 @@
         <v>6</v>
       </c>
       <c r="F1941" s="3" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="G1941" s="3" t="s">
         <v>6</v>
@@ -75069,7 +75180,7 @@
     </row>
     <row r="1942" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1942" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
       <c r="B1942" s="10">
         <v>26.144439999999999</v>
@@ -75084,7 +75195,7 @@
         <v>6</v>
       </c>
       <c r="F1942" s="3" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="G1942" s="3" t="s">
         <v>6</v>
@@ -75101,7 +75212,7 @@
     </row>
     <row r="1943" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1943" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="B1943" s="10">
         <v>-7.5638899999999998</v>
@@ -75116,7 +75227,7 @@
         <v>6</v>
       </c>
       <c r="F1943" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="G1943" s="3" t="s">
         <v>6</v>
@@ -75133,7 +75244,7 @@
     </row>
     <row r="1944" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1944" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="B1944" s="10">
         <v>32.024205000000002</v>
@@ -75148,7 +75259,7 @@
         <v>6</v>
       </c>
       <c r="F1944" s="3" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="G1944" s="3" t="s">
         <v>6</v>
@@ -75165,7 +75276,7 @@
     </row>
     <row r="1945" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1945" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="B1945" s="10">
         <v>40.926395999999997</v>
@@ -75180,7 +75291,7 @@
         <v>6</v>
       </c>
       <c r="F1945" s="3" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
       <c r="G1945" s="3" t="s">
         <v>6</v>
@@ -75197,7 +75308,7 @@
     </row>
     <row r="1946" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1946" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="B1946" s="10">
         <v>4.3388299999999997</v>
@@ -75206,13 +75317,13 @@
         <v>6.4113309999999997</v>
       </c>
       <c r="D1946" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="E1946" t="s">
         <v>6</v>
       </c>
       <c r="F1946" s="3" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="G1946" s="3" t="s">
         <v>6</v>
@@ -75229,7 +75340,7 @@
     </row>
     <row r="1947" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1947" s="4" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="B1947" s="10">
         <v>29.371272999999999</v>
@@ -75244,7 +75355,7 @@
         <v>6</v>
       </c>
       <c r="F1947" s="3" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
       <c r="G1947" s="3" t="s">
         <v>6</v>
@@ -75253,7 +75364,7 @@
         <v>87</v>
       </c>
       <c r="I1947" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="J1947" s="3" t="s">
         <v>6</v>
@@ -75261,7 +75372,7 @@
     </row>
     <row r="1948" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1948" s="4" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="B1948" s="10">
         <v>29.324041000000001</v>
@@ -75276,7 +75387,7 @@
         <v>6</v>
       </c>
       <c r="F1948" s="4" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="G1948" s="3" t="s">
         <v>6</v>
@@ -75285,7 +75396,7 @@
         <v>87</v>
       </c>
       <c r="I1948" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="J1948" s="3" t="s">
         <v>6</v>
@@ -75293,7 +75404,7 @@
     </row>
     <row r="1949" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1949" s="4" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B1949" s="10">
         <v>29.337230000000002</v>
@@ -75308,7 +75419,7 @@
         <v>6</v>
       </c>
       <c r="F1949" s="4" t="s">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="G1949" s="3" t="s">
         <v>6</v>
@@ -75317,20 +75428,695 @@
         <v>87</v>
       </c>
       <c r="I1949" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="J1949" s="3" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="1950" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1950" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B1950" s="10">
+        <v>13.072642</v>
+      </c>
+      <c r="C1950" s="10">
+        <v>-59.578009999999999</v>
+      </c>
+      <c r="D1950" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1950" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1950" s="3" t="s">
+        <v>4086</v>
+      </c>
+      <c r="G1950" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1950" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1950" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1950" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1951" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B1951" s="10">
+        <v>20.652450000000002</v>
+      </c>
+      <c r="C1951" s="10">
+        <v>-105.24902899999999</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1951" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1951" t="s">
+        <v>4088</v>
+      </c>
+      <c r="G1951" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1951" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1951" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1951" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1952" s="4" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B1952" s="10">
+        <v>-10.306431999999999</v>
+      </c>
+      <c r="C1952" s="10">
+        <v>-165.60298399999999</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1952" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1952" s="4" t="s">
+        <v>4089</v>
+      </c>
+      <c r="G1952" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1952" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I1952" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1952" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1953" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B1953" s="10">
+        <v>11.791655</v>
+      </c>
+      <c r="C1953" s="10">
+        <v>50.520699999999998</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1953" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1953" s="3" t="s">
+        <v>4094</v>
+      </c>
+      <c r="G1953" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1953" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1953" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1953" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1954" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B1954" s="10">
+        <v>1.9485189999999999</v>
+      </c>
+      <c r="C1954" s="10">
+        <v>45.181457000000002</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1954" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1954" s="3" t="s">
+        <v>4097</v>
+      </c>
+      <c r="G1954" s="3" t="s">
+        <v>4090</v>
+      </c>
+      <c r="H1954" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1954" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1954" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1955" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B1955" s="10">
+        <v>-0.25059700000000001</v>
+      </c>
+      <c r="C1955" s="10">
+        <v>42.528419999999997</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1955" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1955" s="3" t="s">
+        <v>4100</v>
+      </c>
+      <c r="G1955" s="3" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H1955" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1955" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1955" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1956" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B1956" s="10">
+        <v>-0.84082999999999997</v>
+      </c>
+      <c r="C1956" s="10">
+        <v>42.06794</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1956" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1956" s="3" t="s">
+        <v>4091</v>
+      </c>
+      <c r="G1956" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1956" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1956" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1956" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1957" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B1957" s="10">
+        <v>-0.48160199999999997</v>
+      </c>
+      <c r="C1957" s="10">
+        <v>42.432653000000002</v>
+      </c>
+      <c r="D1957" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1957" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1957" s="3" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G1957" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1957" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1957" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1957" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1958" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B1958" s="10">
+        <v>-0.85070100000000004</v>
+      </c>
+      <c r="C1958" s="10">
+        <v>42.072879</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>4104</v>
+      </c>
+      <c r="E1958" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1958" s="3" t="s">
+        <v>4092</v>
+      </c>
+      <c r="G1958" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1958" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1958" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1958" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1959" s="4" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B1959" s="10">
+        <v>0.85945499999999997</v>
+      </c>
+      <c r="C1959" s="10">
+        <v>43.751652999999997</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1959" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1959" s="3" t="s">
+        <v>4105</v>
+      </c>
+      <c r="G1959" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1959" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1959" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1959" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1960" s="3" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B1960" s="10">
+        <v>17.055005999999999</v>
+      </c>
+      <c r="C1960" s="10">
+        <v>73.250473999999997</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1960" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1960" s="3" t="s">
+        <v>4106</v>
+      </c>
+      <c r="G1960" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1960" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1960" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="J1960" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1961" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B1961" s="10">
+        <v>-38.855147000000002</v>
+      </c>
+      <c r="C1961" s="10">
+        <v>-62.203785000000003</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1961" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1961" t="s">
+        <v>4109</v>
+      </c>
+      <c r="G1961" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1961" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I1961" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1961" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1962" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B1962" s="10">
+        <v>-38.8992</v>
+      </c>
+      <c r="C1962" s="10">
+        <v>-62.101604999999999</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1962" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1962" s="3" t="s">
+        <v>4111</v>
+      </c>
+      <c r="G1962" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1962" t="s">
+        <v>4108</v>
+      </c>
+      <c r="I1962" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1962" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1963" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B1963" s="10">
+        <v>-6.1424899999999996</v>
+      </c>
+      <c r="C1963" s="10">
+        <v>39.208145000000002</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1963" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1963" s="3" t="s">
+        <v>4113</v>
+      </c>
+      <c r="G1963" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1963" t="s">
+        <v>3645</v>
+      </c>
+      <c r="I1963" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1963" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1964" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B1964" s="10">
+        <v>-28.804677999999999</v>
+      </c>
+      <c r="C1964" s="10">
+        <v>32.047429999999999</v>
+      </c>
+      <c r="D1964" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1964" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1964" s="3" t="s">
+        <v>4115</v>
+      </c>
+      <c r="G1964" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1964" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1964" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1964" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1965" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B1965" s="10">
+        <v>-31.691828999999998</v>
+      </c>
+      <c r="C1965" s="10">
+        <v>29.420641</v>
+      </c>
+      <c r="D1965" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1965" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1965" s="3" t="s">
+        <v>4116</v>
+      </c>
+      <c r="G1965" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1965" t="s">
+        <v>3051</v>
+      </c>
+      <c r="I1965" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1965" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1966" s="4" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B1966" s="10">
+        <v>-3.958634</v>
+      </c>
+      <c r="C1966" s="10">
+        <v>39.753481999999998</v>
+      </c>
+      <c r="D1966" s="3" t="s">
+        <v>4120</v>
+      </c>
+      <c r="E1966" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1966" s="3" t="s">
+        <v>4119</v>
+      </c>
+      <c r="G1966" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1966" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="I1966" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1966" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1967" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B1967" s="10">
+        <v>-19.222746999999998</v>
+      </c>
+      <c r="C1967" s="10">
+        <v>146.11769000000001</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1967" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1967" s="3" t="s">
+        <v>4122</v>
+      </c>
+      <c r="G1967" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1967" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1967" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1967" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1968" s="4"/>
+    </row>
+    <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1969" s="4"/>
+    </row>
+    <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1970" s="4"/>
+    </row>
+    <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1971" s="4"/>
+    </row>
+    <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1972" s="4"/>
+    </row>
+    <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1973" s="4"/>
+    </row>
+    <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1974" s="4"/>
+    </row>
+    <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1975" s="4"/>
+    </row>
+    <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1977" s="4"/>
+    </row>
+    <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1978" s="4"/>
+    </row>
+    <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1979" s="4"/>
+    </row>
+    <row r="1980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1980" s="4"/>
+    </row>
+    <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1981" s="4"/>
+    </row>
+    <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1982" s="4"/>
+    </row>
+    <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1983" s="4"/>
+    </row>
+    <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1984" s="4"/>
+    </row>
+    <row r="1985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1985" s="4"/>
+    </row>
+    <row r="1986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1986" s="4"/>
+    </row>
+    <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1987" s="4"/>
+    </row>
+    <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1988" s="4"/>
+    </row>
+    <row r="1989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1989" s="4"/>
+    </row>
+    <row r="1990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1990" s="4"/>
+    </row>
+    <row r="1991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1991" s="4"/>
+    </row>
+    <row r="1992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1992" s="4"/>
+    </row>
+    <row r="1993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1993" s="4"/>
+    </row>
+    <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1994" s="4"/>
+    </row>
+    <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1996" s="4"/>
+    </row>
+    <row r="1997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1997" s="4"/>
+    </row>
+    <row r="1998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1998" s="4"/>
+    </row>
+    <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1999" s="4"/>
+    </row>
+    <row r="2001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2001" s="4"/>
+    </row>
+    <row r="2002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2002" s="4"/>
+    </row>
+    <row r="2004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2004" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1949" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J1967" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1869">
       <sortCondition sortBy="cellColor" ref="A1:A1869" dxfId="0"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1803:A1828">
-    <sortCondition ref="A1803:A1828"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1970:A2051">
+    <sortCondition ref="A1970:A2051"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A53D4F2-B403-4B63-B4EB-3679E3873906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB00854-67A6-4311-98C2-1562DB82231D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="90" windowWidth="19455" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="405" windowWidth="21885" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$2068</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$2099</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16553" uniqueCount="4330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16801" uniqueCount="4392">
   <si>
     <t>Latitude</t>
   </si>
@@ -13026,6 +13026,192 @@
   </si>
   <si>
     <t>Sabine National Wildlife Refuge, Cameron Parish, Louisiana, USA</t>
+  </si>
+  <si>
+    <t>Port Henderson, Jamaica</t>
+  </si>
+  <si>
+    <t>Port Henderson</t>
+  </si>
+  <si>
+    <t>Mantanzas, Cuba</t>
+  </si>
+  <si>
+    <t>Mantanzas</t>
+  </si>
+  <si>
+    <t>Nassau County, Florida, USA</t>
+  </si>
+  <si>
+    <t>Nassau County</t>
+  </si>
+  <si>
+    <t>Fernandina Beach, Nassau County, Florida, USA</t>
+  </si>
+  <si>
+    <t>Fernandina Beach</t>
+  </si>
+  <si>
+    <t>Volusia County, Florida, USA</t>
+  </si>
+  <si>
+    <t>Volusia County</t>
+  </si>
+  <si>
+    <t>Callalisa Park</t>
+  </si>
+  <si>
+    <t>Callalisa Park, Volusia County, Florida, USA</t>
+  </si>
+  <si>
+    <t>Hollywood</t>
+  </si>
+  <si>
+    <t>Broward County, Florida, USA</t>
+  </si>
+  <si>
+    <t>Broward County</t>
+  </si>
+  <si>
+    <t>Hollywood, Broward County, Florida, USA</t>
+  </si>
+  <si>
+    <t>Campeche, Mexico</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Campeche (State)</t>
+  </si>
+  <si>
+    <t>Campeche, Campeche, Mexico</t>
+  </si>
+  <si>
+    <t>Champoton, Campeche, Mexico</t>
+  </si>
+  <si>
+    <t>Champoton</t>
+  </si>
+  <si>
+    <t>Amapá, Brazil</t>
+  </si>
+  <si>
+    <t>Amapá</t>
+  </si>
+  <si>
+    <t>Rio Amapá, Amapá, Brazil</t>
+  </si>
+  <si>
+    <t>Rio Amapá</t>
+  </si>
+  <si>
+    <t>Salinópolis, Pará, Brazil</t>
+  </si>
+  <si>
+    <t>Salinópolis</t>
+  </si>
+  <si>
+    <t>Icatu, Maranhão, Brazil</t>
+  </si>
+  <si>
+    <t>Icatu</t>
+  </si>
+  <si>
+    <t>Ilha de Itamaracá</t>
+  </si>
+  <si>
+    <t>Ilha de Itamaracá, Pernambuco, Brazil</t>
+  </si>
+  <si>
+    <t>Sirinhaém</t>
+  </si>
+  <si>
+    <t>Sirinhaém, Pernambuco, Brazil</t>
+  </si>
+  <si>
+    <t>Rio Camaragibe</t>
+  </si>
+  <si>
+    <t>Rio Camaragibe, Alagoas, Brazil</t>
+  </si>
+  <si>
+    <t>Porto do Sauipe, Bahia, Brazil</t>
+  </si>
+  <si>
+    <t>Porto do Sauipe</t>
+  </si>
+  <si>
+    <t>Guarapari, Espírito Santo, Brazil</t>
+  </si>
+  <si>
+    <t>Guarapari</t>
+  </si>
+  <si>
+    <t>Marataízes</t>
+  </si>
+  <si>
+    <t>Marataízes, Espírito Santo, Brazil</t>
+  </si>
+  <si>
+    <t>Bertioga, São Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>Bertioga</t>
+  </si>
+  <si>
+    <t>Cananéia</t>
+  </si>
+  <si>
+    <t>Cananéia, São Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>Guaratuba, Paraná, Brazil</t>
+  </si>
+  <si>
+    <t>Guaratuba</t>
+  </si>
+  <si>
+    <t>Santa Catarina, Brazil</t>
+  </si>
+  <si>
+    <t>Santa Catarina</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>Florianópolis, Santa Catarina, Brazil</t>
+  </si>
+  <si>
+    <t>Okukubi River, Okinawa, Ryukyu Islands, Japan</t>
+  </si>
+  <si>
+    <t>Okukubi River</t>
+  </si>
+  <si>
+    <t>Pwani Region, Tanzania</t>
+  </si>
+  <si>
+    <t>Pwani Region</t>
+  </si>
+  <si>
+    <t>Rufiji River, Pwani Region, Tanzania</t>
+  </si>
+  <si>
+    <t>Rufiji River</t>
+  </si>
+  <si>
+    <t>Ras Dege Estuary, Dar es Salaam, Tanzania</t>
+  </si>
+  <si>
+    <t>Ras Dege Estuary</t>
+  </si>
+  <si>
+    <t>Bocaripo Lagoon, Sucre, Venezuela</t>
+  </si>
+  <si>
+    <t>Bocaripo Lagoon</t>
   </si>
 </sst>
 </file>
@@ -13478,11 +13664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2068"/>
+  <dimension ref="A1:K2101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A1:J2068"/>
+      <pane ySplit="1" topLeftCell="A2049" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2099" sqref="A2099"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79923,8 +80109,1005 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2069" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2069" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B2069" s="10">
+        <v>17.949214999999999</v>
+      </c>
+      <c r="C2069" s="10">
+        <v>-76.874409</v>
+      </c>
+      <c r="D2069" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2069" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2069" s="3" t="s">
+        <v>4331</v>
+      </c>
+      <c r="G2069" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2069" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2069" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2069" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2070" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B2070" s="10">
+        <v>23.038824999999999</v>
+      </c>
+      <c r="C2070" s="10">
+        <v>-81.544044999999997</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2070" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2070" s="3" t="s">
+        <v>4333</v>
+      </c>
+      <c r="G2070" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2070" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2070" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2070" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2071" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B2071" s="10">
+        <v>30.610468000000001</v>
+      </c>
+      <c r="C2071" s="10">
+        <v>-81.441631999999998</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2071" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2071" s="3" t="s">
+        <v>4335</v>
+      </c>
+      <c r="G2071" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2071" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2071" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2071" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2072" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B2072" s="10">
+        <v>30.647597000000001</v>
+      </c>
+      <c r="C2072" s="10">
+        <v>-81.434471000000002</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2072" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2072" s="3" t="s">
+        <v>4337</v>
+      </c>
+      <c r="G2072" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2072" t="s">
+        <v>4334</v>
+      </c>
+      <c r="I2072" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2072" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2073" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B2073" s="10">
+        <v>29.077494000000002</v>
+      </c>
+      <c r="C2073" s="10">
+        <v>-80.923625999999999</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2073" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2073" s="3" t="s">
+        <v>4339</v>
+      </c>
+      <c r="G2073" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2073" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2073" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2073" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2074" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B2074" s="10">
+        <v>29.029509999999998</v>
+      </c>
+      <c r="C2074" s="10">
+        <v>-80.904216000000005</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2074" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2074" s="3" t="s">
+        <v>4340</v>
+      </c>
+      <c r="G2074" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2074" t="s">
+        <v>4338</v>
+      </c>
+      <c r="I2074" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2074" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2075" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B2075" s="10">
+        <v>26.022015</v>
+      </c>
+      <c r="C2075" s="10">
+        <v>-80.114267999999996</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2075" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2075" s="3" t="s">
+        <v>4342</v>
+      </c>
+      <c r="G2075" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2075" t="s">
+        <v>4343</v>
+      </c>
+      <c r="I2075" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2075" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2076" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B2076" s="10">
+        <v>26.157446</v>
+      </c>
+      <c r="C2076" s="10">
+        <v>-80.997110000000006</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2076" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2076" s="3" t="s">
+        <v>4344</v>
+      </c>
+      <c r="G2076" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2076" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2076" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2076" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2077" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B2077" s="10">
+        <v>19.209285000000001</v>
+      </c>
+      <c r="C2077" s="10">
+        <v>-90.877838999999994</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E2077" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2077" s="3" t="s">
+        <v>4348</v>
+      </c>
+      <c r="G2077" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2077" t="s">
+        <v>2155</v>
+      </c>
+      <c r="I2077" t="s">
+        <v>447</v>
+      </c>
+      <c r="J2077" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2078" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B2078" s="10">
+        <v>19.846705</v>
+      </c>
+      <c r="C2078" s="10">
+        <v>-90.541385000000005</v>
+      </c>
+      <c r="D2078" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2078" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2078" s="3" t="s">
+        <v>4347</v>
+      </c>
+      <c r="G2078" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2078" t="s">
+        <v>4346</v>
+      </c>
+      <c r="I2078" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2078" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2079" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B2079" s="10">
+        <v>19.346592999999999</v>
+      </c>
+      <c r="C2079" s="10">
+        <v>-90.731435000000005</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2079" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2079" s="3" t="s">
+        <v>4351</v>
+      </c>
+      <c r="G2079" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2079" t="s">
+        <v>4346</v>
+      </c>
+      <c r="I2079" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2079" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2080" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B2080" s="10">
+        <v>2.5051860000000001</v>
+      </c>
+      <c r="C2080" s="10">
+        <v>-50.819522999999997</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E2080" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2080" s="3" t="s">
+        <v>4353</v>
+      </c>
+      <c r="G2080" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2080" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2080" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2080" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2081" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B2081" s="10">
+        <v>2.137432</v>
+      </c>
+      <c r="C2081" s="10">
+        <v>-50.704255000000003</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2081" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2081" s="3" t="s">
+        <v>4355</v>
+      </c>
+      <c r="G2081" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2081" t="s">
+        <v>4352</v>
+      </c>
+      <c r="I2081" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2081" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2082" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B2082" s="10">
+        <v>-0.61447799999999997</v>
+      </c>
+      <c r="C2082" s="10">
+        <v>-47.349525999999997</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2082" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2082" t="s">
+        <v>4357</v>
+      </c>
+      <c r="G2082" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2082" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2082" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2082" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2083" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B2083" s="10">
+        <v>-2.7756289999999999</v>
+      </c>
+      <c r="C2083" s="10">
+        <v>-44.067132999999998</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2083" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2083" s="3" t="s">
+        <v>4359</v>
+      </c>
+      <c r="G2083" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2083" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2083" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2083" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2084" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B2084" s="10">
+        <v>-7.7638550000000004</v>
+      </c>
+      <c r="C2084" s="10">
+        <v>-34.828212999999998</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2084" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2084" s="3" t="s">
+        <v>4360</v>
+      </c>
+      <c r="G2084" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2084" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2084" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2084" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2085" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B2085" s="10">
+        <v>-8.6202199999999998</v>
+      </c>
+      <c r="C2085" s="10">
+        <v>-35.055526999999998</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2085" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2085" s="3" t="s">
+        <v>4362</v>
+      </c>
+      <c r="G2085" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2085" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2085" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2085" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2086" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B2086" s="10">
+        <v>-9.3131310000000003</v>
+      </c>
+      <c r="C2086" s="10">
+        <v>-35.429212999999997</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2086" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2086" s="3" t="s">
+        <v>4364</v>
+      </c>
+      <c r="G2086" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2086" t="s">
+        <v>4036</v>
+      </c>
+      <c r="I2086" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2086" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2087" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B2087" s="10">
+        <v>-12.390040000000001</v>
+      </c>
+      <c r="C2087" s="10">
+        <v>-37.880358999999999</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2087" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2087" s="3" t="s">
+        <v>4367</v>
+      </c>
+      <c r="G2087" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2087" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2087" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2087" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2088" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B2088" s="10">
+        <v>-20.67597</v>
+      </c>
+      <c r="C2088" s="10">
+        <v>-40.50159</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2088" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2088" s="3" t="s">
+        <v>4369</v>
+      </c>
+      <c r="G2088" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2088" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2088" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2088" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2089" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B2089" s="10">
+        <v>-21.046327999999999</v>
+      </c>
+      <c r="C2089" s="10">
+        <v>-40.828198</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2089" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2089" s="3" t="s">
+        <v>4370</v>
+      </c>
+      <c r="G2089" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2089" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2089" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2089" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2090" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B2090" s="10">
+        <v>-23.83625</v>
+      </c>
+      <c r="C2090" s="10">
+        <v>-45.119155999999997</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2090" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2090" s="3" t="s">
+        <v>4373</v>
+      </c>
+      <c r="G2090" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2090" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2090" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2090" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2091" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B2091" s="10">
+        <v>-25.013652</v>
+      </c>
+      <c r="C2091" s="10">
+        <v>-47.926667999999999</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2091" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2091" s="3" t="s">
+        <v>4374</v>
+      </c>
+      <c r="G2091" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2091" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2091" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2091" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2092" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B2092" s="10">
+        <v>-25.881722</v>
+      </c>
+      <c r="C2092" s="10">
+        <v>-48.567810000000001</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2092" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2092" s="3" t="s">
+        <v>4377</v>
+      </c>
+      <c r="G2092" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2092" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2092" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2092" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2093" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B2093" s="10">
+        <v>-27.545074</v>
+      </c>
+      <c r="C2093" s="10">
+        <v>-48.657190999999997</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E2093" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2093" s="3" t="s">
+        <v>4379</v>
+      </c>
+      <c r="G2093" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2093" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2093" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J2093" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2094" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B2094" s="10">
+        <v>-27.600128000000002</v>
+      </c>
+      <c r="C2094" s="10">
+        <v>-48.482644000000001</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2094" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2094" s="3" t="s">
+        <v>4380</v>
+      </c>
+      <c r="G2094" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2094" t="s">
+        <v>4378</v>
+      </c>
+      <c r="I2094" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2094" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2095" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B2095" s="10">
+        <v>26.454808</v>
+      </c>
+      <c r="C2095" s="10">
+        <v>127.944007</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2095" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2095" s="3" t="s">
+        <v>4383</v>
+      </c>
+      <c r="G2095" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2095" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I2095" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2095" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2096" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B2096" s="10">
+        <v>-7.3096059999999996</v>
+      </c>
+      <c r="C2096" s="10">
+        <v>39.369404000000003</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2096" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2096" s="3" t="s">
+        <v>4385</v>
+      </c>
+      <c r="G2096" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2096" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2096" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2096" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2097" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B2097" s="10">
+        <v>-7.8045229999999997</v>
+      </c>
+      <c r="C2097" s="10">
+        <v>39.326158999999997</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2097" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2097" s="3" t="s">
+        <v>4387</v>
+      </c>
+      <c r="G2097" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2097" t="s">
+        <v>4384</v>
+      </c>
+      <c r="I2097" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2097" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2098" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B2098" s="10">
+        <v>-6.8103899999999999</v>
+      </c>
+      <c r="C2098" s="10">
+        <v>39.452007999999999</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2098" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2098" s="3" t="s">
+        <v>4389</v>
+      </c>
+      <c r="G2098" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2098" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2098" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2098" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2099" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B2099" s="10">
+        <f>10+35/60</f>
+        <v>10.583333333333334</v>
+      </c>
+      <c r="C2099" s="10">
+        <f>-(65+2.5/60)</f>
+        <v>-65.041666666666671</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2099" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2099" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="G2099" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2099" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I2099" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2099" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2101" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J2068" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J2099" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1869">
       <sortCondition sortBy="cellColor" ref="A1:A1869" dxfId="0"/>
     </sortState>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D3481F-7E0B-410A-9047-5F294C135869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC32BA2E-A25F-4E10-8D95-F76719F1B062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="0" windowWidth="20130" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14085" yWindow="-180" windowWidth="20880" windowHeight="18735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$2232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$2239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17868" uniqueCount="5062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17932" uniqueCount="5072">
   <si>
     <t>Latitude</t>
   </si>
@@ -15222,6 +15222,36 @@
   </si>
   <si>
     <t>Shirahama [Iriomote-jima]</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>The Gambia</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>الصحراء الغربية</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Melville Island, Northern Territory, Australia</t>
+  </si>
+  <si>
+    <t>Melville Island</t>
   </si>
 </sst>
 </file>
@@ -15690,11 +15720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2234"/>
+  <dimension ref="A1:K2240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A2239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2243" sqref="A2243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87447,13 +87477,263 @@
       </c>
     </row>
     <row r="2233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2233" s="4"/>
+      <c r="A2233" s="4" t="s">
+        <v>5062</v>
+      </c>
+      <c r="B2233" s="10">
+        <v>6.3564150000000001</v>
+      </c>
+      <c r="C2233" s="10">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2233" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2233" s="3" t="s">
+        <v>5062</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2233" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2233" t="s">
+        <v>3440</v>
+      </c>
+      <c r="J2233" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2234" s="4"/>
+      <c r="A2234" s="4" t="s">
+        <v>5063</v>
+      </c>
+      <c r="B2234" s="10">
+        <v>4.786867</v>
+      </c>
+      <c r="C2234" s="10">
+        <v>114.60556800000001</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2234" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2234" s="3" t="s">
+        <v>5063</v>
+      </c>
+      <c r="G2234" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2234" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2234" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2234" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2235" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B2235" s="10">
+        <v>11.071263999999999</v>
+      </c>
+      <c r="C2235" s="10">
+        <v>103.66928</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2235" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2235" s="3" t="s">
+        <v>5064</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2235" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2235" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="J2235" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2236" t="s">
+        <v>5065</v>
+      </c>
+      <c r="B2236" s="10">
+        <v>20.273508</v>
+      </c>
+      <c r="C2236" s="10">
+        <v>57.864952000000002</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2236" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2236" t="s">
+        <v>5065</v>
+      </c>
+      <c r="G2236" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2236" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2236" t="s">
+        <v>2088</v>
+      </c>
+      <c r="J2236" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2237" t="s">
+        <v>5066</v>
+      </c>
+      <c r="B2237" s="10">
+        <v>13.342435999999999</v>
+      </c>
+      <c r="C2237" s="10">
+        <v>-16.523897999999999</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2237" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2237" s="3" t="s">
+        <v>5066</v>
+      </c>
+      <c r="G2237" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2237" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2237" t="s">
+        <v>3440</v>
+      </c>
+      <c r="J2237" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2238" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B2238" s="10">
+        <v>25.755952000000001</v>
+      </c>
+      <c r="C2238" s="10">
+        <v>-14.628645000000001</v>
+      </c>
+      <c r="D2238" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2238" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2238" s="3" t="s">
+        <v>5067</v>
+      </c>
+      <c r="G2238" t="s">
+        <v>5068</v>
+      </c>
+      <c r="H2238" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2238" t="s">
+        <v>3440</v>
+      </c>
+      <c r="J2238" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2239" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B2239" s="10">
+        <v>6.2062660000000003</v>
+      </c>
+      <c r="C2239" s="10">
+        <v>-16.523897999999999</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2239" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2239" s="3" t="s">
+        <v>5069</v>
+      </c>
+      <c r="G2239" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2239" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2239" t="s">
+        <v>3440</v>
+      </c>
+      <c r="J2239" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2240" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B2240" s="10">
+        <v>-11.854436</v>
+      </c>
+      <c r="C2240" s="10">
+        <v>130.97721000000001</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2240" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2240" s="3" t="s">
+        <v>5071</v>
+      </c>
+      <c r="G2240" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2240" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2240" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2240" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J2232" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J2239" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2209">
       <sortCondition ref="H2:H2209"/>
       <sortCondition ref="A2:A2209"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC32BA2E-A25F-4E10-8D95-F76719F1B062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918EDD8B-C2A4-4C92-8894-83D055015A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14085" yWindow="-180" windowWidth="20880" windowHeight="18735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16665" yWindow="-60" windowWidth="20115" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$2239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$2259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17932" uniqueCount="5072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18084" uniqueCount="5111">
   <si>
     <t>Latitude</t>
   </si>
@@ -12776,9 +12776,6 @@
     <t>Port Henderson</t>
   </si>
   <si>
-    <t>Mantanzas, Cuba</t>
-  </si>
-  <si>
     <t>Mantanzas</t>
   </si>
   <si>
@@ -14471,9 +14468,6 @@
     <t>อำเภอ เกาะช้าง</t>
   </si>
   <si>
-    <t>คลองสิเกา</t>
-  </si>
-  <si>
     <t>หาดปากเมง</t>
   </si>
   <si>
@@ -15252,6 +15246,129 @@
   </si>
   <si>
     <t>Melville Island</t>
+  </si>
+  <si>
+    <t>Maragogi, Alagoas, Brazil</t>
+  </si>
+  <si>
+    <t>Maragogi</t>
+  </si>
+  <si>
+    <t>Ponta do Mangue</t>
+  </si>
+  <si>
+    <t>Ponta do Mangue, Maragogi, Alagoas, Brazil</t>
+  </si>
+  <si>
+    <t>Praia de Morros de Camaragibe</t>
+  </si>
+  <si>
+    <t>Praia de Morros de Camaragibe, Alagoas, Brazil</t>
+  </si>
+  <si>
+    <t>Laguna de Términos</t>
+  </si>
+  <si>
+    <t>Laguna de Términos, Campeche, Mexico</t>
+  </si>
+  <si>
+    <t>Ensensada de La Paz, La Paz, Baja California Sur, Mexico</t>
+  </si>
+  <si>
+    <t>Ensenada de La Paz</t>
+  </si>
+  <si>
+    <t>Matanzas Province</t>
+  </si>
+  <si>
+    <t>Matanzas Province, Cuba</t>
+  </si>
+  <si>
+    <t>Mantanzas, Matanzas Province, Cuba</t>
+  </si>
+  <si>
+    <t>Varadero, Matanzas Province, Cuba</t>
+  </si>
+  <si>
+    <t>Varadero</t>
+  </si>
+  <si>
+    <t>La Habana Province, Cuba</t>
+  </si>
+  <si>
+    <t>Ciudad de La Habana Province</t>
+  </si>
+  <si>
+    <t>La Habana Province</t>
+  </si>
+  <si>
+    <t>Guanabo, La Habana Province, Cuba</t>
+  </si>
+  <si>
+    <t>Guanabo</t>
+  </si>
+  <si>
+    <t>Monte Berreto, La Habana Province, Cuba</t>
+  </si>
+  <si>
+    <t>Monte Baretto</t>
+  </si>
+  <si>
+    <t>Playa Baracoa, La Habana Province, Cuba</t>
+  </si>
+  <si>
+    <t>Playa Baracoa</t>
+  </si>
+  <si>
+    <t>La Habana del Este</t>
+  </si>
+  <si>
+    <t>La Habana del Este, La Habana Province, Cuba</t>
+  </si>
+  <si>
+    <t>Mayabeque Province, Cuba</t>
+  </si>
+  <si>
+    <t>Mayabeque Province</t>
+  </si>
+  <si>
+    <t>Boca de Canasi</t>
+  </si>
+  <si>
+    <t>Boca de Canasi, Mayabeque Province, Cuba</t>
+  </si>
+  <si>
+    <t>Villa Clara</t>
+  </si>
+  <si>
+    <t>Villa Clara, Cuba</t>
+  </si>
+  <si>
+    <t>Caibarién</t>
+  </si>
+  <si>
+    <t>Caibarién, Villa Clara, Cuba</t>
+  </si>
+  <si>
+    <t>Cayo Fragoso, Caibarién, Villa Clara, Cuba</t>
+  </si>
+  <si>
+    <t>Cayo Fragoso</t>
+  </si>
+  <si>
+    <t>Guantánamo Province, Cuba</t>
+  </si>
+  <si>
+    <t>Guantánamo Province</t>
+  </si>
+  <si>
+    <t>Río Miel, Guantánamo Province, Cuba</t>
+  </si>
+  <si>
+    <t>Río Miel</t>
+  </si>
+  <si>
+    <t>Klong Sikao;คลองสิเกา</t>
   </si>
 </sst>
 </file>
@@ -15720,11 +15837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2240"/>
+  <dimension ref="A1:K2281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2243" sqref="A2243"/>
+      <pane ySplit="1" topLeftCell="A1993" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2020" sqref="G2020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16113,7 +16230,7 @@
         <v>604</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>4648</v>
+        <v>4647</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>6</v>
@@ -16561,7 +16678,7 @@
         <v>236</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>4887</v>
+        <v>4885</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>6</v>
@@ -16851,7 +16968,7 @@
         <v>100</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>6</v>
@@ -16979,7 +17096,7 @@
         <v>605</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>6</v>
@@ -17107,7 +17224,7 @@
         <v>163</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>4574</v>
+        <v>4573</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>6</v>
@@ -17363,7 +17480,7 @@
         <v>465</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>4989</v>
+        <v>4987</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>6</v>
@@ -17811,7 +17928,7 @@
         <v>597</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>6</v>
@@ -17843,7 +17960,7 @@
         <v>1688</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>6</v>
@@ -18003,7 +18120,7 @@
         <v>243</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>4916</v>
+        <v>4914</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>6</v>
@@ -18131,7 +18248,7 @@
         <v>87</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>4594</v>
+        <v>4593</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>6</v>
@@ -18483,7 +18600,7 @@
         <v>115</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>6</v>
@@ -18643,7 +18760,7 @@
         <v>119</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>6</v>
@@ -18707,7 +18824,7 @@
         <v>595</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>6</v>
@@ -18963,7 +19080,7 @@
         <v>156</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>6</v>
@@ -19539,7 +19656,7 @@
         <v>1542</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>6</v>
@@ -19763,7 +19880,7 @@
         <v>111</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>6</v>
@@ -19955,7 +20072,7 @@
         <v>162</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>6</v>
@@ -20019,7 +20136,7 @@
         <v>229</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>6</v>
@@ -20083,7 +20200,7 @@
         <v>217</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>4780</v>
+        <v>4779</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>6</v>
@@ -20371,7 +20488,7 @@
         <v>596</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>6</v>
@@ -20659,7 +20776,7 @@
         <v>591</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>6</v>
@@ -20919,7 +21036,7 @@
         <v>4088</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>4777</v>
+        <v>4776</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>4086</v>
@@ -20953,7 +21070,7 @@
         <v>4089</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>4778</v>
+        <v>4777</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>4086</v>
@@ -20987,7 +21104,7 @@
         <v>4090</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>4779</v>
+        <v>4778</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>4086</v>
@@ -21129,7 +21246,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="B169" s="10">
         <v>-9.3131310000000003</v>
@@ -21144,7 +21261,7 @@
         <v>6</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>6</v>
@@ -21161,7 +21278,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="B170" s="10">
         <v>2.137432</v>
@@ -21176,13 +21293,13 @@
         <v>6</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H170" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="I170" t="s">
         <v>6</v>
@@ -21193,7 +21310,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="B171" s="10">
         <v>-3.6452230000000001</v>
@@ -21208,7 +21325,7 @@
         <v>6</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>6</v>
@@ -21225,7 +21342,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="B172" s="10">
         <f>-(4+0.35)</f>
@@ -21236,13 +21353,13 @@
         <v>128.19999999999999</v>
       </c>
       <c r="D172" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E172" t="s">
         <v>6</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>6</v>
@@ -21597,7 +21714,7 @@
         <v>3291</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>4728</v>
+        <v>4727</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>2268</v>
@@ -21629,7 +21746,7 @@
         <v>3746</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>4736</v>
+        <v>4735</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>2268</v>
@@ -21693,7 +21810,7 @@
         <v>3316</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>4731</v>
+        <v>4730</v>
       </c>
       <c r="H186" t="s">
         <v>2268</v>
@@ -21757,7 +21874,7 @@
         <v>3216</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
       <c r="H188" t="s">
         <v>2268</v>
@@ -21821,7 +21938,7 @@
         <v>3760</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>4745</v>
+        <v>4744</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>2268</v>
@@ -21853,7 +21970,7 @@
         <v>3745</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>4740</v>
+        <v>4739</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>2268</v>
@@ -21885,7 +22002,7 @@
         <v>3339</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>4733</v>
+        <v>4732</v>
       </c>
       <c r="H192" t="s">
         <v>2268</v>
@@ -21917,7 +22034,7 @@
         <v>2270</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>4725</v>
+        <v>4724</v>
       </c>
       <c r="H193" t="s">
         <v>2268</v>
@@ -21949,7 +22066,7 @@
         <v>3753</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>2268</v>
@@ -22897,7 +23014,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="B224" s="10">
         <v>19.209285000000001</v>
@@ -22912,7 +23029,7 @@
         <v>6</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>6</v>
@@ -23795,7 +23912,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="B252" s="10">
         <v>-19.689990999999999</v>
@@ -23810,13 +23927,13 @@
         <v>6</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H252" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="I252" s="3" t="s">
         <v>6</v>
@@ -23827,7 +23944,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="B253" s="10">
         <v>-15.927209</v>
@@ -23842,13 +23959,13 @@
         <v>6</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H253" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>6</v>
@@ -23859,7 +23976,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="B254" s="10">
         <f>10+18/60</f>
@@ -23870,19 +23987,19 @@
         <v>107.08333333333333</v>
       </c>
       <c r="D254" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E254" t="s">
         <v>6</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H254" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="I254" s="3" t="s">
         <v>6</v>
@@ -24215,7 +24332,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="B265" s="10">
         <v>-12.390040000000001</v>
@@ -24230,7 +24347,7 @@
         <v>6</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>6</v>
@@ -24489,7 +24606,7 @@
         <v>3170</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
       <c r="H273" t="s">
         <v>3167</v>
@@ -24727,7 +24844,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="B281" s="10">
         <f>-(9+14/60)</f>
@@ -24738,13 +24855,13 @@
         <v>115.2</v>
       </c>
       <c r="D281" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E281" t="s">
         <v>6</v>
       </c>
       <c r="F281" s="10" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>6</v>
@@ -24761,7 +24878,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="B282" s="10">
         <v>-8.1455880000000001</v>
@@ -24776,7 +24893,7 @@
         <v>6</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>6</v>
@@ -24793,7 +24910,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="B283" s="10">
         <f>-(9+50/60)</f>
@@ -24804,13 +24921,13 @@
         <v>114.43333333333334</v>
       </c>
       <c r="D283" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E283" t="s">
         <v>6</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>6</v>
@@ -24827,7 +24944,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="B284" s="10">
         <v>-8.8271460000000008</v>
@@ -24842,7 +24959,7 @@
         <v>6</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>6</v>
@@ -24859,7 +24976,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="B285" s="10">
         <f>-(2+48/60)</f>
@@ -24876,13 +24993,13 @@
         <v>6</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H285" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="I285" s="3" t="s">
         <v>6</v>
@@ -25107,7 +25224,7 @@
         <v>1513</v>
       </c>
       <c r="G292" t="s">
-        <v>4649</v>
+        <v>4648</v>
       </c>
       <c r="H292" s="3" t="s">
         <v>604</v>
@@ -25685,7 +25802,7 @@
         <v>3138</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>4854</v>
+        <v>4852</v>
       </c>
       <c r="H310" t="s">
         <v>3135</v>
@@ -25719,7 +25836,7 @@
         <v>3953</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>4855</v>
+        <v>4853</v>
       </c>
       <c r="H311" t="s">
         <v>3135</v>
@@ -25879,7 +25996,7 @@
         <v>3966</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>4667</v>
+        <v>4666</v>
       </c>
       <c r="H316" t="s">
         <v>4153</v>
@@ -25911,7 +26028,7 @@
         <v>3964</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>4668</v>
+        <v>4667</v>
       </c>
       <c r="H317" s="4" t="s">
         <v>4153</v>
@@ -25957,7 +26074,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="B319" s="10">
         <v>9.6075060000000008</v>
@@ -25972,7 +26089,7 @@
         <v>6</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="G319" s="3" t="s">
         <v>6</v>
@@ -26405,7 +26522,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="B333" s="10">
         <v>2.5051860000000001</v>
@@ -26420,7 +26537,7 @@
         <v>6</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>6</v>
@@ -26853,7 +26970,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="B347" s="10">
         <v>-27.545074</v>
@@ -26868,7 +26985,7 @@
         <v>6</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>6</v>
@@ -27077,7 +27194,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
       <c r="B354" s="10">
         <v>-27.476358000000001</v>
@@ -27092,7 +27209,7 @@
         <v>6</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>6</v>
@@ -27141,7 +27258,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="B356" s="10">
         <v>-27.342171</v>
@@ -27156,7 +27273,7 @@
         <v>6</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>6</v>
@@ -27333,7 +27450,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="B362" s="10">
         <v>26.022015</v>
@@ -27348,13 +27465,13 @@
         <v>6</v>
       </c>
       <c r="F362" s="3" t="s">
+        <v>4255</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H362" t="s">
         <v>4256</v>
-      </c>
-      <c r="G362" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H362" t="s">
-        <v>4257</v>
       </c>
       <c r="I362" s="3" t="s">
         <v>6</v>
@@ -27545,7 +27662,7 @@
         <v>3695</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="H368" t="s">
         <v>3679</v>
@@ -27577,7 +27694,7 @@
         <v>3700</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
       <c r="H369" t="s">
         <v>3679</v>
@@ -27609,7 +27726,7 @@
         <v>3697</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>4637</v>
+        <v>4636</v>
       </c>
       <c r="H370" t="s">
         <v>3679</v>
@@ -27641,7 +27758,7 @@
         <v>3710</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="H371" t="s">
         <v>3679</v>
@@ -27705,7 +27822,7 @@
         <v>3691</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="H373" t="s">
         <v>3679</v>
@@ -27737,7 +27854,7 @@
         <v>3701</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="H374" t="s">
         <v>3679</v>
@@ -27769,7 +27886,7 @@
         <v>3712</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="H375" t="s">
         <v>3679</v>
@@ -27801,7 +27918,7 @@
         <v>3694</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="H376" t="s">
         <v>3679</v>
@@ -27833,7 +27950,7 @@
         <v>3708</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
       <c r="H377" t="s">
         <v>3679</v>
@@ -28071,7 +28188,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="B385" s="10">
         <v>18.487216</v>
@@ -28086,13 +28203,13 @@
         <v>6</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="G385" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H385" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="I385" t="s">
         <v>6</v>
@@ -28263,7 +28380,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="B391" s="10">
         <f>20+50/60</f>
@@ -28274,19 +28391,19 @@
         <v>106.76666666666667</v>
       </c>
       <c r="D391" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E391" t="s">
         <v>6</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="G391" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H391" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="I391" t="s">
         <v>6</v>
@@ -28297,7 +28414,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="B392" s="10">
         <f>20+49/60</f>
@@ -28308,19 +28425,19 @@
         <v>106.8</v>
       </c>
       <c r="D392" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E392" t="s">
         <v>6</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="G392" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H392" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="I392" s="3" t="s">
         <v>6</v>
@@ -28555,7 +28672,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="B400" s="10">
         <v>19.846705</v>
@@ -28570,13 +28687,13 @@
         <v>6</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="G400" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H400" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="I400" s="3" t="s">
         <v>6</v>
@@ -28587,7 +28704,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="B401" s="10">
         <v>19.346592999999999</v>
@@ -28602,13 +28719,13 @@
         <v>6</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="G401" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H401" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="I401" s="3" t="s">
         <v>6</v>
@@ -28619,7 +28736,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="B402" s="10">
         <f>10+25/60</f>
@@ -28630,13 +28747,13 @@
         <v>106.95</v>
       </c>
       <c r="D402" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E402" t="s">
         <v>6</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="G402" s="3" t="s">
         <v>6</v>
@@ -28813,7 +28930,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="B408" s="10">
         <v>-24.899303</v>
@@ -28828,13 +28945,13 @@
         <v>6</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H408" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="I408" s="3" t="s">
         <v>6</v>
@@ -28845,7 +28962,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="B409" s="10">
         <v>-24.865817</v>
@@ -28860,13 +28977,13 @@
         <v>6</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
       <c r="G409" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H409" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="I409" s="3" t="s">
         <v>6</v>
@@ -29261,7 +29378,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="B422" s="10">
         <v>10.207908</v>
@@ -29276,7 +29393,7 @@
         <v>6</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>6</v>
@@ -29647,7 +29764,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="B434" s="10">
         <v>-1.3889</v>
@@ -29662,7 +29779,7 @@
         <v>6</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>6</v>
@@ -29697,7 +29814,7 @@
         <v>1423</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>4819</v>
+        <v>4817</v>
       </c>
       <c r="H435" t="s">
         <v>1590</v>
@@ -29793,7 +29910,7 @@
         <v>3127</v>
       </c>
       <c r="G438" s="4" t="s">
-        <v>4885</v>
+        <v>4883</v>
       </c>
       <c r="H438" t="s">
         <v>3125</v>
@@ -30243,7 +30360,7 @@
         <v>3776</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>4698</v>
+        <v>4697</v>
       </c>
       <c r="H452" t="s">
         <v>2265</v>
@@ -30275,7 +30392,7 @@
         <v>812</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="H453" t="s">
         <v>2265</v>
@@ -30407,7 +30524,7 @@
         <v>1244</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>4869</v>
+        <v>4867</v>
       </c>
       <c r="H457" s="3" t="s">
         <v>236</v>
@@ -30439,7 +30556,7 @@
         <v>2418</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>4912</v>
+        <v>4910</v>
       </c>
       <c r="H458" t="s">
         <v>236</v>
@@ -30471,7 +30588,7 @@
         <v>1455</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>4851</v>
+        <v>4849</v>
       </c>
       <c r="H459" s="3" t="s">
         <v>236</v>
@@ -30503,7 +30620,7 @@
         <v>1217</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>4888</v>
+        <v>4886</v>
       </c>
       <c r="H460" t="s">
         <v>236</v>
@@ -30535,7 +30652,7 @@
         <v>874</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>4820</v>
+        <v>4818</v>
       </c>
       <c r="H461" t="s">
         <v>236</v>
@@ -30569,7 +30686,7 @@
         <v>1486</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>4897</v>
+        <v>4895</v>
       </c>
       <c r="H462" s="3" t="s">
         <v>236</v>
@@ -30601,7 +30718,7 @@
         <v>875</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>4904</v>
+        <v>4902</v>
       </c>
       <c r="H463" t="s">
         <v>236</v>
@@ -30665,7 +30782,7 @@
         <v>1585</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="H465" t="s">
         <v>236</v>
@@ -30697,7 +30814,7 @@
         <v>3090</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>4857</v>
+        <v>4855</v>
       </c>
       <c r="H466" s="3" t="s">
         <v>236</v>
@@ -30761,7 +30878,7 @@
         <v>1282</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>4905</v>
+        <v>4903</v>
       </c>
       <c r="H468" s="3" t="s">
         <v>236</v>
@@ -31497,7 +31614,7 @@
         <v>3778</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="H491" t="s">
         <v>3775</v>
@@ -31607,7 +31724,7 @@
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>4246</v>
+        <v>5082</v>
       </c>
       <c r="B495" s="10">
         <v>23.038824999999999</v>
@@ -31622,13 +31739,13 @@
         <v>6</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="G495" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H495" t="s">
-        <v>306</v>
+        <v>5081</v>
       </c>
       <c r="I495" t="s">
         <v>6</v>
@@ -31721,7 +31838,7 @@
         <v>813</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>4707</v>
+        <v>4706</v>
       </c>
       <c r="H498" t="s">
         <v>2273</v>
@@ -31753,7 +31870,7 @@
         <v>1458</v>
       </c>
       <c r="G499" s="3" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="H499" s="3" t="s">
         <v>2273</v>
@@ -31979,7 +32096,7 @@
         <v>3253</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="H506" s="4" t="s">
         <v>3250</v>
@@ -32155,7 +32272,7 @@
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="B512" s="10">
         <v>-6.8103899999999999</v>
@@ -32170,7 +32287,7 @@
         <v>6</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="G512" s="3" t="s">
         <v>6</v>
@@ -32219,7 +32336,7 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="B514" s="10">
         <v>-12.337892</v>
@@ -32234,7 +32351,7 @@
         <v>6</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="G514" s="3" t="s">
         <v>6</v>
@@ -32283,7 +32400,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="B516" s="10">
         <v>-12.552439</v>
@@ -32298,7 +32415,7 @@
         <v>6</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="G516" s="3" t="s">
         <v>6</v>
@@ -32347,7 +32464,7 @@
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="B518" s="10">
         <v>-12.411244</v>
@@ -32362,7 +32479,7 @@
         <v>6</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="G518" s="3" t="s">
         <v>6</v>
@@ -32379,7 +32496,7 @@
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="B519" s="10">
         <v>-12.376101999999999</v>
@@ -32394,7 +32511,7 @@
         <v>6</v>
       </c>
       <c r="F519" s="3" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="G519" s="3" t="s">
         <v>6</v>
@@ -32623,7 +32740,7 @@
         <v>4146</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>4663</v>
+        <v>4662</v>
       </c>
       <c r="H526" s="4" t="s">
         <v>4142</v>
@@ -32655,7 +32772,7 @@
         <v>4145</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>4664</v>
+        <v>4663</v>
       </c>
       <c r="H527" s="3" t="s">
         <v>4142</v>
@@ -32687,7 +32804,7 @@
         <v>4148</v>
       </c>
       <c r="G528" s="3" t="s">
-        <v>4662</v>
+        <v>4661</v>
       </c>
       <c r="H528" s="4" t="s">
         <v>4142</v>
@@ -32753,7 +32870,7 @@
         <v>1152</v>
       </c>
       <c r="G530" s="3" t="s">
-        <v>4573</v>
+        <v>4572</v>
       </c>
       <c r="H530" s="3" t="s">
         <v>100</v>
@@ -33073,7 +33190,7 @@
         <v>876</v>
       </c>
       <c r="G540" s="3" t="s">
-        <v>4781</v>
+        <v>4780</v>
       </c>
       <c r="H540" t="s">
         <v>2334</v>
@@ -33105,7 +33222,7 @@
         <v>1589</v>
       </c>
       <c r="G541" s="3" t="s">
-        <v>4785</v>
+        <v>4784</v>
       </c>
       <c r="H541" t="s">
         <v>2334</v>
@@ -33137,7 +33254,7 @@
         <v>2829</v>
       </c>
       <c r="G542" s="3" t="s">
-        <v>4787</v>
+        <v>4786</v>
       </c>
       <c r="H542" t="s">
         <v>2334</v>
@@ -33169,7 +33286,7 @@
         <v>2817</v>
       </c>
       <c r="G543" s="3" t="s">
-        <v>4784</v>
+        <v>4783</v>
       </c>
       <c r="H543" t="s">
         <v>2334</v>
@@ -33201,7 +33318,7 @@
         <v>2822</v>
       </c>
       <c r="G544" s="3" t="s">
-        <v>4792</v>
+        <v>4791</v>
       </c>
       <c r="H544" t="s">
         <v>2334</v>
@@ -33233,7 +33350,7 @@
         <v>2832</v>
       </c>
       <c r="G545" s="3" t="s">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="H545" t="s">
         <v>2334</v>
@@ -33265,7 +33382,7 @@
         <v>2826</v>
       </c>
       <c r="G546" s="3" t="s">
-        <v>4797</v>
+        <v>4796</v>
       </c>
       <c r="H546" t="s">
         <v>2334</v>
@@ -33297,7 +33414,7 @@
         <v>2825</v>
       </c>
       <c r="G547" s="3" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="H547" t="s">
         <v>2334</v>
@@ -33329,7 +33446,7 @@
         <v>2831</v>
       </c>
       <c r="G548" s="3" t="s">
-        <v>4790</v>
+        <v>4789</v>
       </c>
       <c r="H548" t="s">
         <v>2334</v>
@@ -33361,7 +33478,7 @@
         <v>1599</v>
       </c>
       <c r="G549" s="3" t="s">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="H549" t="s">
         <v>2334</v>
@@ -33393,7 +33510,7 @@
         <v>2819</v>
       </c>
       <c r="G550" s="3" t="s">
-        <v>4786</v>
+        <v>4785</v>
       </c>
       <c r="H550" t="s">
         <v>2334</v>
@@ -33425,7 +33542,7 @@
         <v>2821</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>4783</v>
+        <v>4782</v>
       </c>
       <c r="H551" t="s">
         <v>2334</v>
@@ -33457,7 +33574,7 @@
         <v>1606</v>
       </c>
       <c r="G552" s="3" t="s">
-        <v>4782</v>
+        <v>4781</v>
       </c>
       <c r="H552" t="s">
         <v>2334</v>
@@ -33489,7 +33606,7 @@
         <v>1949</v>
       </c>
       <c r="G553" s="3" t="s">
-        <v>4789</v>
+        <v>4788</v>
       </c>
       <c r="H553" t="s">
         <v>2334</v>
@@ -33521,7 +33638,7 @@
         <v>1090</v>
       </c>
       <c r="G554" t="s">
-        <v>4795</v>
+        <v>4794</v>
       </c>
       <c r="H554" t="s">
         <v>2334</v>
@@ -33553,7 +33670,7 @@
         <v>1597</v>
       </c>
       <c r="G555" s="3" t="s">
-        <v>4793</v>
+        <v>4792</v>
       </c>
       <c r="H555" t="s">
         <v>2334</v>
@@ -33585,7 +33702,7 @@
         <v>1593</v>
       </c>
       <c r="G556" s="3" t="s">
-        <v>4788</v>
+        <v>4787</v>
       </c>
       <c r="H556" t="s">
         <v>2334</v>
@@ -33617,7 +33734,7 @@
         <v>3739</v>
       </c>
       <c r="G557" s="3" t="s">
-        <v>4737</v>
+        <v>4736</v>
       </c>
       <c r="H557" t="s">
         <v>3738</v>
@@ -33649,7 +33766,7 @@
         <v>3742</v>
       </c>
       <c r="G558" s="3" t="s">
-        <v>4738</v>
+        <v>4737</v>
       </c>
       <c r="H558" t="s">
         <v>3738</v>
@@ -33663,7 +33780,7 @@
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="B559" s="10">
         <v>-7.7200499999999996</v>
@@ -33678,7 +33795,7 @@
         <v>6</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="G559" s="3" t="s">
         <v>6</v>
@@ -33759,7 +33876,7 @@
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="B562" s="10">
         <v>-1.2819590000000001</v>
@@ -33774,7 +33891,7 @@
         <v>6</v>
       </c>
       <c r="F562" s="3" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="G562" s="3" t="s">
         <v>6</v>
@@ -34097,7 +34214,7 @@
         <v>1175</v>
       </c>
       <c r="G572" s="3" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="H572" s="3" t="s">
         <v>605</v>
@@ -34129,7 +34246,7 @@
         <v>2226</v>
       </c>
       <c r="G573" s="3" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
       <c r="H573" s="3" t="s">
         <v>605</v>
@@ -34161,7 +34278,7 @@
         <v>2232</v>
       </c>
       <c r="G574" s="3" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="H574" s="3" t="s">
         <v>605</v>
@@ -34193,7 +34310,7 @@
         <v>2229</v>
       </c>
       <c r="G575" s="3" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="H575" s="3" t="s">
         <v>605</v>
@@ -34449,7 +34566,7 @@
         <v>1160</v>
       </c>
       <c r="G583" s="3" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="H583" t="s">
         <v>163</v>
@@ -34481,7 +34598,7 @@
         <v>692</v>
       </c>
       <c r="G584" s="3" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
       <c r="H584" s="3" t="s">
         <v>163</v>
@@ -34513,7 +34630,7 @@
         <v>1573</v>
       </c>
       <c r="G585" s="3" t="s">
-        <v>4690</v>
+        <v>4689</v>
       </c>
       <c r="H585" t="s">
         <v>2300</v>
@@ -34655,7 +34772,7 @@
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="B590" s="10">
         <v>-20.67597</v>
@@ -34670,7 +34787,7 @@
         <v>6</v>
       </c>
       <c r="F590" s="3" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="G590" s="3" t="s">
         <v>6</v>
@@ -34687,7 +34804,7 @@
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="B591" s="10">
         <v>-21.046327999999999</v>
@@ -34702,7 +34819,7 @@
         <v>6</v>
       </c>
       <c r="F591" s="3" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="G591" s="3" t="s">
         <v>6</v>
@@ -35567,7 +35684,7 @@
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="B618" s="10">
         <v>-16.565635</v>
@@ -35582,7 +35699,7 @@
         <v>6</v>
       </c>
       <c r="F618" s="3" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="G618" s="3" t="s">
         <v>6</v>
@@ -35599,7 +35716,7 @@
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="B619" s="10">
         <v>-17.834506999999999</v>
@@ -35614,7 +35731,7 @@
         <v>6</v>
       </c>
       <c r="F619" s="3" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="G619" s="3" t="s">
         <v>6</v>
@@ -35791,7 +35908,7 @@
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="B625" s="10">
         <v>26.157446</v>
@@ -35806,7 +35923,7 @@
         <v>6</v>
       </c>
       <c r="F625" s="3" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="G625" s="3" t="s">
         <v>6</v>
@@ -36335,7 +36452,7 @@
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="B642" s="10">
         <v>30.610468000000001</v>
@@ -36350,7 +36467,7 @@
         <v>6</v>
       </c>
       <c r="F642" s="3" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="G642" s="3" t="s">
         <v>6</v>
@@ -36815,7 +36932,7 @@
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="B657" s="10">
         <v>29.077494000000002</v>
@@ -36830,7 +36947,7 @@
         <v>6</v>
       </c>
       <c r="F657" s="3" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="G657" s="3" t="s">
         <v>6</v>
@@ -37417,7 +37534,7 @@
         <v>2970</v>
       </c>
       <c r="G675" t="s">
-        <v>4877</v>
+        <v>4875</v>
       </c>
       <c r="H675" t="s">
         <v>634</v>
@@ -37449,7 +37566,7 @@
         <v>1106</v>
       </c>
       <c r="G676" t="s">
-        <v>4870</v>
+        <v>4868</v>
       </c>
       <c r="H676" t="s">
         <v>634</v>
@@ -37481,7 +37598,7 @@
         <v>2972</v>
       </c>
       <c r="G677" t="s">
-        <v>4878</v>
+        <v>4876</v>
       </c>
       <c r="H677" t="s">
         <v>634</v>
@@ -37513,7 +37630,7 @@
         <v>1221</v>
       </c>
       <c r="G678" s="3" t="s">
-        <v>4874</v>
+        <v>4872</v>
       </c>
       <c r="H678" t="s">
         <v>634</v>
@@ -37545,7 +37662,7 @@
         <v>3070</v>
       </c>
       <c r="G679" t="s">
-        <v>4883</v>
+        <v>4881</v>
       </c>
       <c r="H679" t="s">
         <v>634</v>
@@ -37577,7 +37694,7 @@
         <v>878</v>
       </c>
       <c r="G680" s="3" t="s">
-        <v>4876</v>
+        <v>4874</v>
       </c>
       <c r="H680" t="s">
         <v>634</v>
@@ -37609,7 +37726,7 @@
         <v>3062</v>
       </c>
       <c r="G681" t="s">
-        <v>4879</v>
+        <v>4877</v>
       </c>
       <c r="H681" t="s">
         <v>634</v>
@@ -37641,7 +37758,7 @@
         <v>883</v>
       </c>
       <c r="G682" s="3" t="s">
-        <v>4927</v>
+        <v>4925</v>
       </c>
       <c r="H682" t="s">
         <v>625</v>
@@ -37673,7 +37790,7 @@
         <v>1790</v>
       </c>
       <c r="G683" s="3" t="s">
-        <v>4928</v>
+        <v>4926</v>
       </c>
       <c r="H683" t="s">
         <v>625</v>
@@ -37705,7 +37822,7 @@
         <v>3126</v>
       </c>
       <c r="G684" s="4" t="s">
-        <v>4884</v>
+        <v>4882</v>
       </c>
       <c r="H684" t="s">
         <v>1876</v>
@@ -37737,7 +37854,7 @@
         <v>3130</v>
       </c>
       <c r="G685" s="4" t="s">
-        <v>4886</v>
+        <v>4884</v>
       </c>
       <c r="H685" t="s">
         <v>1876</v>
@@ -37769,7 +37886,7 @@
         <v>1226</v>
       </c>
       <c r="G686" s="4" t="s">
-        <v>4871</v>
+        <v>4869</v>
       </c>
       <c r="H686" t="s">
         <v>1876</v>
@@ -37801,7 +37918,7 @@
         <v>1225</v>
       </c>
       <c r="G687" t="s">
-        <v>4873</v>
+        <v>4871</v>
       </c>
       <c r="H687" t="s">
         <v>1876</v>
@@ -38829,7 +38946,7 @@
         <v>3269</v>
       </c>
       <c r="G719" s="3" t="s">
-        <v>4669</v>
+        <v>4668</v>
       </c>
       <c r="H719" t="s">
         <v>4150</v>
@@ -38929,7 +39046,7 @@
         <v>3767</v>
       </c>
       <c r="G722" s="3" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="H722" t="s">
         <v>1570</v>
@@ -38993,7 +39110,7 @@
         <v>3764</v>
       </c>
       <c r="G724" s="3" t="s">
-        <v>4653</v>
+        <v>4652</v>
       </c>
       <c r="H724" t="s">
         <v>1570</v>
@@ -39057,7 +39174,7 @@
         <v>3762</v>
       </c>
       <c r="G726" s="3" t="s">
-        <v>4652</v>
+        <v>4651</v>
       </c>
       <c r="H726" t="s">
         <v>1570</v>
@@ -39121,7 +39238,7 @@
         <v>3813</v>
       </c>
       <c r="G728" s="3" t="s">
-        <v>4656</v>
+        <v>4655</v>
       </c>
       <c r="H728" t="s">
         <v>1570</v>
@@ -39153,7 +39270,7 @@
         <v>3213</v>
       </c>
       <c r="G729" s="3" t="s">
-        <v>4651</v>
+        <v>4650</v>
       </c>
       <c r="H729" t="s">
         <v>1570</v>
@@ -39217,7 +39334,7 @@
         <v>3766</v>
       </c>
       <c r="G731" s="3" t="s">
-        <v>4654</v>
+        <v>4653</v>
       </c>
       <c r="H731" t="s">
         <v>1570</v>
@@ -39231,7 +39348,7 @@
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="B732" s="10">
         <v>-28.132574000000002</v>
@@ -39246,13 +39363,13 @@
         <v>6</v>
       </c>
       <c r="F732" s="3" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="G732" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H732" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="I732" s="3" t="s">
         <v>6</v>
@@ -40099,7 +40216,7 @@
         <v>3150</v>
       </c>
       <c r="G758" t="s">
-        <v>4913</v>
+        <v>4911</v>
       </c>
       <c r="H758" t="s">
         <v>2419</v>
@@ -40131,7 +40248,7 @@
         <v>3162</v>
       </c>
       <c r="G759" t="s">
-        <v>4915</v>
+        <v>4913</v>
       </c>
       <c r="H759" t="s">
         <v>2419</v>
@@ -40163,7 +40280,7 @@
         <v>1452</v>
       </c>
       <c r="G760" s="3" t="s">
-        <v>4856</v>
+        <v>4854</v>
       </c>
       <c r="H760" s="3" t="s">
         <v>1454</v>
@@ -40195,7 +40312,7 @@
         <v>3136</v>
       </c>
       <c r="G761" s="3" t="s">
-        <v>4853</v>
+        <v>4851</v>
       </c>
       <c r="H761" s="3" t="s">
         <v>1454</v>
@@ -40227,7 +40344,7 @@
         <v>3108</v>
       </c>
       <c r="G762" s="3" t="s">
-        <v>4852</v>
+        <v>4850</v>
       </c>
       <c r="H762" s="3" t="s">
         <v>1454</v>
@@ -40613,7 +40730,7 @@
         <v>4159</v>
       </c>
       <c r="G774" s="3" t="s">
-        <v>4672</v>
+        <v>4671</v>
       </c>
       <c r="H774" t="s">
         <v>2311</v>
@@ -40645,7 +40762,7 @@
         <v>4143</v>
       </c>
       <c r="G775" s="3" t="s">
-        <v>4670</v>
+        <v>4669</v>
       </c>
       <c r="H775" t="s">
         <v>2311</v>
@@ -40677,7 +40794,7 @@
         <v>4151</v>
       </c>
       <c r="G776" s="3" t="s">
-        <v>4671</v>
+        <v>4670</v>
       </c>
       <c r="H776" t="s">
         <v>2311</v>
@@ -40773,7 +40890,7 @@
         <v>4138</v>
       </c>
       <c r="G779" s="3" t="s">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="H779" t="s">
         <v>2311</v>
@@ -40805,7 +40922,7 @@
         <v>4132</v>
       </c>
       <c r="G780" s="3" t="s">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="H780" t="s">
         <v>2311</v>
@@ -40837,7 +40954,7 @@
         <v>4158</v>
       </c>
       <c r="G781" s="3" t="s">
-        <v>4673</v>
+        <v>4672</v>
       </c>
       <c r="H781" t="s">
         <v>2311</v>
@@ -41607,7 +41724,7 @@
         <v>3318</v>
       </c>
       <c r="G805" s="3" t="s">
-        <v>4732</v>
+        <v>4731</v>
       </c>
       <c r="H805" t="s">
         <v>3315</v>
@@ -41639,7 +41756,7 @@
         <v>3744</v>
       </c>
       <c r="G806" s="3" t="s">
-        <v>4739</v>
+        <v>4738</v>
       </c>
       <c r="H806" t="s">
         <v>3315</v>
@@ -41717,7 +41834,7 @@
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A809" s="15" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="B809" s="10">
         <f>18+26/60</f>
@@ -41728,19 +41845,19 @@
         <v>105.88333333333334</v>
       </c>
       <c r="D809" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E809" t="s">
         <v>6</v>
       </c>
       <c r="F809" s="15" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="G809" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H809" s="15" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="I809" t="s">
         <v>6</v>
@@ -41751,7 +41868,7 @@
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A810" s="19" t="s">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="B810" s="10">
         <v>24.265557999999999</v>
@@ -41772,7 +41889,7 @@
         <v>6</v>
       </c>
       <c r="H810" t="s">
-        <v>4957</v>
+        <v>4955</v>
       </c>
       <c r="I810" t="s">
         <v>6</v>
@@ -41783,7 +41900,7 @@
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A811" s="19" t="s">
-        <v>4959</v>
+        <v>4957</v>
       </c>
       <c r="B811" s="10">
         <v>24.272199000000001</v>
@@ -41801,10 +41918,10 @@
         <v>2797</v>
       </c>
       <c r="G811" s="3" t="s">
-        <v>4966</v>
+        <v>4964</v>
       </c>
       <c r="H811" t="s">
-        <v>4957</v>
+        <v>4955</v>
       </c>
       <c r="I811" t="s">
         <v>6</v>
@@ -41815,7 +41932,7 @@
     </row>
     <row r="812" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A812" s="19" t="s">
-        <v>4960</v>
+        <v>4958</v>
       </c>
       <c r="B812" s="10">
         <v>24.272199000000001</v>
@@ -41836,7 +41953,7 @@
         <v>6</v>
       </c>
       <c r="H812" t="s">
-        <v>4957</v>
+        <v>4955</v>
       </c>
       <c r="I812" t="s">
         <v>6</v>
@@ -41865,7 +41982,7 @@
         <v>3112</v>
       </c>
       <c r="G813" s="3" t="s">
-        <v>4893</v>
+        <v>4891</v>
       </c>
       <c r="H813" t="s">
         <v>3109</v>
@@ -41897,7 +42014,7 @@
         <v>1734</v>
       </c>
       <c r="G814" s="3" t="s">
-        <v>4889</v>
+        <v>4887</v>
       </c>
       <c r="H814" t="s">
         <v>576</v>
@@ -41929,7 +42046,7 @@
         <v>3110</v>
       </c>
       <c r="G815" s="3" t="s">
-        <v>4892</v>
+        <v>4890</v>
       </c>
       <c r="H815" t="s">
         <v>576</v>
@@ -41961,7 +42078,7 @@
         <v>877</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>4890</v>
+        <v>4888</v>
       </c>
       <c r="H816" t="s">
         <v>576</v>
@@ -41993,7 +42110,7 @@
         <v>3134</v>
       </c>
       <c r="G817" s="3" t="s">
-        <v>4894</v>
+        <v>4892</v>
       </c>
       <c r="H817" t="s">
         <v>576</v>
@@ -42025,7 +42142,7 @@
         <v>1223</v>
       </c>
       <c r="G818" s="4" t="s">
-        <v>4891</v>
+        <v>4889</v>
       </c>
       <c r="H818" t="s">
         <v>576</v>
@@ -42073,7 +42190,7 @@
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="B820" s="10">
         <v>20.855221</v>
@@ -42088,7 +42205,7 @@
         <v>6</v>
       </c>
       <c r="F820" s="3" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="G820" s="3" t="s">
         <v>6</v>
@@ -42105,7 +42222,7 @@
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="B821" s="10">
         <f>20+53/60</f>
@@ -42116,13 +42233,13 @@
         <v>106.7</v>
       </c>
       <c r="D821" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E821" t="s">
         <v>6</v>
       </c>
       <c r="F821" s="3" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="G821" s="3" t="s">
         <v>6</v>
@@ -42269,7 +42386,7 @@
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="B826" s="10">
         <v>1.165392</v>
@@ -42284,7 +42401,7 @@
         <v>6</v>
       </c>
       <c r="F826" s="3" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="G826" s="3" t="s">
         <v>6</v>
@@ -42333,7 +42450,7 @@
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="B828" s="10">
         <f>53/60</f>
@@ -42344,13 +42461,13 @@
         <v>127.51666666666667</v>
       </c>
       <c r="D828" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E828" t="s">
         <v>6</v>
       </c>
       <c r="F828" s="3" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="G828" s="3" t="s">
         <v>6</v>
@@ -42497,7 +42614,7 @@
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="B833" s="10">
         <v>-25.295893</v>
@@ -42512,7 +42629,7 @@
         <v>6</v>
       </c>
       <c r="F833" s="3" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="G833" s="3" t="s">
         <v>6</v>
@@ -42547,7 +42664,7 @@
         <v>1521</v>
       </c>
       <c r="G834" s="3" t="s">
-        <v>4945</v>
+        <v>4943</v>
       </c>
       <c r="H834" t="s">
         <v>1844</v>
@@ -42675,7 +42792,7 @@
         <v>3441</v>
       </c>
       <c r="G838" s="3" t="s">
-        <v>4824</v>
+        <v>4822</v>
       </c>
       <c r="H838" s="3" t="s">
         <v>241</v>
@@ -42739,7 +42856,7 @@
         <v>3443</v>
       </c>
       <c r="G840" s="3" t="s">
-        <v>4825</v>
+        <v>4823</v>
       </c>
       <c r="H840" s="3" t="s">
         <v>241</v>
@@ -42771,7 +42888,7 @@
         <v>3508</v>
       </c>
       <c r="G841" s="3" t="s">
-        <v>4850</v>
+        <v>4848</v>
       </c>
       <c r="H841" s="3" t="s">
         <v>241</v>
@@ -42803,7 +42920,7 @@
         <v>3444</v>
       </c>
       <c r="G842" s="3" t="s">
-        <v>4826</v>
+        <v>4824</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>241</v>
@@ -42835,7 +42952,7 @@
         <v>3445</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>4827</v>
+        <v>4825</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>241</v>
@@ -42867,7 +42984,7 @@
         <v>3446</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>4828</v>
+        <v>4826</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>241</v>
@@ -42899,7 +43016,7 @@
         <v>3447</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>4829</v>
+        <v>4827</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>241</v>
@@ -42963,7 +43080,7 @@
         <v>3449</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>4830</v>
+        <v>4828</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>241</v>
@@ -42995,7 +43112,7 @@
         <v>3450</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>4831</v>
+        <v>4829</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>241</v>
@@ -43027,7 +43144,7 @@
         <v>3451</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>4832</v>
+        <v>4830</v>
       </c>
       <c r="H849" s="3" t="s">
         <v>241</v>
@@ -43059,7 +43176,7 @@
         <v>3452</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>4833</v>
+        <v>4831</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>241</v>
@@ -43123,7 +43240,7 @@
         <v>3454</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>4834</v>
+        <v>4832</v>
       </c>
       <c r="H852" s="3" t="s">
         <v>241</v>
@@ -43155,7 +43272,7 @@
         <v>3469</v>
       </c>
       <c r="G853" s="3" t="s">
-        <v>4835</v>
+        <v>4833</v>
       </c>
       <c r="H853" s="3" t="s">
         <v>241</v>
@@ -43187,7 +43304,7 @@
         <v>3455</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>4836</v>
+        <v>4834</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>241</v>
@@ -43219,7 +43336,7 @@
         <v>3470</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>4837</v>
+        <v>4835</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>241</v>
@@ -43251,7 +43368,7 @@
         <v>3475</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>4838</v>
+        <v>4836</v>
       </c>
       <c r="H856" s="3" t="s">
         <v>241</v>
@@ -43283,7 +43400,7 @@
         <v>3456</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>4839</v>
+        <v>4837</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>241</v>
@@ -43315,7 +43432,7 @@
         <v>3457</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>4840</v>
+        <v>4838</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>241</v>
@@ -43347,7 +43464,7 @@
         <v>3458</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>4841</v>
+        <v>4839</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>241</v>
@@ -43443,7 +43560,7 @@
         <v>3459</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>4842</v>
+        <v>4840</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>241</v>
@@ -43475,7 +43592,7 @@
         <v>3060</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>4822</v>
+        <v>4820</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>241</v>
@@ -43539,7 +43656,7 @@
         <v>1727</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>4821</v>
+        <v>4819</v>
       </c>
       <c r="H865" t="s">
         <v>241</v>
@@ -43571,7 +43688,7 @@
         <v>3461</v>
       </c>
       <c r="G866" s="3" t="s">
-        <v>4843</v>
+        <v>4841</v>
       </c>
       <c r="H866" s="3" t="s">
         <v>241</v>
@@ -43603,7 +43720,7 @@
         <v>3462</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>4844</v>
+        <v>4842</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>241</v>
@@ -43635,7 +43752,7 @@
         <v>3463</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>4845</v>
+        <v>4843</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>241</v>
@@ -43667,7 +43784,7 @@
         <v>3464</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>4846</v>
+        <v>4844</v>
       </c>
       <c r="H869" s="3" t="s">
         <v>241</v>
@@ -43731,7 +43848,7 @@
         <v>3474</v>
       </c>
       <c r="G871" s="3" t="s">
-        <v>4847</v>
+        <v>4845</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>241</v>
@@ -43763,7 +43880,7 @@
         <v>3096</v>
       </c>
       <c r="G872" s="3" t="s">
-        <v>4823</v>
+        <v>4821</v>
       </c>
       <c r="H872" s="3" t="s">
         <v>241</v>
@@ -43795,7 +43912,7 @@
         <v>3473</v>
       </c>
       <c r="G873" s="3" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H873" s="3" t="s">
         <v>241</v>
@@ -43827,7 +43944,7 @@
         <v>3465</v>
       </c>
       <c r="G874" s="3" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="H874" s="3" t="s">
         <v>241</v>
@@ -43955,7 +44072,7 @@
         <v>1843</v>
       </c>
       <c r="G878" s="3" t="s">
-        <v>4938</v>
+        <v>4936</v>
       </c>
       <c r="H878" t="s">
         <v>622</v>
@@ -43987,7 +44104,7 @@
         <v>1842</v>
       </c>
       <c r="G879" s="3" t="s">
-        <v>4939</v>
+        <v>4937</v>
       </c>
       <c r="H879" t="s">
         <v>622</v>
@@ -44019,7 +44136,7 @@
         <v>1158</v>
       </c>
       <c r="G880" s="3" t="s">
-        <v>4942</v>
+        <v>4940</v>
       </c>
       <c r="H880" t="s">
         <v>622</v>
@@ -44051,7 +44168,7 @@
         <v>1121</v>
       </c>
       <c r="G881" s="3" t="s">
-        <v>4943</v>
+        <v>4941</v>
       </c>
       <c r="H881" t="s">
         <v>622</v>
@@ -44083,7 +44200,7 @@
         <v>1353</v>
       </c>
       <c r="G882" s="3" t="s">
-        <v>4936</v>
+        <v>4934</v>
       </c>
       <c r="H882" t="s">
         <v>622</v>
@@ -44115,7 +44232,7 @@
         <v>1260</v>
       </c>
       <c r="G883" s="3" t="s">
-        <v>4937</v>
+        <v>4935</v>
       </c>
       <c r="H883" t="s">
         <v>622</v>
@@ -44147,7 +44264,7 @@
         <v>884</v>
       </c>
       <c r="G884" t="s">
-        <v>4935</v>
+        <v>4933</v>
       </c>
       <c r="H884" t="s">
         <v>622</v>
@@ -44179,7 +44296,7 @@
         <v>805</v>
       </c>
       <c r="G885" s="3" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
       <c r="H885" t="s">
         <v>2214</v>
@@ -44211,7 +44328,7 @@
         <v>3664</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="H886" t="s">
         <v>2214</v>
@@ -44243,7 +44360,7 @@
         <v>3666</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>4635</v>
+        <v>4634</v>
       </c>
       <c r="H887" t="s">
         <v>2214</v>
@@ -44275,7 +44392,7 @@
         <v>3671</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>4634</v>
+        <v>4633</v>
       </c>
       <c r="H888" t="s">
         <v>2214</v>
@@ -44307,7 +44424,7 @@
         <v>3669</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="H889" t="s">
         <v>2214</v>
@@ -44341,7 +44458,7 @@
         <v>1682</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="H890" t="s">
         <v>2214</v>
@@ -44373,7 +44490,7 @@
         <v>3668</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="H891" t="s">
         <v>2214</v>
@@ -44437,7 +44554,7 @@
         <v>1686</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="H893" t="s">
         <v>2214</v>
@@ -44535,7 +44652,7 @@
         <v>3086</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="H896" t="s">
         <v>3083</v>
@@ -44695,7 +44812,7 @@
         <v>1536</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>4944</v>
+        <v>4942</v>
       </c>
       <c r="H901" t="s">
         <v>1841</v>
@@ -44825,7 +44942,7 @@
         <v>2269</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>4724</v>
+        <v>4723</v>
       </c>
       <c r="H905" t="s">
         <v>178</v>
@@ -44857,7 +44974,7 @@
         <v>3251</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>178</v>
@@ -44921,7 +45038,7 @@
         <v>1562</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>4650</v>
+        <v>4649</v>
       </c>
       <c r="H908" t="s">
         <v>178</v>
@@ -44953,7 +45070,7 @@
         <v>2312</v>
       </c>
       <c r="G909" t="s">
-        <v>4657</v>
+        <v>4656</v>
       </c>
       <c r="H909" t="s">
         <v>178</v>
@@ -45017,7 +45134,7 @@
         <v>1228</v>
       </c>
       <c r="G911" t="s">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="H911" t="s">
         <v>178</v>
@@ -45049,7 +45166,7 @@
         <v>1567</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>4675</v>
+        <v>4674</v>
       </c>
       <c r="H912" t="s">
         <v>178</v>
@@ -45113,7 +45230,7 @@
         <v>2291</v>
       </c>
       <c r="G914" t="s">
-        <v>4747</v>
+        <v>4746</v>
       </c>
       <c r="H914" t="s">
         <v>178</v>
@@ -45145,7 +45262,7 @@
         <v>814</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="H915" t="s">
         <v>178</v>
@@ -45177,7 +45294,7 @@
         <v>3958</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>178</v>
@@ -45305,7 +45422,7 @@
         <v>1457</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>4695</v>
+        <v>4694</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>178</v>
@@ -45337,7 +45454,7 @@
         <v>822</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>4753</v>
+        <v>4752</v>
       </c>
       <c r="H921" t="s">
         <v>178</v>
@@ -45933,7 +46050,7 @@
     </row>
     <row r="940" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
       <c r="B940" s="10">
         <v>-17.504515000000001</v>
@@ -45948,13 +46065,13 @@
         <v>6</v>
       </c>
       <c r="F940" s="3" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
       <c r="G940" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H940" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="I940" s="3" t="s">
         <v>6</v>
@@ -46017,7 +46134,7 @@
         <v>3681</v>
       </c>
       <c r="G942" s="3" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="H942" s="3" t="s">
         <v>597</v>
@@ -46081,7 +46198,7 @@
         <v>2215</v>
       </c>
       <c r="G944" s="3" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="H944" s="3" t="s">
         <v>597</v>
@@ -46113,7 +46230,7 @@
         <v>3682</v>
       </c>
       <c r="G945" s="3" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="H945" s="3" t="s">
         <v>597</v>
@@ -46177,7 +46294,7 @@
         <v>1687</v>
       </c>
       <c r="G947" s="3" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="H947" s="3" t="s">
         <v>1688</v>
@@ -46191,7 +46308,7 @@
     </row>
     <row r="948" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A948" s="19" t="s">
-        <v>4961</v>
+        <v>4959</v>
       </c>
       <c r="B948" s="10">
         <v>24.395745000000002</v>
@@ -46206,13 +46323,13 @@
         <v>6</v>
       </c>
       <c r="F948" s="3" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="G948" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H948" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="I948" t="s">
         <v>6</v>
@@ -46223,7 +46340,7 @@
     </row>
     <row r="949" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A949" s="19" t="s">
-        <v>4957</v>
+        <v>4955</v>
       </c>
       <c r="B949" s="10">
         <v>24.271895000000001</v>
@@ -46241,10 +46358,10 @@
         <v>2794</v>
       </c>
       <c r="G949" s="3" t="s">
-        <v>4963</v>
+        <v>4961</v>
       </c>
       <c r="H949" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="I949" t="s">
         <v>6</v>
@@ -46255,7 +46372,7 @@
     </row>
     <row r="950" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A950" s="19" t="s">
-        <v>4956</v>
+        <v>4954</v>
       </c>
       <c r="B950" s="10">
         <v>24.287683999999999</v>
@@ -46273,10 +46390,10 @@
         <v>2793</v>
       </c>
       <c r="G950" s="3" t="s">
-        <v>4971</v>
+        <v>4969</v>
       </c>
       <c r="H950" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="I950" t="s">
         <v>6</v>
@@ -46287,7 +46404,7 @@
     </row>
     <row r="951" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A951" s="19" t="s">
-        <v>4958</v>
+        <v>4956</v>
       </c>
       <c r="B951" s="10">
         <v>24.274135000000001</v>
@@ -46308,7 +46425,7 @@
         <v>6</v>
       </c>
       <c r="H951" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="I951" t="s">
         <v>6</v>
@@ -46319,7 +46436,7 @@
     </row>
     <row r="952" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A952" s="19" t="s">
-        <v>4964</v>
+        <v>4962</v>
       </c>
       <c r="B952" s="10">
         <v>24.359615000000002</v>
@@ -46334,13 +46451,13 @@
         <v>6</v>
       </c>
       <c r="F952" s="3" t="s">
-        <v>5061</v>
+        <v>5059</v>
       </c>
       <c r="G952" s="3" t="s">
-        <v>4965</v>
+        <v>4963</v>
       </c>
       <c r="H952" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="I952" t="s">
         <v>6</v>
@@ -46351,7 +46468,7 @@
     </row>
     <row r="953" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A953" s="19" t="s">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="B953" s="10">
         <f>24+24/60</f>
@@ -46371,10 +46488,10 @@
         <v>1962</v>
       </c>
       <c r="G953" s="3" t="s">
-        <v>4972</v>
+        <v>4970</v>
       </c>
       <c r="H953" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="I953" t="s">
         <v>6</v>
@@ -46417,7 +46534,7 @@
     </row>
     <row r="955" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A955" s="19" t="s">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="B955" s="10">
         <v>24.400324000000001</v>
@@ -46435,10 +46552,10 @@
         <v>2792</v>
       </c>
       <c r="G955" s="3" t="s">
-        <v>4970</v>
+        <v>4968</v>
       </c>
       <c r="H955" s="19" t="s">
-        <v>4969</v>
+        <v>4967</v>
       </c>
       <c r="I955" s="3" t="s">
         <v>6</v>
@@ -46917,7 +47034,7 @@
         <v>4129</v>
       </c>
       <c r="G970" s="3" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
       <c r="H970" t="s">
         <v>4137</v>
@@ -46949,7 +47066,7 @@
         <v>4134</v>
       </c>
       <c r="G971" s="3" t="s">
-        <v>4659</v>
+        <v>4658</v>
       </c>
       <c r="H971" t="s">
         <v>4137</v>
@@ -46981,7 +47098,7 @@
         <v>4130</v>
       </c>
       <c r="G972" s="3" t="s">
-        <v>4665</v>
+        <v>4664</v>
       </c>
       <c r="H972" t="s">
         <v>4137</v>
@@ -47013,7 +47130,7 @@
         <v>1246</v>
       </c>
       <c r="G973" s="3" t="s">
-        <v>4934</v>
+        <v>4932</v>
       </c>
       <c r="H973" s="3" t="s">
         <v>243</v>
@@ -47045,7 +47162,7 @@
         <v>1248</v>
       </c>
       <c r="G974" s="3" t="s">
-        <v>4917</v>
+        <v>4915</v>
       </c>
       <c r="H974" s="3" t="s">
         <v>243</v>
@@ -47077,7 +47194,7 @@
         <v>1413</v>
       </c>
       <c r="G975" s="3" t="s">
-        <v>4947</v>
+        <v>4945</v>
       </c>
       <c r="H975" t="s">
         <v>243</v>
@@ -47091,7 +47208,7 @@
     </row>
     <row r="976" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A976" s="4" t="s">
-        <v>4950</v>
+        <v>4948</v>
       </c>
       <c r="B976" s="10">
         <v>26.5</v>
@@ -47106,10 +47223,10 @@
         <v>6</v>
       </c>
       <c r="F976" s="3" t="s">
-        <v>4951</v>
+        <v>4949</v>
       </c>
       <c r="G976" s="3" t="s">
-        <v>4948</v>
+        <v>4946</v>
       </c>
       <c r="H976" t="s">
         <v>243</v>
@@ -47141,7 +47258,7 @@
         <v>880</v>
       </c>
       <c r="G977" s="3" t="s">
-        <v>4949</v>
+        <v>4947</v>
       </c>
       <c r="H977" t="s">
         <v>243</v>
@@ -47173,7 +47290,7 @@
         <v>1856</v>
       </c>
       <c r="G978" s="3" t="s">
-        <v>4930</v>
+        <v>4928</v>
       </c>
       <c r="H978" t="s">
         <v>243</v>
@@ -47525,7 +47642,7 @@
         <v>3102</v>
       </c>
       <c r="G989" s="3" t="s">
-        <v>4900</v>
+        <v>4898</v>
       </c>
       <c r="H989" s="4" t="s">
         <v>1485</v>
@@ -47591,7 +47708,7 @@
         <v>3098</v>
       </c>
       <c r="G991" s="3" t="s">
-        <v>4898</v>
+        <v>4896</v>
       </c>
       <c r="H991" s="4" t="s">
         <v>1485</v>
@@ -47623,7 +47740,7 @@
         <v>3080</v>
       </c>
       <c r="G992" s="3" t="s">
-        <v>4864</v>
+        <v>4862</v>
       </c>
       <c r="H992" t="s">
         <v>3076</v>
@@ -47733,7 +47850,7 @@
     </row>
     <row r="996" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A996" s="4" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="B996" s="10">
         <v>1.949918</v>
@@ -47748,7 +47865,7 @@
         <v>6</v>
       </c>
       <c r="F996" s="3" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="G996" s="3" t="s">
         <v>6</v>
@@ -47785,7 +47902,7 @@
         <v>1871</v>
       </c>
       <c r="G997" s="3" t="s">
-        <v>4926</v>
+        <v>4924</v>
       </c>
       <c r="H997" t="s">
         <v>1869</v>
@@ -47919,7 +48036,7 @@
         <v>4067</v>
       </c>
       <c r="G1001" s="3" t="s">
-        <v>4774</v>
+        <v>4773</v>
       </c>
       <c r="H1001" s="4" t="s">
         <v>4071</v>
@@ -47985,7 +48102,7 @@
         <v>4070</v>
       </c>
       <c r="G1003" s="3" t="s">
-        <v>4776</v>
+        <v>4775</v>
       </c>
       <c r="H1003" s="4" t="s">
         <v>4071</v>
@@ -48053,7 +48170,7 @@
         <v>4068</v>
       </c>
       <c r="G1005" s="3" t="s">
-        <v>4775</v>
+        <v>4774</v>
       </c>
       <c r="H1005" s="4" t="s">
         <v>4071</v>
@@ -48117,7 +48234,7 @@
         <v>1834</v>
       </c>
       <c r="G1007" s="3" t="s">
-        <v>4924</v>
+        <v>4922</v>
       </c>
       <c r="H1007" t="s">
         <v>1849</v>
@@ -48181,7 +48298,7 @@
         <v>3221</v>
       </c>
       <c r="G1009" s="3" t="s">
-        <v>4719</v>
+        <v>4718</v>
       </c>
       <c r="H1009" t="s">
         <v>3214</v>
@@ -48213,7 +48330,7 @@
         <v>817</v>
       </c>
       <c r="G1010" s="3" t="s">
-        <v>4685</v>
+        <v>4684</v>
       </c>
       <c r="H1010" t="s">
         <v>2297</v>
@@ -48245,7 +48362,7 @@
         <v>1575</v>
       </c>
       <c r="G1011" s="3" t="s">
-        <v>4722</v>
+        <v>4721</v>
       </c>
       <c r="H1011" t="s">
         <v>2307</v>
@@ -48259,7 +48376,7 @@
     </row>
     <row r="1012" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="B1012" s="10">
         <f>1+9/60</f>
@@ -48270,19 +48387,19 @@
         <v>127.9</v>
       </c>
       <c r="D1012" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1012" t="s">
         <v>6</v>
       </c>
       <c r="F1012" s="3" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="G1012" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1012" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="I1012" t="s">
         <v>6</v>
@@ -48293,7 +48410,7 @@
     </row>
     <row r="1013" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="B1013" s="10">
         <f>1+9/60</f>
@@ -48304,19 +48421,19 @@
         <v>127.9</v>
       </c>
       <c r="D1013" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1013" t="s">
         <v>6</v>
       </c>
       <c r="F1013" s="3" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="G1013" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1013" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="I1013" t="s">
         <v>6</v>
@@ -48327,7 +48444,7 @@
     </row>
     <row r="1014" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1014" s="19" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="B1014" s="10">
         <v>20.701582999999999</v>
@@ -48345,7 +48462,7 @@
         <v>1401</v>
       </c>
       <c r="G1014" s="3" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="H1014" s="19" t="s">
         <v>231</v>
@@ -48359,7 +48476,7 @@
     </row>
     <row r="1015" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1015" s="19" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="B1015" s="10">
         <v>22.485011</v>
@@ -48374,10 +48491,10 @@
         <v>6</v>
       </c>
       <c r="F1015" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="G1015" s="3" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="H1015" t="s">
         <v>231</v>
@@ -48473,7 +48590,7 @@
         <v>803</v>
       </c>
       <c r="G1018" s="3" t="s">
-        <v>4645</v>
+        <v>4644</v>
       </c>
       <c r="H1018" t="s">
         <v>3201</v>
@@ -48569,7 +48686,7 @@
         <v>4072</v>
       </c>
       <c r="G1021" s="3" t="s">
-        <v>4773</v>
+        <v>4772</v>
       </c>
       <c r="H1021" s="4" t="s">
         <v>3262</v>
@@ -48601,7 +48718,7 @@
         <v>3264</v>
       </c>
       <c r="G1022" t="s">
-        <v>4683</v>
+        <v>4682</v>
       </c>
       <c r="H1022" s="4" t="s">
         <v>3262</v>
@@ -48711,7 +48828,7 @@
     </row>
     <row r="1026" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1026" s="4" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="B1026" s="10">
         <v>6.2008140000000003</v>
@@ -48726,13 +48843,13 @@
         <v>6</v>
       </c>
       <c r="F1026" s="3" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="G1026" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1026" s="4" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="I1026" s="3" t="s">
         <v>6</v>
@@ -48953,7 +49070,7 @@
         <v>2301</v>
       </c>
       <c r="G1033" t="s">
-        <v>4687</v>
+        <v>4686</v>
       </c>
       <c r="H1033" t="s">
         <v>584</v>
@@ -48985,7 +49102,7 @@
         <v>2298</v>
       </c>
       <c r="G1034" t="s">
-        <v>4993</v>
+        <v>4991</v>
       </c>
       <c r="H1034" t="s">
         <v>584</v>
@@ -49017,7 +49134,7 @@
         <v>3280</v>
       </c>
       <c r="G1035" t="s">
-        <v>4692</v>
+        <v>4691</v>
       </c>
       <c r="H1035" t="s">
         <v>584</v>
@@ -49049,7 +49166,7 @@
         <v>2295</v>
       </c>
       <c r="G1036" t="s">
-        <v>4686</v>
+        <v>4685</v>
       </c>
       <c r="H1036" t="s">
         <v>584</v>
@@ -49081,7 +49198,7 @@
         <v>3285</v>
       </c>
       <c r="G1037" t="s">
-        <v>4693</v>
+        <v>4692</v>
       </c>
       <c r="H1037" t="s">
         <v>584</v>
@@ -49113,7 +49230,7 @@
         <v>3282</v>
       </c>
       <c r="G1038" t="s">
-        <v>4691</v>
+        <v>4690</v>
       </c>
       <c r="H1038" t="s">
         <v>584</v>
@@ -49145,7 +49262,7 @@
         <v>3810</v>
       </c>
       <c r="G1039" s="3" t="s">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="H1039" s="4" t="s">
         <v>584</v>
@@ -49241,7 +49358,7 @@
         <v>3684</v>
       </c>
       <c r="G1042" s="3" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="H1042" t="s">
         <v>3680</v>
@@ -49273,7 +49390,7 @@
         <v>3685</v>
       </c>
       <c r="G1043" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="H1043" t="s">
         <v>3680</v>
@@ -49849,7 +49966,7 @@
         <v>1571</v>
       </c>
       <c r="G1061" s="3" t="s">
-        <v>4689</v>
+        <v>4688</v>
       </c>
       <c r="H1061" t="s">
         <v>2302</v>
@@ -49881,7 +49998,7 @@
         <v>1574</v>
       </c>
       <c r="G1062" s="3" t="s">
-        <v>4688</v>
+        <v>4687</v>
       </c>
       <c r="H1062" t="s">
         <v>2302</v>
@@ -50009,7 +50126,7 @@
         <v>3314</v>
       </c>
       <c r="G1066" s="3" t="s">
-        <v>4730</v>
+        <v>4729</v>
       </c>
       <c r="H1066" t="s">
         <v>3215</v>
@@ -50105,7 +50222,7 @@
         <v>3312</v>
       </c>
       <c r="G1069" s="3" t="s">
-        <v>4729</v>
+        <v>4728</v>
       </c>
       <c r="H1069" t="s">
         <v>3215</v>
@@ -50201,7 +50318,7 @@
         <v>1419</v>
       </c>
       <c r="G1072" s="3" t="s">
-        <v>4925</v>
+        <v>4923</v>
       </c>
       <c r="H1072" s="3" t="s">
         <v>1846</v>
@@ -50233,7 +50350,7 @@
         <v>1850</v>
       </c>
       <c r="G1073" s="3" t="s">
-        <v>4923</v>
+        <v>4921</v>
       </c>
       <c r="H1073" t="s">
         <v>1846</v>
@@ -50247,7 +50364,7 @@
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1074" s="4" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="B1074" s="10">
         <f>-(9+16/60)</f>
@@ -50258,13 +50375,13 @@
         <v>115.16666666666667</v>
       </c>
       <c r="D1074" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1074" t="s">
         <v>6</v>
       </c>
       <c r="F1074" s="3" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="G1074" s="3" t="s">
         <v>6</v>
@@ -50299,7 +50416,7 @@
         <v>4161</v>
       </c>
       <c r="G1075" s="3" t="s">
-        <v>4661</v>
+        <v>4660</v>
       </c>
       <c r="H1075" t="s">
         <v>4131</v>
@@ -50395,7 +50512,7 @@
         <v>4133</v>
       </c>
       <c r="G1078" s="3" t="s">
-        <v>4658</v>
+        <v>4657</v>
       </c>
       <c r="H1078" t="s">
         <v>4131</v>
@@ -50459,7 +50576,7 @@
         <v>3626</v>
       </c>
       <c r="G1080" s="3" t="s">
-        <v>4597</v>
+        <v>4596</v>
       </c>
       <c r="H1080" s="3" t="s">
         <v>87</v>
@@ -50491,7 +50608,7 @@
         <v>3625</v>
       </c>
       <c r="G1081" s="3" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
       <c r="H1081" s="3" t="s">
         <v>87</v>
@@ -50621,7 +50738,7 @@
         <v>3559</v>
       </c>
       <c r="G1085" s="3" t="s">
-        <v>4595</v>
+        <v>4594</v>
       </c>
       <c r="H1085" s="3" t="s">
         <v>87</v>
@@ -50653,7 +50770,7 @@
         <v>3638</v>
       </c>
       <c r="G1086" s="3" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
       <c r="H1086" s="3" t="s">
         <v>87</v>
@@ -50685,7 +50802,7 @@
         <v>3988</v>
       </c>
       <c r="G1087" s="3" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
       <c r="H1087" s="3" t="s">
         <v>87</v>
@@ -50717,7 +50834,7 @@
         <v>3987</v>
       </c>
       <c r="G1088" s="3" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
       <c r="H1088" s="3" t="s">
         <v>87</v>
@@ -50749,7 +50866,7 @@
         <v>3629</v>
       </c>
       <c r="G1089" s="3" t="s">
-        <v>4598</v>
+        <v>4597</v>
       </c>
       <c r="H1089" s="3" t="s">
         <v>87</v>
@@ -50783,7 +50900,7 @@
         <v>3637</v>
       </c>
       <c r="G1090" s="3" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
       <c r="H1090" s="4" t="s">
         <v>3636</v>
@@ -51039,7 +51156,7 @@
         <v>1418</v>
       </c>
       <c r="G1098" s="3" t="s">
-        <v>4929</v>
+        <v>4927</v>
       </c>
       <c r="H1098" s="3" t="s">
         <v>623</v>
@@ -51071,7 +51188,7 @@
         <v>1245</v>
       </c>
       <c r="G1099" s="3" t="s">
-        <v>4922</v>
+        <v>4920</v>
       </c>
       <c r="H1099" t="s">
         <v>623</v>
@@ -51103,7 +51220,7 @@
         <v>1868</v>
       </c>
       <c r="G1100" s="3" t="s">
-        <v>4921</v>
+        <v>4919</v>
       </c>
       <c r="H1100" t="s">
         <v>623</v>
@@ -51135,7 +51252,7 @@
         <v>1847</v>
       </c>
       <c r="G1101" s="3" t="s">
-        <v>4919</v>
+        <v>4917</v>
       </c>
       <c r="H1101" t="s">
         <v>623</v>
@@ -51167,7 +51284,7 @@
         <v>1420</v>
       </c>
       <c r="G1102" s="3" t="s">
-        <v>4920</v>
+        <v>4918</v>
       </c>
       <c r="H1102" t="s">
         <v>623</v>
@@ -51199,7 +51316,7 @@
         <v>1116</v>
       </c>
       <c r="G1103" s="3" t="s">
-        <v>4918</v>
+        <v>4916</v>
       </c>
       <c r="H1103" t="s">
         <v>623</v>
@@ -52565,7 +52682,7 @@
     </row>
     <row r="1146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1146" s="4" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="B1146" s="10">
         <v>-8.8616379999999992</v>
@@ -52580,7 +52697,7 @@
         <v>6</v>
       </c>
       <c r="F1146" s="4" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="G1146" s="3" t="s">
         <v>6</v>
@@ -53045,7 +53162,7 @@
     </row>
     <row r="1161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="B1161" s="10">
         <v>18.332453000000001</v>
@@ -53060,7 +53177,7 @@
         <v>6</v>
       </c>
       <c r="F1161" s="3" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="G1161" s="3" t="s">
         <v>6</v>
@@ -53365,7 +53482,7 @@
     </row>
     <row r="1171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1171" s="14" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="B1171" s="10">
         <v>23.552251999999999</v>
@@ -53383,7 +53500,7 @@
         <v>1400</v>
       </c>
       <c r="G1171" s="3" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="H1171" s="19" t="s">
         <v>3184</v>
@@ -53543,7 +53660,7 @@
         <v>809</v>
       </c>
       <c r="G1176" s="3" t="s">
-        <v>4676</v>
+        <v>4675</v>
       </c>
       <c r="H1176" t="s">
         <v>1566</v>
@@ -53575,7 +53692,7 @@
         <v>4097</v>
       </c>
       <c r="G1177" s="3" t="s">
-        <v>4680</v>
+        <v>4679</v>
       </c>
       <c r="H1177" t="s">
         <v>1566</v>
@@ -53607,7 +53724,7 @@
         <v>2303</v>
       </c>
       <c r="G1178" t="s">
-        <v>4682</v>
+        <v>4681</v>
       </c>
       <c r="H1178" t="s">
         <v>1566</v>
@@ -53749,7 +53866,7 @@
     </row>
     <row r="1183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1183" s="4" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="B1183" s="10">
         <v>6.0921690000000002</v>
@@ -53764,7 +53881,7 @@
         <v>6</v>
       </c>
       <c r="F1183" s="3" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="G1183" s="3" t="s">
         <v>6</v>
@@ -54713,7 +54830,7 @@
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="B1213" s="10">
         <v>-2.7756289999999999</v>
@@ -54728,7 +54845,7 @@
         <v>6</v>
       </c>
       <c r="F1213" s="3" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="G1213" s="3" t="s">
         <v>6</v>
@@ -55245,7 +55362,7 @@
         <v>769</v>
       </c>
       <c r="G1229" s="3" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="H1229" t="s">
         <v>115</v>
@@ -55579,7 +55696,7 @@
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
       <c r="B1240" s="10">
         <v>3.783102</v>
@@ -55594,13 +55711,13 @@
         <v>6</v>
       </c>
       <c r="F1240" s="3" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="G1240" t="s">
         <v>6</v>
       </c>
       <c r="H1240" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="I1240" t="s">
         <v>6</v>
@@ -55684,7 +55801,7 @@
         <v>98</v>
       </c>
       <c r="D1243" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
       <c r="E1243" t="s">
         <v>227</v>
@@ -55725,7 +55842,7 @@
         <v>869</v>
       </c>
       <c r="G1244" s="3" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
       <c r="H1244" t="s">
         <v>223</v>
@@ -55771,7 +55888,7 @@
     </row>
     <row r="1246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1246" s="4" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
       <c r="B1246" s="10">
         <v>10.879286</v>
@@ -55789,7 +55906,7 @@
         <v>3429</v>
       </c>
       <c r="G1246" s="3" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
       <c r="H1246" t="s">
         <v>223</v>
@@ -55803,7 +55920,7 @@
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1247" s="4" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="B1247" s="10">
         <v>2.7787109999999999</v>
@@ -55818,7 +55935,7 @@
         <v>6</v>
       </c>
       <c r="F1247" s="3" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="G1247" s="3" t="s">
         <v>6</v>
@@ -56847,7 +56964,7 @@
         <v>1202</v>
       </c>
       <c r="G1279" s="3" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
       <c r="H1279" s="3" t="s">
         <v>119</v>
@@ -56879,7 +56996,7 @@
         <v>770</v>
       </c>
       <c r="G1280" s="3" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="H1280" t="s">
         <v>119</v>
@@ -56893,7 +57010,7 @@
     </row>
     <row r="1281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
       <c r="B1281" s="10">
         <v>14.15</v>
@@ -56914,7 +57031,7 @@
         <v>6</v>
       </c>
       <c r="H1281" s="4" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="I1281" t="s">
         <v>6</v>
@@ -57071,7 +57188,7 @@
         <v>1658</v>
       </c>
       <c r="G1286" s="3" t="s">
-        <v>4678</v>
+        <v>4677</v>
       </c>
       <c r="H1286" t="s">
         <v>1565</v>
@@ -57103,7 +57220,7 @@
         <v>1568</v>
       </c>
       <c r="G1287" s="3" t="s">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="H1287" t="s">
         <v>1565</v>
@@ -57167,7 +57284,7 @@
         <v>1563</v>
       </c>
       <c r="G1289" s="3" t="s">
-        <v>4677</v>
+        <v>4676</v>
       </c>
       <c r="H1289" t="s">
         <v>1565</v>
@@ -57231,7 +57348,7 @@
         <v>866</v>
       </c>
       <c r="G1291" s="3" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="H1291" s="3" t="s">
         <v>595</v>
@@ -57263,7 +57380,7 @@
         <v>867</v>
       </c>
       <c r="G1292" s="3" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
       <c r="H1292" s="3" t="s">
         <v>595</v>
@@ -57277,7 +57394,7 @@
     </row>
     <row r="1293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1293" s="4" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="B1293" s="10">
         <f>14+7/60</f>
@@ -57294,7 +57411,7 @@
         <v>6</v>
       </c>
       <c r="F1293" s="3" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="G1293" s="3" t="s">
         <v>6</v>
@@ -57311,7 +57428,7 @@
     </row>
     <row r="1294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="B1294" s="10">
         <v>-17.773389000000002</v>
@@ -57326,13 +57443,13 @@
         <v>6</v>
       </c>
       <c r="F1294" s="3" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="G1294" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1294" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="I1294" s="3" t="s">
         <v>6</v>
@@ -57343,7 +57460,7 @@
     </row>
     <row r="1295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="B1295" s="10">
         <v>-17.743085000000001</v>
@@ -57358,13 +57475,13 @@
         <v>6</v>
       </c>
       <c r="F1295" s="3" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="G1295" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1295" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="I1295" s="3" t="s">
         <v>6</v>
@@ -57393,7 +57510,7 @@
         <v>4105</v>
       </c>
       <c r="G1296" s="4" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="H1296" t="s">
         <v>4106</v>
@@ -57439,7 +57556,7 @@
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="B1298" s="10">
         <f>20+14/60</f>
@@ -57450,13 +57567,13 @@
         <v>106.5</v>
       </c>
       <c r="D1298" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1298" t="s">
         <v>6</v>
       </c>
       <c r="F1298" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="G1298" s="3" t="s">
         <v>6</v>
@@ -57523,7 +57640,7 @@
         <v>3116</v>
       </c>
       <c r="G1300" s="3" t="s">
-        <v>4903</v>
+        <v>4901</v>
       </c>
       <c r="H1300" s="4" t="s">
         <v>3101</v>
@@ -57555,7 +57672,7 @@
         <v>3104</v>
       </c>
       <c r="G1301" s="3" t="s">
-        <v>4901</v>
+        <v>4899</v>
       </c>
       <c r="H1301" s="4" t="s">
         <v>3101</v>
@@ -57793,7 +57910,7 @@
     </row>
     <row r="1309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="B1309" s="10">
         <v>30.647597000000001</v>
@@ -57808,13 +57925,13 @@
         <v>6</v>
       </c>
       <c r="F1309" s="3" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="G1309" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1309" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="I1309" s="3" t="s">
         <v>6</v>
@@ -57843,7 +57960,7 @@
         <v>4098</v>
       </c>
       <c r="G1310" s="3" t="s">
-        <v>4681</v>
+        <v>4680</v>
       </c>
       <c r="H1310" t="s">
         <v>4096</v>
@@ -57985,7 +58102,7 @@
     </row>
     <row r="1315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="B1315" s="10">
         <v>9.3661359999999991</v>
@@ -58000,7 +58117,7 @@
         <v>6</v>
       </c>
       <c r="F1315" s="3" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="G1315" s="3" t="s">
         <v>6</v>
@@ -58035,7 +58152,7 @@
         <v>4032</v>
       </c>
       <c r="G1316" s="3" t="s">
-        <v>4746</v>
+        <v>4745</v>
       </c>
       <c r="H1316" t="s">
         <v>3747</v>
@@ -58067,7 +58184,7 @@
         <v>3749</v>
       </c>
       <c r="G1317" s="3" t="s">
-        <v>4741</v>
+        <v>4740</v>
       </c>
       <c r="H1317" t="s">
         <v>3747</v>
@@ -58099,7 +58216,7 @@
         <v>3751</v>
       </c>
       <c r="G1318" s="3" t="s">
-        <v>4742</v>
+        <v>4741</v>
       </c>
       <c r="H1318" t="s">
         <v>3747</v>
@@ -58177,7 +58294,7 @@
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1321" s="4" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
       <c r="B1321" s="10">
         <v>-21.09741</v>
@@ -58186,13 +58303,13 @@
         <v>164.81707</v>
       </c>
       <c r="D1321" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1321" t="s">
         <v>6</v>
       </c>
       <c r="F1321" s="3" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="G1321" s="3" t="s">
         <v>6</v>
@@ -58209,7 +58326,7 @@
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="B1322" s="10">
         <v>-21.081395000000001</v>
@@ -58224,7 +58341,7 @@
         <v>6</v>
       </c>
       <c r="F1322" s="3" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="G1322" s="3" t="s">
         <v>6</v>
@@ -58305,7 +58422,7 @@
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1325" s="4" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="B1325" s="10">
         <v>-22.280349999999999</v>
@@ -58314,13 +58431,13 @@
         <v>166.47236000000001</v>
       </c>
       <c r="D1325" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1325" t="s">
         <v>6</v>
       </c>
       <c r="F1325" s="3" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
       <c r="G1325" s="3" t="s">
         <v>6</v>
@@ -58337,7 +58454,7 @@
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="B1326" s="10">
         <v>-21.041142000000001</v>
@@ -58352,7 +58469,7 @@
         <v>6</v>
       </c>
       <c r="F1326" s="3" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="G1326" s="3" t="s">
         <v>6</v>
@@ -58401,7 +58518,7 @@
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1328" s="4" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="B1328" s="10">
         <v>-21.332173000000001</v>
@@ -58416,7 +58533,7 @@
         <v>6</v>
       </c>
       <c r="F1328" s="3" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="G1328" s="3" t="s">
         <v>6</v>
@@ -59029,7 +59146,7 @@
         <v>3054</v>
       </c>
       <c r="G1347" s="3" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
       <c r="H1347" t="s">
         <v>1380</v>
@@ -59061,7 +59178,7 @@
         <v>872</v>
       </c>
       <c r="G1348" s="3" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="H1348" t="s">
         <v>1380</v>
@@ -59802,7 +59919,7 @@
         <v>1222</v>
       </c>
       <c r="G1371" s="4" t="s">
-        <v>4875</v>
+        <v>4873</v>
       </c>
       <c r="H1371" t="s">
         <v>579</v>
@@ -59834,7 +59951,7 @@
         <v>3299</v>
       </c>
       <c r="G1372" t="s">
-        <v>4765</v>
+        <v>4764</v>
       </c>
       <c r="H1372" t="s">
         <v>3303</v>
@@ -59866,7 +59983,7 @@
         <v>3329</v>
       </c>
       <c r="G1373" t="s">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="H1373" t="s">
         <v>3303</v>
@@ -60396,7 +60513,7 @@
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="B1390" s="10">
         <v>1.6230990000000001</v>
@@ -60411,7 +60528,7 @@
         <v>6</v>
       </c>
       <c r="F1390" s="3" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="G1390" s="3" t="s">
         <v>6</v>
@@ -60524,7 +60641,7 @@
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="B1394" s="10">
         <f>1+42/60</f>
@@ -60535,13 +60652,13 @@
         <v>125.01666666666667</v>
       </c>
       <c r="D1394" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1394" t="s">
         <v>6</v>
       </c>
       <c r="F1394" s="3" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="G1394" s="3" t="s">
         <v>6</v>
@@ -60558,7 +60675,7 @@
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="B1395" s="10">
         <f>1+42/60</f>
@@ -60569,13 +60686,13 @@
         <v>125.01666666666667</v>
       </c>
       <c r="D1395" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1395" t="s">
         <v>6</v>
       </c>
       <c r="F1395" s="3" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="G1395" s="3" t="s">
         <v>6</v>
@@ -60592,7 +60709,7 @@
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="B1396" s="10">
         <v>3.7599779999999998</v>
@@ -60607,7 +60724,7 @@
         <v>6</v>
       </c>
       <c r="F1396" s="3" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="G1396" t="s">
         <v>6</v>
@@ -60880,7 +60997,7 @@
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
       <c r="B1405" s="10">
         <v>-16.582920000000001</v>
@@ -60895,13 +61012,13 @@
         <v>6</v>
       </c>
       <c r="F1405" s="3" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="G1405" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1405" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="I1405" t="s">
         <v>6</v>
@@ -61286,7 +61403,7 @@
         <v>3168</v>
       </c>
       <c r="G1417" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="H1417" t="s">
         <v>2290</v>
@@ -61350,7 +61467,7 @@
         <v>820</v>
       </c>
       <c r="G1419" s="3" t="s">
-        <v>4748</v>
+        <v>4747</v>
       </c>
       <c r="H1419" t="s">
         <v>2290</v>
@@ -61382,7 +61499,7 @@
         <v>3287</v>
       </c>
       <c r="G1420" s="3" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="H1420" t="s">
         <v>2290</v>
@@ -61478,7 +61595,7 @@
         <v>3961</v>
       </c>
       <c r="G1423" s="3" t="s">
-        <v>4752</v>
+        <v>4751</v>
       </c>
       <c r="H1423" t="s">
         <v>2290</v>
@@ -61510,7 +61627,7 @@
         <v>990</v>
       </c>
       <c r="G1424" s="3" t="s">
-        <v>4946</v>
+        <v>4944</v>
       </c>
       <c r="H1424" t="s">
         <v>1414</v>
@@ -61542,7 +61659,7 @@
         <v>1251</v>
       </c>
       <c r="G1425" s="3" t="s">
-        <v>4941</v>
+        <v>4939</v>
       </c>
       <c r="H1425" s="3" t="s">
         <v>1838</v>
@@ -61556,7 +61673,7 @@
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1426" s="19" t="s">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="B1426" s="10">
         <v>26.505434999999999</v>
@@ -61571,13 +61688,13 @@
         <v>6</v>
       </c>
       <c r="F1426" s="3" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="G1426" s="3" t="s">
-        <v>4982</v>
+        <v>4980</v>
       </c>
       <c r="H1426" s="19" t="s">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="I1426" t="s">
         <v>6</v>
@@ -61588,7 +61705,7 @@
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1427" s="19" t="s">
-        <v>4978</v>
+        <v>4976</v>
       </c>
       <c r="B1427" s="10">
         <v>26.454808</v>
@@ -61603,13 +61720,13 @@
         <v>6</v>
       </c>
       <c r="F1427" s="3" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="G1427" s="3" t="s">
-        <v>4977</v>
+        <v>4975</v>
       </c>
       <c r="H1427" s="19" t="s">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="I1427" t="s">
         <v>6</v>
@@ -61620,7 +61737,7 @@
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1428" s="19" t="s">
-        <v>4980</v>
+        <v>4978</v>
       </c>
       <c r="B1428" s="10">
         <v>26.549194</v>
@@ -61635,13 +61752,13 @@
         <v>6</v>
       </c>
       <c r="F1428" s="3" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="G1428" s="3" t="s">
-        <v>4979</v>
+        <v>4977</v>
       </c>
       <c r="H1428" s="19" t="s">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="I1428" t="s">
         <v>6</v>
@@ -61652,7 +61769,7 @@
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1429" s="19" t="s">
-        <v>4984</v>
+        <v>4982</v>
       </c>
       <c r="B1429" s="10">
         <v>26.172131</v>
@@ -61667,13 +61784,13 @@
         <v>6</v>
       </c>
       <c r="F1429" s="3" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="G1429" s="3" t="s">
-        <v>4983</v>
+        <v>4981</v>
       </c>
       <c r="H1429" s="19" t="s">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="I1429" t="s">
         <v>6</v>
@@ -61684,7 +61801,7 @@
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1430" s="19" t="s">
-        <v>4975</v>
+        <v>4973</v>
       </c>
       <c r="B1430" s="10">
         <v>26.174869999999999</v>
@@ -61702,10 +61819,10 @@
         <v>1925</v>
       </c>
       <c r="G1430" s="3" t="s">
-        <v>4976</v>
+        <v>4974</v>
       </c>
       <c r="H1430" t="s">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="I1430" t="s">
         <v>6</v>
@@ -61716,7 +61833,7 @@
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1431" s="19" t="s">
-        <v>4986</v>
+        <v>4984</v>
       </c>
       <c r="B1431" s="10">
         <v>26.126823000000002</v>
@@ -61731,13 +61848,13 @@
         <v>6</v>
       </c>
       <c r="F1431" s="3" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="G1431" s="3" t="s">
-        <v>4985</v>
+        <v>4983</v>
       </c>
       <c r="H1431" s="19" t="s">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="I1431" t="s">
         <v>6</v>
@@ -61748,7 +61865,7 @@
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1432" s="19" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="B1432" s="10">
         <v>24.334464000000001</v>
@@ -61766,10 +61883,10 @@
         <v>1393</v>
       </c>
       <c r="G1432" s="3" t="s">
-        <v>4954</v>
+        <v>4952</v>
       </c>
       <c r="H1432" s="4" t="s">
-        <v>4950</v>
+        <v>4948</v>
       </c>
       <c r="I1432" t="s">
         <v>6</v>
@@ -61780,7 +61897,7 @@
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1433" s="19" t="s">
-        <v>4969</v>
+        <v>4967</v>
       </c>
       <c r="B1433" s="10">
         <v>24.407776999999999</v>
@@ -61798,10 +61915,10 @@
         <v>2791</v>
       </c>
       <c r="G1433" s="3" t="s">
-        <v>4968</v>
+        <v>4966</v>
       </c>
       <c r="H1433" s="4" t="s">
-        <v>4950</v>
+        <v>4948</v>
       </c>
       <c r="I1433" t="s">
         <v>6</v>
@@ -61812,7 +61929,7 @@
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1434" s="19" t="s">
-        <v>4974</v>
+        <v>4972</v>
       </c>
       <c r="B1434" s="10">
         <v>24.766666666666666</v>
@@ -61830,10 +61947,10 @@
         <v>1117</v>
       </c>
       <c r="G1434" s="3" t="s">
-        <v>4973</v>
+        <v>4971</v>
       </c>
       <c r="H1434" t="s">
-        <v>4950</v>
+        <v>4948</v>
       </c>
       <c r="I1434" t="s">
         <v>6</v>
@@ -61844,7 +61961,7 @@
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1435" s="19" t="s">
-        <v>4967</v>
+        <v>4965</v>
       </c>
       <c r="B1435" s="10">
         <v>24.916599999999999</v>
@@ -61859,13 +61976,13 @@
         <v>6</v>
       </c>
       <c r="F1435" s="3" t="s">
+        <v>4410</v>
+      </c>
+      <c r="G1435" s="3" t="s">
         <v>4411</v>
       </c>
-      <c r="G1435" s="3" t="s">
-        <v>4412</v>
-      </c>
       <c r="H1435" s="4" t="s">
-        <v>4950</v>
+        <v>4948</v>
       </c>
       <c r="I1435" t="s">
         <v>6</v>
@@ -61876,7 +61993,7 @@
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1436" s="19" t="s">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="B1436" s="10">
         <v>26.5</v>
@@ -61894,10 +62011,10 @@
         <v>882</v>
       </c>
       <c r="G1436" s="3" t="s">
-        <v>4952</v>
+        <v>4950</v>
       </c>
       <c r="H1436" s="4" t="s">
-        <v>4950</v>
+        <v>4948</v>
       </c>
       <c r="I1436" t="s">
         <v>6</v>
@@ -61908,7 +62025,7 @@
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1437" s="20" t="s">
-        <v>4987</v>
+        <v>4985</v>
       </c>
       <c r="B1437" s="10">
         <v>26.530687</v>
@@ -61917,19 +62034,19 @@
         <v>127.965689</v>
       </c>
       <c r="D1437" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="E1437" t="s">
         <v>6</v>
       </c>
       <c r="F1437" s="3" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="G1437" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1437" t="s">
-        <v>4950</v>
+        <v>4948</v>
       </c>
       <c r="I1437" t="s">
         <v>6</v>
@@ -62214,7 +62331,7 @@
         <v>1115</v>
       </c>
       <c r="G1446" s="3" t="s">
-        <v>4940</v>
+        <v>4938</v>
       </c>
       <c r="H1446" t="s">
         <v>1837</v>
@@ -64230,7 +64347,7 @@
         <v>3200</v>
       </c>
       <c r="G1509" s="3" t="s">
-        <v>4644</v>
+        <v>4643</v>
       </c>
       <c r="H1509" t="s">
         <v>156</v>
@@ -64262,7 +64379,7 @@
         <v>3198</v>
       </c>
       <c r="G1510" s="3" t="s">
-        <v>4643</v>
+        <v>4642</v>
       </c>
       <c r="H1510" t="s">
         <v>156</v>
@@ -65110,7 +65227,7 @@
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="B1537" s="10">
         <v>-0.61447799999999997</v>
@@ -65125,7 +65242,7 @@
         <v>6</v>
       </c>
       <c r="F1537" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="G1537" s="3" t="s">
         <v>6</v>
@@ -65302,7 +65419,7 @@
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1543" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="B1543" s="10">
         <v>-25.881722</v>
@@ -65317,7 +65434,7 @@
         <v>6</v>
       </c>
       <c r="F1543" s="3" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="G1543" s="3" t="s">
         <v>6</v>
@@ -65352,7 +65469,7 @@
         <v>815</v>
       </c>
       <c r="G1544" s="3" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="H1544" t="s">
         <v>2275</v>
@@ -65560,7 +65677,7 @@
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1551" s="19" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="B1551" s="10">
         <v>23.596133999999999</v>
@@ -65575,10 +65692,10 @@
         <v>6</v>
       </c>
       <c r="F1551" s="3" t="s">
+        <v>4399</v>
+      </c>
+      <c r="G1551" s="3" t="s">
         <v>4400</v>
-      </c>
-      <c r="G1551" s="3" t="s">
-        <v>4401</v>
       </c>
       <c r="H1551" t="s">
         <v>1386</v>
@@ -65610,7 +65727,7 @@
         <v>1391</v>
       </c>
       <c r="G1552" s="3" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
       <c r="H1552" t="s">
         <v>1386</v>
@@ -65642,7 +65759,7 @@
         <v>1390</v>
       </c>
       <c r="G1553" s="3" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="H1553" t="s">
         <v>1386</v>
@@ -65674,7 +65791,7 @@
         <v>3185</v>
       </c>
       <c r="G1554" s="3" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="H1554" t="s">
         <v>1386</v>
@@ -65688,7 +65805,7 @@
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1555" s="19" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="B1555" s="10">
         <v>23.610101</v>
@@ -65703,10 +65820,10 @@
         <v>6</v>
       </c>
       <c r="F1555" s="3" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="G1555" s="3" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="H1555" t="s">
         <v>1386</v>
@@ -65816,7 +65933,7 @@
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1559" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="B1559" s="10">
         <v>-7.7638550000000004</v>
@@ -65831,7 +65948,7 @@
         <v>6</v>
       </c>
       <c r="F1559" s="3" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="G1559" s="3" t="s">
         <v>6</v>
@@ -65976,7 +66093,7 @@
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1564" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="B1564" s="10">
         <v>-8.6202199999999998</v>
@@ -65991,7 +66108,7 @@
         <v>6</v>
       </c>
       <c r="F1564" s="3" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="G1564" s="3" t="s">
         <v>6</v>
@@ -66168,7 +66285,7 @@
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1570" s="20" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="B1570" s="10">
         <v>9.0921450000000004</v>
@@ -66218,7 +66335,7 @@
         <v>863</v>
       </c>
       <c r="G1571" s="3" t="s">
-        <v>4818</v>
+        <v>4816</v>
       </c>
       <c r="H1571" t="s">
         <v>1602</v>
@@ -66250,7 +66367,7 @@
         <v>2811</v>
       </c>
       <c r="G1572" s="3" t="s">
-        <v>4809</v>
+        <v>4808</v>
       </c>
       <c r="H1572" t="s">
         <v>1602</v>
@@ -66488,7 +66605,7 @@
     </row>
     <row r="1580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1580" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="B1580" s="10">
         <v>8</v>
@@ -66497,13 +66614,13 @@
         <v>125</v>
       </c>
       <c r="D1580" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="E1580" t="s">
         <v>6</v>
       </c>
       <c r="F1580" s="3" t="s">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="G1580" s="3" t="s">
         <v>6</v>
@@ -66584,7 +66701,7 @@
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1583" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="B1583" s="10">
         <v>9.1845809999999997</v>
@@ -66599,7 +66716,7 @@
         <v>1352</v>
       </c>
       <c r="F1583" s="3" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="G1583" s="3" t="s">
         <v>6</v>
@@ -66648,7 +66765,7 @@
     </row>
     <row r="1585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1585" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="B1585" s="10">
         <v>12.43328</v>
@@ -66663,7 +66780,7 @@
         <v>6</v>
       </c>
       <c r="F1585" s="3" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="G1585" s="3" t="s">
         <v>6</v>
@@ -66762,7 +66879,7 @@
         <v>3257</v>
       </c>
       <c r="G1588" s="3" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
       <c r="H1588" t="s">
         <v>218</v>
@@ -66826,7 +66943,7 @@
         <v>3258</v>
       </c>
       <c r="G1590" s="3" t="s">
-        <v>4806</v>
+        <v>4805</v>
       </c>
       <c r="H1590" t="s">
         <v>218</v>
@@ -66954,7 +67071,7 @@
         <v>1384</v>
       </c>
       <c r="G1594" s="3" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="H1594" t="s">
         <v>1383</v>
@@ -66968,7 +67085,7 @@
     </row>
     <row r="1595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1595" s="20" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="B1595" s="10">
         <v>22.463826999999998</v>
@@ -66983,10 +67100,10 @@
         <v>6</v>
       </c>
       <c r="F1595" s="3" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="G1595" s="3" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="H1595" t="s">
         <v>1383</v>
@@ -67018,7 +67135,7 @@
         <v>3058</v>
       </c>
       <c r="G1596" s="3" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="H1596" t="s">
         <v>1383</v>
@@ -67050,7 +67167,7 @@
         <v>1397</v>
       </c>
       <c r="G1597" s="3" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="H1597" t="s">
         <v>1383</v>
@@ -67082,7 +67199,7 @@
         <v>3052</v>
       </c>
       <c r="G1598" s="3" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="H1598" t="s">
         <v>1383</v>
@@ -67114,7 +67231,7 @@
         <v>3056</v>
       </c>
       <c r="G1599" s="3" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
       <c r="H1599" t="s">
         <v>1383</v>
@@ -67436,7 +67553,7 @@
         <v>1512</v>
       </c>
       <c r="G1609" s="3" t="s">
-        <v>4817</v>
+        <v>4815</v>
       </c>
       <c r="H1609" s="4" t="s">
         <v>1600</v>
@@ -67468,7 +67585,7 @@
         <v>3288</v>
       </c>
       <c r="G1610" s="3" t="s">
-        <v>4769</v>
+        <v>4768</v>
       </c>
       <c r="H1610" t="s">
         <v>180</v>
@@ -67532,7 +67649,7 @@
         <v>4101</v>
       </c>
       <c r="G1612" s="3" t="s">
-        <v>4716</v>
+        <v>4715</v>
       </c>
       <c r="H1612" t="s">
         <v>4122</v>
@@ -67564,7 +67681,7 @@
         <v>4102</v>
       </c>
       <c r="G1613" s="3" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="H1613" t="s">
         <v>4122</v>
@@ -68428,7 +68545,7 @@
         <v>3715</v>
       </c>
       <c r="G1640" s="3" t="s">
-        <v>4761</v>
+        <v>4760</v>
       </c>
       <c r="H1640" s="4" t="s">
         <v>3229</v>
@@ -68460,7 +68577,7 @@
         <v>3348</v>
       </c>
       <c r="G1641" s="3" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
       <c r="H1641" s="4" t="s">
         <v>3229</v>
@@ -68492,7 +68609,7 @@
         <v>3228</v>
       </c>
       <c r="G1642" s="3" t="s">
-        <v>4759</v>
+        <v>4758</v>
       </c>
       <c r="H1642" s="4" t="s">
         <v>3229</v>
@@ -68524,7 +68641,7 @@
         <v>3308</v>
       </c>
       <c r="G1643" s="3" t="s">
-        <v>4760</v>
+        <v>4759</v>
       </c>
       <c r="H1643" s="4" t="s">
         <v>3229</v>
@@ -68570,7 +68687,7 @@
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1645" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="B1645" s="10">
         <v>-7.8045229999999997</v>
@@ -68585,13 +68702,13 @@
         <v>6</v>
       </c>
       <c r="F1645" s="3" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="G1645" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1645" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="I1645" t="s">
         <v>6</v>
@@ -68652,7 +68769,7 @@
         <v>3662</v>
       </c>
       <c r="G1647" s="3" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="H1647" s="3" t="s">
         <v>3655</v>
@@ -68684,7 +68801,7 @@
         <v>3675</v>
       </c>
       <c r="G1648" s="3" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="H1648" s="3" t="s">
         <v>3655</v>
@@ -68716,7 +68833,7 @@
         <v>3078</v>
       </c>
       <c r="G1649" s="3" t="s">
-        <v>4863</v>
+        <v>4861</v>
       </c>
       <c r="H1649" t="s">
         <v>3073</v>
@@ -68748,7 +68865,7 @@
         <v>3084</v>
       </c>
       <c r="G1650" s="3" t="s">
-        <v>4865</v>
+        <v>4863</v>
       </c>
       <c r="H1650" t="s">
         <v>3073</v>
@@ -68780,7 +68897,7 @@
         <v>3938</v>
       </c>
       <c r="G1651" s="3" t="s">
-        <v>4868</v>
+        <v>4866</v>
       </c>
       <c r="H1651" t="s">
         <v>3073</v>
@@ -68812,7 +68929,7 @@
         <v>3075</v>
       </c>
       <c r="G1652" s="3" t="s">
-        <v>4862</v>
+        <v>4860</v>
       </c>
       <c r="H1652" t="s">
         <v>3073</v>
@@ -68858,7 +68975,7 @@
     </row>
     <row r="1654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1654" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="B1654" s="10">
         <f>15+53/60</f>
@@ -68869,19 +68986,19 @@
         <v>108.31666666666666</v>
       </c>
       <c r="D1654" t="s">
+        <v>4418</v>
+      </c>
+      <c r="E1654" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1654" s="3" t="s">
+        <v>4422</v>
+      </c>
+      <c r="G1654" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1654" t="s">
         <v>4419</v>
-      </c>
-      <c r="E1654" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1654" s="3" t="s">
-        <v>4423</v>
-      </c>
-      <c r="G1654" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1654" t="s">
-        <v>4420</v>
       </c>
       <c r="I1654" s="3" t="s">
         <v>6</v>
@@ -68988,7 +69105,7 @@
     </row>
     <row r="1658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="B1658" s="10">
         <v>-19.618656000000001</v>
@@ -69003,7 +69120,7 @@
         <v>6</v>
       </c>
       <c r="F1658" s="3" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
       <c r="G1658" s="3" t="s">
         <v>6</v>
@@ -69020,7 +69137,7 @@
     </row>
     <row r="1659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1659" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="B1659" s="10">
         <v>-15.927209</v>
@@ -69035,7 +69152,7 @@
         <v>6</v>
       </c>
       <c r="F1659" s="3" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="G1659" s="3" t="s">
         <v>6</v>
@@ -69276,7 +69393,7 @@
     </row>
     <row r="1667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="B1667" s="10">
         <v>-28.009474000000001</v>
@@ -69291,7 +69408,7 @@
         <v>6</v>
       </c>
       <c r="F1667" s="3" t="s">
-        <v>4990</v>
+        <v>4988</v>
       </c>
       <c r="G1667" s="3" t="s">
         <v>6</v>
@@ -69404,7 +69521,7 @@
     </row>
     <row r="1671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="B1671" s="10">
         <v>-17.524885999999999</v>
@@ -69419,7 +69536,7 @@
         <v>6</v>
       </c>
       <c r="F1671" s="3" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="G1671" s="3" t="s">
         <v>6</v>
@@ -69628,7 +69745,7 @@
     </row>
     <row r="1678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="B1678" s="10">
         <v>-16.589769</v>
@@ -69643,7 +69760,7 @@
         <v>6</v>
       </c>
       <c r="F1678" s="3" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="G1678" s="3" t="s">
         <v>6</v>
@@ -69756,7 +69873,7 @@
     </row>
     <row r="1682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="B1682" s="10">
         <v>-14.784283</v>
@@ -69771,7 +69888,7 @@
         <v>6</v>
       </c>
       <c r="F1682" s="3" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
       <c r="G1682" s="3" t="s">
         <v>6</v>
@@ -69788,7 +69905,7 @@
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="B1683" s="10">
         <v>-23.935601999999999</v>
@@ -69803,7 +69920,7 @@
         <v>6</v>
       </c>
       <c r="F1683" s="3" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="G1683" s="3" t="s">
         <v>6</v>
@@ -69852,7 +69969,7 @@
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B1685" s="10">
         <v>-10.580228999999999</v>
@@ -69867,7 +69984,7 @@
         <v>6</v>
       </c>
       <c r="F1685" s="3" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="G1685" s="3" t="s">
         <v>6</v>
@@ -70130,7 +70247,7 @@
         <v>3784</v>
       </c>
       <c r="G1693" s="3" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="H1693" t="s">
         <v>2276</v>
@@ -70194,7 +70311,7 @@
         <v>818</v>
       </c>
       <c r="G1695" s="3" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="H1695" t="s">
         <v>2276</v>
@@ -70226,7 +70343,7 @@
         <v>3788</v>
       </c>
       <c r="G1696" s="3" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="H1696" t="s">
         <v>2276</v>
@@ -70258,7 +70375,7 @@
         <v>3722</v>
       </c>
       <c r="G1697" s="3" t="s">
-        <v>4805</v>
+        <v>4804</v>
       </c>
       <c r="H1697" t="s">
         <v>1518</v>
@@ -70290,7 +70407,7 @@
         <v>3249</v>
       </c>
       <c r="G1698" s="3" t="s">
-        <v>4808</v>
+        <v>4807</v>
       </c>
       <c r="H1698" t="s">
         <v>1518</v>
@@ -70418,7 +70535,7 @@
         <v>3653</v>
       </c>
       <c r="G1702" s="3" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="H1702" t="s">
         <v>2225</v>
@@ -70450,7 +70567,7 @@
         <v>3646</v>
       </c>
       <c r="G1703" s="3" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
       <c r="H1703" t="s">
         <v>2225</v>
@@ -70482,7 +70599,7 @@
         <v>1133</v>
       </c>
       <c r="G1704" s="3" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="H1704" t="s">
         <v>2225</v>
@@ -70970,7 +71087,7 @@
         <v>3106</v>
       </c>
       <c r="G1719" s="3" t="s">
-        <v>4902</v>
+        <v>4900</v>
       </c>
       <c r="H1719" s="4" t="s">
         <v>3103</v>
@@ -71548,7 +71665,7 @@
         <v>1424</v>
       </c>
       <c r="G1737" s="3" t="s">
-        <v>4816</v>
+        <v>4814</v>
       </c>
       <c r="H1737" s="4" t="s">
         <v>1605</v>
@@ -71580,7 +71697,7 @@
         <v>1422</v>
       </c>
       <c r="G1738" s="3" t="s">
-        <v>4815</v>
+        <v>4813</v>
       </c>
       <c r="H1738" s="4" t="s">
         <v>1605</v>
@@ -72044,7 +72161,7 @@
     </row>
     <row r="1753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1753" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="B1753" s="10">
         <v>-27.600128000000002</v>
@@ -72059,13 +72176,13 @@
         <v>6</v>
       </c>
       <c r="F1753" s="3" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="G1753" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1753" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="I1753" s="3" t="s">
         <v>6</v>
@@ -72254,7 +72371,7 @@
         <v>3153</v>
       </c>
       <c r="G1759" s="3" t="s">
-        <v>4896</v>
+        <v>4894</v>
       </c>
       <c r="H1759" t="s">
         <v>239</v>
@@ -72524,7 +72641,7 @@
     </row>
     <row r="1768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1768" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="B1768" s="10">
         <v>-23.83625</v>
@@ -72539,7 +72656,7 @@
         <v>6</v>
       </c>
       <c r="F1768" s="3" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="G1768" s="3" t="s">
         <v>6</v>
@@ -72556,7 +72673,7 @@
     </row>
     <row r="1769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1769" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="B1769" s="10">
         <v>-25.013652</v>
@@ -72571,7 +72688,7 @@
         <v>6</v>
       </c>
       <c r="F1769" s="3" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="G1769" s="3" t="s">
         <v>6</v>
@@ -72631,7 +72748,7 @@
         <v>-45.053333333333327</v>
       </c>
       <c r="D1771" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1771" t="s">
         <v>6</v>
@@ -72665,7 +72782,7 @@
         <v>-44.88388888888889</v>
       </c>
       <c r="D1772" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1772" t="s">
         <v>6</v>
@@ -72976,7 +73093,7 @@
     </row>
     <row r="1782" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1782" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="B1782" s="10">
         <v>1.6226130000000001</v>
@@ -72991,7 +73108,7 @@
         <v>6</v>
       </c>
       <c r="F1782" s="3" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="G1782" s="3" t="s">
         <v>6</v>
@@ -73092,7 +73209,7 @@
         <v>3617</v>
       </c>
       <c r="G1785" s="3" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="H1785" t="s">
         <v>1542</v>
@@ -73124,7 +73241,7 @@
         <v>3619</v>
       </c>
       <c r="G1786" s="3" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
       <c r="H1786" t="s">
         <v>1542</v>
@@ -73368,7 +73485,7 @@
     </row>
     <row r="1794" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="B1794" s="10">
         <v>3.2377379999999998</v>
@@ -73383,7 +73500,7 @@
         <v>6</v>
       </c>
       <c r="F1794" s="3" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="G1794" t="s">
         <v>6</v>
@@ -73804,7 +73921,7 @@
         <v>3074</v>
       </c>
       <c r="G1807" t="s">
-        <v>4861</v>
+        <v>4859</v>
       </c>
       <c r="H1807" t="s">
         <v>1584</v>
@@ -73868,7 +73985,7 @@
         <v>3422</v>
       </c>
       <c r="G1809" t="s">
-        <v>4867</v>
+        <v>4865</v>
       </c>
       <c r="H1809" t="s">
         <v>1584</v>
@@ -73900,7 +74017,7 @@
         <v>3829</v>
       </c>
       <c r="G1810" s="3" t="s">
-        <v>4859</v>
+        <v>4857</v>
       </c>
       <c r="H1810" s="3" t="s">
         <v>3089</v>
@@ -73932,7 +74049,7 @@
         <v>3181</v>
       </c>
       <c r="G1811" s="3" t="s">
-        <v>4858</v>
+        <v>4856</v>
       </c>
       <c r="H1811" s="3" t="s">
         <v>3089</v>
@@ -73964,7 +74081,7 @@
         <v>3151</v>
       </c>
       <c r="G1812" t="s">
-        <v>4914</v>
+        <v>4912</v>
       </c>
       <c r="H1812" t="s">
         <v>3149</v>
@@ -73996,7 +74113,7 @@
         <v>3377</v>
       </c>
       <c r="G1813" s="3" t="s">
-        <v>4931</v>
+        <v>4929</v>
       </c>
       <c r="H1813" t="s">
         <v>1855</v>
@@ -74028,7 +74145,7 @@
         <v>1421</v>
       </c>
       <c r="G1814" s="3" t="s">
-        <v>4932</v>
+        <v>4930</v>
       </c>
       <c r="H1814" s="3" t="s">
         <v>1855</v>
@@ -74488,7 +74605,7 @@
         <v>3192</v>
       </c>
       <c r="G1828" s="3" t="s">
-        <v>4647</v>
+        <v>4646</v>
       </c>
       <c r="H1828" s="3" t="s">
         <v>3197</v>
@@ -74520,7 +74637,7 @@
         <v>801</v>
       </c>
       <c r="G1829" s="3" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
       <c r="H1829" s="4" t="s">
         <v>3197</v>
@@ -74552,7 +74669,7 @@
         <v>3207</v>
       </c>
       <c r="G1830" s="3" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
       <c r="H1830" s="3" t="s">
         <v>3197</v>
@@ -74630,7 +74747,7 @@
     </row>
     <row r="1833" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1833" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="B1833" s="10">
         <v>1.2247980000000001</v>
@@ -74645,7 +74762,7 @@
         <v>6</v>
       </c>
       <c r="F1833" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="G1833" s="3" t="s">
         <v>6</v>
@@ -74662,7 +74779,7 @@
     </row>
     <row r="1834" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1834" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="B1834" s="10">
         <v>1.4379470000000001</v>
@@ -74677,7 +74794,7 @@
         <v>6</v>
       </c>
       <c r="F1834" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="G1834" s="3" t="s">
         <v>6</v>
@@ -74694,7 +74811,7 @@
     </row>
     <row r="1835" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1835" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="B1835" s="10">
         <v>1.2456579999999999</v>
@@ -74709,7 +74826,7 @@
         <v>6</v>
       </c>
       <c r="F1835" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="G1835" s="3" t="s">
         <v>6</v>
@@ -74726,7 +74843,7 @@
     </row>
     <row r="1836" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1836" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="B1836" s="10">
         <v>1.37788</v>
@@ -74741,7 +74858,7 @@
         <v>6</v>
       </c>
       <c r="F1836" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="G1836" s="3" t="s">
         <v>6</v>
@@ -74758,7 +74875,7 @@
     </row>
     <row r="1837" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1837" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="B1837" s="10">
         <v>9.2127520000000001</v>
@@ -74773,13 +74890,13 @@
         <v>6</v>
       </c>
       <c r="F1837" s="3" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="G1837" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1837" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="I1837" s="3" t="s">
         <v>6</v>
@@ -74886,7 +75003,7 @@
     </row>
     <row r="1841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1841" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="B1841" s="10">
         <v>-9.5927340000000001</v>
@@ -74901,7 +75018,7 @@
         <v>6</v>
       </c>
       <c r="F1841" s="3" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="G1841" t="s">
         <v>6</v>
@@ -75128,7 +75245,7 @@
         <v>3397</v>
       </c>
       <c r="G1848" s="3" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
       <c r="H1848" s="3" t="s">
         <v>111</v>
@@ -75257,7 +75374,7 @@
         <v>1609</v>
       </c>
       <c r="G1852" s="3" t="s">
-        <v>4814</v>
+        <v>4812</v>
       </c>
       <c r="H1852" t="s">
         <v>468</v>
@@ -75449,7 +75566,7 @@
         <v>3223</v>
       </c>
       <c r="G1858" s="3" t="s">
-        <v>4757</v>
+        <v>4756</v>
       </c>
       <c r="H1858" t="s">
         <v>2285</v>
@@ -75481,7 +75598,7 @@
         <v>3300</v>
       </c>
       <c r="G1859" s="3" t="s">
-        <v>4764</v>
+        <v>4763</v>
       </c>
       <c r="H1859" t="s">
         <v>2285</v>
@@ -75513,7 +75630,7 @@
         <v>3232</v>
       </c>
       <c r="G1860" s="3" t="s">
-        <v>4767</v>
+        <v>4766</v>
       </c>
       <c r="H1860" t="s">
         <v>2285</v>
@@ -75545,7 +75662,7 @@
         <v>3235</v>
       </c>
       <c r="G1861" s="3" t="s">
-        <v>4766</v>
+        <v>4765</v>
       </c>
       <c r="H1861" t="s">
         <v>2285</v>
@@ -76346,7 +76463,7 @@
         <v>1094</v>
       </c>
       <c r="G1886" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="H1886" s="3" t="s">
         <v>2231</v>
@@ -76410,7 +76527,7 @@
         <v>1681</v>
       </c>
       <c r="G1888" s="3" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="H1888" s="4" t="s">
         <v>2231</v>
@@ -76442,7 +76559,7 @@
         <v>1362</v>
       </c>
       <c r="G1889" s="3" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="H1889" s="3" t="s">
         <v>2231</v>
@@ -76858,7 +76975,7 @@
         <v>3341</v>
       </c>
       <c r="G1902" s="3" t="s">
-        <v>4734</v>
+        <v>4733</v>
       </c>
       <c r="H1902" s="3" t="s">
         <v>3338</v>
@@ -76890,7 +77007,7 @@
         <v>3343</v>
       </c>
       <c r="G1903" s="3" t="s">
-        <v>4735</v>
+        <v>4734</v>
       </c>
       <c r="H1903" s="3" t="s">
         <v>3338</v>
@@ -77064,7 +77181,7 @@
     </row>
     <row r="1909" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1909" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="B1909" s="10">
         <f>10+35/60</f>
@@ -77081,7 +77198,7 @@
         <v>6</v>
       </c>
       <c r="F1909" s="3" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="G1909" s="3" t="s">
         <v>6</v>
@@ -77916,7 +78033,7 @@
         <v>1425</v>
       </c>
       <c r="G1935" s="3" t="s">
-        <v>4813</v>
+        <v>4811</v>
       </c>
       <c r="H1935" s="3" t="s">
         <v>1596</v>
@@ -78154,7 +78271,7 @@
     </row>
     <row r="1943" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1943" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="B1943" s="10">
         <v>-18.162915000000002</v>
@@ -78169,13 +78286,13 @@
         <v>6</v>
       </c>
       <c r="F1943" s="3" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="G1943" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1943" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="I1943" s="3" t="s">
         <v>6</v>
@@ -78186,7 +78303,7 @@
     </row>
     <row r="1944" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1944" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="B1944" s="10">
         <v>-34.019370000000002</v>
@@ -78201,7 +78318,7 @@
         <v>6</v>
       </c>
       <c r="F1944" s="3" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="G1944" s="3" t="s">
         <v>6</v>
@@ -78268,7 +78385,7 @@
         <v>2800</v>
       </c>
       <c r="G1946" s="3" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="H1946" t="s">
         <v>2802</v>
@@ -78300,7 +78417,7 @@
         <v>2805</v>
       </c>
       <c r="G1947" s="3" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
       <c r="H1947" t="s">
         <v>2802</v>
@@ -78314,7 +78431,7 @@
     </row>
     <row r="1948" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1948" s="19" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="B1948" s="10">
         <v>23.106877999999998</v>
@@ -78329,10 +78446,10 @@
         <v>6</v>
       </c>
       <c r="F1948" s="3" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="G1948" s="3" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="H1948" t="s">
         <v>1394</v>
@@ -78364,7 +78481,7 @@
         <v>1758</v>
       </c>
       <c r="G1949" s="3" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="H1949" t="s">
         <v>1394</v>
@@ -78396,7 +78513,7 @@
         <v>3736</v>
       </c>
       <c r="G1950" s="3" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="H1950" t="s">
         <v>1394</v>
@@ -78428,7 +78545,7 @@
         <v>1685</v>
       </c>
       <c r="G1951" s="3" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="H1951" t="s">
         <v>1398</v>
@@ -78460,7 +78577,7 @@
         <v>1761</v>
       </c>
       <c r="G1952" s="3" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
       <c r="H1952" s="3" t="s">
         <v>229</v>
@@ -78483,7 +78600,7 @@
         <v>120.287631</v>
       </c>
       <c r="D1953" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="E1953" t="s">
         <v>6</v>
@@ -78492,7 +78609,7 @@
         <v>871</v>
       </c>
       <c r="G1953" s="3" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="H1953" t="s">
         <v>229</v>
@@ -78515,7 +78632,7 @@
         <v>118.38207</v>
       </c>
       <c r="D1954" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="E1954" t="s">
         <v>6</v>
@@ -78524,7 +78641,7 @@
         <v>1692</v>
       </c>
       <c r="G1954" s="3" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="H1954" s="3" t="s">
         <v>229</v>
@@ -78547,7 +78664,7 @@
         <v>121.42026199999999</v>
       </c>
       <c r="D1955" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="E1955" t="s">
         <v>6</v>
@@ -78556,7 +78673,7 @@
         <v>1381</v>
       </c>
       <c r="G1955" s="3" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="H1955" s="3" t="s">
         <v>229</v>
@@ -78579,7 +78696,7 @@
         <v>119.619246</v>
       </c>
       <c r="D1956" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="E1956" t="s">
         <v>6</v>
@@ -78588,7 +78705,7 @@
         <v>1387</v>
       </c>
       <c r="G1956" s="3" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="H1956" s="3" t="s">
         <v>229</v>
@@ -78611,7 +78728,7 @@
         <v>120.503968</v>
       </c>
       <c r="D1957" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="E1957" t="s">
         <v>6</v>
@@ -78620,7 +78737,7 @@
         <v>1385</v>
       </c>
       <c r="G1957" s="3" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="H1957" s="3" t="s">
         <v>229</v>
@@ -78675,7 +78792,7 @@
         <v>120.553476</v>
       </c>
       <c r="D1959" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="E1959" t="s">
         <v>6</v>
@@ -78684,7 +78801,7 @@
         <v>2801</v>
       </c>
       <c r="G1959" s="3" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="H1959" s="3" t="s">
         <v>229</v>
@@ -78707,7 +78824,7 @@
         <v>120.075295</v>
       </c>
       <c r="D1960" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="E1960" t="s">
         <v>6</v>
@@ -78716,7 +78833,7 @@
         <v>1395</v>
       </c>
       <c r="G1960" s="3" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="H1960" s="3" t="s">
         <v>229</v>
@@ -78739,7 +78856,7 @@
         <v>121.17277</v>
       </c>
       <c r="D1961" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="E1961" t="s">
         <v>6</v>
@@ -78748,7 +78865,7 @@
         <v>1399</v>
       </c>
       <c r="G1961" s="3" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="H1961" s="3" t="s">
         <v>229</v>
@@ -78771,7 +78888,7 @@
         <v>121.775952</v>
       </c>
       <c r="D1962" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="E1962" t="s">
         <v>6</v>
@@ -78780,7 +78897,7 @@
         <v>1378</v>
       </c>
       <c r="G1962" s="3" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
       <c r="H1962" s="3" t="s">
         <v>229</v>
@@ -78812,7 +78929,7 @@
         <v>2216</v>
       </c>
       <c r="G1963" s="3" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="H1963" t="s">
         <v>2217</v>
@@ -78908,7 +79025,7 @@
         <v>811</v>
       </c>
       <c r="G1966" s="3" t="s">
-        <v>4696</v>
+        <v>4695</v>
       </c>
       <c r="H1966" t="s">
         <v>1456</v>
@@ -78940,7 +79057,7 @@
         <v>2274</v>
       </c>
       <c r="G1967" s="3" t="s">
-        <v>4706</v>
+        <v>4705</v>
       </c>
       <c r="H1967" t="s">
         <v>1456</v>
@@ -79004,7 +79121,7 @@
         <v>3217</v>
       </c>
       <c r="G1969" s="3" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
       <c r="H1969" t="s">
         <v>1456</v>
@@ -79036,7 +79153,7 @@
         <v>2306</v>
       </c>
       <c r="G1970" s="3" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
       <c r="H1970" t="s">
         <v>1456</v>
@@ -79068,7 +79185,7 @@
         <v>4107</v>
       </c>
       <c r="G1971" s="3" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="H1971" t="s">
         <v>1456</v>
@@ -79100,7 +79217,7 @@
         <v>4123</v>
       </c>
       <c r="G1972" s="3" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
       <c r="H1972" t="s">
         <v>1456</v>
@@ -79132,7 +79249,7 @@
         <v>2277</v>
       </c>
       <c r="G1973" s="3" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="H1973" t="s">
         <v>1456</v>
@@ -79164,7 +79281,7 @@
         <v>4116</v>
       </c>
       <c r="G1974" s="3" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="H1974" t="s">
         <v>1456</v>
@@ -79196,7 +79313,7 @@
         <v>4112</v>
       </c>
       <c r="G1975" s="3" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="H1975" t="s">
         <v>1456</v>
@@ -79228,7 +79345,7 @@
         <v>2280</v>
       </c>
       <c r="G1976" s="3" t="s">
-        <v>4723</v>
+        <v>4722</v>
       </c>
       <c r="H1976" t="s">
         <v>1456</v>
@@ -79370,7 +79487,7 @@
     </row>
     <row r="1981" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1981" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="B1981" s="10">
         <v>-7.3096059999999996</v>
@@ -79385,7 +79502,7 @@
         <v>6</v>
       </c>
       <c r="F1981" s="3" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="G1981" s="3" t="s">
         <v>6</v>
@@ -79978,7 +80095,7 @@
     </row>
     <row r="2000" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2000" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="B2000" s="10">
         <f>19+28/60</f>
@@ -79989,13 +80106,13 @@
         <v>105.78333333333333</v>
       </c>
       <c r="D2000" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2000" t="s">
         <v>6</v>
       </c>
       <c r="F2000" s="3" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="G2000" s="3" t="s">
         <v>6</v>
@@ -80030,7 +80147,7 @@
         <v>4117</v>
       </c>
       <c r="G2001" s="3" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="H2001" t="s">
         <v>4115</v>
@@ -80062,7 +80179,7 @@
         <v>4120</v>
       </c>
       <c r="G2002" s="3" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="H2002" t="s">
         <v>4115</v>
@@ -80094,7 +80211,7 @@
         <v>4100</v>
       </c>
       <c r="G2003" s="3" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="H2003" t="s">
         <v>4115</v>
@@ -80288,7 +80405,7 @@
         <v>4114</v>
       </c>
       <c r="G2009" s="3" t="s">
-        <v>4718</v>
+        <v>4717</v>
       </c>
       <c r="H2009" t="s">
         <v>4111</v>
@@ -80334,7 +80451,7 @@
     </row>
     <row r="2011" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2011" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="B2011" s="10">
         <f>16+34/60</f>
@@ -80345,19 +80462,19 @@
         <v>107.6</v>
       </c>
       <c r="D2011" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2011" t="s">
         <v>6</v>
       </c>
       <c r="F2011" s="3" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="G2011" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2011" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="I2011" t="s">
         <v>6</v>
@@ -80418,7 +80535,7 @@
         <v>3378</v>
       </c>
       <c r="G2013" s="3" t="s">
-        <v>4933</v>
+        <v>4931</v>
       </c>
       <c r="H2013" t="s">
         <v>3376</v>
@@ -80464,7 +80581,7 @@
     </row>
     <row r="2015" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2015" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="B2015" s="10">
         <v>-19.265764999999998</v>
@@ -80479,7 +80596,7 @@
         <v>6</v>
       </c>
       <c r="F2015" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="G2015" s="3" t="s">
         <v>6</v>
@@ -80496,7 +80613,7 @@
     </row>
     <row r="2016" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2016" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="B2016" s="10">
         <v>-19.270211</v>
@@ -80511,7 +80628,7 @@
         <v>6</v>
       </c>
       <c r="F2016" s="3" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="G2016" s="3" t="s">
         <v>6</v>
@@ -80578,7 +80695,7 @@
         <v>1442</v>
       </c>
       <c r="G2018" t="s">
-        <v>4812</v>
+        <v>4810</v>
       </c>
       <c r="H2018" t="s">
         <v>1439</v>
@@ -80610,7 +80727,7 @@
         <v>1515</v>
       </c>
       <c r="G2019" t="s">
-        <v>4811</v>
+        <v>5110</v>
       </c>
       <c r="H2019" t="s">
         <v>1439</v>
@@ -80642,7 +80759,7 @@
         <v>1594</v>
       </c>
       <c r="G2020" s="3" t="s">
-        <v>4810</v>
+        <v>4809</v>
       </c>
       <c r="H2020" s="4" t="s">
         <v>1592</v>
@@ -81281,7 +81398,7 @@
         <v>-45.720277777777781</v>
       </c>
       <c r="D2040" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2040" t="s">
         <v>6</v>
@@ -81315,7 +81432,7 @@
         <v>-44.88388888888889</v>
       </c>
       <c r="D2041" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2041" t="s">
         <v>6</v>
@@ -81484,7 +81601,7 @@
         <v>2959</v>
       </c>
       <c r="G2046" s="3" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="H2046" t="s">
         <v>596</v>
@@ -81548,7 +81665,7 @@
         <v>1928</v>
       </c>
       <c r="G2048" s="3" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
       <c r="H2048" t="s">
         <v>596</v>
@@ -81580,7 +81697,7 @@
         <v>1931</v>
       </c>
       <c r="G2049" s="3" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="H2049" t="s">
         <v>596</v>
@@ -81644,7 +81761,7 @@
         <v>804</v>
       </c>
       <c r="G2051" s="3" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="H2051" t="s">
         <v>596</v>
@@ -81678,7 +81795,7 @@
         <v>1933</v>
       </c>
       <c r="G2052" s="3" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="H2052" t="s">
         <v>596</v>
@@ -81774,7 +81891,7 @@
         <v>1929</v>
       </c>
       <c r="G2055" s="3" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="H2055" t="s">
         <v>596</v>
@@ -81806,7 +81923,7 @@
         <v>1460</v>
       </c>
       <c r="G2056" s="3" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="H2056" t="s">
         <v>596</v>
@@ -82864,7 +82981,7 @@
         <v>4083</v>
       </c>
       <c r="G2089" s="3" t="s">
-        <v>4666</v>
+        <v>4665</v>
       </c>
       <c r="H2089" s="4" t="s">
         <v>4157</v>
@@ -82878,7 +82995,7 @@
     </row>
     <row r="2090" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2090" t="s">
-        <v>4997</v>
+        <v>4995</v>
       </c>
       <c r="B2090" s="10">
         <v>-16.800177999999999</v>
@@ -82893,13 +83010,13 @@
         <v>6</v>
       </c>
       <c r="F2090" s="3" t="s">
-        <v>4998</v>
+        <v>4996</v>
       </c>
       <c r="G2090" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2090" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="I2090" s="3" t="s">
         <v>6</v>
@@ -83556,7 +83673,7 @@
     </row>
     <row r="2111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2111" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="B2111" s="10">
         <v>10.457741</v>
@@ -83571,7 +83688,7 @@
         <v>6</v>
       </c>
       <c r="F2111" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="G2111" s="3" t="s">
         <v>6</v>
@@ -83620,7 +83737,7 @@
     </row>
     <row r="2113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2113" s="15" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="B2113" s="10">
         <v>18.335999999999999</v>
@@ -83635,7 +83752,7 @@
         <v>6</v>
       </c>
       <c r="F2113" s="15" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="G2113" s="3" t="s">
         <v>6</v>
@@ -83782,7 +83899,7 @@
     </row>
     <row r="2118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2118" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="B2118" s="10">
         <v>15.683109</v>
@@ -83797,7 +83914,7 @@
         <v>6</v>
       </c>
       <c r="F2118" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="G2118" s="3" t="s">
         <v>6</v>
@@ -83846,7 +83963,7 @@
     </row>
     <row r="2120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2120" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="B2120" s="10">
         <v>16.551698999999999</v>
@@ -83861,7 +83978,7 @@
         <v>6</v>
       </c>
       <c r="F2120" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="G2120" s="3" t="s">
         <v>6</v>
@@ -84088,7 +84205,7 @@
         <v>1145</v>
       </c>
       <c r="G2127" t="s">
-        <v>4726</v>
+        <v>4725</v>
       </c>
       <c r="H2127" t="s">
         <v>2271</v>
@@ -84134,7 +84251,7 @@
     </row>
     <row r="2129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2129" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="B2129" s="10">
         <v>-17.760936000000001</v>
@@ -84149,13 +84266,13 @@
         <v>6</v>
       </c>
       <c r="F2129" s="3" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="G2129" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2129" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="I2129" s="3" t="s">
         <v>6</v>
@@ -84166,7 +84283,7 @@
     </row>
     <row r="2130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2130" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="B2130" s="10">
         <v>-18.13944</v>
@@ -84181,13 +84298,13 @@
         <v>6</v>
       </c>
       <c r="F2130" s="3" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="G2130" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2130" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="I2130" s="3" t="s">
         <v>6</v>
@@ -84216,7 +84333,7 @@
         <v>3754</v>
       </c>
       <c r="G2131" s="3" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="H2131" t="s">
         <v>3752</v>
@@ -84230,7 +84347,7 @@
     </row>
     <row r="2132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2132" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="B2132" s="10">
         <v>29.029509999999998</v>
@@ -84245,13 +84362,13 @@
         <v>6</v>
       </c>
       <c r="F2132" s="3" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="G2132" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2132" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="I2132" s="3" t="s">
         <v>6</v>
@@ -84262,7 +84379,7 @@
     </row>
     <row r="2133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2133" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="B2133" s="10">
         <v>-0.30379600000000001</v>
@@ -84277,13 +84394,13 @@
         <v>6</v>
       </c>
       <c r="F2133" s="3" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="G2133" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2133" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="I2133" t="s">
         <v>6</v>
@@ -84504,7 +84621,7 @@
         <v>3139</v>
       </c>
       <c r="G2140" s="3" t="s">
-        <v>4895</v>
+        <v>4893</v>
       </c>
       <c r="H2140" t="s">
         <v>3133</v>
@@ -84536,7 +84653,7 @@
         <v>3142</v>
       </c>
       <c r="G2141" s="3" t="s">
-        <v>4911</v>
+        <v>4909</v>
       </c>
       <c r="H2141" t="s">
         <v>578</v>
@@ -84568,7 +84685,7 @@
         <v>1220</v>
       </c>
       <c r="G2142" s="3" t="s">
-        <v>4908</v>
+        <v>4906</v>
       </c>
       <c r="H2142" t="s">
         <v>578</v>
@@ -84600,7 +84717,7 @@
         <v>3091</v>
       </c>
       <c r="G2143" s="3" t="s">
-        <v>4909</v>
+        <v>4907</v>
       </c>
       <c r="H2143" t="s">
         <v>578</v>
@@ -84696,7 +84813,7 @@
         <v>3714</v>
       </c>
       <c r="G2146" s="3" t="s">
-        <v>4754</v>
+        <v>4753</v>
       </c>
       <c r="H2146" s="3" t="s">
         <v>182</v>
@@ -84728,7 +84845,7 @@
         <v>3304</v>
       </c>
       <c r="G2147" t="s">
-        <v>4755</v>
+        <v>4754</v>
       </c>
       <c r="H2147" t="s">
         <v>182</v>
@@ -84760,7 +84877,7 @@
         <v>3231</v>
       </c>
       <c r="G2148" s="3" t="s">
-        <v>4758</v>
+        <v>4757</v>
       </c>
       <c r="H2148" s="3" t="s">
         <v>182</v>
@@ -84792,7 +84909,7 @@
         <v>2286</v>
       </c>
       <c r="G2149" t="s">
-        <v>4756</v>
+        <v>4755</v>
       </c>
       <c r="H2149" t="s">
         <v>182</v>
@@ -84824,7 +84941,7 @@
         <v>2812</v>
       </c>
       <c r="G2150" s="3" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
       <c r="H2150" s="4" t="s">
         <v>2333</v>
@@ -84856,7 +84973,7 @@
         <v>1603</v>
       </c>
       <c r="G2151" s="3" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
       <c r="H2151" s="4" t="s">
         <v>2333</v>
@@ -84888,7 +85005,7 @@
         <v>864</v>
       </c>
       <c r="G2152" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="H2152" s="4" t="s">
         <v>2333</v>
@@ -84920,7 +85037,7 @@
         <v>1519</v>
       </c>
       <c r="G2153" s="3" t="s">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="H2153" s="4" t="s">
         <v>2333</v>
@@ -84952,7 +85069,7 @@
         <v>2814</v>
       </c>
       <c r="G2154" s="3" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
       <c r="H2154" s="4" t="s">
         <v>2333</v>
@@ -84984,7 +85101,7 @@
         <v>1440</v>
       </c>
       <c r="G2155" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
       <c r="H2155" s="4" t="s">
         <v>2333</v>
@@ -85318,7 +85435,7 @@
     </row>
     <row r="2166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2166" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="B2166" s="10">
         <v>-4.7482300000000004</v>
@@ -85333,7 +85450,7 @@
         <v>6</v>
       </c>
       <c r="F2166" s="3" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="G2166" s="3" t="s">
         <v>6</v>
@@ -85350,7 +85467,7 @@
     </row>
     <row r="2167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2167" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="B2167" s="10">
         <v>-0.188275</v>
@@ -85365,7 +85482,7 @@
         <v>6</v>
       </c>
       <c r="F2167" s="3" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="G2167" s="3" t="s">
         <v>6</v>
@@ -85414,7 +85531,7 @@
     </row>
     <row r="2169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2169" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="B2169" s="10">
         <f>-(2+53/60)</f>
@@ -85425,13 +85542,13 @@
         <v>100.38333333333334</v>
       </c>
       <c r="D2169" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2169" t="s">
         <v>6</v>
       </c>
       <c r="F2169" s="3" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="G2169" s="3" t="s">
         <v>6</v>
@@ -85480,7 +85597,7 @@
     </row>
     <row r="2171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2171" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="B2171" s="10">
         <v>-24.885698000000001</v>
@@ -85495,7 +85612,7 @@
         <v>6</v>
       </c>
       <c r="F2171" s="3" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="G2171" s="3" t="s">
         <v>6</v>
@@ -85980,7 +86097,7 @@
         <v>1224</v>
       </c>
       <c r="G2186" s="4" t="s">
-        <v>4872</v>
+        <v>4870</v>
       </c>
       <c r="H2186" t="s">
         <v>240</v>
@@ -86044,7 +86161,7 @@
         <v>3099</v>
       </c>
       <c r="G2188" s="3" t="s">
-        <v>4899</v>
+        <v>4897</v>
       </c>
       <c r="H2188" s="4" t="s">
         <v>3097</v>
@@ -86108,7 +86225,7 @@
         <v>2219</v>
       </c>
       <c r="G2190" s="3" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
       <c r="H2190" s="3" t="s">
         <v>591</v>
@@ -86172,7 +86289,7 @@
         <v>665</v>
       </c>
       <c r="G2192" s="3" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="H2192" s="3" t="s">
         <v>591</v>
@@ -86204,7 +86321,7 @@
         <v>2220</v>
       </c>
       <c r="G2193" s="3" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
       <c r="H2193" s="3" t="s">
         <v>591</v>
@@ -86236,7 +86353,7 @@
         <v>1379</v>
       </c>
       <c r="G2194" s="3" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
       <c r="H2194" s="3" t="s">
         <v>1376</v>
@@ -86332,7 +86449,7 @@
         <v>3093</v>
       </c>
       <c r="G2197" s="3" t="s">
-        <v>4910</v>
+        <v>4908</v>
       </c>
       <c r="H2197" t="s">
         <v>3092</v>
@@ -86396,7 +86513,7 @@
         <v>3067</v>
       </c>
       <c r="G2199" s="3" t="s">
-        <v>4882</v>
+        <v>4880</v>
       </c>
       <c r="H2199" t="s">
         <v>3065</v>
@@ -86558,7 +86675,7 @@
         <v>3063</v>
       </c>
       <c r="G2204" s="3" t="s">
-        <v>4880</v>
+        <v>4878</v>
       </c>
       <c r="H2204" t="s">
         <v>3061</v>
@@ -86590,7 +86707,7 @@
         <v>3066</v>
       </c>
       <c r="G2205" s="3" t="s">
-        <v>4881</v>
+        <v>4879</v>
       </c>
       <c r="H2205" t="s">
         <v>3061</v>
@@ -86654,7 +86771,7 @@
         <v>1218</v>
       </c>
       <c r="G2207" s="3" t="s">
-        <v>4906</v>
+        <v>4904</v>
       </c>
       <c r="H2207" t="s">
         <v>635</v>
@@ -86686,7 +86803,7 @@
         <v>1219</v>
       </c>
       <c r="G2208" s="3" t="s">
-        <v>4907</v>
+        <v>4905</v>
       </c>
       <c r="H2208" t="s">
         <v>635</v>
@@ -86732,7 +86849,7 @@
     </row>
     <row r="2210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2210" t="s">
-        <v>4999</v>
+        <v>4997</v>
       </c>
       <c r="B2210" s="10">
         <v>39.160563000000003</v>
@@ -86747,7 +86864,7 @@
         <v>6</v>
       </c>
       <c r="F2210" s="3" t="s">
-        <v>5000</v>
+        <v>4998</v>
       </c>
       <c r="G2210" s="3" t="s">
         <v>6</v>
@@ -86764,7 +86881,7 @@
     </row>
     <row r="2211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2211" t="s">
-        <v>5001</v>
+        <v>4999</v>
       </c>
       <c r="B2211" s="10">
         <v>39.082756000000003</v>
@@ -86779,13 +86896,13 @@
         <v>6</v>
       </c>
       <c r="F2211" t="s">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="G2211" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2211" t="s">
-        <v>4999</v>
+        <v>4997</v>
       </c>
       <c r="I2211" s="3" t="s">
         <v>6</v>
@@ -86796,7 +86913,7 @@
     </row>
     <row r="2212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2212" s="19" t="s">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B2212" s="10">
         <f>28+18/60</f>
@@ -86807,13 +86924,13 @@
         <v>121.16666666666667</v>
       </c>
       <c r="D2212" s="4" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2212" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F2212" s="3" t="s">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="G2212" s="3" t="s">
         <v>6</v>
@@ -86830,7 +86947,7 @@
     </row>
     <row r="2213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2213" s="4" t="s">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B2213" s="10">
         <v>26.829682999999999</v>
@@ -86845,10 +86962,10 @@
         <v>6</v>
       </c>
       <c r="F2213" s="3" t="s">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="G2213" s="3" t="s">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="H2213" s="3" t="s">
         <v>3655</v>
@@ -86862,7 +86979,7 @@
     </row>
     <row r="2214" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2214" s="22" t="s">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B2214" s="23">
         <v>26.839614999999998</v>
@@ -86877,10 +86994,10 @@
         <v>6</v>
       </c>
       <c r="F2214" s="21" t="s">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="G2214" s="21" t="s">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="H2214" s="22" t="s">
         <v>2214</v>
@@ -86894,7 +87011,7 @@
     </row>
     <row r="2215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2215" s="19" t="s">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B2215" s="10">
         <f>24+29/60</f>
@@ -86905,19 +87022,19 @@
         <v>124.21666666666667</v>
       </c>
       <c r="D2215" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2215" t="s">
         <v>6</v>
       </c>
       <c r="F2215" s="3" t="s">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="G2215" s="3" t="s">
-        <v>5013</v>
+        <v>5011</v>
       </c>
       <c r="H2215" s="19" t="s">
-        <v>4969</v>
+        <v>4967</v>
       </c>
       <c r="I2215" t="s">
         <v>6</v>
@@ -86928,19 +87045,19 @@
     </row>
     <row r="2216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2216" s="19" t="s">
+        <v>5012</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2216" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2216" s="3" t="s">
+        <v>5055</v>
+      </c>
+      <c r="G2216" s="3" t="s">
         <v>5014</v>
-      </c>
-      <c r="D2216" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2216" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2216" s="3" t="s">
-        <v>5057</v>
-      </c>
-      <c r="G2216" s="3" t="s">
-        <v>5016</v>
       </c>
       <c r="H2216" s="19" t="s">
         <v>511</v>
@@ -86954,19 +87071,19 @@
     </row>
     <row r="2217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2217" s="19" t="s">
+        <v>5013</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2217" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2217" s="3" t="s">
+        <v>5058</v>
+      </c>
+      <c r="G2217" s="3" t="s">
         <v>5015</v>
-      </c>
-      <c r="D2217" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2217" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2217" s="3" t="s">
-        <v>5060</v>
-      </c>
-      <c r="G2217" s="3" t="s">
-        <v>5017</v>
       </c>
       <c r="H2217" s="19" t="s">
         <v>511</v>
@@ -86980,7 +87097,7 @@
     </row>
     <row r="2218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2218" s="19" t="s">
-        <v>5027</v>
+        <v>5025</v>
       </c>
       <c r="B2218" s="10">
         <f>33+44/60</f>
@@ -86991,19 +87108,19 @@
         <v>135.36666666666667</v>
       </c>
       <c r="D2218" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2218" t="s">
         <v>6</v>
       </c>
       <c r="F2218" s="3" t="s">
-        <v>5026</v>
+        <v>5024</v>
       </c>
       <c r="G2218" s="4" t="s">
-        <v>5018</v>
+        <v>5016</v>
       </c>
       <c r="H2218" s="19" t="s">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="I2218" t="s">
         <v>6</v>
@@ -87014,7 +87131,7 @@
     </row>
     <row r="2219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2219" s="19" t="s">
-        <v>5029</v>
+        <v>5027</v>
       </c>
       <c r="B2219" s="10">
         <f>33+42/60</f>
@@ -87025,19 +87142,19 @@
         <v>135.4</v>
       </c>
       <c r="D2219" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2219" t="s">
         <v>6</v>
       </c>
       <c r="F2219" s="3" t="s">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="G2219" s="4" t="s">
-        <v>5019</v>
+        <v>5017</v>
       </c>
       <c r="H2219" s="19" t="s">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="I2219" t="s">
         <v>6</v>
@@ -87048,7 +87165,7 @@
     </row>
     <row r="2220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2220" s="19" t="s">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="B2220" s="10">
         <f>33+41/60</f>
@@ -87059,19 +87176,19 @@
         <v>135.4</v>
       </c>
       <c r="D2220" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2220" t="s">
         <v>6</v>
       </c>
       <c r="F2220" s="3" t="s">
-        <v>5030</v>
+        <v>5028</v>
       </c>
       <c r="G2220" s="4" t="s">
-        <v>5020</v>
+        <v>5018</v>
       </c>
       <c r="H2220" s="19" t="s">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="I2220" t="s">
         <v>6</v>
@@ -87082,7 +87199,7 @@
     </row>
     <row r="2221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2221" s="19" t="s">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="B2221" s="10">
         <f>33+41/60</f>
@@ -87093,19 +87210,19 @@
         <v>135.38333333333333</v>
       </c>
       <c r="D2221" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2221" t="s">
         <v>6</v>
       </c>
       <c r="F2221" s="3" t="s">
-        <v>5033</v>
+        <v>5031</v>
       </c>
       <c r="G2221" s="4" t="s">
-        <v>5021</v>
+        <v>5019</v>
       </c>
       <c r="H2221" s="19" t="s">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="I2221" t="s">
         <v>6</v>
@@ -87116,7 +87233,7 @@
     </row>
     <row r="2222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2222" s="19" t="s">
-        <v>5037</v>
+        <v>5035</v>
       </c>
       <c r="B2222" s="4">
         <f>33+41/60</f>
@@ -87127,19 +87244,19 @@
         <v>135.38333333333333</v>
       </c>
       <c r="D2222" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2222" t="s">
         <v>6</v>
       </c>
       <c r="F2222" s="3" t="s">
-        <v>5034</v>
+        <v>5032</v>
       </c>
       <c r="G2222" s="4" t="s">
-        <v>5022</v>
+        <v>5020</v>
       </c>
       <c r="H2222" s="19" t="s">
-        <v>5015</v>
+        <v>5013</v>
       </c>
       <c r="I2222" t="s">
         <v>6</v>
@@ -87150,7 +87267,7 @@
     </row>
     <row r="2223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2223" s="19" t="s">
-        <v>5038</v>
+        <v>5036</v>
       </c>
       <c r="B2223" s="4">
         <f>33+40/60</f>
@@ -87161,19 +87278,19 @@
         <v>135.36666666666667</v>
       </c>
       <c r="D2223" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2223" t="s">
         <v>6</v>
       </c>
       <c r="F2223" s="3" t="s">
-        <v>5035</v>
+        <v>5033</v>
       </c>
       <c r="G2223" s="4" t="s">
-        <v>5023</v>
+        <v>5021</v>
       </c>
       <c r="H2223" s="19" t="s">
-        <v>5015</v>
+        <v>5013</v>
       </c>
       <c r="I2223" t="s">
         <v>6</v>
@@ -87184,7 +87301,7 @@
     </row>
     <row r="2224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2224" s="19" t="s">
-        <v>5039</v>
+        <v>5037</v>
       </c>
       <c r="B2224" s="4">
         <f>33+40/60</f>
@@ -87195,19 +87312,19 @@
         <v>135.35</v>
       </c>
       <c r="D2224" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2224" t="s">
         <v>6</v>
       </c>
       <c r="F2224" s="3" t="s">
-        <v>5036</v>
+        <v>5034</v>
       </c>
       <c r="G2224" s="4" t="s">
-        <v>5024</v>
+        <v>5022</v>
       </c>
       <c r="H2224" s="19" t="s">
-        <v>5015</v>
+        <v>5013</v>
       </c>
       <c r="I2224" t="s">
         <v>6</v>
@@ -87218,7 +87335,7 @@
     </row>
     <row r="2225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2225" s="19" t="s">
-        <v>5041</v>
+        <v>5039</v>
       </c>
       <c r="B2225" s="4">
         <f>33+37/60</f>
@@ -87229,19 +87346,19 @@
         <v>135.4</v>
       </c>
       <c r="D2225" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2225" t="s">
         <v>6</v>
       </c>
       <c r="F2225" s="3" t="s">
-        <v>5040</v>
+        <v>5038</v>
       </c>
       <c r="G2225" s="4" t="s">
-        <v>5025</v>
+        <v>5023</v>
       </c>
       <c r="H2225" s="19" t="s">
-        <v>5015</v>
+        <v>5013</v>
       </c>
       <c r="I2225" t="s">
         <v>6</v>
@@ -87252,7 +87369,7 @@
     </row>
     <row r="2226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2226" s="4" t="s">
-        <v>5043</v>
+        <v>5041</v>
       </c>
       <c r="B2226" s="10">
         <f>-(23+49/60+18/3600)</f>
@@ -87263,13 +87380,13 @@
         <v>-45.455000000000005</v>
       </c>
       <c r="D2226" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E2226" t="s">
         <v>6</v>
       </c>
       <c r="F2226" s="3" t="s">
-        <v>5042</v>
+        <v>5040</v>
       </c>
       <c r="G2226" s="3" t="s">
         <v>6</v>
@@ -87286,7 +87403,7 @@
     </row>
     <row r="2227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2227" t="s">
-        <v>5044</v>
+        <v>5042</v>
       </c>
       <c r="B2227" s="10">
         <v>-20.579060999999999</v>
@@ -87301,7 +87418,7 @@
         <v>6</v>
       </c>
       <c r="F2227" s="3" t="s">
-        <v>5045</v>
+        <v>5043</v>
       </c>
       <c r="G2227" s="3" t="s">
         <v>6</v>
@@ -87318,7 +87435,7 @@
     </row>
     <row r="2228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2228" s="19" t="s">
-        <v>5046</v>
+        <v>5044</v>
       </c>
       <c r="B2228" s="10">
         <v>34.963110999999998</v>
@@ -87333,10 +87450,10 @@
         <v>6</v>
       </c>
       <c r="F2228" t="s">
-        <v>5047</v>
+        <v>5045</v>
       </c>
       <c r="G2228" s="3" t="s">
-        <v>5048</v>
+        <v>5046</v>
       </c>
       <c r="H2228" t="s">
         <v>622</v>
@@ -87350,7 +87467,7 @@
     </row>
     <row r="2229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2229" s="19" t="s">
-        <v>5049</v>
+        <v>5047</v>
       </c>
       <c r="B2229" s="10">
         <v>34.602212999999999</v>
@@ -87365,13 +87482,13 @@
         <v>6</v>
       </c>
       <c r="F2229" s="3" t="s">
-        <v>5050</v>
+        <v>5048</v>
       </c>
       <c r="G2229" s="3" t="s">
-        <v>5051</v>
+        <v>5049</v>
       </c>
       <c r="H2229" s="19" t="s">
-        <v>5046</v>
+        <v>5044</v>
       </c>
       <c r="I2229" t="s">
         <v>6</v>
@@ -87382,7 +87499,7 @@
     </row>
     <row r="2230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2230" s="19" t="s">
-        <v>5052</v>
+        <v>5050</v>
       </c>
       <c r="B2230" s="10">
         <v>34.630141000000002</v>
@@ -87397,13 +87514,13 @@
         <v>6</v>
       </c>
       <c r="F2230" s="3" t="s">
-        <v>5054</v>
+        <v>5052</v>
       </c>
       <c r="G2230" s="3" t="s">
-        <v>5053</v>
+        <v>5051</v>
       </c>
       <c r="H2230" s="19" t="s">
-        <v>5049</v>
+        <v>5047</v>
       </c>
       <c r="I2230" s="3" t="s">
         <v>6</v>
@@ -87414,7 +87531,7 @@
     </row>
     <row r="2231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2231" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="B2231" s="10">
         <v>-12.991970999999999</v>
@@ -87429,7 +87546,7 @@
         <v>6</v>
       </c>
       <c r="F2231" s="3" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="G2231" s="3" t="s">
         <v>6</v>
@@ -87446,7 +87563,7 @@
     </row>
     <row r="2232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2232" t="s">
-        <v>5058</v>
+        <v>5056</v>
       </c>
       <c r="B2232" s="10">
         <v>2.6540970000000002</v>
@@ -87461,7 +87578,7 @@
         <v>6</v>
       </c>
       <c r="F2232" s="3" t="s">
-        <v>5059</v>
+        <v>5057</v>
       </c>
       <c r="G2232" t="s">
         <v>6</v>
@@ -87478,7 +87595,7 @@
     </row>
     <row r="2233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2233" s="4" t="s">
-        <v>5062</v>
+        <v>5060</v>
       </c>
       <c r="B2233" s="10">
         <v>6.3564150000000001</v>
@@ -87493,7 +87610,7 @@
         <v>6</v>
       </c>
       <c r="F2233" s="3" t="s">
-        <v>5062</v>
+        <v>5060</v>
       </c>
       <c r="G2233" t="s">
         <v>6</v>
@@ -87510,7 +87627,7 @@
     </row>
     <row r="2234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2234" s="4" t="s">
-        <v>5063</v>
+        <v>5061</v>
       </c>
       <c r="B2234" s="10">
         <v>4.786867</v>
@@ -87525,7 +87642,7 @@
         <v>6</v>
       </c>
       <c r="F2234" s="3" t="s">
-        <v>5063</v>
+        <v>5061</v>
       </c>
       <c r="G2234" t="s">
         <v>6</v>
@@ -87542,7 +87659,7 @@
     </row>
     <row r="2235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2235" t="s">
-        <v>5064</v>
+        <v>5062</v>
       </c>
       <c r="B2235" s="10">
         <v>11.071263999999999</v>
@@ -87557,7 +87674,7 @@
         <v>6</v>
       </c>
       <c r="F2235" s="3" t="s">
-        <v>5064</v>
+        <v>5062</v>
       </c>
       <c r="G2235" t="s">
         <v>6</v>
@@ -87574,7 +87691,7 @@
     </row>
     <row r="2236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2236" t="s">
-        <v>5065</v>
+        <v>5063</v>
       </c>
       <c r="B2236" s="10">
         <v>20.273508</v>
@@ -87589,7 +87706,7 @@
         <v>6</v>
       </c>
       <c r="F2236" t="s">
-        <v>5065</v>
+        <v>5063</v>
       </c>
       <c r="G2236" s="3" t="s">
         <v>6</v>
@@ -87606,7 +87723,7 @@
     </row>
     <row r="2237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2237" t="s">
-        <v>5066</v>
+        <v>5064</v>
       </c>
       <c r="B2237" s="10">
         <v>13.342435999999999</v>
@@ -87621,7 +87738,7 @@
         <v>6</v>
       </c>
       <c r="F2237" s="3" t="s">
-        <v>5066</v>
+        <v>5064</v>
       </c>
       <c r="G2237" t="s">
         <v>6</v>
@@ -87638,7 +87755,7 @@
     </row>
     <row r="2238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2238" t="s">
-        <v>5067</v>
+        <v>5065</v>
       </c>
       <c r="B2238" s="10">
         <v>25.755952000000001</v>
@@ -87653,10 +87770,10 @@
         <v>6</v>
       </c>
       <c r="F2238" s="3" t="s">
-        <v>5067</v>
+        <v>5065</v>
       </c>
       <c r="G2238" t="s">
-        <v>5068</v>
+        <v>5066</v>
       </c>
       <c r="H2238" t="s">
         <v>6</v>
@@ -87670,7 +87787,7 @@
     </row>
     <row r="2239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2239" t="s">
-        <v>5069</v>
+        <v>5067</v>
       </c>
       <c r="B2239" s="10">
         <v>6.2062660000000003</v>
@@ -87685,7 +87802,7 @@
         <v>6</v>
       </c>
       <c r="F2239" s="3" t="s">
-        <v>5069</v>
+        <v>5067</v>
       </c>
       <c r="G2239" t="s">
         <v>6</v>
@@ -87702,7 +87819,7 @@
     </row>
     <row r="2240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2240" t="s">
-        <v>5070</v>
+        <v>5068</v>
       </c>
       <c r="B2240" s="10">
         <v>-11.854436</v>
@@ -87717,7 +87834,7 @@
         <v>6</v>
       </c>
       <c r="F2240" s="3" t="s">
-        <v>5071</v>
+        <v>5069</v>
       </c>
       <c r="G2240" s="3" t="s">
         <v>6</v>
@@ -87732,15 +87849,683 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2241" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B2241" s="10">
+        <v>-9.0129199999999994</v>
+      </c>
+      <c r="C2241" s="10">
+        <v>-35.220427999999998</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2241" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2241" s="3" t="s">
+        <v>5071</v>
+      </c>
+      <c r="G2241" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2241" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I2241" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2241" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2242" t="s">
+        <v>5073</v>
+      </c>
+      <c r="B2242" s="10">
+        <v>-8.934234</v>
+      </c>
+      <c r="C2242" s="10">
+        <v>-35.166474999999998</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2242" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2242" s="3" t="s">
+        <v>5072</v>
+      </c>
+      <c r="G2242" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2242" t="s">
+        <v>5070</v>
+      </c>
+      <c r="I2242" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2242" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2243" t="s">
+        <v>5075</v>
+      </c>
+      <c r="B2243" s="10">
+        <v>-9.3274340000000002</v>
+      </c>
+      <c r="C2243" s="10">
+        <v>-35.437182</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2243" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2243" t="s">
+        <v>5074</v>
+      </c>
+      <c r="G2243" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2243" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I2243" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2243" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2244" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B2244" s="10">
+        <v>18.651244999999999</v>
+      </c>
+      <c r="C2244" s="10">
+        <v>-91.552549999999997</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2244" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2244" s="3" t="s">
+        <v>5076</v>
+      </c>
+      <c r="G2244" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2244" t="s">
+        <v>4259</v>
+      </c>
+      <c r="I2244" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2244" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2245" t="s">
+        <v>5078</v>
+      </c>
+      <c r="B2245" s="10">
+        <v>24.120764000000001</v>
+      </c>
+      <c r="C2245" s="10">
+        <v>-110.38531999999999</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2245" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2245" s="3" t="s">
+        <v>5079</v>
+      </c>
+      <c r="G2245" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2245" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2245" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2245" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2246" t="s">
+        <v>5081</v>
+      </c>
+      <c r="B2246" s="10">
+        <v>22.632588999999999</v>
+      </c>
+      <c r="C2246" s="10">
+        <v>-81.030028999999999</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2246" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2246" t="s">
+        <v>5080</v>
+      </c>
+      <c r="G2246" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2246" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2246" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2246" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2247" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B2247" s="10">
+        <v>23.169587</v>
+      </c>
+      <c r="C2247" s="10">
+        <v>-81.214259999999996</v>
+      </c>
+      <c r="D2247" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2247" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2247" s="3" t="s">
+        <v>5084</v>
+      </c>
+      <c r="G2247" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2247" t="s">
+        <v>5081</v>
+      </c>
+      <c r="I2247" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2247" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2248" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B2248" s="10">
+        <v>23.13701</v>
+      </c>
+      <c r="C2248" s="10">
+        <v>-82.339781000000002</v>
+      </c>
+      <c r="D2248" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2248" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2248" s="3" t="s">
+        <v>5087</v>
+      </c>
+      <c r="G2248" s="3" t="s">
+        <v>5086</v>
+      </c>
+      <c r="H2248" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2248" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2248" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2249" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B2249" s="10">
+        <v>23.173767000000002</v>
+      </c>
+      <c r="C2249" s="10">
+        <v>-82.130898000000002</v>
+      </c>
+      <c r="D2249" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E2249" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2249" s="3" t="s">
+        <v>5089</v>
+      </c>
+      <c r="G2249" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2249" t="s">
+        <v>5085</v>
+      </c>
+      <c r="I2249" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2249" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2250" t="s">
+        <v>5090</v>
+      </c>
+      <c r="B2250" s="10">
+        <v>23.10812</v>
+      </c>
+      <c r="C2250" s="10">
+        <v>-82.445395000000005</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2250" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2250" s="3" t="s">
+        <v>5091</v>
+      </c>
+      <c r="G2250" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2250" t="s">
+        <v>5085</v>
+      </c>
+      <c r="I2250" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2250" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2251" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B2251" s="10">
+        <v>23.049903</v>
+      </c>
+      <c r="C2251" s="10">
+        <v>-82.566068000000001</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2251" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2251" s="3" t="s">
+        <v>5093</v>
+      </c>
+      <c r="G2251" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2251" t="s">
+        <v>5085</v>
+      </c>
+      <c r="I2251" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2251" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2252" t="s">
+        <v>5095</v>
+      </c>
+      <c r="B2252" s="10">
+        <v>23.177284</v>
+      </c>
+      <c r="C2252" s="10">
+        <v>-82.213273000000001</v>
+      </c>
+      <c r="D2252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2252" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2252" s="3" t="s">
+        <v>5094</v>
+      </c>
+      <c r="G2252" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2252" t="s">
+        <v>5085</v>
+      </c>
+      <c r="I2252" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2252" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2253" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B2253" s="10">
+        <v>22.898620000000001</v>
+      </c>
+      <c r="C2253" s="10">
+        <v>-91.996792999999997</v>
+      </c>
+      <c r="D2253" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E2253" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2253" s="3" t="s">
+        <v>5097</v>
+      </c>
+      <c r="G2253" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2253" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2253" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2253" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2254" t="s">
+        <v>5099</v>
+      </c>
+      <c r="B2254" s="10">
+        <v>23.141266999999999</v>
+      </c>
+      <c r="C2254" s="10">
+        <v>-81.780580999999998</v>
+      </c>
+      <c r="D2254" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2254" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2254" s="3" t="s">
+        <v>5098</v>
+      </c>
+      <c r="G2254" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2254" t="s">
+        <v>5096</v>
+      </c>
+      <c r="I2254" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2254" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2255" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B2255" s="10">
+        <v>22.838425000000001</v>
+      </c>
+      <c r="C2255" s="10">
+        <v>-79.877086000000006</v>
+      </c>
+      <c r="D2255" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E2255" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2255" s="3" t="s">
+        <v>5100</v>
+      </c>
+      <c r="G2255" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2255" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2255" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2255" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2256" s="3" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B2256" s="10">
+        <v>22.523298</v>
+      </c>
+      <c r="C2256" s="10">
+        <v>-79.462738000000002</v>
+      </c>
+      <c r="D2256" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2256" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2256" s="3" t="s">
+        <v>5102</v>
+      </c>
+      <c r="G2256" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2256" t="s">
+        <v>5101</v>
+      </c>
+      <c r="I2256" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2256" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2257" s="3" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B2257" s="10">
+        <v>22.695553</v>
+      </c>
+      <c r="C2257" s="10">
+        <v>-79.439069000000003</v>
+      </c>
+      <c r="D2257" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2257" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2257" s="3" t="s">
+        <v>5105</v>
+      </c>
+      <c r="G2257" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2257" s="3" t="s">
+        <v>5103</v>
+      </c>
+      <c r="I2257" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2257" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2258" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B2258" s="10">
+        <v>20.232672000000001</v>
+      </c>
+      <c r="C2258" s="10">
+        <v>-74.811965999999998</v>
+      </c>
+      <c r="D2258" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E2258" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2258" t="s">
+        <v>5107</v>
+      </c>
+      <c r="G2258" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2258" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2258" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2258" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2259" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B2259" s="10">
+        <v>20.339410000000001</v>
+      </c>
+      <c r="C2259" s="10">
+        <v>-74.480624000000006</v>
+      </c>
+      <c r="D2259" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2259" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2259" t="s">
+        <v>5109</v>
+      </c>
+      <c r="G2259" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2259" t="s">
+        <v>5106</v>
+      </c>
+      <c r="I2259" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2259" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2260" s="4"/>
+    </row>
+    <row r="2261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2261" s="4"/>
+    </row>
+    <row r="2263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2263" s="4"/>
+    </row>
+    <row r="2265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2265" s="4"/>
+    </row>
+    <row r="2266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2266" s="4"/>
+    </row>
+    <row r="2267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2267" s="4"/>
+    </row>
+    <row r="2268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2268" s="4"/>
+    </row>
+    <row r="2269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2269" s="4"/>
+    </row>
+    <row r="2270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2270" s="4"/>
+    </row>
+    <row r="2271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2271" s="4"/>
+    </row>
+    <row r="2272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2272" s="4"/>
+    </row>
+    <row r="2273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2273" s="4"/>
+    </row>
+    <row r="2274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2274" s="4"/>
+    </row>
+    <row r="2275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2275" s="4"/>
+    </row>
+    <row r="2276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2276" s="4"/>
+    </row>
+    <row r="2277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2277" s="4"/>
+    </row>
+    <row r="2278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2278" s="4"/>
+    </row>
+    <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2279" s="4"/>
+    </row>
+    <row r="2280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2280" s="4"/>
+    </row>
+    <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2281" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J2239" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J2259" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2209">
       <sortCondition ref="H2:H2209"/>
       <sortCondition ref="A2:A2209"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2190:A2229">
-    <sortCondition ref="A2190:A2229"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2256:A2278">
+    <sortCondition ref="A2256:A2278"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA20D8C4-E9FA-4331-BDF3-249F2D9D7167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC63C111-1716-4533-9DA2-A90C5E5FF8A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17430" yWindow="885" windowWidth="20370" windowHeight="18525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="0" windowWidth="22770" windowHeight="20655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$2305</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$2308</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18452" uniqueCount="5213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18476" uniqueCount="5219">
   <si>
     <t>Latitude</t>
   </si>
@@ -15675,6 +15675,24 @@
   </si>
   <si>
     <t>Nha Trang Bay</t>
+  </si>
+  <si>
+    <t>Shirazi</t>
+  </si>
+  <si>
+    <t>Shirazi, Kwale County, Kenya</t>
+  </si>
+  <si>
+    <t>Transkei</t>
+  </si>
+  <si>
+    <t>Transkei District, Eastern Cape, South Africa</t>
+  </si>
+  <si>
+    <t>Mbazwa</t>
+  </si>
+  <si>
+    <t>Mbazwa, Mngazana, Eastern Cape, South Africa</t>
   </si>
 </sst>
 </file>
@@ -16146,11 +16164,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2306"/>
+  <dimension ref="A1:K2308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2205" sqref="A2205"/>
+      <pane ySplit="1" topLeftCell="A2260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2310" sqref="A2310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76187,7 +76205,7 @@
         <v>27.639140000000001</v>
       </c>
       <c r="D1868" t="s">
-        <v>6</v>
+        <v>1897</v>
       </c>
       <c r="E1868" t="s">
         <v>6</v>
@@ -90241,10 +90259,103 @@
       </c>
     </row>
     <row r="2306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2306" s="10"/>
+      <c r="A2306" s="3" t="s">
+        <v>5214</v>
+      </c>
+      <c r="B2306" s="10">
+        <v>-4.5323989999999998</v>
+      </c>
+      <c r="C2306" s="10">
+        <v>39.430483000000002</v>
+      </c>
+      <c r="D2306" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2306" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2306" s="3" t="s">
+        <v>5213</v>
+      </c>
+      <c r="G2306" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2306" s="3" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I2306" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2306" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2307" t="s">
+        <v>5216</v>
+      </c>
+      <c r="B2307" s="10">
+        <v>-31.586182000000001</v>
+      </c>
+      <c r="C2307" s="10">
+        <v>29.616395000000001</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2307" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2307" s="3" t="s">
+        <v>5215</v>
+      </c>
+      <c r="G2307" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2307" t="s">
+        <v>2978</v>
+      </c>
+      <c r="I2307" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2307" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2308" t="s">
+        <v>5218</v>
+      </c>
+      <c r="B2308" s="10">
+        <v>-31.690113</v>
+      </c>
+      <c r="C2308" s="10">
+        <v>29.420805000000001</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2308" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2308" t="s">
+        <v>5217</v>
+      </c>
+      <c r="G2308" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2308" t="s">
+        <v>4017</v>
+      </c>
+      <c r="I2308" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2308" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J2305" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J2308" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2208">
       <sortCondition ref="H2:H2208"/>
       <sortCondition ref="A2:A2208"/>

--- a/data/location_data.xlsx
+++ b/data/location_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14198794-E4CD-4842-A2FC-3F599946279B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D515AC90-D8F3-4B66-83F5-A9030F353075}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1320" windowWidth="24165" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19845" yWindow="345" windowWidth="18225" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$2325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location_data!$A$1:$J$2329</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18612" uniqueCount="5256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18644" uniqueCount="5269">
   <si>
     <t>Latitude</t>
   </si>
@@ -15804,6 +15804,45 @@
   </si>
   <si>
     <t>Tamsui River Mangrove Nature Reserve, Tamsui, New Taipei City, Taiwan</t>
+  </si>
+  <si>
+    <t>Batang Lupar, Sarawak, Borneo, Malaysia</t>
+  </si>
+  <si>
+    <t>Batang Lupar</t>
+  </si>
+  <si>
+    <t>Yaeyama Islands, Okinawa Prefecture, Japan</t>
+  </si>
+  <si>
+    <t>Yaeyama Islands</t>
+  </si>
+  <si>
+    <t>八重山列島</t>
+  </si>
+  <si>
+    <t>Miyako Islands, Okinawa Prefecture, Japan</t>
+  </si>
+  <si>
+    <t>Miyako Islands</t>
+  </si>
+  <si>
+    <t>宮古列島</t>
+  </si>
+  <si>
+    <t>Madjicosemah Islands</t>
+  </si>
+  <si>
+    <t>Madjicosemah Islands, Japan</t>
+  </si>
+  <si>
+    <t>Madjicosemah Islands, Okinawa Prefecture, Japan</t>
+  </si>
+  <si>
+    <t>Mëia-co-shimah</t>
+  </si>
+  <si>
+    <t>An old colonial (?) name for the Yaeyama and Miyako Island groups</t>
   </si>
 </sst>
 </file>
@@ -16278,8 +16317,8 @@
   <dimension ref="A1:K2337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2325" sqref="G2325"/>
+      <pane ySplit="1" topLeftCell="A809" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A831" sqref="A831"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62294,8 +62333,8 @@
       <c r="H1431" s="4" t="s">
         <v>4941</v>
       </c>
-      <c r="I1431" t="s">
-        <v>6</v>
+      <c r="I1431" s="19" t="s">
+        <v>5258</v>
       </c>
       <c r="J1431" s="3" t="s">
         <v>6</v>
@@ -62326,8 +62365,8 @@
       <c r="H1432" s="4" t="s">
         <v>4941</v>
       </c>
-      <c r="I1432" t="s">
-        <v>6</v>
+      <c r="I1432" s="19" t="s">
+        <v>5258</v>
       </c>
       <c r="J1432" s="3" t="s">
         <v>6</v>
@@ -62358,8 +62397,8 @@
       <c r="H1433" t="s">
         <v>4941</v>
       </c>
-      <c r="I1433" t="s">
-        <v>6</v>
+      <c r="I1433" s="19" t="s">
+        <v>5261</v>
       </c>
       <c r="J1433" s="3" t="s">
         <v>6</v>
@@ -62390,8 +62429,8 @@
       <c r="H1434" s="4" t="s">
         <v>4941</v>
       </c>
-      <c r="I1434" t="s">
-        <v>6</v>
+      <c r="I1434" s="19" t="s">
+        <v>5261</v>
       </c>
       <c r="J1434" t="s">
         <v>6</v>
@@ -91023,6 +91062,138 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2326" t="s">
+        <v>5256</v>
+      </c>
+      <c r="B2326" s="10">
+        <v>1.5130950000000001</v>
+      </c>
+      <c r="C2326" s="10">
+        <v>110.996359</v>
+      </c>
+      <c r="D2326" t="s">
+        <v>5203</v>
+      </c>
+      <c r="E2326" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2326" s="3" t="s">
+        <v>5257</v>
+      </c>
+      <c r="G2326" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2326" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2326" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2326" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2327" s="19" t="s">
+        <v>5258</v>
+      </c>
+      <c r="B2327" s="10">
+        <f>24+21/60+47/3600</f>
+        <v>24.363055555555558</v>
+      </c>
+      <c r="C2327" s="10">
+        <f>123+44/60+47/3600</f>
+        <v>123.74638888888889</v>
+      </c>
+      <c r="D2327" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2327" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2327" s="3" t="s">
+        <v>5259</v>
+      </c>
+      <c r="G2327" s="3" t="s">
+        <v>5260</v>
+      </c>
+      <c r="H2327" s="4" t="s">
+        <v>4941</v>
+      </c>
+      <c r="I2327" t="s">
+        <v>5265</v>
+      </c>
+      <c r="J2327" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2328" s="19" t="s">
+        <v>5261</v>
+      </c>
+      <c r="B2328" s="10">
+        <f>24+43/60</f>
+        <v>24.716666666666665</v>
+      </c>
+      <c r="C2328" s="10">
+        <f>125+1/60</f>
+        <v>125.01666666666667</v>
+      </c>
+      <c r="D2328" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2328" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2328" s="3" t="s">
+        <v>5262</v>
+      </c>
+      <c r="G2328" s="3" t="s">
+        <v>5263</v>
+      </c>
+      <c r="H2328" s="4" t="s">
+        <v>4941</v>
+      </c>
+      <c r="I2328" t="s">
+        <v>5265</v>
+      </c>
+      <c r="J2328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2329" s="19" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B2329" s="10">
+        <v>24.608540000000001</v>
+      </c>
+      <c r="C2329" s="10">
+        <v>124.598753</v>
+      </c>
+      <c r="D2329" t="s">
+        <v>5268</v>
+      </c>
+      <c r="E2329" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2329" s="19" t="s">
+        <v>5264</v>
+      </c>
+      <c r="G2329" s="3" t="s">
+        <v>5267</v>
+      </c>
+      <c r="H2329" s="4" t="s">
+        <v>4941</v>
+      </c>
+      <c r="I2329" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2329" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2332" s="24"/>
     </row>
@@ -91030,7 +91201,7 @@
       <c r="A2337" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J2325" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J2329" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2208">
       <sortCondition ref="H2:H2208"/>
       <sortCondition ref="A2:A2208"/>
